--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -17202,6 +17202,21 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17226,70 +17241,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -17628,6 +17584,50 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -17757,34 +17757,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I2238" tableType="xml" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I2238" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I2238"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="24">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="23">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="22">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="21">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="20">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="19">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="18">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="17">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="16">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -17793,12 +17793,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="10"/>
-    <tableColumn id="2" name="Test" dataDxfId="9"/>
-    <tableColumn id="3" name="Description" dataDxfId="8"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18094,9 +18094,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2219" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2224" sqref="H2224"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -18150,127 +18148,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18283,12 +18281,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18301,12 +18299,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18319,12 +18317,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18337,60 +18335,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -67229,10 +67227,10 @@
         <v>6</v>
       </c>
       <c r="G1961" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1961" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1961" s="32"/>
     </row>
@@ -67257,7 +67255,7 @@
         <v>15</v>
       </c>
       <c r="H1962" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1962" s="32"/>
     </row>
@@ -74869,11 +74867,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -74881,35 +74874,40 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
-    <cfRule type="expression" dxfId="7" priority="53">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
+    <cfRule type="expression" dxfId="25" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="61">
+    <cfRule type="expression" dxfId="24" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F2238">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -74947,9 +74945,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -75002,24 +75003,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75040,9 +75032,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -17202,21 +17202,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17240,6 +17225,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18094,7 +18094,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1955" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1962" sqref="A1962"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -18148,127 +18150,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18281,12 +18283,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18299,12 +18301,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18317,12 +18319,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18335,60 +18337,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -67230,7 +67232,7 @@
         <v>15</v>
       </c>
       <c r="H1961" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1961" s="32"/>
     </row>
@@ -67255,7 +67257,7 @@
         <v>15</v>
       </c>
       <c r="H1962" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1962" s="32"/>
     </row>
@@ -74867,6 +74869,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -74874,11 +74881,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
@@ -74945,12 +74947,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -75003,15 +75002,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75032,15 +75040,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17301"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$2237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$2238</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16052" uniqueCount="4894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16061" uniqueCount="4898">
   <si>
     <t>Req ID</t>
   </si>
@@ -16546,12 +16546,6 @@
  &lt;/s:element&gt;</t>
   </si>
   <si>
-    <t>Implementation does return Ture to the client, when the client attempts to open files asynchronously from the server.&lt;8&gt;Section 2.2.4.11:  This attribute is returned by SharePoint Foundation 2013.</t>
-  </si>
-  <si>
-    <t>Implementation does not return Ture to the client, when the client attempts to open files asynchronously from the server. (SharePoint Foundation 2010 and SharePoint Server 2016 follow this behavior.)</t>
-  </si>
-  <si>
     <t>Verified by derived requirements: MS-LISTSWS_R1401002001, MS-LISTSWS_R1401002002.</t>
   </si>
   <si>
@@ -16925,17 +16919,35 @@
   </si>
   <si>
     <t>Verified by derived requirements: MS-LISTSWS_R2770.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-LISTSWS_R742001001.</t>
+  </si>
+  <si>
+    <t>MS-LISTSWS_R976:I, MS-LISTSWS_R976001001</t>
+  </si>
+  <si>
+    <t>MS-LISTSWS_R976001001</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not return the filed when the filed  referenced in a FieldRef element of viewFields has no value filled.</t>
+  </si>
+  <si>
+    <t>Implementation does not return to the client, when the client attempts to open files asynchronously from the server. (SharePoint Foundation 2010 follows this behavior.)</t>
+  </si>
+  <si>
+    <t>Implementation does return to the client, when the client attempts to open files asynchronously from the server.&lt;8&gt;Section 2.2.4.11:  This attribute is returned by SharePoint Foundation 2013. (SharePoint Foundation 2013 and SharePoint Server 2016 follow this behavior.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16980,6 +16992,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -17127,7 +17144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -17197,21 +17214,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17236,11 +17238,183 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -17579,50 +17753,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -17752,34 +17882,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I2237" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I2237"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I2238" tableType="xml" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" connectionId="1">
+  <autoFilter ref="A19:I2238"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="44">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="43">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="42">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="41">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="40">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="39">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="38">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="37">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="36">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -17788,12 +17918,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="30"/>
+    <tableColumn id="2" name="Test" dataDxfId="29"/>
+    <tableColumn id="3" name="Description" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17842,7 +17972,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17875,26 +18005,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17927,23 +18040,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -18121,21 +18217,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L2239"/>
+  <dimension ref="A1:L2240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2027" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2031" sqref="C2031"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
@@ -18177,127 +18275,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18310,12 +18408,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18328,12 +18426,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18346,12 +18444,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18364,60 +18462,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -18528,7 +18626,7 @@
       </c>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="45">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="60">
       <c r="A23" s="22" t="s">
         <v>46</v>
       </c>
@@ -18553,7 +18651,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A24" s="22" t="s">
         <v>47</v>
       </c>
@@ -18653,7 +18751,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
@@ -19153,7 +19251,7 @@
       </c>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" ht="30">
       <c r="A48" s="30" t="s">
         <v>71</v>
       </c>
@@ -19253,7 +19351,7 @@
       </c>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="30">
       <c r="A52" s="30" t="s">
         <v>75</v>
       </c>
@@ -19303,7 +19401,7 @@
       </c>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="30" t="s">
         <v>77</v>
       </c>
@@ -19378,7 +19476,7 @@
       </c>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="30" t="s">
         <v>80</v>
       </c>
@@ -19403,7 +19501,7 @@
       </c>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="30" t="s">
         <v>81</v>
       </c>
@@ -19503,7 +19601,7 @@
       </c>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="30" t="s">
         <v>85</v>
       </c>
@@ -19553,7 +19651,7 @@
       </c>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" ht="30">
       <c r="A64" s="30" t="s">
         <v>87</v>
       </c>
@@ -19603,7 +19701,7 @@
       </c>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="30" t="s">
         <v>89</v>
       </c>
@@ -19678,7 +19776,7 @@
       </c>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" spans="1:9" ht="75">
+    <row r="69" spans="1:9" ht="90">
       <c r="A69" s="30" t="s">
         <v>92</v>
       </c>
@@ -19703,7 +19801,7 @@
       </c>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" spans="1:9" ht="75">
+    <row r="70" spans="1:9" ht="90">
       <c r="A70" s="30" t="s">
         <v>93</v>
       </c>
@@ -19728,7 +19826,7 @@
       </c>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" spans="1:9" ht="45">
+    <row r="71" spans="1:9" ht="60">
       <c r="A71" s="30" t="s">
         <v>94</v>
       </c>
@@ -19753,7 +19851,7 @@
       </c>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" spans="1:9" ht="45">
+    <row r="72" spans="1:9" ht="60">
       <c r="A72" s="30" t="s">
         <v>95</v>
       </c>
@@ -19853,7 +19951,7 @@
       </c>
       <c r="I75" s="32"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" ht="30">
       <c r="A76" s="30" t="s">
         <v>99</v>
       </c>
@@ -19878,7 +19976,7 @@
       </c>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="30" t="s">
         <v>100</v>
       </c>
@@ -19903,7 +20001,7 @@
       </c>
       <c r="I77" s="32"/>
     </row>
-    <row r="78" spans="1:9" ht="270">
+    <row r="78" spans="1:9" ht="285">
       <c r="A78" s="30" t="s">
         <v>101</v>
       </c>
@@ -20353,7 +20451,7 @@
       </c>
       <c r="I95" s="32"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" ht="30">
       <c r="A96" s="30" t="s">
         <v>119</v>
       </c>
@@ -20478,7 +20576,7 @@
       </c>
       <c r="I100" s="32"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="30" t="s">
         <v>124</v>
       </c>
@@ -20528,7 +20626,7 @@
       </c>
       <c r="I102" s="32"/>
     </row>
-    <row r="103" spans="1:9" ht="30">
+    <row r="103" spans="1:9" ht="45">
       <c r="A103" s="30" t="s">
         <v>126</v>
       </c>
@@ -20728,7 +20826,7 @@
       </c>
       <c r="I110" s="32"/>
     </row>
-    <row r="111" spans="1:9" ht="30">
+    <row r="111" spans="1:9" ht="45">
       <c r="A111" s="30" t="s">
         <v>134</v>
       </c>
@@ -20828,7 +20926,7 @@
       </c>
       <c r="I114" s="32"/>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="45">
       <c r="A115" s="30" t="s">
         <v>138</v>
       </c>
@@ -20928,7 +21026,7 @@
       </c>
       <c r="I118" s="32"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:9" ht="45">
       <c r="A119" s="30" t="s">
         <v>142</v>
       </c>
@@ -21078,7 +21176,7 @@
       </c>
       <c r="I124" s="32"/>
     </row>
-    <row r="125" spans="1:9" ht="45">
+    <row r="125" spans="1:9" ht="60">
       <c r="A125" s="30" t="s">
         <v>148</v>
       </c>
@@ -21178,7 +21276,7 @@
       </c>
       <c r="I128" s="32"/>
     </row>
-    <row r="129" spans="1:9" ht="45">
+    <row r="129" spans="1:9" ht="60">
       <c r="A129" s="30" t="s">
         <v>152</v>
       </c>
@@ -21253,7 +21351,7 @@
       </c>
       <c r="I131" s="32"/>
     </row>
-    <row r="132" spans="1:9" ht="45">
+    <row r="132" spans="1:9" ht="60">
       <c r="A132" s="30" t="s">
         <v>155</v>
       </c>
@@ -21353,7 +21451,7 @@
       </c>
       <c r="I135" s="32"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9" ht="45">
       <c r="A136" s="30" t="s">
         <v>159</v>
       </c>
@@ -21378,7 +21476,7 @@
       </c>
       <c r="I136" s="32"/>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" ht="30">
       <c r="A137" s="30" t="s">
         <v>160</v>
       </c>
@@ -21428,7 +21526,7 @@
       </c>
       <c r="I138" s="32"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="30" t="s">
         <v>162</v>
       </c>
@@ -21453,7 +21551,7 @@
       </c>
       <c r="I139" s="32"/>
     </row>
-    <row r="140" spans="1:9" ht="30">
+    <row r="140" spans="1:9" ht="45">
       <c r="A140" s="30" t="s">
         <v>163</v>
       </c>
@@ -21628,7 +21726,7 @@
       </c>
       <c r="I146" s="32"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="30" t="s">
         <v>170</v>
       </c>
@@ -21728,7 +21826,7 @@
       </c>
       <c r="I150" s="32"/>
     </row>
-    <row r="151" spans="1:9" ht="30">
+    <row r="151" spans="1:9" ht="45">
       <c r="A151" s="30" t="s">
         <v>174</v>
       </c>
@@ -21755,7 +21853,7 @@
         <v>4473</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" ht="30">
       <c r="A152" s="30" t="s">
         <v>175</v>
       </c>
@@ -21882,7 +21980,7 @@
       </c>
       <c r="I156" s="32"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" s="30" t="s">
         <v>180</v>
       </c>
@@ -21982,7 +22080,7 @@
       </c>
       <c r="I160" s="32"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" ht="30">
       <c r="A161" s="30" t="s">
         <v>184</v>
       </c>
@@ -22082,7 +22180,7 @@
       </c>
       <c r="I164" s="32"/>
     </row>
-    <row r="165" spans="1:9" ht="105">
+    <row r="165" spans="1:9" ht="120">
       <c r="A165" s="30" t="s">
         <v>188</v>
       </c>
@@ -22157,7 +22255,7 @@
       </c>
       <c r="I167" s="32"/>
     </row>
-    <row r="168" spans="1:9" ht="45">
+    <row r="168" spans="1:9" ht="60">
       <c r="A168" s="30" t="s">
         <v>191</v>
       </c>
@@ -22284,7 +22382,7 @@
       </c>
       <c r="I172" s="32"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" ht="30">
       <c r="A173" s="30" t="s">
         <v>196</v>
       </c>
@@ -22334,7 +22432,7 @@
       </c>
       <c r="I174" s="32"/>
     </row>
-    <row r="175" spans="1:9" ht="75">
+    <row r="175" spans="1:9" ht="90">
       <c r="A175" s="30" t="s">
         <v>198</v>
       </c>
@@ -22409,7 +22507,7 @@
       </c>
       <c r="I177" s="32"/>
     </row>
-    <row r="178" spans="1:9" ht="30">
+    <row r="178" spans="1:9" ht="45">
       <c r="A178" s="30" t="s">
         <v>201</v>
       </c>
@@ -22459,7 +22557,7 @@
       </c>
       <c r="I179" s="32"/>
     </row>
-    <row r="180" spans="1:9" ht="270">
+    <row r="180" spans="1:9" ht="285">
       <c r="A180" s="30" t="s">
         <v>203</v>
       </c>
@@ -22709,7 +22807,7 @@
       </c>
       <c r="I189" s="32"/>
     </row>
-    <row r="190" spans="1:9" ht="195">
+    <row r="190" spans="1:9" ht="225">
       <c r="A190" s="30" t="s">
         <v>213</v>
       </c>
@@ -22859,7 +22957,7 @@
       </c>
       <c r="I195" s="32"/>
     </row>
-    <row r="196" spans="1:9" ht="90">
+    <row r="196" spans="1:9" ht="105">
       <c r="A196" s="30" t="s">
         <v>219</v>
       </c>
@@ -22934,7 +23032,7 @@
       </c>
       <c r="I198" s="32"/>
     </row>
-    <row r="199" spans="1:9" ht="60">
+    <row r="199" spans="1:9" ht="75">
       <c r="A199" s="30" t="s">
         <v>222</v>
       </c>
@@ -22959,7 +23057,7 @@
       </c>
       <c r="I199" s="32"/>
     </row>
-    <row r="200" spans="1:9" ht="45">
+    <row r="200" spans="1:9" ht="60">
       <c r="A200" s="30" t="s">
         <v>223</v>
       </c>
@@ -22984,7 +23082,7 @@
       </c>
       <c r="I200" s="32"/>
     </row>
-    <row r="201" spans="1:9" ht="120">
+    <row r="201" spans="1:9" ht="135">
       <c r="A201" s="30" t="s">
         <v>224</v>
       </c>
@@ -23009,7 +23107,7 @@
       </c>
       <c r="I201" s="32"/>
     </row>
-    <row r="202" spans="1:9" ht="60">
+    <row r="202" spans="1:9" ht="75">
       <c r="A202" s="30" t="s">
         <v>225</v>
       </c>
@@ -23134,7 +23232,7 @@
       </c>
       <c r="I206" s="32"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="30" t="s">
         <v>230</v>
       </c>
@@ -23284,7 +23382,7 @@
       </c>
       <c r="I212" s="32"/>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" ht="30">
       <c r="A213" s="30" t="s">
         <v>236</v>
       </c>
@@ -23384,7 +23482,7 @@
       </c>
       <c r="I216" s="32"/>
     </row>
-    <row r="217" spans="1:9" ht="150">
+    <row r="217" spans="1:9" ht="165">
       <c r="A217" s="30" t="s">
         <v>239</v>
       </c>
@@ -23409,7 +23507,7 @@
       </c>
       <c r="I217" s="32"/>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" ht="30">
       <c r="A218" s="30" t="s">
         <v>240</v>
       </c>
@@ -23434,7 +23532,7 @@
       </c>
       <c r="I218" s="32"/>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" ht="30">
       <c r="A219" s="30" t="s">
         <v>241</v>
       </c>
@@ -23459,7 +23557,7 @@
       </c>
       <c r="I219" s="32"/>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="30" t="s">
         <v>242</v>
       </c>
@@ -23534,7 +23632,7 @@
       </c>
       <c r="I222" s="32"/>
     </row>
-    <row r="223" spans="1:9" ht="60">
+    <row r="223" spans="1:9" ht="75">
       <c r="A223" s="30" t="s">
         <v>245</v>
       </c>
@@ -23559,7 +23657,7 @@
       </c>
       <c r="I223" s="32"/>
     </row>
-    <row r="224" spans="1:9" ht="60">
+    <row r="224" spans="1:9" ht="75">
       <c r="A224" s="30" t="s">
         <v>246</v>
       </c>
@@ -23584,7 +23682,7 @@
       </c>
       <c r="I224" s="32"/>
     </row>
-    <row r="225" spans="1:9" ht="60">
+    <row r="225" spans="1:9" ht="75">
       <c r="A225" s="30" t="s">
         <v>247</v>
       </c>
@@ -23634,7 +23732,7 @@
       </c>
       <c r="I226" s="32"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" ht="30">
       <c r="A227" s="30" t="s">
         <v>249</v>
       </c>
@@ -23759,7 +23857,7 @@
       </c>
       <c r="I231" s="32"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" ht="30">
       <c r="A232" s="30" t="s">
         <v>254</v>
       </c>
@@ -23809,7 +23907,7 @@
       </c>
       <c r="I233" s="32"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" ht="30">
       <c r="A234" s="30" t="s">
         <v>256</v>
       </c>
@@ -23834,7 +23932,7 @@
       </c>
       <c r="I234" s="32"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" ht="30">
       <c r="A235" s="30" t="s">
         <v>257</v>
       </c>
@@ -23884,7 +23982,7 @@
       </c>
       <c r="I236" s="32"/>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" ht="30">
       <c r="A237" s="30" t="s">
         <v>259</v>
       </c>
@@ -23909,7 +24007,7 @@
       </c>
       <c r="I237" s="32"/>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" ht="30">
       <c r="A238" s="30" t="s">
         <v>260</v>
       </c>
@@ -23959,7 +24057,7 @@
       </c>
       <c r="I239" s="32"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" ht="30">
       <c r="A240" s="30" t="s">
         <v>262</v>
       </c>
@@ -24434,7 +24532,7 @@
       </c>
       <c r="I258" s="32"/>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="30" t="s">
         <v>281</v>
       </c>
@@ -24759,7 +24857,7 @@
       </c>
       <c r="I271" s="32"/>
     </row>
-    <row r="272" spans="1:9" ht="30">
+    <row r="272" spans="1:9" ht="45">
       <c r="A272" s="30" t="s">
         <v>294</v>
       </c>
@@ -24884,7 +24982,7 @@
       </c>
       <c r="I276" s="32"/>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" ht="30">
       <c r="A277" s="30" t="s">
         <v>299</v>
       </c>
@@ -24934,7 +25032,7 @@
       </c>
       <c r="I278" s="32"/>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" ht="30">
       <c r="A279" s="30" t="s">
         <v>4583</v>
       </c>
@@ -24960,13 +25058,13 @@
       <c r="I279" s="32"/>
     </row>
     <row r="280" spans="1:9" ht="30">
-      <c r="A280" s="30" t="s">
+      <c r="A280" s="22" t="s">
         <v>4584</v>
       </c>
       <c r="B280" s="31" t="s">
         <v>2254</v>
       </c>
-      <c r="C280" s="32" t="s">
+      <c r="C280" s="20" t="s">
         <v>4582</v>
       </c>
       <c r="D280" s="30"/>
@@ -25034,7 +25132,7 @@
       </c>
       <c r="I282" s="32"/>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="30" t="s">
         <v>303</v>
       </c>
@@ -25084,7 +25182,7 @@
       </c>
       <c r="I284" s="32"/>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" ht="30">
       <c r="A285" s="30" t="s">
         <v>305</v>
       </c>
@@ -25109,7 +25207,7 @@
       </c>
       <c r="I285" s="32"/>
     </row>
-    <row r="286" spans="1:9" ht="30">
+    <row r="286" spans="1:9" ht="45">
       <c r="A286" s="30" t="s">
         <v>306</v>
       </c>
@@ -25211,7 +25309,7 @@
       </c>
       <c r="I289" s="32"/>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="30" t="s">
         <v>310</v>
       </c>
@@ -25236,7 +25334,7 @@
       </c>
       <c r="I290" s="32"/>
     </row>
-    <row r="291" spans="1:9" ht="30">
+    <row r="291" spans="1:9" ht="45">
       <c r="A291" s="30" t="s">
         <v>311</v>
       </c>
@@ -25263,7 +25361,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="30">
+    <row r="292" spans="1:9" ht="45">
       <c r="A292" s="30" t="s">
         <v>312</v>
       </c>
@@ -25290,7 +25388,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" ht="30">
       <c r="A293" s="30" t="s">
         <v>313</v>
       </c>
@@ -25340,7 +25438,7 @@
       </c>
       <c r="I294" s="32"/>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="30" t="s">
         <v>315</v>
       </c>
@@ -25365,7 +25463,7 @@
       </c>
       <c r="I295" s="32"/>
     </row>
-    <row r="296" spans="1:9" ht="30">
+    <row r="296" spans="1:9" ht="45">
       <c r="A296" s="30" t="s">
         <v>316</v>
       </c>
@@ -25417,14 +25515,14 @@
       </c>
       <c r="I297" s="32"/>
     </row>
-    <row r="298" spans="1:9" ht="45">
+    <row r="298" spans="1:9" ht="60">
       <c r="A298" s="30" t="s">
         <v>4588</v>
       </c>
       <c r="B298" s="31" t="s">
         <v>2254</v>
       </c>
-      <c r="C298" s="32" t="s">
+      <c r="C298" s="20" t="s">
         <v>4586</v>
       </c>
       <c r="D298" s="30"/>
@@ -25441,10 +25539,10 @@
         <v>17</v>
       </c>
       <c r="I298" s="32" t="s">
-        <v>4769</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" ht="45">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="60">
       <c r="A299" s="30" t="s">
         <v>317</v>
       </c>
@@ -25471,7 +25569,7 @@
         <v>4478</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="30">
+    <row r="300" spans="1:9" ht="45">
       <c r="A300" s="30" t="s">
         <v>318</v>
       </c>
@@ -25498,7 +25596,7 @@
         <v>4479</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="30">
+    <row r="301" spans="1:9" ht="45">
       <c r="A301" s="30" t="s">
         <v>319</v>
       </c>
@@ -25525,7 +25623,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="30">
+    <row r="302" spans="1:9" ht="45">
       <c r="A302" s="30" t="s">
         <v>320</v>
       </c>
@@ -25552,7 +25650,7 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="30">
+    <row r="303" spans="1:9" ht="45">
       <c r="A303" s="30" t="s">
         <v>321</v>
       </c>
@@ -25579,7 +25677,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="30">
+    <row r="304" spans="1:9" ht="45">
       <c r="A304" s="30" t="s">
         <v>322</v>
       </c>
@@ -25606,7 +25704,7 @@
         <v>4483</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="30">
+    <row r="305" spans="1:9" ht="45">
       <c r="A305" s="30" t="s">
         <v>323</v>
       </c>
@@ -25631,7 +25729,7 @@
       </c>
       <c r="I305" s="32"/>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" ht="30">
       <c r="A306" s="30" t="s">
         <v>324</v>
       </c>
@@ -25656,7 +25754,7 @@
       </c>
       <c r="I306" s="32"/>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" ht="30">
       <c r="A307" s="30" t="s">
         <v>325</v>
       </c>
@@ -25683,7 +25781,7 @@
       </c>
       <c r="I307" s="32"/>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" ht="30">
       <c r="A308" s="30" t="s">
         <v>326</v>
       </c>
@@ -25710,7 +25808,7 @@
       </c>
       <c r="I308" s="32"/>
     </row>
-    <row r="309" spans="1:9" ht="30">
+    <row r="309" spans="1:9" ht="45">
       <c r="A309" s="30" t="s">
         <v>327</v>
       </c>
@@ -25737,7 +25835,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="30">
+    <row r="310" spans="1:9" ht="45">
       <c r="A310" s="30" t="s">
         <v>328</v>
       </c>
@@ -25764,7 +25862,7 @@
         <v>4485</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="30">
+    <row r="311" spans="1:9" ht="45">
       <c r="A311" s="30" t="s">
         <v>329</v>
       </c>
@@ -25889,7 +25987,7 @@
       </c>
       <c r="I315" s="32"/>
     </row>
-    <row r="316" spans="1:9" ht="45">
+    <row r="316" spans="1:9" ht="60">
       <c r="A316" s="30" t="s">
         <v>334</v>
       </c>
@@ -25916,7 +26014,7 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" ht="30">
       <c r="A317" s="30" t="s">
         <v>335</v>
       </c>
@@ -25941,7 +26039,7 @@
       </c>
       <c r="I317" s="32"/>
     </row>
-    <row r="318" spans="1:9" ht="45">
+    <row r="318" spans="1:9" ht="60">
       <c r="A318" s="30" t="s">
         <v>336</v>
       </c>
@@ -25968,7 +26066,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" ht="30">
       <c r="A319" s="30" t="s">
         <v>337</v>
       </c>
@@ -26043,7 +26141,7 @@
       </c>
       <c r="I321" s="32"/>
     </row>
-    <row r="322" spans="1:9" ht="30">
+    <row r="322" spans="1:9" ht="45">
       <c r="A322" s="30" t="s">
         <v>340</v>
       </c>
@@ -26070,7 +26168,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9" ht="45">
       <c r="A323" s="30" t="s">
         <v>341</v>
       </c>
@@ -26095,7 +26193,7 @@
       </c>
       <c r="I323" s="32"/>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" ht="30">
       <c r="A324" s="30" t="s">
         <v>342</v>
       </c>
@@ -26120,7 +26218,7 @@
       </c>
       <c r="I324" s="32"/>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" ht="30">
       <c r="A325" s="30" t="s">
         <v>343</v>
       </c>
@@ -26320,7 +26418,7 @@
       </c>
       <c r="I332" s="32"/>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" ht="30">
       <c r="A333" s="30" t="s">
         <v>351</v>
       </c>
@@ -26595,7 +26693,7 @@
       </c>
       <c r="I343" s="32"/>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" ht="30">
       <c r="A344" s="30" t="s">
         <v>362</v>
       </c>
@@ -26720,7 +26818,7 @@
       </c>
       <c r="I348" s="32"/>
     </row>
-    <row r="349" spans="1:9" ht="30">
+    <row r="349" spans="1:9" ht="45">
       <c r="A349" s="30" t="s">
         <v>367</v>
       </c>
@@ -26772,7 +26870,7 @@
       </c>
       <c r="I350" s="32"/>
     </row>
-    <row r="351" spans="1:9" ht="30">
+    <row r="351" spans="1:9" ht="45">
       <c r="A351" s="30" t="s">
         <v>369</v>
       </c>
@@ -26849,7 +26947,7 @@
       </c>
       <c r="I353" s="32"/>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" ht="30">
       <c r="A354" s="30" t="s">
         <v>372</v>
       </c>
@@ -26874,7 +26972,7 @@
       </c>
       <c r="I354" s="32"/>
     </row>
-    <row r="355" spans="1:9" ht="210">
+    <row r="355" spans="1:9" ht="225">
       <c r="A355" s="30" t="s">
         <v>373</v>
       </c>
@@ -27024,7 +27122,7 @@
       </c>
       <c r="I360" s="32"/>
     </row>
-    <row r="361" spans="1:9" ht="30">
+    <row r="361" spans="1:9" ht="45">
       <c r="A361" s="30" t="s">
         <v>379</v>
       </c>
@@ -27224,7 +27322,7 @@
       </c>
       <c r="I368" s="32"/>
     </row>
-    <row r="369" spans="1:9" ht="30">
+    <row r="369" spans="1:9" ht="45">
       <c r="A369" s="22" t="s">
         <v>387</v>
       </c>
@@ -27251,7 +27349,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="30">
+    <row r="370" spans="1:9" ht="45">
       <c r="A370" s="30" t="s">
         <v>388</v>
       </c>
@@ -27301,7 +27399,7 @@
       </c>
       <c r="I371" s="32"/>
     </row>
-    <row r="372" spans="1:9" ht="30">
+    <row r="372" spans="1:9" ht="60">
       <c r="A372" s="30" t="s">
         <v>390</v>
       </c>
@@ -27351,7 +27449,7 @@
       </c>
       <c r="I373" s="32"/>
     </row>
-    <row r="374" spans="1:9" ht="60">
+    <row r="374" spans="1:9" ht="75">
       <c r="A374" s="30" t="s">
         <v>392</v>
       </c>
@@ -27376,7 +27474,7 @@
       </c>
       <c r="I374" s="32"/>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" ht="30">
       <c r="A375" s="30" t="s">
         <v>393</v>
       </c>
@@ -27501,7 +27599,7 @@
       </c>
       <c r="I379" s="32"/>
     </row>
-    <row r="380" spans="1:9" ht="30">
+    <row r="380" spans="1:9" ht="45">
       <c r="A380" s="30" t="s">
         <v>398</v>
       </c>
@@ -27726,7 +27824,7 @@
       </c>
       <c r="I388" s="32"/>
     </row>
-    <row r="389" spans="1:9" ht="75">
+    <row r="389" spans="1:9" ht="90">
       <c r="A389" s="30" t="s">
         <v>407</v>
       </c>
@@ -27751,7 +27849,7 @@
       </c>
       <c r="I389" s="32"/>
     </row>
-    <row r="390" spans="1:9" ht="30">
+    <row r="390" spans="1:9" ht="45">
       <c r="A390" s="30" t="s">
         <v>408</v>
       </c>
@@ -27776,7 +27874,7 @@
       </c>
       <c r="I390" s="32"/>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" ht="30">
       <c r="A391" s="30" t="s">
         <v>409</v>
       </c>
@@ -27951,7 +28049,7 @@
       </c>
       <c r="I397" s="32"/>
     </row>
-    <row r="398" spans="1:9" ht="60">
+    <row r="398" spans="1:9" ht="75">
       <c r="A398" s="30" t="s">
         <v>416</v>
       </c>
@@ -28001,7 +28099,7 @@
       </c>
       <c r="I399" s="32"/>
     </row>
-    <row r="400" spans="1:9" ht="60">
+    <row r="400" spans="1:9" ht="75">
       <c r="A400" s="30" t="s">
         <v>418</v>
       </c>
@@ -28126,7 +28224,7 @@
       </c>
       <c r="I404" s="32"/>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" ht="30">
       <c r="A405" s="30" t="s">
         <v>423</v>
       </c>
@@ -28151,7 +28249,7 @@
       </c>
       <c r="I405" s="32"/>
     </row>
-    <row r="406" spans="1:9" ht="30">
+    <row r="406" spans="1:9" ht="45">
       <c r="A406" s="30" t="s">
         <v>424</v>
       </c>
@@ -28201,7 +28299,7 @@
       </c>
       <c r="I407" s="32"/>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" ht="30">
       <c r="A408" s="30" t="s">
         <v>426</v>
       </c>
@@ -28226,7 +28324,7 @@
       </c>
       <c r="I408" s="32"/>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" ht="30">
       <c r="A409" s="30" t="s">
         <v>427</v>
       </c>
@@ -28351,7 +28449,7 @@
       </c>
       <c r="I413" s="32"/>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" ht="30">
       <c r="A414" s="30" t="s">
         <v>432</v>
       </c>
@@ -28376,7 +28474,7 @@
       </c>
       <c r="I414" s="32"/>
     </row>
-    <row r="415" spans="1:9" ht="120">
+    <row r="415" spans="1:9" ht="135">
       <c r="A415" s="30" t="s">
         <v>433</v>
       </c>
@@ -28426,7 +28524,7 @@
       </c>
       <c r="I416" s="32"/>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" ht="30">
       <c r="A417" s="30" t="s">
         <v>435</v>
       </c>
@@ -28451,7 +28549,7 @@
       </c>
       <c r="I417" s="32"/>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" ht="30">
       <c r="A418" s="30" t="s">
         <v>436</v>
       </c>
@@ -28476,7 +28574,7 @@
       </c>
       <c r="I418" s="32"/>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" ht="30">
       <c r="A419" s="30" t="s">
         <v>437</v>
       </c>
@@ -28726,7 +28824,7 @@
       </c>
       <c r="I428" s="32"/>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" ht="30">
       <c r="A429" s="30" t="s">
         <v>447</v>
       </c>
@@ -28851,7 +28949,7 @@
       </c>
       <c r="I433" s="32"/>
     </row>
-    <row r="434" spans="1:9" ht="30">
+    <row r="434" spans="1:9" ht="45">
       <c r="A434" s="30" t="s">
         <v>452</v>
       </c>
@@ -28926,7 +29024,7 @@
       </c>
       <c r="I436" s="32"/>
     </row>
-    <row r="437" spans="1:9" ht="30">
+    <row r="437" spans="1:9" ht="45">
       <c r="A437" s="30" t="s">
         <v>455</v>
       </c>
@@ -28951,7 +29049,7 @@
       </c>
       <c r="I437" s="32"/>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" ht="30">
       <c r="A438" s="30" t="s">
         <v>456</v>
       </c>
@@ -29051,7 +29149,7 @@
       </c>
       <c r="I441" s="32"/>
     </row>
-    <row r="442" spans="1:9" ht="30">
+    <row r="442" spans="1:9" ht="45">
       <c r="A442" s="30" t="s">
         <v>460</v>
       </c>
@@ -29201,7 +29299,7 @@
       </c>
       <c r="I447" s="32"/>
     </row>
-    <row r="448" spans="1:9" ht="30">
+    <row r="448" spans="1:9" ht="45">
       <c r="A448" s="30" t="s">
         <v>466</v>
       </c>
@@ -29226,7 +29324,7 @@
       </c>
       <c r="I448" s="32"/>
     </row>
-    <row r="449" spans="1:9" ht="30">
+    <row r="449" spans="1:9" ht="45">
       <c r="A449" s="30" t="s">
         <v>467</v>
       </c>
@@ -29426,7 +29524,7 @@
       </c>
       <c r="I456" s="32"/>
     </row>
-    <row r="457" spans="1:9" ht="30">
+    <row r="457" spans="1:9" ht="45">
       <c r="A457" s="30" t="s">
         <v>475</v>
       </c>
@@ -29451,7 +29549,7 @@
       </c>
       <c r="I457" s="32"/>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" ht="30">
       <c r="A458" s="30" t="s">
         <v>476</v>
       </c>
@@ -29476,7 +29574,7 @@
       </c>
       <c r="I458" s="32"/>
     </row>
-    <row r="459" spans="1:9" ht="30">
+    <row r="459" spans="1:9" ht="45">
       <c r="A459" s="30" t="s">
         <v>477</v>
       </c>
@@ -29526,7 +29624,7 @@
       </c>
       <c r="I460" s="32"/>
     </row>
-    <row r="461" spans="1:9" ht="30">
+    <row r="461" spans="1:9" ht="45">
       <c r="A461" s="30" t="s">
         <v>479</v>
       </c>
@@ -29626,7 +29724,7 @@
       </c>
       <c r="I464" s="32"/>
     </row>
-    <row r="465" spans="1:9" ht="30">
+    <row r="465" spans="1:9" ht="45">
       <c r="A465" s="30" t="s">
         <v>483</v>
       </c>
@@ -29676,7 +29774,7 @@
       </c>
       <c r="I466" s="32"/>
     </row>
-    <row r="467" spans="1:9" ht="45">
+    <row r="467" spans="1:9" ht="60">
       <c r="A467" s="30" t="s">
         <v>485</v>
       </c>
@@ -29826,7 +29924,7 @@
       </c>
       <c r="I472" s="32"/>
     </row>
-    <row r="473" spans="1:9" ht="30">
+    <row r="473" spans="1:9" ht="45">
       <c r="A473" s="30" t="s">
         <v>491</v>
       </c>
@@ -29851,7 +29949,7 @@
       </c>
       <c r="I473" s="32"/>
     </row>
-    <row r="474" spans="1:9" ht="30">
+    <row r="474" spans="1:9" ht="45">
       <c r="A474" s="30" t="s">
         <v>492</v>
       </c>
@@ -29876,7 +29974,7 @@
       </c>
       <c r="I474" s="32"/>
     </row>
-    <row r="475" spans="1:9" ht="30">
+    <row r="475" spans="1:9" ht="45">
       <c r="A475" s="30" t="s">
         <v>493</v>
       </c>
@@ -29926,7 +30024,7 @@
       </c>
       <c r="I476" s="32"/>
     </row>
-    <row r="477" spans="1:9" ht="30">
+    <row r="477" spans="1:9" ht="45">
       <c r="A477" s="30" t="s">
         <v>495</v>
       </c>
@@ -30076,7 +30174,7 @@
       </c>
       <c r="I482" s="32"/>
     </row>
-    <row r="483" spans="1:9" ht="30">
+    <row r="483" spans="1:9" ht="45">
       <c r="A483" s="30" t="s">
         <v>501</v>
       </c>
@@ -30101,7 +30199,7 @@
       </c>
       <c r="I483" s="32"/>
     </row>
-    <row r="484" spans="1:9" ht="45">
+    <row r="484" spans="1:9" ht="60">
       <c r="A484" s="30" t="s">
         <v>502</v>
       </c>
@@ -30109,7 +30207,7 @@
         <v>32</v>
       </c>
       <c r="C484" s="32" t="s">
-        <v>4796</v>
+        <v>4794</v>
       </c>
       <c r="D484" s="30"/>
       <c r="E484" s="30" t="s">
@@ -30128,7 +30226,7 @@
         <v>4492</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="45">
+    <row r="485" spans="1:9" ht="60">
       <c r="A485" s="30" t="s">
         <v>503</v>
       </c>
@@ -30178,7 +30276,7 @@
       </c>
       <c r="I486" s="32"/>
     </row>
-    <row r="487" spans="1:9" ht="30">
+    <row r="487" spans="1:9" ht="45">
       <c r="A487" s="30" t="s">
         <v>505</v>
       </c>
@@ -30203,7 +30301,7 @@
       </c>
       <c r="I487" s="32"/>
     </row>
-    <row r="488" spans="1:9" ht="30">
+    <row r="488" spans="1:9" ht="45">
       <c r="A488" s="30" t="s">
         <v>506</v>
       </c>
@@ -30278,7 +30376,7 @@
       </c>
       <c r="I490" s="32"/>
     </row>
-    <row r="491" spans="1:9" ht="30">
+    <row r="491" spans="1:9" ht="45">
       <c r="A491" s="30" t="s">
         <v>509</v>
       </c>
@@ -30478,7 +30576,7 @@
       </c>
       <c r="I498" s="32"/>
     </row>
-    <row r="499" spans="1:9" ht="30">
+    <row r="499" spans="1:9" ht="45">
       <c r="A499" s="30" t="s">
         <v>517</v>
       </c>
@@ -30703,7 +30801,7 @@
       </c>
       <c r="I507" s="32"/>
     </row>
-    <row r="508" spans="1:9" ht="30">
+    <row r="508" spans="1:9" ht="45">
       <c r="A508" s="30" t="s">
         <v>526</v>
       </c>
@@ -30978,7 +31076,7 @@
       </c>
       <c r="I518" s="32"/>
     </row>
-    <row r="519" spans="1:9" ht="30">
+    <row r="519" spans="1:9" ht="45">
       <c r="A519" s="30" t="s">
         <v>537</v>
       </c>
@@ -31005,7 +31103,7 @@
         <v>4493</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="60">
+    <row r="520" spans="1:9" ht="75">
       <c r="A520" s="30" t="s">
         <v>538</v>
       </c>
@@ -31030,7 +31128,7 @@
       </c>
       <c r="I520" s="32"/>
     </row>
-    <row r="521" spans="1:9" ht="30">
+    <row r="521" spans="1:9" ht="45">
       <c r="A521" s="30" t="s">
         <v>539</v>
       </c>
@@ -31105,7 +31203,7 @@
       </c>
       <c r="I523" s="32"/>
     </row>
-    <row r="524" spans="1:9" ht="30">
+    <row r="524" spans="1:9" ht="45">
       <c r="A524" s="30" t="s">
         <v>542</v>
       </c>
@@ -31130,7 +31228,7 @@
       </c>
       <c r="I524" s="32"/>
     </row>
-    <row r="525" spans="1:9" ht="45">
+    <row r="525" spans="1:9" ht="60">
       <c r="A525" s="30" t="s">
         <v>543</v>
       </c>
@@ -31157,7 +31255,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="45">
+    <row r="526" spans="1:9" ht="60">
       <c r="A526" s="30" t="s">
         <v>544</v>
       </c>
@@ -31357,7 +31455,7 @@
       </c>
       <c r="I533" s="32"/>
     </row>
-    <row r="534" spans="1:9" ht="30">
+    <row r="534" spans="1:9" ht="45">
       <c r="A534" s="30" t="s">
         <v>552</v>
       </c>
@@ -31382,7 +31480,7 @@
       </c>
       <c r="I534" s="32"/>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" ht="30">
       <c r="A535" s="30" t="s">
         <v>553</v>
       </c>
@@ -31432,7 +31530,7 @@
       </c>
       <c r="I536" s="32"/>
     </row>
-    <row r="537" spans="1:9" ht="30">
+    <row r="537" spans="1:9" ht="45">
       <c r="A537" s="30" t="s">
         <v>555</v>
       </c>
@@ -31457,7 +31555,7 @@
       </c>
       <c r="I537" s="32"/>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" ht="30">
       <c r="A538" s="30" t="s">
         <v>556</v>
       </c>
@@ -31532,7 +31630,7 @@
       </c>
       <c r="I540" s="32"/>
     </row>
-    <row r="541" spans="1:9" ht="30">
+    <row r="541" spans="1:9" ht="45">
       <c r="A541" s="30" t="s">
         <v>559</v>
       </c>
@@ -31582,7 +31680,7 @@
       </c>
       <c r="I542" s="32"/>
     </row>
-    <row r="543" spans="1:9" ht="135">
+    <row r="543" spans="1:9" ht="150">
       <c r="A543" s="30" t="s">
         <v>561</v>
       </c>
@@ -31682,7 +31780,7 @@
       </c>
       <c r="I546" s="32"/>
     </row>
-    <row r="547" spans="1:9" ht="30">
+    <row r="547" spans="1:9" ht="45">
       <c r="A547" s="30" t="s">
         <v>565</v>
       </c>
@@ -31757,7 +31855,7 @@
       </c>
       <c r="I549" s="32"/>
     </row>
-    <row r="550" spans="1:9" ht="30">
+    <row r="550" spans="1:9" ht="45">
       <c r="A550" s="30" t="s">
         <v>568</v>
       </c>
@@ -31907,7 +32005,7 @@
       </c>
       <c r="I555" s="32"/>
     </row>
-    <row r="556" spans="1:9" ht="30">
+    <row r="556" spans="1:9" ht="45">
       <c r="A556" s="30" t="s">
         <v>574</v>
       </c>
@@ -31932,7 +32030,7 @@
       </c>
       <c r="I556" s="32"/>
     </row>
-    <row r="557" spans="1:9" ht="30">
+    <row r="557" spans="1:9" ht="45">
       <c r="A557" s="30" t="s">
         <v>575</v>
       </c>
@@ -32082,7 +32180,7 @@
       </c>
       <c r="I562" s="32"/>
     </row>
-    <row r="563" spans="1:9" ht="30">
+    <row r="563" spans="1:9" ht="45">
       <c r="A563" s="30" t="s">
         <v>581</v>
       </c>
@@ -32132,7 +32230,7 @@
       </c>
       <c r="I564" s="32"/>
     </row>
-    <row r="565" spans="1:9" ht="30">
+    <row r="565" spans="1:9" ht="45">
       <c r="A565" s="30" t="s">
         <v>583</v>
       </c>
@@ -32232,7 +32330,7 @@
       </c>
       <c r="I568" s="32"/>
     </row>
-    <row r="569" spans="1:9" ht="45">
+    <row r="569" spans="1:9" ht="60">
       <c r="A569" s="30" t="s">
         <v>587</v>
       </c>
@@ -32282,7 +32380,7 @@
       </c>
       <c r="I570" s="32"/>
     </row>
-    <row r="571" spans="1:9" ht="30">
+    <row r="571" spans="1:9" ht="45">
       <c r="A571" s="30" t="s">
         <v>589</v>
       </c>
@@ -32732,7 +32830,7 @@
       </c>
       <c r="I588" s="32"/>
     </row>
-    <row r="589" spans="1:9" ht="30">
+    <row r="589" spans="1:9" ht="45">
       <c r="A589" s="30" t="s">
         <v>607</v>
       </c>
@@ -32832,7 +32930,7 @@
       </c>
       <c r="I592" s="32"/>
     </row>
-    <row r="593" spans="1:9" ht="30">
+    <row r="593" spans="1:9" ht="45">
       <c r="A593" s="30" t="s">
         <v>611</v>
       </c>
@@ -32859,7 +32957,7 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="60">
+    <row r="594" spans="1:9" ht="75">
       <c r="A594" s="30" t="s">
         <v>612</v>
       </c>
@@ -32884,7 +32982,7 @@
       </c>
       <c r="I594" s="32"/>
     </row>
-    <row r="595" spans="1:9" ht="30">
+    <row r="595" spans="1:9" ht="45">
       <c r="A595" s="30" t="s">
         <v>613</v>
       </c>
@@ -32934,7 +33032,7 @@
       </c>
       <c r="I596" s="32"/>
     </row>
-    <row r="597" spans="1:9" ht="45">
+    <row r="597" spans="1:9" ht="60">
       <c r="A597" s="30" t="s">
         <v>615</v>
       </c>
@@ -32961,7 +33059,7 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="30">
+    <row r="598" spans="1:9" ht="45">
       <c r="A598" s="30" t="s">
         <v>616</v>
       </c>
@@ -32986,7 +33084,7 @@
       </c>
       <c r="I598" s="32"/>
     </row>
-    <row r="599" spans="1:9" ht="45">
+    <row r="599" spans="1:9" ht="60">
       <c r="A599" s="30" t="s">
         <v>617</v>
       </c>
@@ -33036,7 +33134,7 @@
       </c>
       <c r="I600" s="32"/>
     </row>
-    <row r="601" spans="1:9" ht="60">
+    <row r="601" spans="1:9" ht="75">
       <c r="A601" s="30" t="s">
         <v>619</v>
       </c>
@@ -33086,7 +33184,7 @@
       </c>
       <c r="I602" s="32"/>
     </row>
-    <row r="603" spans="1:9" ht="30">
+    <row r="603" spans="1:9" ht="45">
       <c r="A603" s="30" t="s">
         <v>621</v>
       </c>
@@ -33186,7 +33284,7 @@
       </c>
       <c r="I606" s="32"/>
     </row>
-    <row r="607" spans="1:9" ht="30">
+    <row r="607" spans="1:9" ht="45">
       <c r="A607" s="30" t="s">
         <v>625</v>
       </c>
@@ -33336,7 +33434,7 @@
       </c>
       <c r="I612" s="32"/>
     </row>
-    <row r="613" spans="1:9" ht="30">
+    <row r="613" spans="1:9" ht="45">
       <c r="A613" s="30" t="s">
         <v>631</v>
       </c>
@@ -33361,7 +33459,7 @@
       </c>
       <c r="I613" s="32"/>
     </row>
-    <row r="614" spans="1:9" ht="30">
+    <row r="614" spans="1:9" ht="45">
       <c r="A614" s="30" t="s">
         <v>632</v>
       </c>
@@ -33411,7 +33509,7 @@
       </c>
       <c r="I615" s="32"/>
     </row>
-    <row r="616" spans="1:9" ht="30">
+    <row r="616" spans="1:9" ht="45">
       <c r="A616" s="30" t="s">
         <v>634</v>
       </c>
@@ -33436,7 +33534,7 @@
       </c>
       <c r="I616" s="32"/>
     </row>
-    <row r="617" spans="1:9" ht="30">
+    <row r="617" spans="1:9" ht="45">
       <c r="A617" s="30" t="s">
         <v>635</v>
       </c>
@@ -33461,7 +33559,7 @@
       </c>
       <c r="I617" s="32"/>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" ht="30">
       <c r="A618" s="30" t="s">
         <v>636</v>
       </c>
@@ -33586,7 +33684,7 @@
       </c>
       <c r="I622" s="32"/>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" ht="30">
       <c r="A623" s="30" t="s">
         <v>641</v>
       </c>
@@ -33636,7 +33734,7 @@
       </c>
       <c r="I624" s="32"/>
     </row>
-    <row r="625" spans="1:9" ht="30">
+    <row r="625" spans="1:9" ht="45">
       <c r="A625" s="30" t="s">
         <v>643</v>
       </c>
@@ -33686,7 +33784,7 @@
       </c>
       <c r="I626" s="32"/>
     </row>
-    <row r="627" spans="1:9" ht="30">
+    <row r="627" spans="1:9" ht="45">
       <c r="A627" s="30" t="s">
         <v>645</v>
       </c>
@@ -33736,7 +33834,7 @@
       </c>
       <c r="I628" s="32"/>
     </row>
-    <row r="629" spans="1:9" ht="240">
+    <row r="629" spans="1:9" ht="270">
       <c r="A629" s="30" t="s">
         <v>647</v>
       </c>
@@ -33811,7 +33909,7 @@
       </c>
       <c r="I631" s="32"/>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:9" ht="30">
       <c r="A632" s="30" t="s">
         <v>650</v>
       </c>
@@ -33911,7 +34009,7 @@
       </c>
       <c r="I635" s="32"/>
     </row>
-    <row r="636" spans="1:9" ht="30">
+    <row r="636" spans="1:9" ht="45">
       <c r="A636" s="30" t="s">
         <v>654</v>
       </c>
@@ -34336,7 +34434,7 @@
       </c>
       <c r="I652" s="32"/>
     </row>
-    <row r="653" spans="1:9" ht="300">
+    <row r="653" spans="1:9" ht="315">
       <c r="A653" s="30" t="s">
         <v>671</v>
       </c>
@@ -34361,7 +34459,7 @@
       </c>
       <c r="I653" s="32"/>
     </row>
-    <row r="654" spans="1:9" ht="30">
+    <row r="654" spans="1:9" ht="45">
       <c r="A654" s="30" t="s">
         <v>672</v>
       </c>
@@ -34388,7 +34486,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="655" spans="1:9" ht="60">
+    <row r="655" spans="1:9" ht="75">
       <c r="A655" s="30" t="s">
         <v>673</v>
       </c>
@@ -34413,7 +34511,7 @@
       </c>
       <c r="I655" s="32"/>
     </row>
-    <row r="656" spans="1:9" ht="30">
+    <row r="656" spans="1:9" ht="45">
       <c r="A656" s="30" t="s">
         <v>674</v>
       </c>
@@ -34538,7 +34636,7 @@
       </c>
       <c r="I660" s="32"/>
     </row>
-    <row r="661" spans="1:9" ht="30">
+    <row r="661" spans="1:9" ht="45">
       <c r="A661" s="30" t="s">
         <v>679</v>
       </c>
@@ -34563,7 +34661,7 @@
       </c>
       <c r="I661" s="32"/>
     </row>
-    <row r="662" spans="1:9" ht="45">
+    <row r="662" spans="1:9" ht="60">
       <c r="A662" s="30" t="s">
         <v>680</v>
       </c>
@@ -34590,7 +34688,7 @@
         <v>4498</v>
       </c>
     </row>
-    <row r="663" spans="1:9" ht="45">
+    <row r="663" spans="1:9" ht="60">
       <c r="A663" s="30" t="s">
         <v>681</v>
       </c>
@@ -34615,7 +34713,7 @@
       </c>
       <c r="I663" s="32"/>
     </row>
-    <row r="664" spans="1:9" ht="60">
+    <row r="664" spans="1:9" ht="75">
       <c r="A664" s="30" t="s">
         <v>682</v>
       </c>
@@ -34765,7 +34863,7 @@
       </c>
       <c r="I669" s="32"/>
     </row>
-    <row r="670" spans="1:9">
+    <row r="670" spans="1:9" ht="30">
       <c r="A670" s="30" t="s">
         <v>688</v>
       </c>
@@ -34815,7 +34913,7 @@
       </c>
       <c r="I671" s="32"/>
     </row>
-    <row r="672" spans="1:9" ht="30">
+    <row r="672" spans="1:9" ht="45">
       <c r="A672" s="30" t="s">
         <v>690</v>
       </c>
@@ -34840,7 +34938,7 @@
       </c>
       <c r="I672" s="32"/>
     </row>
-    <row r="673" spans="1:9">
+    <row r="673" spans="1:9" ht="30">
       <c r="A673" s="30" t="s">
         <v>691</v>
       </c>
@@ -34915,7 +35013,7 @@
       </c>
       <c r="I675" s="32"/>
     </row>
-    <row r="676" spans="1:9" ht="30">
+    <row r="676" spans="1:9" ht="45">
       <c r="A676" s="30" t="s">
         <v>694</v>
       </c>
@@ -34940,7 +35038,7 @@
       </c>
       <c r="I676" s="32"/>
     </row>
-    <row r="677" spans="1:9">
+    <row r="677" spans="1:9" ht="30">
       <c r="A677" s="30" t="s">
         <v>695</v>
       </c>
@@ -34965,7 +35063,7 @@
       </c>
       <c r="I677" s="32"/>
     </row>
-    <row r="678" spans="1:9" ht="135">
+    <row r="678" spans="1:9" ht="150">
       <c r="A678" s="30" t="s">
         <v>696</v>
       </c>
@@ -35165,7 +35263,7 @@
       </c>
       <c r="I685" s="32"/>
     </row>
-    <row r="686" spans="1:9">
+    <row r="686" spans="1:9" ht="30">
       <c r="A686" s="30" t="s">
         <v>704</v>
       </c>
@@ -35240,7 +35338,7 @@
       </c>
       <c r="I688" s="32"/>
     </row>
-    <row r="689" spans="1:9" ht="30">
+    <row r="689" spans="1:9" ht="45">
       <c r="A689" s="30" t="s">
         <v>707</v>
       </c>
@@ -35367,7 +35465,7 @@
       </c>
       <c r="I693" s="32"/>
     </row>
-    <row r="694" spans="1:9" ht="30">
+    <row r="694" spans="1:9" ht="45">
       <c r="A694" s="30" t="s">
         <v>712</v>
       </c>
@@ -35392,7 +35490,7 @@
       </c>
       <c r="I694" s="32"/>
     </row>
-    <row r="695" spans="1:9" ht="45">
+    <row r="695" spans="1:9" ht="60">
       <c r="A695" s="30" t="s">
         <v>713</v>
       </c>
@@ -35594,7 +35692,7 @@
       </c>
       <c r="I702" s="32"/>
     </row>
-    <row r="703" spans="1:9" ht="30">
+    <row r="703" spans="1:9" ht="45">
       <c r="A703" s="30" t="s">
         <v>721</v>
       </c>
@@ -36169,7 +36267,7 @@
       </c>
       <c r="I725" s="32"/>
     </row>
-    <row r="726" spans="1:9" ht="105">
+    <row r="726" spans="1:9" ht="120">
       <c r="A726" s="30" t="s">
         <v>744</v>
       </c>
@@ -36269,7 +36367,7 @@
       </c>
       <c r="I729" s="32"/>
     </row>
-    <row r="730" spans="1:9" ht="30">
+    <row r="730" spans="1:9" ht="45">
       <c r="A730" s="30" t="s">
         <v>748</v>
       </c>
@@ -36421,7 +36519,7 @@
       </c>
       <c r="I735" s="32"/>
     </row>
-    <row r="736" spans="1:9" ht="45">
+    <row r="736" spans="1:9" ht="60">
       <c r="A736" s="30" t="s">
         <v>754</v>
       </c>
@@ -36456,7 +36554,7 @@
         <v>2318</v>
       </c>
       <c r="C737" s="20" t="s">
-        <v>4809</v>
+        <v>4807</v>
       </c>
       <c r="D737" s="30"/>
       <c r="E737" s="30" t="s">
@@ -36548,7 +36646,7 @@
       </c>
       <c r="I740" s="32"/>
     </row>
-    <row r="741" spans="1:9" ht="45">
+    <row r="741" spans="1:9" ht="60">
       <c r="A741" s="30" t="s">
         <v>759</v>
       </c>
@@ -36573,7 +36671,7 @@
       </c>
       <c r="I741" s="32"/>
     </row>
-    <row r="742" spans="1:9" ht="30">
+    <row r="742" spans="1:9" ht="45">
       <c r="A742" s="30" t="s">
         <v>760</v>
       </c>
@@ -36748,7 +36846,7 @@
       </c>
       <c r="I748" s="32"/>
     </row>
-    <row r="749" spans="1:9">
+    <row r="749" spans="1:9" ht="30">
       <c r="A749" s="30" t="s">
         <v>767</v>
       </c>
@@ -36898,7 +36996,7 @@
       </c>
       <c r="I754" s="32"/>
     </row>
-    <row r="755" spans="1:9" ht="30">
+    <row r="755" spans="1:9" ht="45">
       <c r="A755" s="30" t="s">
         <v>773</v>
       </c>
@@ -36998,7 +37096,7 @@
       </c>
       <c r="I758" s="32"/>
     </row>
-    <row r="759" spans="1:9" ht="30">
+    <row r="759" spans="1:9" ht="45">
       <c r="A759" s="30" t="s">
         <v>777</v>
       </c>
@@ -37098,7 +37196,7 @@
       </c>
       <c r="I762" s="32"/>
     </row>
-    <row r="763" spans="1:9" ht="105">
+    <row r="763" spans="1:9" ht="120">
       <c r="A763" s="30" t="s">
         <v>781</v>
       </c>
@@ -37148,7 +37246,7 @@
       </c>
       <c r="I764" s="32"/>
     </row>
-    <row r="765" spans="1:9">
+    <row r="765" spans="1:9" ht="30">
       <c r="A765" s="30" t="s">
         <v>783</v>
       </c>
@@ -37198,7 +37296,7 @@
       </c>
       <c r="I766" s="32"/>
     </row>
-    <row r="767" spans="1:9" ht="30">
+    <row r="767" spans="1:9" ht="45">
       <c r="A767" s="30" t="s">
         <v>785</v>
       </c>
@@ -37225,7 +37323,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="768" spans="1:9" ht="60">
+    <row r="768" spans="1:9" ht="75">
       <c r="A768" s="30" t="s">
         <v>786</v>
       </c>
@@ -37250,7 +37348,7 @@
       </c>
       <c r="I768" s="32"/>
     </row>
-    <row r="769" spans="1:9" ht="30">
+    <row r="769" spans="1:9" ht="45">
       <c r="A769" s="30" t="s">
         <v>787</v>
       </c>
@@ -37325,7 +37423,7 @@
       </c>
       <c r="I771" s="32"/>
     </row>
-    <row r="772" spans="1:9" ht="45">
+    <row r="772" spans="1:9" ht="60">
       <c r="A772" s="30" t="s">
         <v>790</v>
       </c>
@@ -37352,7 +37450,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="773" spans="1:9" ht="45">
+    <row r="773" spans="1:9" ht="60">
       <c r="A773" s="30" t="s">
         <v>791</v>
       </c>
@@ -37452,7 +37550,7 @@
       </c>
       <c r="I776" s="32"/>
     </row>
-    <row r="777" spans="1:9" ht="45">
+    <row r="777" spans="1:9" ht="60">
       <c r="A777" s="30" t="s">
         <v>795</v>
       </c>
@@ -37502,7 +37600,7 @@
       </c>
       <c r="I778" s="32"/>
     </row>
-    <row r="779" spans="1:9" ht="30">
+    <row r="779" spans="1:9" ht="45">
       <c r="A779" s="30" t="s">
         <v>797</v>
       </c>
@@ -37527,7 +37625,7 @@
       </c>
       <c r="I779" s="32"/>
     </row>
-    <row r="780" spans="1:9" ht="45">
+    <row r="780" spans="1:9" ht="60">
       <c r="A780" s="30" t="s">
         <v>798</v>
       </c>
@@ -37552,7 +37650,7 @@
       </c>
       <c r="I780" s="32"/>
     </row>
-    <row r="781" spans="1:9" ht="60">
+    <row r="781" spans="1:9" ht="75">
       <c r="A781" s="30" t="s">
         <v>799</v>
       </c>
@@ -37627,7 +37725,7 @@
       </c>
       <c r="I783" s="32"/>
     </row>
-    <row r="784" spans="1:9" ht="60">
+    <row r="784" spans="1:9" ht="75">
       <c r="A784" s="30" t="s">
         <v>802</v>
       </c>
@@ -37652,7 +37750,7 @@
       </c>
       <c r="I784" s="32"/>
     </row>
-    <row r="785" spans="1:9" ht="75">
+    <row r="785" spans="1:9" ht="90">
       <c r="A785" s="30" t="s">
         <v>803</v>
       </c>
@@ -37877,7 +37975,7 @@
       </c>
       <c r="I793" s="32"/>
     </row>
-    <row r="794" spans="1:9">
+    <row r="794" spans="1:9" ht="30">
       <c r="A794" s="30" t="s">
         <v>812</v>
       </c>
@@ -38052,7 +38150,7 @@
       </c>
       <c r="I800" s="32"/>
     </row>
-    <row r="801" spans="1:9">
+    <row r="801" spans="1:9" ht="30">
       <c r="A801" s="30" t="s">
         <v>819</v>
       </c>
@@ -38102,7 +38200,7 @@
       </c>
       <c r="I802" s="32"/>
     </row>
-    <row r="803" spans="1:9" ht="90">
+    <row r="803" spans="1:9" ht="105">
       <c r="A803" s="30" t="s">
         <v>820</v>
       </c>
@@ -38127,7 +38225,7 @@
       </c>
       <c r="I803" s="32"/>
     </row>
-    <row r="804" spans="1:9" ht="30">
+    <row r="804" spans="1:9" ht="45">
       <c r="A804" s="30" t="s">
         <v>821</v>
       </c>
@@ -38154,7 +38252,7 @@
       </c>
       <c r="I804" s="32"/>
     </row>
-    <row r="805" spans="1:9" ht="30">
+    <row r="805" spans="1:9" ht="45">
       <c r="A805" s="30" t="s">
         <v>822</v>
       </c>
@@ -38181,7 +38279,7 @@
       </c>
       <c r="I805" s="32"/>
     </row>
-    <row r="806" spans="1:9" ht="30">
+    <row r="806" spans="1:9" ht="45">
       <c r="A806" s="30" t="s">
         <v>823</v>
       </c>
@@ -38385,7 +38483,7 @@
       </c>
       <c r="I813" s="32"/>
     </row>
-    <row r="814" spans="1:9" ht="105">
+    <row r="814" spans="1:9" ht="120">
       <c r="A814" s="30" t="s">
         <v>831</v>
       </c>
@@ -38410,7 +38508,7 @@
       </c>
       <c r="I814" s="32"/>
     </row>
-    <row r="815" spans="1:9" ht="30">
+    <row r="815" spans="1:9" ht="45">
       <c r="A815" s="30" t="s">
         <v>832</v>
       </c>
@@ -38460,7 +38558,7 @@
       </c>
       <c r="I816" s="32"/>
     </row>
-    <row r="817" spans="1:9" ht="60">
+    <row r="817" spans="1:9" ht="75">
       <c r="A817" s="30" t="s">
         <v>834</v>
       </c>
@@ -38485,7 +38583,7 @@
       </c>
       <c r="I817" s="32"/>
     </row>
-    <row r="818" spans="1:9" ht="30">
+    <row r="818" spans="1:9" ht="45">
       <c r="A818" s="30" t="s">
         <v>835</v>
       </c>
@@ -38610,7 +38708,7 @@
       </c>
       <c r="I822" s="32"/>
     </row>
-    <row r="823" spans="1:9" ht="30">
+    <row r="823" spans="1:9" ht="45">
       <c r="A823" s="30" t="s">
         <v>838</v>
       </c>
@@ -38635,7 +38733,7 @@
       </c>
       <c r="I823" s="32"/>
     </row>
-    <row r="824" spans="1:9" ht="45">
+    <row r="824" spans="1:9" ht="60">
       <c r="A824" s="30" t="s">
         <v>839</v>
       </c>
@@ -38643,7 +38741,7 @@
         <v>2332</v>
       </c>
       <c r="C824" s="32" t="s">
-        <v>4812</v>
+        <v>4810</v>
       </c>
       <c r="D824" s="30"/>
       <c r="E824" s="30" t="s">
@@ -38662,7 +38760,7 @@
         <v>4505</v>
       </c>
     </row>
-    <row r="825" spans="1:9" ht="45">
+    <row r="825" spans="1:9" ht="60">
       <c r="A825" s="30" t="s">
         <v>840</v>
       </c>
@@ -38687,7 +38785,7 @@
       </c>
       <c r="I825" s="32"/>
     </row>
-    <row r="826" spans="1:9" ht="30">
+    <row r="826" spans="1:9" ht="45">
       <c r="A826" s="30" t="s">
         <v>841</v>
       </c>
@@ -38787,7 +38885,7 @@
       </c>
       <c r="I829" s="32"/>
     </row>
-    <row r="830" spans="1:9" ht="45">
+    <row r="830" spans="1:9" ht="60">
       <c r="A830" s="30" t="s">
         <v>845</v>
       </c>
@@ -38812,7 +38910,7 @@
       </c>
       <c r="I830" s="32"/>
     </row>
-    <row r="831" spans="1:9" ht="30">
+    <row r="831" spans="1:9" ht="45">
       <c r="A831" s="30" t="s">
         <v>846</v>
       </c>
@@ -38887,7 +38985,7 @@
       </c>
       <c r="I833" s="32"/>
     </row>
-    <row r="834" spans="1:9" ht="30">
+    <row r="834" spans="1:9" ht="45">
       <c r="A834" s="30" t="s">
         <v>849</v>
       </c>
@@ -39037,7 +39135,7 @@
       </c>
       <c r="I839" s="32"/>
     </row>
-    <row r="840" spans="1:9">
+    <row r="840" spans="1:9" ht="30">
       <c r="A840" s="30" t="s">
         <v>855</v>
       </c>
@@ -39112,7 +39210,7 @@
       </c>
       <c r="I842" s="32"/>
     </row>
-    <row r="843" spans="1:9" ht="30">
+    <row r="843" spans="1:9" ht="45">
       <c r="A843" s="30" t="s">
         <v>858</v>
       </c>
@@ -39237,7 +39335,7 @@
       </c>
       <c r="I847" s="32"/>
     </row>
-    <row r="848" spans="1:9" ht="30">
+    <row r="848" spans="1:9" ht="45">
       <c r="A848" s="30" t="s">
         <v>863</v>
       </c>
@@ -39287,7 +39385,7 @@
       </c>
       <c r="I849" s="32"/>
     </row>
-    <row r="850" spans="1:9">
+    <row r="850" spans="1:9" ht="30">
       <c r="A850" s="30" t="s">
         <v>865</v>
       </c>
@@ -39337,7 +39435,7 @@
       </c>
       <c r="I851" s="32"/>
     </row>
-    <row r="852" spans="1:9" ht="45">
+    <row r="852" spans="1:9" ht="60">
       <c r="A852" s="30" t="s">
         <v>867</v>
       </c>
@@ -39362,7 +39460,7 @@
       </c>
       <c r="I852" s="32"/>
     </row>
-    <row r="853" spans="1:9" ht="30">
+    <row r="853" spans="1:9" ht="45">
       <c r="A853" s="30" t="s">
         <v>868</v>
       </c>
@@ -39389,7 +39487,7 @@
         <v>4506</v>
       </c>
     </row>
-    <row r="854" spans="1:9" ht="60">
+    <row r="854" spans="1:9" ht="75">
       <c r="A854" s="30" t="s">
         <v>869</v>
       </c>
@@ -39414,7 +39512,7 @@
       </c>
       <c r="I854" s="32"/>
     </row>
-    <row r="855" spans="1:9" ht="30">
+    <row r="855" spans="1:9" ht="45">
       <c r="A855" s="30" t="s">
         <v>870</v>
       </c>
@@ -39489,7 +39587,7 @@
       </c>
       <c r="I857" s="32"/>
     </row>
-    <row r="858" spans="1:9" ht="30">
+    <row r="858" spans="1:9" ht="45">
       <c r="A858" s="30" t="s">
         <v>873</v>
       </c>
@@ -39514,7 +39612,7 @@
       </c>
       <c r="I858" s="32"/>
     </row>
-    <row r="859" spans="1:9" ht="45">
+    <row r="859" spans="1:9" ht="60">
       <c r="A859" s="30" t="s">
         <v>874</v>
       </c>
@@ -39541,7 +39639,7 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="860" spans="1:9" ht="45">
+    <row r="860" spans="1:9" ht="60">
       <c r="A860" s="30" t="s">
         <v>875</v>
       </c>
@@ -39616,7 +39714,7 @@
       </c>
       <c r="I862" s="32"/>
     </row>
-    <row r="863" spans="1:9">
+    <row r="863" spans="1:9" ht="30">
       <c r="A863" s="30" t="s">
         <v>878</v>
       </c>
@@ -39666,7 +39764,7 @@
       </c>
       <c r="I864" s="32"/>
     </row>
-    <row r="865" spans="1:9" ht="30">
+    <row r="865" spans="1:9" ht="45">
       <c r="A865" s="30" t="s">
         <v>880</v>
       </c>
@@ -39841,7 +39939,7 @@
       </c>
       <c r="I871" s="32"/>
     </row>
-    <row r="872" spans="1:9">
+    <row r="872" spans="1:9" ht="30">
       <c r="A872" s="30" t="s">
         <v>887</v>
       </c>
@@ -39891,7 +39989,7 @@
       </c>
       <c r="I873" s="32"/>
     </row>
-    <row r="874" spans="1:9" ht="30">
+    <row r="874" spans="1:9" ht="45">
       <c r="A874" s="30" t="s">
         <v>889</v>
       </c>
@@ -40166,7 +40264,7 @@
       </c>
       <c r="I884" s="32"/>
     </row>
-    <row r="885" spans="1:9" ht="30">
+    <row r="885" spans="1:9" ht="45">
       <c r="A885" s="30" t="s">
         <v>900</v>
       </c>
@@ -40268,7 +40366,7 @@
       </c>
       <c r="I888" s="32"/>
     </row>
-    <row r="889" spans="1:9" ht="30">
+    <row r="889" spans="1:9" ht="45">
       <c r="A889" s="30" t="s">
         <v>904</v>
       </c>
@@ -40318,7 +40416,7 @@
       </c>
       <c r="I890" s="32"/>
     </row>
-    <row r="891" spans="1:9" ht="45">
+    <row r="891" spans="1:9" ht="60">
       <c r="A891" s="30" t="s">
         <v>906</v>
       </c>
@@ -40345,7 +40443,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="892" spans="1:9" ht="45">
+    <row r="892" spans="1:9" ht="60">
       <c r="A892" s="30" t="s">
         <v>907</v>
       </c>
@@ -40495,7 +40593,7 @@
       </c>
       <c r="I897" s="32"/>
     </row>
-    <row r="898" spans="1:9" ht="30">
+    <row r="898" spans="1:9" ht="45">
       <c r="A898" s="30" t="s">
         <v>913</v>
       </c>
@@ -40545,7 +40643,7 @@
       </c>
       <c r="I899" s="32"/>
     </row>
-    <row r="900" spans="1:9" ht="30">
+    <row r="900" spans="1:9" ht="45">
       <c r="A900" s="30" t="s">
         <v>915</v>
       </c>
@@ -40620,7 +40718,7 @@
       </c>
       <c r="I902" s="32"/>
     </row>
-    <row r="903" spans="1:9" ht="30">
+    <row r="903" spans="1:9" ht="45">
       <c r="A903" s="30" t="s">
         <v>918</v>
       </c>
@@ -40645,7 +40743,7 @@
       </c>
       <c r="I903" s="32"/>
     </row>
-    <row r="904" spans="1:9" ht="30">
+    <row r="904" spans="1:9" ht="45">
       <c r="A904" s="30" t="s">
         <v>919</v>
       </c>
@@ -40720,7 +40818,7 @@
       </c>
       <c r="I906" s="32"/>
     </row>
-    <row r="907" spans="1:9" ht="30">
+    <row r="907" spans="1:9" ht="45">
       <c r="A907" s="30" t="s">
         <v>922</v>
       </c>
@@ -40795,7 +40893,7 @@
       </c>
       <c r="I909" s="32"/>
     </row>
-    <row r="910" spans="1:9" ht="135">
+    <row r="910" spans="1:9" ht="150">
       <c r="A910" s="30" t="s">
         <v>925</v>
       </c>
@@ -40970,7 +41068,7 @@
       </c>
       <c r="I916" s="32"/>
     </row>
-    <row r="917" spans="1:9">
+    <row r="917" spans="1:9" ht="30">
       <c r="A917" s="30" t="s">
         <v>932</v>
       </c>
@@ -41095,7 +41193,7 @@
       </c>
       <c r="I921" s="32"/>
     </row>
-    <row r="922" spans="1:9" ht="30">
+    <row r="922" spans="1:9" ht="45">
       <c r="A922" s="30" t="s">
         <v>937</v>
       </c>
@@ -41145,7 +41243,7 @@
       </c>
       <c r="I923" s="32"/>
     </row>
-    <row r="924" spans="1:9" ht="45">
+    <row r="924" spans="1:9" ht="60">
       <c r="A924" s="30" t="s">
         <v>939</v>
       </c>
@@ -41172,7 +41270,7 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="925" spans="1:9" ht="45">
+    <row r="925" spans="1:9" ht="60">
       <c r="A925" s="30" t="s">
         <v>940</v>
       </c>
@@ -41522,7 +41620,7 @@
       </c>
       <c r="I938" s="32"/>
     </row>
-    <row r="939" spans="1:9">
+    <row r="939" spans="1:9" ht="30">
       <c r="A939" s="30" t="s">
         <v>954</v>
       </c>
@@ -41672,7 +41770,7 @@
       </c>
       <c r="I944" s="32"/>
     </row>
-    <row r="945" spans="1:9" ht="60">
+    <row r="945" spans="1:9" ht="75">
       <c r="A945" s="30" t="s">
         <v>960</v>
       </c>
@@ -41697,7 +41795,7 @@
       </c>
       <c r="I945" s="32"/>
     </row>
-    <row r="946" spans="1:9" ht="30">
+    <row r="946" spans="1:9" ht="45">
       <c r="A946" s="30" t="s">
         <v>961</v>
       </c>
@@ -41772,7 +41870,7 @@
       </c>
       <c r="I948" s="32"/>
     </row>
-    <row r="949" spans="1:9" ht="30">
+    <row r="949" spans="1:9" ht="45">
       <c r="A949" s="30" t="s">
         <v>964</v>
       </c>
@@ -41797,7 +41895,7 @@
       </c>
       <c r="I949" s="32"/>
     </row>
-    <row r="950" spans="1:9" ht="45">
+    <row r="950" spans="1:9" ht="60">
       <c r="A950" s="30" t="s">
         <v>965</v>
       </c>
@@ -41824,7 +41922,7 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="951" spans="1:9" ht="45">
+    <row r="951" spans="1:9" ht="60">
       <c r="A951" s="30" t="s">
         <v>966</v>
       </c>
@@ -41849,7 +41947,7 @@
       </c>
       <c r="I951" s="32"/>
     </row>
-    <row r="952" spans="1:9" ht="45">
+    <row r="952" spans="1:9" ht="60">
       <c r="A952" s="30" t="s">
         <v>967</v>
       </c>
@@ -41901,7 +41999,7 @@
       </c>
       <c r="I953" s="32"/>
     </row>
-    <row r="954" spans="1:9" ht="30">
+    <row r="954" spans="1:9" ht="45">
       <c r="A954" s="30" t="s">
         <v>969</v>
       </c>
@@ -42001,7 +42099,7 @@
       </c>
       <c r="I957" s="32"/>
     </row>
-    <row r="958" spans="1:9" ht="30">
+    <row r="958" spans="1:9" ht="45">
       <c r="A958" s="30" t="s">
         <v>973</v>
       </c>
@@ -42051,7 +42149,7 @@
       </c>
       <c r="I959" s="32"/>
     </row>
-    <row r="960" spans="1:9" ht="30">
+    <row r="960" spans="1:9" ht="45">
       <c r="A960" s="30" t="s">
         <v>975</v>
       </c>
@@ -42201,7 +42299,7 @@
       </c>
       <c r="I965" s="32"/>
     </row>
-    <row r="966" spans="1:9" ht="30">
+    <row r="966" spans="1:9" ht="45">
       <c r="A966" s="30" t="s">
         <v>981</v>
       </c>
@@ -42226,7 +42324,7 @@
       </c>
       <c r="I966" s="32"/>
     </row>
-    <row r="967" spans="1:9">
+    <row r="967" spans="1:9" ht="30">
       <c r="A967" s="30" t="s">
         <v>982</v>
       </c>
@@ -42276,7 +42374,7 @@
       </c>
       <c r="I968" s="32"/>
     </row>
-    <row r="969" spans="1:9" ht="30">
+    <row r="969" spans="1:9" ht="45">
       <c r="A969" s="30" t="s">
         <v>984</v>
       </c>
@@ -42326,7 +42424,7 @@
       </c>
       <c r="I970" s="32"/>
     </row>
-    <row r="971" spans="1:9" ht="30">
+    <row r="971" spans="1:9" ht="45">
       <c r="A971" s="30" t="s">
         <v>986</v>
       </c>
@@ -42451,7 +42549,7 @@
       </c>
       <c r="I975" s="32"/>
     </row>
-    <row r="976" spans="1:9" ht="30">
+    <row r="976" spans="1:9" ht="45">
       <c r="A976" s="30" t="s">
         <v>991</v>
       </c>
@@ -42551,7 +42649,7 @@
       </c>
       <c r="I979" s="32"/>
     </row>
-    <row r="980" spans="1:9">
+    <row r="980" spans="1:9" ht="30">
       <c r="A980" s="30" t="s">
         <v>995</v>
       </c>
@@ -42601,7 +42699,7 @@
       </c>
       <c r="I981" s="32"/>
     </row>
-    <row r="982" spans="1:9">
+    <row r="982" spans="1:9" ht="30">
       <c r="A982" s="30" t="s">
         <v>997</v>
       </c>
@@ -42726,7 +42824,7 @@
       </c>
       <c r="I986" s="32"/>
     </row>
-    <row r="987" spans="1:9" ht="30">
+    <row r="987" spans="1:9" ht="45">
       <c r="A987" s="30" t="s">
         <v>1002</v>
       </c>
@@ -42751,7 +42849,7 @@
       </c>
       <c r="I987" s="32"/>
     </row>
-    <row r="988" spans="1:9" ht="30">
+    <row r="988" spans="1:9" ht="45">
       <c r="A988" s="30" t="s">
         <v>1003</v>
       </c>
@@ -42801,7 +42899,7 @@
       </c>
       <c r="I989" s="32"/>
     </row>
-    <row r="990" spans="1:9" ht="45">
+    <row r="990" spans="1:9" ht="60">
       <c r="A990" s="30" t="s">
         <v>1005</v>
       </c>
@@ -42828,7 +42926,7 @@
         <v>4513</v>
       </c>
     </row>
-    <row r="991" spans="1:9" ht="45">
+    <row r="991" spans="1:9" ht="60">
       <c r="A991" s="30" t="s">
         <v>1006</v>
       </c>
@@ -42878,7 +42976,7 @@
       </c>
       <c r="I992" s="32"/>
     </row>
-    <row r="993" spans="1:9">
+    <row r="993" spans="1:9" ht="30">
       <c r="A993" s="30" t="s">
         <v>1008</v>
       </c>
@@ -43203,7 +43301,7 @@
       </c>
       <c r="I1005" s="32"/>
     </row>
-    <row r="1006" spans="1:9">
+    <row r="1006" spans="1:9" ht="30">
       <c r="A1006" s="30" t="s">
         <v>1021</v>
       </c>
@@ -43303,7 +43401,7 @@
       </c>
       <c r="I1009" s="32"/>
     </row>
-    <row r="1010" spans="1:9">
+    <row r="1010" spans="1:9" ht="30">
       <c r="A1010" s="30" t="s">
         <v>1025</v>
       </c>
@@ -43428,7 +43526,7 @@
       </c>
       <c r="I1014" s="32"/>
     </row>
-    <row r="1015" spans="1:9" ht="30">
+    <row r="1015" spans="1:9" ht="45">
       <c r="A1015" s="30" t="s">
         <v>1030</v>
       </c>
@@ -43503,7 +43601,7 @@
       </c>
       <c r="I1017" s="32"/>
     </row>
-    <row r="1018" spans="1:9" ht="45">
+    <row r="1018" spans="1:9" ht="60">
       <c r="A1018" s="30" t="s">
         <v>1033</v>
       </c>
@@ -43530,7 +43628,7 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="1019" spans="1:9" ht="45">
+    <row r="1019" spans="1:9" ht="60">
       <c r="A1019" s="30" t="s">
         <v>1034</v>
       </c>
@@ -43655,7 +43753,7 @@
       </c>
       <c r="I1023" s="32"/>
     </row>
-    <row r="1024" spans="1:9" ht="30">
+    <row r="1024" spans="1:9" ht="45">
       <c r="A1024" s="30" t="s">
         <v>1039</v>
       </c>
@@ -43680,7 +43778,7 @@
       </c>
       <c r="I1024" s="32"/>
     </row>
-    <row r="1025" spans="1:9" ht="45">
+    <row r="1025" spans="1:9" ht="60">
       <c r="A1025" s="30" t="s">
         <v>1040</v>
       </c>
@@ -43980,7 +44078,7 @@
       </c>
       <c r="I1036" s="32"/>
     </row>
-    <row r="1037" spans="1:9" ht="30">
+    <row r="1037" spans="1:9" ht="45">
       <c r="A1037" s="30" t="s">
         <v>1052</v>
       </c>
@@ -44055,7 +44153,7 @@
       </c>
       <c r="I1039" s="32"/>
     </row>
-    <row r="1040" spans="1:9">
+    <row r="1040" spans="1:9" ht="30">
       <c r="A1040" s="30" t="s">
         <v>1055</v>
       </c>
@@ -44130,7 +44228,7 @@
       </c>
       <c r="I1042" s="32"/>
     </row>
-    <row r="1043" spans="1:9" ht="300">
+    <row r="1043" spans="1:9" ht="315">
       <c r="A1043" s="30" t="s">
         <v>1058</v>
       </c>
@@ -44230,7 +44328,7 @@
       </c>
       <c r="I1046" s="32"/>
     </row>
-    <row r="1047" spans="1:9">
+    <row r="1047" spans="1:9" ht="30">
       <c r="A1047" s="30" t="s">
         <v>1062</v>
       </c>
@@ -44580,7 +44678,7 @@
       </c>
       <c r="I1060" s="32"/>
     </row>
-    <row r="1061" spans="1:9" ht="30">
+    <row r="1061" spans="1:9" ht="45">
       <c r="A1061" s="30" t="s">
         <v>1076</v>
       </c>
@@ -44680,7 +44778,7 @@
       </c>
       <c r="I1064" s="32"/>
     </row>
-    <row r="1065" spans="1:9" ht="300">
+    <row r="1065" spans="1:9" ht="315">
       <c r="A1065" s="30" t="s">
         <v>1080</v>
       </c>
@@ -44755,7 +44853,7 @@
       </c>
       <c r="I1067" s="32"/>
     </row>
-    <row r="1068" spans="1:9">
+    <row r="1068" spans="1:9" ht="30">
       <c r="A1068" s="30" t="s">
         <v>1083</v>
       </c>
@@ -44805,7 +44903,7 @@
       </c>
       <c r="I1069" s="32"/>
     </row>
-    <row r="1070" spans="1:9" ht="30">
+    <row r="1070" spans="1:9" ht="45">
       <c r="A1070" s="30" t="s">
         <v>1085</v>
       </c>
@@ -44832,7 +44930,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="1071" spans="1:9" ht="60">
+    <row r="1071" spans="1:9" ht="75">
       <c r="A1071" s="30" t="s">
         <v>1086</v>
       </c>
@@ -44857,7 +44955,7 @@
       </c>
       <c r="I1071" s="32"/>
     </row>
-    <row r="1072" spans="1:9" ht="30">
+    <row r="1072" spans="1:9" ht="45">
       <c r="A1072" s="30" t="s">
         <v>1087</v>
       </c>
@@ -44932,7 +45030,7 @@
       </c>
       <c r="I1074" s="32"/>
     </row>
-    <row r="1075" spans="1:9" ht="30">
+    <row r="1075" spans="1:9" ht="45">
       <c r="A1075" s="30" t="s">
         <v>1090</v>
       </c>
@@ -44957,7 +45055,7 @@
       </c>
       <c r="I1075" s="32"/>
     </row>
-    <row r="1076" spans="1:9" ht="45">
+    <row r="1076" spans="1:9" ht="60">
       <c r="A1076" s="30" t="s">
         <v>1091</v>
       </c>
@@ -44984,7 +45082,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="1077" spans="1:9" ht="45">
+    <row r="1077" spans="1:9" ht="60">
       <c r="A1077" s="30" t="s">
         <v>1092</v>
       </c>
@@ -44992,7 +45090,7 @@
         <v>2388</v>
       </c>
       <c r="C1077" s="32" t="s">
-        <v>4838</v>
+        <v>4836</v>
       </c>
       <c r="D1077" s="30"/>
       <c r="E1077" s="30" t="s">
@@ -45034,7 +45132,7 @@
       </c>
       <c r="I1078" s="32"/>
     </row>
-    <row r="1079" spans="1:9" ht="30">
+    <row r="1079" spans="1:9" ht="45">
       <c r="A1079" s="30" t="s">
         <v>1094</v>
       </c>
@@ -45284,7 +45382,7 @@
       </c>
       <c r="I1088" s="32"/>
     </row>
-    <row r="1089" spans="1:9">
+    <row r="1089" spans="1:9" ht="30">
       <c r="A1089" s="30" t="s">
         <v>1104</v>
       </c>
@@ -45359,7 +45457,7 @@
       </c>
       <c r="I1091" s="32"/>
     </row>
-    <row r="1092" spans="1:9" ht="30">
+    <row r="1092" spans="1:9" ht="45">
       <c r="A1092" s="30" t="s">
         <v>1107</v>
       </c>
@@ -45534,7 +45632,7 @@
       </c>
       <c r="I1098" s="32"/>
     </row>
-    <row r="1099" spans="1:9">
+    <row r="1099" spans="1:9" ht="30">
       <c r="A1099" s="30" t="s">
         <v>1114</v>
       </c>
@@ -45609,7 +45707,7 @@
       </c>
       <c r="I1101" s="32"/>
     </row>
-    <row r="1102" spans="1:9" ht="30">
+    <row r="1102" spans="1:9" ht="45">
       <c r="A1102" s="30" t="s">
         <v>1117</v>
       </c>
@@ -45636,7 +45734,7 @@
         <v>4517</v>
       </c>
     </row>
-    <row r="1103" spans="1:9" ht="60">
+    <row r="1103" spans="1:9" ht="75">
       <c r="A1103" s="30" t="s">
         <v>1118</v>
       </c>
@@ -45661,7 +45759,7 @@
       </c>
       <c r="I1103" s="32"/>
     </row>
-    <row r="1104" spans="1:9" ht="30">
+    <row r="1104" spans="1:9" ht="45">
       <c r="A1104" s="30" t="s">
         <v>1119</v>
       </c>
@@ -45886,7 +45984,7 @@
       </c>
       <c r="I1112" s="32"/>
     </row>
-    <row r="1113" spans="1:9">
+    <row r="1113" spans="1:9" ht="30">
       <c r="A1113" s="30" t="s">
         <v>1128</v>
       </c>
@@ -46011,7 +46109,7 @@
       </c>
       <c r="I1117" s="32"/>
     </row>
-    <row r="1118" spans="1:9" ht="120">
+    <row r="1118" spans="1:9" ht="135">
       <c r="A1118" s="30" t="s">
         <v>1133</v>
       </c>
@@ -46036,7 +46134,7 @@
       </c>
       <c r="I1118" s="32"/>
     </row>
-    <row r="1119" spans="1:9">
+    <row r="1119" spans="1:9" ht="30">
       <c r="A1119" s="30" t="s">
         <v>1134</v>
       </c>
@@ -46111,7 +46209,7 @@
       </c>
       <c r="I1121" s="32"/>
     </row>
-    <row r="1122" spans="1:9" ht="30">
+    <row r="1122" spans="1:9" ht="45">
       <c r="A1122" s="30" t="s">
         <v>1137</v>
       </c>
@@ -46161,7 +46259,7 @@
       </c>
       <c r="I1123" s="32"/>
     </row>
-    <row r="1124" spans="1:9" ht="45">
+    <row r="1124" spans="1:9" ht="60">
       <c r="A1124" s="30" t="s">
         <v>1139</v>
       </c>
@@ -46169,7 +46267,7 @@
         <v>2400</v>
       </c>
       <c r="C1124" s="32" t="s">
-        <v>4822</v>
+        <v>4820</v>
       </c>
       <c r="D1124" s="30"/>
       <c r="E1124" s="30" t="s">
@@ -46188,7 +46286,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="1125" spans="1:9" ht="45">
+    <row r="1125" spans="1:9" ht="60">
       <c r="A1125" s="30" t="s">
         <v>1140</v>
       </c>
@@ -46196,7 +46294,7 @@
         <v>2400</v>
       </c>
       <c r="C1125" s="32" t="s">
-        <v>4821</v>
+        <v>4819</v>
       </c>
       <c r="D1125" s="30"/>
       <c r="E1125" s="30" t="s">
@@ -46213,7 +46311,7 @@
       </c>
       <c r="I1125" s="32"/>
     </row>
-    <row r="1126" spans="1:9" ht="30">
+    <row r="1126" spans="1:9" ht="45">
       <c r="A1126" s="30" t="s">
         <v>1141</v>
       </c>
@@ -46313,7 +46411,7 @@
       </c>
       <c r="I1129" s="32"/>
     </row>
-    <row r="1130" spans="1:9" ht="30">
+    <row r="1130" spans="1:9" ht="45">
       <c r="A1130" s="30" t="s">
         <v>1145</v>
       </c>
@@ -46388,7 +46486,7 @@
       </c>
       <c r="I1132" s="32"/>
     </row>
-    <row r="1133" spans="1:9">
+    <row r="1133" spans="1:9" ht="30">
       <c r="A1133" s="30" t="s">
         <v>1148</v>
       </c>
@@ -46438,7 +46536,7 @@
       </c>
       <c r="I1134" s="32"/>
     </row>
-    <row r="1135" spans="1:9" ht="45">
+    <row r="1135" spans="1:9" ht="60">
       <c r="A1135" s="30" t="s">
         <v>1150</v>
       </c>
@@ -46790,7 +46888,7 @@
       </c>
       <c r="I1148" s="32"/>
     </row>
-    <row r="1149" spans="1:9" ht="45">
+    <row r="1149" spans="1:9" ht="60">
       <c r="A1149" s="30" t="s">
         <v>1164</v>
       </c>
@@ -46840,7 +46938,7 @@
       </c>
       <c r="I1150" s="32"/>
     </row>
-    <row r="1151" spans="1:9" ht="30">
+    <row r="1151" spans="1:9" ht="45">
       <c r="A1151" s="30" t="s">
         <v>1166</v>
       </c>
@@ -47067,7 +47165,7 @@
       </c>
       <c r="I1159" s="32"/>
     </row>
-    <row r="1160" spans="1:9" ht="30">
+    <row r="1160" spans="1:9" ht="45">
       <c r="A1160" s="30" t="s">
         <v>1175</v>
       </c>
@@ -47142,7 +47240,7 @@
       </c>
       <c r="I1162" s="32"/>
     </row>
-    <row r="1163" spans="1:9" ht="30">
+    <row r="1163" spans="1:9" ht="45">
       <c r="A1163" s="30" t="s">
         <v>1178</v>
       </c>
@@ -47317,7 +47415,7 @@
       </c>
       <c r="I1169" s="32"/>
     </row>
-    <row r="1170" spans="1:9" ht="165">
+    <row r="1170" spans="1:9" ht="195">
       <c r="A1170" s="30" t="s">
         <v>1185</v>
       </c>
@@ -47367,7 +47465,7 @@
       </c>
       <c r="I1171" s="32"/>
     </row>
-    <row r="1172" spans="1:9" ht="30">
+    <row r="1172" spans="1:9" ht="45">
       <c r="A1172" s="30" t="s">
         <v>1187</v>
       </c>
@@ -47392,7 +47490,7 @@
       </c>
       <c r="I1172" s="32"/>
     </row>
-    <row r="1173" spans="1:9">
+    <row r="1173" spans="1:9" ht="30">
       <c r="A1173" s="30" t="s">
         <v>1188</v>
       </c>
@@ -47417,7 +47515,7 @@
       </c>
       <c r="I1173" s="32"/>
     </row>
-    <row r="1174" spans="1:9" ht="30">
+    <row r="1174" spans="1:9" ht="45">
       <c r="A1174" s="30" t="s">
         <v>1189</v>
       </c>
@@ -47542,7 +47640,7 @@
       </c>
       <c r="I1178" s="32"/>
     </row>
-    <row r="1179" spans="1:9" ht="30">
+    <row r="1179" spans="1:9" ht="45">
       <c r="A1179" s="30" t="s">
         <v>1194</v>
       </c>
@@ -47592,7 +47690,7 @@
       </c>
       <c r="I1180" s="32"/>
     </row>
-    <row r="1181" spans="1:9" ht="45">
+    <row r="1181" spans="1:9" ht="60">
       <c r="A1181" s="30" t="s">
         <v>1196</v>
       </c>
@@ -47617,7 +47715,7 @@
       </c>
       <c r="I1181" s="32"/>
     </row>
-    <row r="1182" spans="1:9" ht="30">
+    <row r="1182" spans="1:9" ht="45">
       <c r="A1182" s="30" t="s">
         <v>1197</v>
       </c>
@@ -47667,7 +47765,7 @@
       </c>
       <c r="I1183" s="32"/>
     </row>
-    <row r="1184" spans="1:9" ht="30">
+    <row r="1184" spans="1:9" ht="45">
       <c r="A1184" s="30" t="s">
         <v>1199</v>
       </c>
@@ -47742,7 +47840,7 @@
       </c>
       <c r="I1186" s="32"/>
     </row>
-    <row r="1187" spans="1:9" ht="30">
+    <row r="1187" spans="1:9" ht="45">
       <c r="A1187" s="30" t="s">
         <v>1202</v>
       </c>
@@ -47792,7 +47890,7 @@
       </c>
       <c r="I1188" s="32"/>
     </row>
-    <row r="1189" spans="1:9" ht="45">
+    <row r="1189" spans="1:9" ht="60">
       <c r="A1189" s="30" t="s">
         <v>1204</v>
       </c>
@@ -47842,7 +47940,7 @@
       </c>
       <c r="I1190" s="32"/>
     </row>
-    <row r="1191" spans="1:9" ht="30">
+    <row r="1191" spans="1:9" ht="45">
       <c r="A1191" s="30" t="s">
         <v>1206</v>
       </c>
@@ -47967,7 +48065,7 @@
       </c>
       <c r="I1195" s="32"/>
     </row>
-    <row r="1196" spans="1:9" ht="30">
+    <row r="1196" spans="1:9" ht="45">
       <c r="A1196" s="30" t="s">
         <v>1211</v>
       </c>
@@ -48267,7 +48365,7 @@
       </c>
       <c r="I1207" s="32"/>
     </row>
-    <row r="1208" spans="1:9" ht="45">
+    <row r="1208" spans="1:9" ht="60">
       <c r="A1208" s="30" t="s">
         <v>1223</v>
       </c>
@@ -48292,7 +48390,7 @@
       </c>
       <c r="I1208" s="32"/>
     </row>
-    <row r="1209" spans="1:9" ht="45">
+    <row r="1209" spans="1:9" ht="60">
       <c r="A1209" s="30" t="s">
         <v>1224</v>
       </c>
@@ -48342,7 +48440,7 @@
       </c>
       <c r="I1210" s="32"/>
     </row>
-    <row r="1211" spans="1:9" ht="30">
+    <row r="1211" spans="1:9" ht="45">
       <c r="A1211" s="30" t="s">
         <v>1226</v>
       </c>
@@ -48392,7 +48490,7 @@
       </c>
       <c r="I1212" s="32"/>
     </row>
-    <row r="1213" spans="1:9" ht="30">
+    <row r="1213" spans="1:9" ht="45">
       <c r="A1213" s="30" t="s">
         <v>1228</v>
       </c>
@@ -48417,7 +48515,7 @@
       </c>
       <c r="I1213" s="32"/>
     </row>
-    <row r="1214" spans="1:9" ht="45">
+    <row r="1214" spans="1:9" ht="60">
       <c r="A1214" s="30" t="s">
         <v>1229</v>
       </c>
@@ -48467,7 +48565,7 @@
       </c>
       <c r="I1215" s="32"/>
     </row>
-    <row r="1216" spans="1:9" ht="45">
+    <row r="1216" spans="1:9" ht="60">
       <c r="A1216" s="30" t="s">
         <v>1231</v>
       </c>
@@ -48542,7 +48640,7 @@
       </c>
       <c r="I1218" s="32"/>
     </row>
-    <row r="1219" spans="1:9" ht="30">
+    <row r="1219" spans="1:9" ht="45">
       <c r="A1219" s="30" t="s">
         <v>1234</v>
       </c>
@@ -48592,7 +48690,7 @@
       </c>
       <c r="I1220" s="32"/>
     </row>
-    <row r="1221" spans="1:9" ht="60">
+    <row r="1221" spans="1:9" ht="75">
       <c r="A1221" s="30" t="s">
         <v>1236</v>
       </c>
@@ -48617,7 +48715,7 @@
       </c>
       <c r="I1221" s="32"/>
     </row>
-    <row r="1222" spans="1:9" ht="30">
+    <row r="1222" spans="1:9" ht="45">
       <c r="A1222" s="30" t="s">
         <v>1237</v>
       </c>
@@ -48642,7 +48740,7 @@
       </c>
       <c r="I1222" s="32"/>
     </row>
-    <row r="1223" spans="1:9" ht="30">
+    <row r="1223" spans="1:9" ht="45">
       <c r="A1223" s="30" t="s">
         <v>1238</v>
       </c>
@@ -48667,7 +48765,7 @@
       </c>
       <c r="I1223" s="32"/>
     </row>
-    <row r="1224" spans="1:9" ht="45">
+    <row r="1224" spans="1:9" ht="60">
       <c r="A1224" s="30" t="s">
         <v>1239</v>
       </c>
@@ -48744,7 +48842,7 @@
       </c>
       <c r="I1226" s="32"/>
     </row>
-    <row r="1227" spans="1:9" ht="30">
+    <row r="1227" spans="1:9" ht="45">
       <c r="A1227" s="30" t="s">
         <v>1242</v>
       </c>
@@ -48769,7 +48867,7 @@
       </c>
       <c r="I1227" s="32"/>
     </row>
-    <row r="1228" spans="1:9" ht="45">
+    <row r="1228" spans="1:9" ht="60">
       <c r="A1228" s="30" t="s">
         <v>1243</v>
       </c>
@@ -48796,7 +48894,7 @@
         <v>4522</v>
       </c>
     </row>
-    <row r="1229" spans="1:9" ht="45">
+    <row r="1229" spans="1:9" ht="60">
       <c r="A1229" s="30" t="s">
         <v>1244</v>
       </c>
@@ -48821,7 +48919,7 @@
       </c>
       <c r="I1229" s="32"/>
     </row>
-    <row r="1230" spans="1:9" ht="30">
+    <row r="1230" spans="1:9" ht="45">
       <c r="A1230" s="30" t="s">
         <v>1245</v>
       </c>
@@ -49071,7 +49169,7 @@
       </c>
       <c r="I1239" s="32"/>
     </row>
-    <row r="1240" spans="1:9">
+    <row r="1240" spans="1:9" ht="30">
       <c r="A1240" s="30" t="s">
         <v>1255</v>
       </c>
@@ -49171,7 +49269,7 @@
       </c>
       <c r="I1243" s="32"/>
     </row>
-    <row r="1244" spans="1:9" ht="30">
+    <row r="1244" spans="1:9" ht="45">
       <c r="A1244" s="30" t="s">
         <v>1259</v>
       </c>
@@ -49196,7 +49294,7 @@
       </c>
       <c r="I1244" s="32"/>
     </row>
-    <row r="1245" spans="1:9" ht="150">
+    <row r="1245" spans="1:9" ht="165">
       <c r="A1245" s="30" t="s">
         <v>1260</v>
       </c>
@@ -49221,7 +49319,7 @@
       </c>
       <c r="I1245" s="32"/>
     </row>
-    <row r="1246" spans="1:9">
+    <row r="1246" spans="1:9" ht="30">
       <c r="A1246" s="30" t="s">
         <v>1261</v>
       </c>
@@ -49296,7 +49394,7 @@
       </c>
       <c r="I1248" s="32"/>
     </row>
-    <row r="1249" spans="1:9" ht="45">
+    <row r="1249" spans="1:9" ht="60">
       <c r="A1249" s="30" t="s">
         <v>1264</v>
       </c>
@@ -49346,7 +49444,7 @@
       </c>
       <c r="I1250" s="32"/>
     </row>
-    <row r="1251" spans="1:9" ht="30">
+    <row r="1251" spans="1:9" ht="45">
       <c r="A1251" s="30" t="s">
         <v>1266</v>
       </c>
@@ -49396,7 +49494,7 @@
       </c>
       <c r="I1252" s="32"/>
     </row>
-    <row r="1253" spans="1:9" ht="60">
+    <row r="1253" spans="1:9" ht="75">
       <c r="A1253" s="30" t="s">
         <v>1268</v>
       </c>
@@ -49721,7 +49819,7 @@
       </c>
       <c r="I1265" s="32"/>
     </row>
-    <row r="1266" spans="1:9">
+    <row r="1266" spans="1:9" ht="30">
       <c r="A1266" s="30" t="s">
         <v>1281</v>
       </c>
@@ -49821,7 +49919,7 @@
       </c>
       <c r="I1269" s="32"/>
     </row>
-    <row r="1270" spans="1:9" ht="30">
+    <row r="1270" spans="1:9" ht="45">
       <c r="A1270" s="30" t="s">
         <v>1285</v>
       </c>
@@ -49973,7 +50071,7 @@
       </c>
       <c r="I1275" s="32"/>
     </row>
-    <row r="1276" spans="1:9" ht="45">
+    <row r="1276" spans="1:9" ht="60">
       <c r="A1276" s="30" t="s">
         <v>1291</v>
       </c>
@@ -50000,7 +50098,7 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="1277" spans="1:9" ht="45">
+    <row r="1277" spans="1:9" ht="60">
       <c r="A1277" s="30" t="s">
         <v>1292</v>
       </c>
@@ -50050,7 +50148,7 @@
       </c>
       <c r="I1278" s="32"/>
     </row>
-    <row r="1279" spans="1:9" ht="30">
+    <row r="1279" spans="1:9" ht="45">
       <c r="A1279" s="30" t="s">
         <v>1294</v>
       </c>
@@ -50077,7 +50175,7 @@
         <v>4525</v>
       </c>
     </row>
-    <row r="1280" spans="1:9" ht="30">
+    <row r="1280" spans="1:9" ht="45">
       <c r="A1280" s="30" t="s">
         <v>1295</v>
       </c>
@@ -50131,7 +50229,7 @@
       </c>
       <c r="I1281" s="32"/>
     </row>
-    <row r="1282" spans="1:9" ht="45">
+    <row r="1282" spans="1:9" ht="60">
       <c r="A1282" s="30" t="s">
         <v>1297</v>
       </c>
@@ -50158,7 +50256,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="1283" spans="1:9" ht="30">
+    <row r="1283" spans="1:9" ht="45">
       <c r="A1283" s="30" t="s">
         <v>1298</v>
       </c>
@@ -50233,7 +50331,7 @@
       </c>
       <c r="I1285" s="32"/>
     </row>
-    <row r="1286" spans="1:9" ht="30">
+    <row r="1286" spans="1:9" ht="45">
       <c r="A1286" s="30" t="s">
         <v>1301</v>
       </c>
@@ -50333,7 +50431,7 @@
       </c>
       <c r="I1289" s="32"/>
     </row>
-    <row r="1290" spans="1:9" ht="30">
+    <row r="1290" spans="1:9" ht="60">
       <c r="A1290" s="30" t="s">
         <v>1305</v>
       </c>
@@ -50358,7 +50456,7 @@
       </c>
       <c r="I1290" s="32"/>
     </row>
-    <row r="1291" spans="1:9" ht="30">
+    <row r="1291" spans="1:9" ht="45">
       <c r="A1291" s="30" t="s">
         <v>1306</v>
       </c>
@@ -50383,7 +50481,7 @@
       </c>
       <c r="I1291" s="32"/>
     </row>
-    <row r="1292" spans="1:9">
+    <row r="1292" spans="1:9" ht="30">
       <c r="A1292" s="30" t="s">
         <v>1307</v>
       </c>
@@ -50408,7 +50506,7 @@
       </c>
       <c r="I1292" s="32"/>
     </row>
-    <row r="1293" spans="1:9" ht="45">
+    <row r="1293" spans="1:9" ht="60">
       <c r="A1293" s="30" t="s">
         <v>1308</v>
       </c>
@@ -50433,7 +50531,7 @@
       </c>
       <c r="I1293" s="32"/>
     </row>
-    <row r="1294" spans="1:9" ht="30">
+    <row r="1294" spans="1:9" ht="45">
       <c r="A1294" s="30" t="s">
         <v>1309</v>
       </c>
@@ -50583,7 +50681,7 @@
       </c>
       <c r="I1299" s="32"/>
     </row>
-    <row r="1300" spans="1:9" ht="330">
+    <row r="1300" spans="1:9" ht="345">
       <c r="A1300" s="30" t="s">
         <v>1315</v>
       </c>
@@ -50737,7 +50835,7 @@
       </c>
       <c r="I1305" s="32"/>
     </row>
-    <row r="1306" spans="1:9" ht="45">
+    <row r="1306" spans="1:9" ht="60">
       <c r="A1306" s="30" t="s">
         <v>1321</v>
       </c>
@@ -50762,7 +50860,7 @@
       </c>
       <c r="I1306" s="32"/>
     </row>
-    <row r="1307" spans="1:9">
+    <row r="1307" spans="1:9" ht="30">
       <c r="A1307" s="30" t="s">
         <v>1322</v>
       </c>
@@ -50837,7 +50935,7 @@
       </c>
       <c r="I1309" s="32"/>
     </row>
-    <row r="1310" spans="1:9" ht="30">
+    <row r="1310" spans="1:9" ht="45">
       <c r="A1310" s="30" t="s">
         <v>1325</v>
       </c>
@@ -50862,7 +50960,7 @@
       </c>
       <c r="I1310" s="32"/>
     </row>
-    <row r="1311" spans="1:9" ht="45">
+    <row r="1311" spans="1:9" ht="60">
       <c r="A1311" s="30" t="s">
         <v>1326</v>
       </c>
@@ -50887,7 +50985,7 @@
       </c>
       <c r="I1311" s="32"/>
     </row>
-    <row r="1312" spans="1:9" ht="30">
+    <row r="1312" spans="1:9" ht="45">
       <c r="A1312" s="30" t="s">
         <v>1327</v>
       </c>
@@ -50943,7 +51041,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="1314" spans="1:9" ht="30">
+    <row r="1314" spans="1:9" ht="45">
       <c r="A1314" s="30" t="s">
         <v>1329</v>
       </c>
@@ -51024,7 +51122,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="1317" spans="1:9" ht="30">
+    <row r="1317" spans="1:9" ht="45">
       <c r="A1317" s="30" t="s">
         <v>1332</v>
       </c>
@@ -51099,7 +51197,7 @@
       </c>
       <c r="I1319" s="32"/>
     </row>
-    <row r="1320" spans="1:9" ht="75">
+    <row r="1320" spans="1:9" ht="90">
       <c r="A1320" s="30" t="s">
         <v>1335</v>
       </c>
@@ -51124,7 +51222,7 @@
       </c>
       <c r="I1320" s="32"/>
     </row>
-    <row r="1321" spans="1:9" ht="45">
+    <row r="1321" spans="1:9" ht="60">
       <c r="A1321" s="30" t="s">
         <v>1336</v>
       </c>
@@ -51149,7 +51247,7 @@
       </c>
       <c r="I1321" s="32"/>
     </row>
-    <row r="1322" spans="1:9" ht="45">
+    <row r="1322" spans="1:9" ht="60">
       <c r="A1322" s="30" t="s">
         <v>1337</v>
       </c>
@@ -51199,7 +51297,7 @@
       </c>
       <c r="I1323" s="32"/>
     </row>
-    <row r="1324" spans="1:9" ht="45">
+    <row r="1324" spans="1:9" ht="60">
       <c r="A1324" s="30" t="s">
         <v>1339</v>
       </c>
@@ -51249,7 +51347,7 @@
       </c>
       <c r="I1325" s="32"/>
     </row>
-    <row r="1326" spans="1:9" ht="30">
+    <row r="1326" spans="1:9" ht="45">
       <c r="A1326" s="30" t="s">
         <v>1341</v>
       </c>
@@ -51274,7 +51372,7 @@
       </c>
       <c r="I1326" s="32"/>
     </row>
-    <row r="1327" spans="1:9" ht="45">
+    <row r="1327" spans="1:9" ht="60">
       <c r="A1327" s="30" t="s">
         <v>1342</v>
       </c>
@@ -51299,7 +51397,7 @@
       </c>
       <c r="I1327" s="32"/>
     </row>
-    <row r="1328" spans="1:9" ht="60">
+    <row r="1328" spans="1:9" ht="75">
       <c r="A1328" s="30" t="s">
         <v>1343</v>
       </c>
@@ -51326,7 +51424,7 @@
         <v>4532</v>
       </c>
     </row>
-    <row r="1329" spans="1:9" ht="60">
+    <row r="1329" spans="1:9" ht="75">
       <c r="A1329" s="30" t="s">
         <v>1344</v>
       </c>
@@ -51403,7 +51501,7 @@
       </c>
       <c r="I1331" s="32"/>
     </row>
-    <row r="1332" spans="1:9" ht="30">
+    <row r="1332" spans="1:9" ht="45">
       <c r="A1332" s="30" t="s">
         <v>1347</v>
       </c>
@@ -51430,7 +51528,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="1333" spans="1:9">
+    <row r="1333" spans="1:9" ht="30">
       <c r="A1333" s="30" t="s">
         <v>1348</v>
       </c>
@@ -51457,7 +51555,7 @@
       </c>
       <c r="I1333" s="32"/>
     </row>
-    <row r="1334" spans="1:9" ht="30">
+    <row r="1334" spans="1:9" ht="45">
       <c r="A1334" s="30" t="s">
         <v>1349</v>
       </c>
@@ -51657,7 +51755,7 @@
       </c>
       <c r="I1341" s="32"/>
     </row>
-    <row r="1342" spans="1:9" ht="60">
+    <row r="1342" spans="1:9" ht="75">
       <c r="A1342" s="30" t="s">
         <v>1366</v>
       </c>
@@ -51682,7 +51780,7 @@
       </c>
       <c r="I1342" s="32"/>
     </row>
-    <row r="1343" spans="1:9" ht="45">
+    <row r="1343" spans="1:9" ht="60">
       <c r="A1343" s="30" t="s">
         <v>1369</v>
       </c>
@@ -51716,7 +51814,7 @@
       <c r="B1344" s="31" t="s">
         <v>2422</v>
       </c>
-      <c r="C1344" s="32" t="s">
+      <c r="C1344" s="20" t="s">
         <v>3668</v>
       </c>
       <c r="D1344" s="30"/>
@@ -51734,7 +51832,7 @@
       </c>
       <c r="I1344" s="32"/>
     </row>
-    <row r="1345" spans="1:9" ht="30">
+    <row r="1345" spans="1:9" ht="45">
       <c r="A1345" s="30" t="s">
         <v>1371</v>
       </c>
@@ -51751,11 +51849,11 @@
       <c r="F1345" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1345" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1345" s="30" t="s">
-        <v>18</v>
+      <c r="G1345" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1345" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="I1345" s="32"/>
     </row>
@@ -51776,11 +51874,11 @@
       <c r="F1346" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1346" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1346" s="30" t="s">
-        <v>18</v>
+      <c r="G1346" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1346" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="I1346" s="32"/>
     </row>
@@ -51809,7 +51907,7 @@
       </c>
       <c r="I1347" s="32"/>
     </row>
-    <row r="1348" spans="1:9" ht="45">
+    <row r="1348" spans="1:9" ht="60">
       <c r="A1348" s="30" t="s">
         <v>4689</v>
       </c>
@@ -51909,7 +52007,7 @@
       </c>
       <c r="I1351" s="32"/>
     </row>
-    <row r="1352" spans="1:9">
+    <row r="1352" spans="1:9" ht="30">
       <c r="A1352" s="30" t="s">
         <v>1357</v>
       </c>
@@ -51959,7 +52057,7 @@
       </c>
       <c r="I1353" s="32"/>
     </row>
-    <row r="1354" spans="1:9" ht="45">
+    <row r="1354" spans="1:9" ht="60">
       <c r="A1354" s="30" t="s">
         <v>1359</v>
       </c>
@@ -52059,7 +52157,7 @@
       </c>
       <c r="I1357" s="32"/>
     </row>
-    <row r="1358" spans="1:9" ht="75">
+    <row r="1358" spans="1:9" ht="90">
       <c r="A1358" s="30" t="s">
         <v>1364</v>
       </c>
@@ -52084,7 +52182,7 @@
       </c>
       <c r="I1358" s="32"/>
     </row>
-    <row r="1359" spans="1:9" ht="45">
+    <row r="1359" spans="1:9" ht="60">
       <c r="A1359" s="30" t="s">
         <v>1365</v>
       </c>
@@ -52111,7 +52209,7 @@
         <v>4535</v>
       </c>
     </row>
-    <row r="1360" spans="1:9" ht="30">
+    <row r="1360" spans="1:9" ht="45">
       <c r="A1360" s="30" t="s">
         <v>1373</v>
       </c>
@@ -52313,7 +52411,7 @@
       </c>
       <c r="I1367" s="32"/>
     </row>
-    <row r="1368" spans="1:9" ht="30">
+    <row r="1368" spans="1:9" ht="45">
       <c r="A1368" s="30" t="s">
         <v>1381</v>
       </c>
@@ -52321,7 +52419,7 @@
         <v>2423</v>
       </c>
       <c r="C1368" s="32" t="s">
-        <v>4862</v>
+        <v>4860</v>
       </c>
       <c r="D1368" s="30"/>
       <c r="E1368" s="30" t="s">
@@ -52338,7 +52436,7 @@
       </c>
       <c r="I1368" s="32"/>
     </row>
-    <row r="1369" spans="1:9" ht="45">
+    <row r="1369" spans="1:9" ht="60">
       <c r="A1369" s="30" t="s">
         <v>1382</v>
       </c>
@@ -52363,7 +52461,7 @@
       </c>
       <c r="I1369" s="32"/>
     </row>
-    <row r="1370" spans="1:9" ht="45">
+    <row r="1370" spans="1:9" ht="60">
       <c r="A1370" s="30" t="s">
         <v>1383</v>
       </c>
@@ -52415,7 +52513,7 @@
         <v>4538</v>
       </c>
     </row>
-    <row r="1372" spans="1:9" ht="30">
+    <row r="1372" spans="1:9" ht="45">
       <c r="A1372" s="30" t="s">
         <v>1385</v>
       </c>
@@ -52442,7 +52540,7 @@
       </c>
       <c r="I1372" s="32"/>
     </row>
-    <row r="1373" spans="1:9" ht="30">
+    <row r="1373" spans="1:9" ht="45">
       <c r="A1373" s="30" t="s">
         <v>1386</v>
       </c>
@@ -52596,7 +52694,7 @@
       </c>
       <c r="I1378" s="32"/>
     </row>
-    <row r="1379" spans="1:9" ht="30">
+    <row r="1379" spans="1:9" ht="45">
       <c r="A1379" s="30" t="s">
         <v>1392</v>
       </c>
@@ -52746,7 +52844,7 @@
       </c>
       <c r="I1384" s="32"/>
     </row>
-    <row r="1385" spans="1:9" ht="30">
+    <row r="1385" spans="1:9" ht="45">
       <c r="A1385" s="30" t="s">
         <v>1398</v>
       </c>
@@ -52771,7 +52869,7 @@
       </c>
       <c r="I1385" s="32"/>
     </row>
-    <row r="1386" spans="1:9" ht="30">
+    <row r="1386" spans="1:9" ht="45">
       <c r="A1386" s="30" t="s">
         <v>1399</v>
       </c>
@@ -52821,7 +52919,7 @@
       </c>
       <c r="I1387" s="32"/>
     </row>
-    <row r="1388" spans="1:9" ht="30">
+    <row r="1388" spans="1:9" ht="45">
       <c r="A1388" s="30" t="s">
         <v>1401</v>
       </c>
@@ -52846,7 +52944,7 @@
       </c>
       <c r="I1388" s="32"/>
     </row>
-    <row r="1389" spans="1:9" ht="30">
+    <row r="1389" spans="1:9" ht="45">
       <c r="A1389" s="30" t="s">
         <v>1402</v>
       </c>
@@ -52946,7 +53044,7 @@
       </c>
       <c r="I1392" s="32"/>
     </row>
-    <row r="1393" spans="1:9" ht="30">
+    <row r="1393" spans="1:9" ht="45">
       <c r="A1393" s="30" t="s">
         <v>1406</v>
       </c>
@@ -53171,7 +53269,7 @@
       </c>
       <c r="I1401" s="32"/>
     </row>
-    <row r="1402" spans="1:9" ht="30">
+    <row r="1402" spans="1:9" ht="45">
       <c r="A1402" s="30" t="s">
         <v>1415</v>
       </c>
@@ -53196,7 +53294,7 @@
       </c>
       <c r="I1402" s="32"/>
     </row>
-    <row r="1403" spans="1:9" ht="45">
+    <row r="1403" spans="1:9" ht="60">
       <c r="A1403" s="30" t="s">
         <v>1416</v>
       </c>
@@ -53423,7 +53521,7 @@
       </c>
       <c r="I1411" s="32"/>
     </row>
-    <row r="1412" spans="1:9" ht="30">
+    <row r="1412" spans="1:9" ht="45">
       <c r="A1412" s="30" t="s">
         <v>1425</v>
       </c>
@@ -53473,7 +53571,7 @@
       </c>
       <c r="I1413" s="32"/>
     </row>
-    <row r="1414" spans="1:9" ht="30">
+    <row r="1414" spans="1:9" ht="45">
       <c r="A1414" s="30" t="s">
         <v>1427</v>
       </c>
@@ -53498,7 +53596,7 @@
       </c>
       <c r="I1414" s="32"/>
     </row>
-    <row r="1415" spans="1:9" ht="30">
+    <row r="1415" spans="1:9" ht="45">
       <c r="A1415" s="30" t="s">
         <v>1428</v>
       </c>
@@ -53548,7 +53646,7 @@
       </c>
       <c r="I1416" s="32"/>
     </row>
-    <row r="1417" spans="1:9" ht="45">
+    <row r="1417" spans="1:9" ht="60">
       <c r="A1417" s="30" t="s">
         <v>1430</v>
       </c>
@@ -53573,7 +53671,7 @@
       </c>
       <c r="I1417" s="32"/>
     </row>
-    <row r="1418" spans="1:9" ht="45">
+    <row r="1418" spans="1:9" ht="60">
       <c r="A1418" s="30" t="s">
         <v>1431</v>
       </c>
@@ -53698,7 +53796,7 @@
       </c>
       <c r="I1422" s="32"/>
     </row>
-    <row r="1423" spans="1:9" ht="30">
+    <row r="1423" spans="1:9" ht="45">
       <c r="A1423" s="30" t="s">
         <v>1436</v>
       </c>
@@ -53723,7 +53821,7 @@
       </c>
       <c r="I1423" s="32"/>
     </row>
-    <row r="1424" spans="1:9" ht="45">
+    <row r="1424" spans="1:9" ht="60">
       <c r="A1424" s="30" t="s">
         <v>1437</v>
       </c>
@@ -53773,7 +53871,7 @@
       </c>
       <c r="I1425" s="32"/>
     </row>
-    <row r="1426" spans="1:9" ht="45">
+    <row r="1426" spans="1:9" ht="60">
       <c r="A1426" s="30" t="s">
         <v>1446</v>
       </c>
@@ -53798,14 +53896,14 @@
       </c>
       <c r="I1426" s="32"/>
     </row>
-    <row r="1427" spans="1:9" ht="30">
+    <row r="1427" spans="1:9" ht="45">
       <c r="A1427" s="30" t="s">
         <v>1447</v>
       </c>
       <c r="B1427" s="31" t="s">
         <v>2429</v>
       </c>
-      <c r="C1427" s="32" t="s">
+      <c r="C1427" s="20" t="s">
         <v>3734</v>
       </c>
       <c r="D1427" s="30"/>
@@ -53823,14 +53921,14 @@
       </c>
       <c r="I1427" s="32"/>
     </row>
-    <row r="1428" spans="1:9" ht="30">
+    <row r="1428" spans="1:9" ht="45">
       <c r="A1428" s="30" t="s">
         <v>1448</v>
       </c>
       <c r="B1428" s="31" t="s">
         <v>2429</v>
       </c>
-      <c r="C1428" s="32" t="s">
+      <c r="C1428" s="20" t="s">
         <v>3735</v>
       </c>
       <c r="D1428" s="30"/>
@@ -53848,7 +53946,7 @@
       </c>
       <c r="I1428" s="32"/>
     </row>
-    <row r="1429" spans="1:9" ht="60">
+    <row r="1429" spans="1:9" ht="75">
       <c r="A1429" s="30" t="s">
         <v>1449</v>
       </c>
@@ -53880,7 +53978,7 @@
       <c r="B1430" s="31" t="s">
         <v>2429</v>
       </c>
-      <c r="C1430" s="32" t="s">
+      <c r="C1430" s="20" t="s">
         <v>3737</v>
       </c>
       <c r="D1430" s="30"/>
@@ -53898,7 +53996,7 @@
       </c>
       <c r="I1430" s="32"/>
     </row>
-    <row r="1431" spans="1:9" ht="45">
+    <row r="1431" spans="1:9" ht="60">
       <c r="A1431" s="30" t="s">
         <v>1451</v>
       </c>
@@ -53980,7 +54078,7 @@
       <c r="B1434" s="31" t="s">
         <v>2429</v>
       </c>
-      <c r="C1434" s="32" t="s">
+      <c r="C1434" s="20" t="s">
         <v>3740</v>
       </c>
       <c r="D1434" s="30"/>
@@ -53998,7 +54096,7 @@
       </c>
       <c r="I1434" s="32"/>
     </row>
-    <row r="1435" spans="1:9" ht="30">
+    <row r="1435" spans="1:9" ht="45">
       <c r="A1435" s="30" t="s">
         <v>1454</v>
       </c>
@@ -54055,7 +54153,7 @@
       <c r="B1437" s="31" t="s">
         <v>2429</v>
       </c>
-      <c r="C1437" s="32" t="s">
+      <c r="C1437" s="20" t="s">
         <v>3743</v>
       </c>
       <c r="D1437" s="30"/>
@@ -54073,7 +54171,7 @@
       </c>
       <c r="I1437" s="32"/>
     </row>
-    <row r="1438" spans="1:9" ht="45">
+    <row r="1438" spans="1:9" ht="60">
       <c r="A1438" s="30" t="s">
         <v>4703</v>
       </c>
@@ -54123,7 +54221,7 @@
       </c>
       <c r="I1439" s="32"/>
     </row>
-    <row r="1440" spans="1:9" ht="45">
+    <row r="1440" spans="1:9" ht="75">
       <c r="A1440" s="30" t="s">
         <v>1439</v>
       </c>
@@ -54173,7 +54271,7 @@
       </c>
       <c r="I1441" s="32"/>
     </row>
-    <row r="1442" spans="1:9" ht="60">
+    <row r="1442" spans="1:9" ht="75">
       <c r="A1442" s="30" t="s">
         <v>1441</v>
       </c>
@@ -54198,7 +54296,7 @@
       </c>
       <c r="I1442" s="32"/>
     </row>
-    <row r="1443" spans="1:9" ht="30">
+    <row r="1443" spans="1:9" ht="45">
       <c r="A1443" s="30" t="s">
         <v>1442</v>
       </c>
@@ -54225,7 +54323,7 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="1444" spans="1:9" ht="30">
+    <row r="1444" spans="1:9" ht="45">
       <c r="A1444" s="30" t="s">
         <v>1443</v>
       </c>
@@ -54250,7 +54348,7 @@
       </c>
       <c r="I1444" s="32"/>
     </row>
-    <row r="1445" spans="1:9" ht="30">
+    <row r="1445" spans="1:9" ht="45">
       <c r="A1445" s="30" t="s">
         <v>1444</v>
       </c>
@@ -54450,7 +54548,7 @@
       </c>
       <c r="I1452" s="32"/>
     </row>
-    <row r="1453" spans="1:9" ht="30">
+    <row r="1453" spans="1:9" ht="45">
       <c r="A1453" s="30" t="s">
         <v>1464</v>
       </c>
@@ -54475,7 +54573,7 @@
       </c>
       <c r="I1453" s="32"/>
     </row>
-    <row r="1454" spans="1:9" ht="45">
+    <row r="1454" spans="1:9" ht="60">
       <c r="A1454" s="30" t="s">
         <v>1465</v>
       </c>
@@ -54502,7 +54600,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="1455" spans="1:9" ht="45">
+    <row r="1455" spans="1:9" ht="60">
       <c r="A1455" s="30" t="s">
         <v>1466</v>
       </c>
@@ -54527,7 +54625,7 @@
       </c>
       <c r="I1455" s="32"/>
     </row>
-    <row r="1456" spans="1:9" ht="45">
+    <row r="1456" spans="1:9" ht="60">
       <c r="A1456" s="30" t="s">
         <v>1467</v>
       </c>
@@ -54550,7 +54648,7 @@
       <c r="H1456" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I1456" s="32" t="s">
+      <c r="I1456" s="20" t="s">
         <v>4543</v>
       </c>
     </row>
@@ -54579,7 +54677,7 @@
       </c>
       <c r="I1457" s="32"/>
     </row>
-    <row r="1458" spans="1:9" ht="30">
+    <row r="1458" spans="1:9" ht="45">
       <c r="A1458" s="30" t="s">
         <v>1469</v>
       </c>
@@ -54629,7 +54727,7 @@
       </c>
       <c r="I1459" s="32"/>
     </row>
-    <row r="1460" spans="1:9" ht="45">
+    <row r="1460" spans="1:9" ht="60">
       <c r="A1460" s="30" t="s">
         <v>1471</v>
       </c>
@@ -54654,7 +54752,7 @@
       </c>
       <c r="I1460" s="32"/>
     </row>
-    <row r="1461" spans="1:9" ht="30">
+    <row r="1461" spans="1:9" ht="45">
       <c r="A1461" s="30" t="s">
         <v>1472</v>
       </c>
@@ -54808,7 +54906,7 @@
       </c>
       <c r="I1466" s="32"/>
     </row>
-    <row r="1467" spans="1:9" ht="30">
+    <row r="1467" spans="1:9" ht="45">
       <c r="A1467" s="30" t="s">
         <v>1478</v>
       </c>
@@ -54833,7 +54931,7 @@
       </c>
       <c r="I1467" s="32"/>
     </row>
-    <row r="1468" spans="1:9" ht="30">
+    <row r="1468" spans="1:9" ht="45">
       <c r="A1468" s="30" t="s">
         <v>1479</v>
       </c>
@@ -54908,7 +55006,7 @@
       </c>
       <c r="I1470" s="32"/>
     </row>
-    <row r="1471" spans="1:9" ht="30">
+    <row r="1471" spans="1:9" ht="45">
       <c r="A1471" s="30" t="s">
         <v>1482</v>
       </c>
@@ -55033,7 +55131,7 @@
       </c>
       <c r="I1475" s="32"/>
     </row>
-    <row r="1476" spans="1:9" ht="30">
+    <row r="1476" spans="1:9" ht="45">
       <c r="A1476" s="30" t="s">
         <v>1487</v>
       </c>
@@ -55108,7 +55206,7 @@
       </c>
       <c r="I1478" s="32"/>
     </row>
-    <row r="1479" spans="1:9">
+    <row r="1479" spans="1:9" ht="30">
       <c r="A1479" s="30" t="s">
         <v>1490</v>
       </c>
@@ -55158,7 +55256,7 @@
       </c>
       <c r="I1480" s="32"/>
     </row>
-    <row r="1481" spans="1:9">
+    <row r="1481" spans="1:9" ht="30">
       <c r="A1481" s="30" t="s">
         <v>1492</v>
       </c>
@@ -55208,7 +55306,7 @@
       </c>
       <c r="I1482" s="32"/>
     </row>
-    <row r="1483" spans="1:9" ht="30">
+    <row r="1483" spans="1:9" ht="45">
       <c r="A1483" s="30" t="s">
         <v>1494</v>
       </c>
@@ -55308,14 +55406,14 @@
       </c>
       <c r="I1486" s="32"/>
     </row>
-    <row r="1487" spans="1:9" ht="30">
+    <row r="1487" spans="1:9" ht="45">
       <c r="A1487" s="30" t="s">
         <v>1498</v>
       </c>
       <c r="B1487" s="31" t="s">
         <v>2435</v>
       </c>
-      <c r="C1487" s="32" t="s">
+      <c r="C1487" s="20" t="s">
         <v>3777</v>
       </c>
       <c r="D1487" s="30"/>
@@ -55333,14 +55431,14 @@
       </c>
       <c r="I1487" s="32"/>
     </row>
-    <row r="1488" spans="1:9" ht="30">
+    <row r="1488" spans="1:9" ht="45">
       <c r="A1488" s="30" t="s">
         <v>4715</v>
       </c>
       <c r="B1488" s="31" t="s">
         <v>2435</v>
       </c>
-      <c r="C1488" s="32" t="s">
+      <c r="C1488" s="20" t="s">
         <v>4714</v>
       </c>
       <c r="D1488" s="30"/>
@@ -55353,12 +55451,14 @@
       <c r="G1488" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H1488" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1488" s="32"/>
-    </row>
-    <row r="1489" spans="1:9" ht="45">
+      <c r="H1488" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1488" s="20" t="s">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:9" ht="60">
       <c r="A1489" s="30" t="s">
         <v>1499</v>
       </c>
@@ -55383,7 +55483,7 @@
       </c>
       <c r="I1489" s="32"/>
     </row>
-    <row r="1490" spans="1:9">
+    <row r="1490" spans="1:9" ht="30">
       <c r="A1490" s="30" t="s">
         <v>1500</v>
       </c>
@@ -55408,7 +55508,7 @@
       </c>
       <c r="I1490" s="32"/>
     </row>
-    <row r="1491" spans="1:9" ht="30">
+    <row r="1491" spans="1:9" ht="45">
       <c r="A1491" s="30" t="s">
         <v>1501</v>
       </c>
@@ -55433,7 +55533,7 @@
       </c>
       <c r="I1491" s="32"/>
     </row>
-    <row r="1492" spans="1:9" ht="45">
+    <row r="1492" spans="1:9" ht="60">
       <c r="A1492" s="30" t="s">
         <v>1502</v>
       </c>
@@ -55458,7 +55558,7 @@
       </c>
       <c r="I1492" s="32"/>
     </row>
-    <row r="1493" spans="1:9">
+    <row r="1493" spans="1:9" ht="30">
       <c r="A1493" s="30" t="s">
         <v>1503</v>
       </c>
@@ -55483,7 +55583,7 @@
       </c>
       <c r="I1493" s="32"/>
     </row>
-    <row r="1494" spans="1:9" ht="30">
+    <row r="1494" spans="1:9" ht="45">
       <c r="A1494" s="30" t="s">
         <v>1504</v>
       </c>
@@ -55508,7 +55608,7 @@
       </c>
       <c r="I1494" s="32"/>
     </row>
-    <row r="1495" spans="1:9" ht="30">
+    <row r="1495" spans="1:9" ht="45">
       <c r="A1495" s="30" t="s">
         <v>1505</v>
       </c>
@@ -55708,7 +55808,7 @@
       </c>
       <c r="I1502" s="32"/>
     </row>
-    <row r="1503" spans="1:9" ht="285">
+    <row r="1503" spans="1:9" ht="300">
       <c r="A1503" s="30" t="s">
         <v>1513</v>
       </c>
@@ -55733,7 +55833,7 @@
       </c>
       <c r="I1503" s="32"/>
     </row>
-    <row r="1504" spans="1:9" ht="30">
+    <row r="1504" spans="1:9" ht="45">
       <c r="A1504" s="30" t="s">
         <v>1514</v>
       </c>
@@ -55783,7 +55883,7 @@
       </c>
       <c r="I1505" s="32"/>
     </row>
-    <row r="1506" spans="1:9" ht="30">
+    <row r="1506" spans="1:9" ht="45">
       <c r="A1506" s="30" t="s">
         <v>1516</v>
       </c>
@@ -55808,7 +55908,7 @@
       </c>
       <c r="I1506" s="32"/>
     </row>
-    <row r="1507" spans="1:9" ht="30">
+    <row r="1507" spans="1:9" ht="45">
       <c r="A1507" s="30" t="s">
         <v>1517</v>
       </c>
@@ -55883,7 +55983,7 @@
       </c>
       <c r="I1509" s="32"/>
     </row>
-    <row r="1510" spans="1:9" ht="30">
+    <row r="1510" spans="1:9" ht="45">
       <c r="A1510" s="30" t="s">
         <v>1520</v>
       </c>
@@ -55933,7 +56033,7 @@
       </c>
       <c r="I1511" s="32"/>
     </row>
-    <row r="1512" spans="1:9">
+    <row r="1512" spans="1:9" ht="30">
       <c r="A1512" s="30" t="s">
         <v>1522</v>
       </c>
@@ -55983,7 +56083,7 @@
       </c>
       <c r="I1513" s="32"/>
     </row>
-    <row r="1514" spans="1:9" ht="30">
+    <row r="1514" spans="1:9" ht="45">
       <c r="A1514" s="30" t="s">
         <v>1524</v>
       </c>
@@ -56010,7 +56110,7 @@
         <v>4545</v>
       </c>
     </row>
-    <row r="1515" spans="1:9" ht="60">
+    <row r="1515" spans="1:9" ht="75">
       <c r="A1515" s="30" t="s">
         <v>1525</v>
       </c>
@@ -56035,7 +56135,7 @@
       </c>
       <c r="I1515" s="32"/>
     </row>
-    <row r="1516" spans="1:9" ht="30">
+    <row r="1516" spans="1:9" ht="45">
       <c r="A1516" s="30" t="s">
         <v>1526</v>
       </c>
@@ -56160,7 +56260,7 @@
       </c>
       <c r="I1520" s="32"/>
     </row>
-    <row r="1521" spans="1:9" ht="30">
+    <row r="1521" spans="1:9" ht="45">
       <c r="A1521" s="30" t="s">
         <v>1531</v>
       </c>
@@ -56185,7 +56285,7 @@
       </c>
       <c r="I1521" s="32"/>
     </row>
-    <row r="1522" spans="1:9" ht="45">
+    <row r="1522" spans="1:9" ht="60">
       <c r="A1522" s="30" t="s">
         <v>1532</v>
       </c>
@@ -56212,7 +56312,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="1523" spans="1:9" ht="45">
+    <row r="1523" spans="1:9" ht="60">
       <c r="A1523" s="30" t="s">
         <v>1533</v>
       </c>
@@ -56289,7 +56389,7 @@
       </c>
       <c r="I1525" s="32"/>
     </row>
-    <row r="1526" spans="1:9" ht="30">
+    <row r="1526" spans="1:9" ht="45">
       <c r="A1526" s="30" t="s">
         <v>1536</v>
       </c>
@@ -56364,7 +56464,7 @@
       </c>
       <c r="I1528" s="32"/>
     </row>
-    <row r="1529" spans="1:9">
+    <row r="1529" spans="1:9" ht="30">
       <c r="A1529" s="30" t="s">
         <v>1539</v>
       </c>
@@ -56389,7 +56489,7 @@
       </c>
       <c r="I1529" s="32"/>
     </row>
-    <row r="1530" spans="1:9" ht="30">
+    <row r="1530" spans="1:9" ht="45">
       <c r="A1530" s="30" t="s">
         <v>1540</v>
       </c>
@@ -56464,7 +56564,7 @@
       </c>
       <c r="I1532" s="32"/>
     </row>
-    <row r="1533" spans="1:9" ht="30">
+    <row r="1533" spans="1:9" ht="45">
       <c r="A1533" s="30" t="s">
         <v>1543</v>
       </c>
@@ -56639,7 +56739,7 @@
       </c>
       <c r="I1539" s="32"/>
     </row>
-    <row r="1540" spans="1:9">
+    <row r="1540" spans="1:9" ht="30">
       <c r="A1540" s="30" t="s">
         <v>1550</v>
       </c>
@@ -56689,7 +56789,7 @@
       </c>
       <c r="I1541" s="32"/>
     </row>
-    <row r="1542" spans="1:9" ht="30">
+    <row r="1542" spans="1:9" ht="45">
       <c r="A1542" s="30" t="s">
         <v>1552</v>
       </c>
@@ -56764,7 +56864,7 @@
       </c>
       <c r="I1544" s="32"/>
     </row>
-    <row r="1545" spans="1:9" ht="135">
+    <row r="1545" spans="1:9" ht="150">
       <c r="A1545" s="30" t="s">
         <v>1555</v>
       </c>
@@ -56989,7 +57089,7 @@
       </c>
       <c r="I1553" s="32"/>
     </row>
-    <row r="1554" spans="1:9">
+    <row r="1554" spans="1:9" ht="30">
       <c r="A1554" s="30" t="s">
         <v>1564</v>
       </c>
@@ -57089,7 +57189,7 @@
       </c>
       <c r="I1557" s="32"/>
     </row>
-    <row r="1558" spans="1:9">
+    <row r="1558" spans="1:9" ht="30">
       <c r="A1558" s="30" t="s">
         <v>1568</v>
       </c>
@@ -57189,7 +57289,7 @@
       </c>
       <c r="I1561" s="32"/>
     </row>
-    <row r="1562" spans="1:9" ht="30">
+    <row r="1562" spans="1:9" ht="45">
       <c r="A1562" s="30" t="s">
         <v>1572</v>
       </c>
@@ -57316,7 +57416,7 @@
       </c>
       <c r="I1566" s="32"/>
     </row>
-    <row r="1567" spans="1:9" ht="30">
+    <row r="1567" spans="1:9" ht="45">
       <c r="A1567" s="30" t="s">
         <v>1577</v>
       </c>
@@ -57341,7 +57441,7 @@
       </c>
       <c r="I1567" s="32"/>
     </row>
-    <row r="1568" spans="1:9" ht="45">
+    <row r="1568" spans="1:9" ht="60">
       <c r="A1568" s="30" t="s">
         <v>1578</v>
       </c>
@@ -57368,7 +57468,7 @@
         <v>4549</v>
       </c>
     </row>
-    <row r="1569" spans="1:9" ht="30">
+    <row r="1569" spans="1:9" ht="45">
       <c r="A1569" s="30" t="s">
         <v>1579</v>
       </c>
@@ -57743,7 +57843,7 @@
       </c>
       <c r="I1583" s="32"/>
     </row>
-    <row r="1584" spans="1:9" ht="30">
+    <row r="1584" spans="1:9" ht="45">
       <c r="A1584" s="30" t="s">
         <v>1594</v>
       </c>
@@ -57868,7 +57968,7 @@
       </c>
       <c r="I1588" s="32"/>
     </row>
-    <row r="1589" spans="1:9" ht="90">
+    <row r="1589" spans="1:9" ht="105">
       <c r="A1589" s="30" t="s">
         <v>1599</v>
       </c>
@@ -57893,7 +57993,7 @@
       </c>
       <c r="I1589" s="32"/>
     </row>
-    <row r="1590" spans="1:9">
+    <row r="1590" spans="1:9" ht="30">
       <c r="A1590" s="30" t="s">
         <v>1600</v>
       </c>
@@ -57943,7 +58043,7 @@
       </c>
       <c r="I1591" s="32"/>
     </row>
-    <row r="1592" spans="1:9">
+    <row r="1592" spans="1:9" ht="30">
       <c r="A1592" s="30" t="s">
         <v>1602</v>
       </c>
@@ -57968,7 +58068,7 @@
       </c>
       <c r="I1592" s="32"/>
     </row>
-    <row r="1593" spans="1:9" ht="30">
+    <row r="1593" spans="1:9" ht="45">
       <c r="A1593" s="30" t="s">
         <v>1603</v>
       </c>
@@ -57995,7 +58095,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="1594" spans="1:9" ht="60">
+    <row r="1594" spans="1:9" ht="75">
       <c r="A1594" s="30" t="s">
         <v>1604</v>
       </c>
@@ -58020,7 +58120,7 @@
       </c>
       <c r="I1594" s="32"/>
     </row>
-    <row r="1595" spans="1:9" ht="30">
+    <row r="1595" spans="1:9" ht="45">
       <c r="A1595" s="30" t="s">
         <v>1605</v>
       </c>
@@ -58095,7 +58195,7 @@
       </c>
       <c r="I1597" s="32"/>
     </row>
-    <row r="1598" spans="1:9" ht="30">
+    <row r="1598" spans="1:9" ht="45">
       <c r="A1598" s="30" t="s">
         <v>1608</v>
       </c>
@@ -58120,7 +58220,7 @@
       </c>
       <c r="I1598" s="32"/>
     </row>
-    <row r="1599" spans="1:9" ht="45">
+    <row r="1599" spans="1:9" ht="60">
       <c r="A1599" s="30" t="s">
         <v>1609</v>
       </c>
@@ -58147,7 +58247,7 @@
         <v>4551</v>
       </c>
     </row>
-    <row r="1600" spans="1:9" ht="45">
+    <row r="1600" spans="1:9" ht="60">
       <c r="A1600" s="30" t="s">
         <v>1610</v>
       </c>
@@ -58222,7 +58322,7 @@
       </c>
       <c r="I1602" s="32"/>
     </row>
-    <row r="1603" spans="1:9" ht="30">
+    <row r="1603" spans="1:9" ht="45">
       <c r="A1603" s="30" t="s">
         <v>1613</v>
       </c>
@@ -58272,7 +58372,7 @@
       </c>
       <c r="I1604" s="32"/>
     </row>
-    <row r="1605" spans="1:9" ht="45">
+    <row r="1605" spans="1:9" ht="60">
       <c r="A1605" s="30" t="s">
         <v>1615</v>
       </c>
@@ -58397,7 +58497,7 @@
       </c>
       <c r="I1609" s="32"/>
     </row>
-    <row r="1610" spans="1:9" ht="45">
+    <row r="1610" spans="1:9" ht="60">
       <c r="A1610" s="30" t="s">
         <v>1618</v>
       </c>
@@ -58422,7 +58522,7 @@
       </c>
       <c r="I1610" s="32"/>
     </row>
-    <row r="1611" spans="1:9" ht="60">
+    <row r="1611" spans="1:9" ht="75">
       <c r="A1611" s="30" t="s">
         <v>1619</v>
       </c>
@@ -58447,7 +58547,7 @@
       </c>
       <c r="I1611" s="32"/>
     </row>
-    <row r="1612" spans="1:9">
+    <row r="1612" spans="1:9" ht="30">
       <c r="A1612" s="30" t="s">
         <v>1620</v>
       </c>
@@ -58472,7 +58572,7 @@
       </c>
       <c r="I1612" s="32"/>
     </row>
-    <row r="1613" spans="1:9" ht="45">
+    <row r="1613" spans="1:9" ht="60">
       <c r="A1613" s="30" t="s">
         <v>1621</v>
       </c>
@@ -58497,7 +58597,7 @@
       </c>
       <c r="I1613" s="32"/>
     </row>
-    <row r="1614" spans="1:9" ht="30">
+    <row r="1614" spans="1:9" ht="45">
       <c r="A1614" s="30" t="s">
         <v>1622</v>
       </c>
@@ -58572,7 +58672,7 @@
       </c>
       <c r="I1616" s="32"/>
     </row>
-    <row r="1617" spans="1:9" ht="60">
+    <row r="1617" spans="1:9" ht="75">
       <c r="A1617" s="30" t="s">
         <v>1624</v>
       </c>
@@ -58597,7 +58697,7 @@
       </c>
       <c r="I1617" s="32"/>
     </row>
-    <row r="1618" spans="1:9">
+    <row r="1618" spans="1:9" ht="30">
       <c r="A1618" s="30" t="s">
         <v>1625</v>
       </c>
@@ -58622,7 +58722,7 @@
       </c>
       <c r="I1618" s="32"/>
     </row>
-    <row r="1619" spans="1:9" ht="30">
+    <row r="1619" spans="1:9" ht="45">
       <c r="A1619" s="30" t="s">
         <v>1626</v>
       </c>
@@ -58647,7 +58747,7 @@
       </c>
       <c r="I1619" s="32"/>
     </row>
-    <row r="1620" spans="1:9" ht="30">
+    <row r="1620" spans="1:9" ht="45">
       <c r="A1620" s="30" t="s">
         <v>1627</v>
       </c>
@@ -58672,7 +58772,7 @@
       </c>
       <c r="I1620" s="32"/>
     </row>
-    <row r="1621" spans="1:9" ht="30">
+    <row r="1621" spans="1:9" ht="45">
       <c r="A1621" s="30" t="s">
         <v>1628</v>
       </c>
@@ -58697,7 +58797,7 @@
       </c>
       <c r="I1621" s="32"/>
     </row>
-    <row r="1622" spans="1:9" ht="30">
+    <row r="1622" spans="1:9" ht="45">
       <c r="A1622" s="30" t="s">
         <v>1629</v>
       </c>
@@ -58747,7 +58847,7 @@
       </c>
       <c r="I1623" s="32"/>
     </row>
-    <row r="1624" spans="1:9">
+    <row r="1624" spans="1:9" ht="30">
       <c r="A1624" s="30" t="s">
         <v>1631</v>
       </c>
@@ -58772,7 +58872,7 @@
       </c>
       <c r="I1624" s="32"/>
     </row>
-    <row r="1625" spans="1:9" ht="30">
+    <row r="1625" spans="1:9" ht="45">
       <c r="A1625" s="30" t="s">
         <v>1632</v>
       </c>
@@ -58997,7 +59097,7 @@
       </c>
       <c r="I1633" s="32"/>
     </row>
-    <row r="1634" spans="1:9">
+    <row r="1634" spans="1:9" ht="30">
       <c r="A1634" s="30" t="s">
         <v>1641</v>
       </c>
@@ -59122,7 +59222,7 @@
       </c>
       <c r="I1638" s="32"/>
     </row>
-    <row r="1639" spans="1:9" ht="360">
+    <row r="1639" spans="1:9" ht="375">
       <c r="A1639" s="30" t="s">
         <v>1646</v>
       </c>
@@ -59197,7 +59297,7 @@
       </c>
       <c r="I1641" s="32"/>
     </row>
-    <row r="1642" spans="1:9">
+    <row r="1642" spans="1:9" ht="30">
       <c r="A1642" s="30" t="s">
         <v>1649</v>
       </c>
@@ -59272,7 +59372,7 @@
       </c>
       <c r="I1644" s="32"/>
     </row>
-    <row r="1645" spans="1:9">
+    <row r="1645" spans="1:9" ht="30">
       <c r="A1645" s="30" t="s">
         <v>1652</v>
       </c>
@@ -59297,7 +59397,7 @@
       </c>
       <c r="I1645" s="32"/>
     </row>
-    <row r="1646" spans="1:9">
+    <row r="1646" spans="1:9" ht="30">
       <c r="A1646" s="30" t="s">
         <v>1653</v>
       </c>
@@ -59347,7 +59447,7 @@
       </c>
       <c r="I1647" s="32"/>
     </row>
-    <row r="1648" spans="1:9">
+    <row r="1648" spans="1:9" ht="30">
       <c r="A1648" s="30" t="s">
         <v>1655</v>
       </c>
@@ -59472,7 +59572,7 @@
       </c>
       <c r="I1652" s="32"/>
     </row>
-    <row r="1653" spans="1:9">
+    <row r="1653" spans="1:9" ht="30">
       <c r="A1653" s="30" t="s">
         <v>1660</v>
       </c>
@@ -59497,7 +59597,7 @@
       </c>
       <c r="I1653" s="32"/>
     </row>
-    <row r="1654" spans="1:9">
+    <row r="1654" spans="1:9" ht="30">
       <c r="A1654" s="30" t="s">
         <v>1661</v>
       </c>
@@ -59522,7 +59622,7 @@
       </c>
       <c r="I1654" s="32"/>
     </row>
-    <row r="1655" spans="1:9">
+    <row r="1655" spans="1:9" ht="30">
       <c r="A1655" s="30" t="s">
         <v>1662</v>
       </c>
@@ -59597,7 +59697,7 @@
       </c>
       <c r="I1657" s="32"/>
     </row>
-    <row r="1658" spans="1:9" ht="30">
+    <row r="1658" spans="1:9" ht="45">
       <c r="A1658" s="30" t="s">
         <v>1665</v>
       </c>
@@ -59622,7 +59722,7 @@
       </c>
       <c r="I1658" s="32"/>
     </row>
-    <row r="1659" spans="1:9" ht="30">
+    <row r="1659" spans="1:9" ht="45">
       <c r="A1659" s="30" t="s">
         <v>1666</v>
       </c>
@@ -59647,7 +59747,7 @@
       </c>
       <c r="I1659" s="32"/>
     </row>
-    <row r="1660" spans="1:9" ht="30">
+    <row r="1660" spans="1:9" ht="60">
       <c r="A1660" s="30" t="s">
         <v>1667</v>
       </c>
@@ -59672,7 +59772,7 @@
       </c>
       <c r="I1660" s="32"/>
     </row>
-    <row r="1661" spans="1:9" ht="30">
+    <row r="1661" spans="1:9" ht="45">
       <c r="A1661" s="30" t="s">
         <v>1668</v>
       </c>
@@ -59747,7 +59847,7 @@
       </c>
       <c r="I1663" s="32"/>
     </row>
-    <row r="1664" spans="1:9">
+    <row r="1664" spans="1:9" ht="30">
       <c r="A1664" s="30" t="s">
         <v>1671</v>
       </c>
@@ -59847,7 +59947,7 @@
       </c>
       <c r="I1667" s="32"/>
     </row>
-    <row r="1668" spans="1:9">
+    <row r="1668" spans="1:9" ht="30">
       <c r="A1668" s="30" t="s">
         <v>1675</v>
       </c>
@@ -59897,7 +59997,7 @@
       </c>
       <c r="I1669" s="32"/>
     </row>
-    <row r="1670" spans="1:9">
+    <row r="1670" spans="1:9" ht="30">
       <c r="A1670" s="30" t="s">
         <v>1677</v>
       </c>
@@ -59972,7 +60072,7 @@
       </c>
       <c r="I1672" s="32"/>
     </row>
-    <row r="1673" spans="1:9" ht="30">
+    <row r="1673" spans="1:9" ht="45">
       <c r="A1673" s="30" t="s">
         <v>1680</v>
       </c>
@@ -60076,7 +60176,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="1677" spans="1:9" ht="30">
+    <row r="1677" spans="1:9" ht="45">
       <c r="A1677" s="30" t="s">
         <v>1684</v>
       </c>
@@ -60101,7 +60201,7 @@
       </c>
       <c r="I1677" s="32"/>
     </row>
-    <row r="1678" spans="1:9" ht="30">
+    <row r="1678" spans="1:9" ht="45">
       <c r="A1678" s="30" t="s">
         <v>1685</v>
       </c>
@@ -60153,7 +60253,7 @@
       </c>
       <c r="I1679" s="32"/>
     </row>
-    <row r="1680" spans="1:9" ht="30">
+    <row r="1680" spans="1:9" ht="45">
       <c r="A1680" s="30" t="s">
         <v>1687</v>
       </c>
@@ -60178,7 +60278,7 @@
       </c>
       <c r="I1680" s="32"/>
     </row>
-    <row r="1681" spans="1:9" ht="30">
+    <row r="1681" spans="1:9" ht="45">
       <c r="A1681" s="30" t="s">
         <v>1688</v>
       </c>
@@ -60253,7 +60353,7 @@
       </c>
       <c r="I1683" s="32"/>
     </row>
-    <row r="1684" spans="1:9" ht="30">
+    <row r="1684" spans="1:9" ht="45">
       <c r="A1684" s="30" t="s">
         <v>1691</v>
       </c>
@@ -60303,7 +60403,7 @@
       </c>
       <c r="I1685" s="32"/>
     </row>
-    <row r="1686" spans="1:9" ht="45">
+    <row r="1686" spans="1:9" ht="60">
       <c r="A1686" s="30" t="s">
         <v>1693</v>
       </c>
@@ -60380,7 +60480,7 @@
       </c>
       <c r="I1688" s="32"/>
     </row>
-    <row r="1689" spans="1:9" ht="75">
+    <row r="1689" spans="1:9" ht="90">
       <c r="A1689" s="30" t="s">
         <v>1696</v>
       </c>
@@ -60480,7 +60580,7 @@
       </c>
       <c r="I1692" s="32"/>
     </row>
-    <row r="1693" spans="1:9" ht="30">
+    <row r="1693" spans="1:9" ht="45">
       <c r="A1693" s="30" t="s">
         <v>1700</v>
       </c>
@@ -60505,7 +60605,7 @@
       </c>
       <c r="I1693" s="32"/>
     </row>
-    <row r="1694" spans="1:9" ht="30">
+    <row r="1694" spans="1:9" ht="45">
       <c r="A1694" s="30" t="s">
         <v>1701</v>
       </c>
@@ -60530,7 +60630,7 @@
       </c>
       <c r="I1694" s="32"/>
     </row>
-    <row r="1695" spans="1:9" ht="30">
+    <row r="1695" spans="1:9" ht="45">
       <c r="A1695" s="30" t="s">
         <v>1702</v>
       </c>
@@ -60605,7 +60705,7 @@
       </c>
       <c r="I1697" s="32"/>
     </row>
-    <row r="1698" spans="1:9" ht="30">
+    <row r="1698" spans="1:9" ht="45">
       <c r="A1698" s="30" t="s">
         <v>1705</v>
       </c>
@@ -60730,7 +60830,7 @@
       </c>
       <c r="I1702" s="32"/>
     </row>
-    <row r="1703" spans="1:9" ht="30">
+    <row r="1703" spans="1:9" ht="45">
       <c r="A1703" s="30" t="s">
         <v>1710</v>
       </c>
@@ -60780,7 +60880,7 @@
       </c>
       <c r="I1704" s="32"/>
     </row>
-    <row r="1705" spans="1:9">
+    <row r="1705" spans="1:9" ht="30">
       <c r="A1705" s="30" t="s">
         <v>1712</v>
       </c>
@@ -60880,7 +60980,7 @@
       </c>
       <c r="I1708" s="32"/>
     </row>
-    <row r="1709" spans="1:9" ht="30">
+    <row r="1709" spans="1:9" ht="45">
       <c r="A1709" s="30" t="s">
         <v>1716</v>
       </c>
@@ -60957,7 +61057,7 @@
       </c>
       <c r="I1711" s="32"/>
     </row>
-    <row r="1712" spans="1:9" ht="30">
+    <row r="1712" spans="1:9" ht="45">
       <c r="A1712" s="30" t="s">
         <v>1719</v>
       </c>
@@ -60982,7 +61082,7 @@
       </c>
       <c r="I1712" s="32"/>
     </row>
-    <row r="1713" spans="1:9" ht="75">
+    <row r="1713" spans="1:9" ht="105">
       <c r="A1713" s="30" t="s">
         <v>1720</v>
       </c>
@@ -61082,7 +61182,7 @@
       </c>
       <c r="I1716" s="32"/>
     </row>
-    <row r="1717" spans="1:9" ht="45">
+    <row r="1717" spans="1:9" ht="75">
       <c r="A1717" s="30" t="s">
         <v>1724</v>
       </c>
@@ -61132,7 +61232,7 @@
       </c>
       <c r="I1718" s="32"/>
     </row>
-    <row r="1719" spans="1:9" ht="30">
+    <row r="1719" spans="1:9" ht="45">
       <c r="A1719" s="30" t="s">
         <v>1726</v>
       </c>
@@ -61234,7 +61334,7 @@
       </c>
       <c r="I1722" s="32"/>
     </row>
-    <row r="1723" spans="1:9" ht="30">
+    <row r="1723" spans="1:9" ht="45">
       <c r="A1723" s="30" t="s">
         <v>1730</v>
       </c>
@@ -61284,7 +61384,7 @@
       </c>
       <c r="I1724" s="32"/>
     </row>
-    <row r="1725" spans="1:9" ht="45">
+    <row r="1725" spans="1:9" ht="60">
       <c r="A1725" s="30" t="s">
         <v>1732</v>
       </c>
@@ -61311,7 +61411,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="1726" spans="1:9" ht="45">
+    <row r="1726" spans="1:9" ht="60">
       <c r="A1726" s="30" t="s">
         <v>1733</v>
       </c>
@@ -61361,7 +61461,7 @@
       </c>
       <c r="I1727" s="32"/>
     </row>
-    <row r="1728" spans="1:9" ht="30">
+    <row r="1728" spans="1:9" ht="45">
       <c r="A1728" s="30" t="s">
         <v>1735</v>
       </c>
@@ -61411,7 +61511,7 @@
       </c>
       <c r="I1729" s="32"/>
     </row>
-    <row r="1730" spans="1:9" ht="30">
+    <row r="1730" spans="1:9" ht="45">
       <c r="A1730" s="30" t="s">
         <v>1737</v>
       </c>
@@ -61536,7 +61636,7 @@
       </c>
       <c r="I1734" s="32"/>
     </row>
-    <row r="1735" spans="1:9" ht="30">
+    <row r="1735" spans="1:9" ht="45">
       <c r="A1735" s="30" t="s">
         <v>1742</v>
       </c>
@@ -61561,7 +61661,7 @@
       </c>
       <c r="I1735" s="32"/>
     </row>
-    <row r="1736" spans="1:9" ht="30">
+    <row r="1736" spans="1:9" ht="45">
       <c r="A1736" s="30" t="s">
         <v>1743</v>
       </c>
@@ -61636,7 +61736,7 @@
       </c>
       <c r="I1738" s="32"/>
     </row>
-    <row r="1739" spans="1:9" ht="30">
+    <row r="1739" spans="1:9" ht="45">
       <c r="A1739" s="30" t="s">
         <v>1746</v>
       </c>
@@ -61661,7 +61761,7 @@
       </c>
       <c r="I1739" s="32"/>
     </row>
-    <row r="1740" spans="1:9" ht="30">
+    <row r="1740" spans="1:9" ht="45">
       <c r="A1740" s="30" t="s">
         <v>1747</v>
       </c>
@@ -61786,7 +61886,7 @@
       </c>
       <c r="I1744" s="32"/>
     </row>
-    <row r="1745" spans="1:9" ht="30">
+    <row r="1745" spans="1:9" ht="45">
       <c r="A1745" s="30" t="s">
         <v>1752</v>
       </c>
@@ -61811,7 +61911,7 @@
       </c>
       <c r="I1745" s="32"/>
     </row>
-    <row r="1746" spans="1:9" ht="225">
+    <row r="1746" spans="1:9" ht="240">
       <c r="A1746" s="30" t="s">
         <v>1753</v>
       </c>
@@ -61836,7 +61936,7 @@
       </c>
       <c r="I1746" s="32"/>
     </row>
-    <row r="1747" spans="1:9">
+    <row r="1747" spans="1:9" ht="30">
       <c r="A1747" s="30" t="s">
         <v>1754</v>
       </c>
@@ -61911,7 +62011,7 @@
       </c>
       <c r="I1749" s="32"/>
     </row>
-    <row r="1750" spans="1:9" ht="30">
+    <row r="1750" spans="1:9" ht="45">
       <c r="A1750" s="30" t="s">
         <v>1757</v>
       </c>
@@ -61936,7 +62036,7 @@
       </c>
       <c r="I1750" s="32"/>
     </row>
-    <row r="1751" spans="1:9" ht="90">
+    <row r="1751" spans="1:9" ht="120">
       <c r="A1751" s="30" t="s">
         <v>1758</v>
       </c>
@@ -61961,7 +62061,7 @@
       </c>
       <c r="I1751" s="32"/>
     </row>
-    <row r="1752" spans="1:9" ht="30">
+    <row r="1752" spans="1:9" ht="45">
       <c r="A1752" s="30" t="s">
         <v>1759</v>
       </c>
@@ -62011,7 +62111,7 @@
       </c>
       <c r="I1753" s="32"/>
     </row>
-    <row r="1754" spans="1:9" ht="45">
+    <row r="1754" spans="1:9" ht="60">
       <c r="A1754" s="30" t="s">
         <v>1761</v>
       </c>
@@ -62036,7 +62136,7 @@
       </c>
       <c r="I1754" s="32"/>
     </row>
-    <row r="1755" spans="1:9" ht="45">
+    <row r="1755" spans="1:9" ht="60">
       <c r="A1755" s="30" t="s">
         <v>1762</v>
       </c>
@@ -62061,7 +62161,7 @@
       </c>
       <c r="I1755" s="32"/>
     </row>
-    <row r="1756" spans="1:9" ht="45">
+    <row r="1756" spans="1:9" ht="60">
       <c r="A1756" s="30" t="s">
         <v>4752</v>
       </c>
@@ -62211,7 +62311,7 @@
       </c>
       <c r="I1761" s="32"/>
     </row>
-    <row r="1762" spans="1:9" ht="45">
+    <row r="1762" spans="1:9" ht="60">
       <c r="A1762" s="30" t="s">
         <v>1768</v>
       </c>
@@ -62388,7 +62488,7 @@
       </c>
       <c r="I1768" s="32"/>
     </row>
-    <row r="1769" spans="1:9" ht="30">
+    <row r="1769" spans="1:9" ht="45">
       <c r="A1769" s="30" t="s">
         <v>1775</v>
       </c>
@@ -62663,7 +62763,7 @@
       </c>
       <c r="I1779" s="32"/>
     </row>
-    <row r="1780" spans="1:9" ht="30">
+    <row r="1780" spans="1:9" ht="45">
       <c r="A1780" s="30" t="s">
         <v>1786</v>
       </c>
@@ -62763,7 +62863,7 @@
       </c>
       <c r="I1783" s="32"/>
     </row>
-    <row r="1784" spans="1:9" ht="30">
+    <row r="1784" spans="1:9" ht="45">
       <c r="A1784" s="30" t="s">
         <v>1790</v>
       </c>
@@ -62838,7 +62938,7 @@
       </c>
       <c r="I1786" s="32"/>
     </row>
-    <row r="1787" spans="1:9">
+    <row r="1787" spans="1:9" ht="30">
       <c r="A1787" s="30" t="s">
         <v>1793</v>
       </c>
@@ -62963,7 +63063,7 @@
       </c>
       <c r="I1791" s="32"/>
     </row>
-    <row r="1792" spans="1:9">
+    <row r="1792" spans="1:9" ht="30">
       <c r="A1792" s="30" t="s">
         <v>1798</v>
       </c>
@@ -63013,7 +63113,7 @@
       </c>
       <c r="I1793" s="32"/>
     </row>
-    <row r="1794" spans="1:9" ht="30">
+    <row r="1794" spans="1:9" ht="45">
       <c r="A1794" s="30" t="s">
         <v>1800</v>
       </c>
@@ -63063,7 +63163,7 @@
       </c>
       <c r="I1795" s="32"/>
     </row>
-    <row r="1796" spans="1:9">
+    <row r="1796" spans="1:9" ht="30">
       <c r="A1796" s="30" t="s">
         <v>1802</v>
       </c>
@@ -63163,7 +63263,7 @@
       </c>
       <c r="I1799" s="32"/>
     </row>
-    <row r="1800" spans="1:9" ht="30">
+    <row r="1800" spans="1:9" ht="45">
       <c r="A1800" s="30" t="s">
         <v>1806</v>
       </c>
@@ -63238,7 +63338,7 @@
       </c>
       <c r="I1802" s="32"/>
     </row>
-    <row r="1803" spans="1:9" ht="30">
+    <row r="1803" spans="1:9" ht="45">
       <c r="A1803" s="30" t="s">
         <v>1809</v>
       </c>
@@ -63288,7 +63388,7 @@
       </c>
       <c r="I1804" s="32"/>
     </row>
-    <row r="1805" spans="1:9" ht="30">
+    <row r="1805" spans="1:9" ht="45">
       <c r="A1805" s="30" t="s">
         <v>1811</v>
       </c>
@@ -63463,7 +63563,7 @@
       </c>
       <c r="I1811" s="32"/>
     </row>
-    <row r="1812" spans="1:9" ht="75">
+    <row r="1812" spans="1:9" ht="90">
       <c r="A1812" s="30" t="s">
         <v>1818</v>
       </c>
@@ -63513,7 +63613,7 @@
       </c>
       <c r="I1813" s="32"/>
     </row>
-    <row r="1814" spans="1:9" ht="75">
+    <row r="1814" spans="1:9" ht="90">
       <c r="A1814" s="30" t="s">
         <v>1820</v>
       </c>
@@ -63763,7 +63863,7 @@
       </c>
       <c r="I1823" s="32"/>
     </row>
-    <row r="1824" spans="1:9" ht="30">
+    <row r="1824" spans="1:9" ht="45">
       <c r="A1824" s="30" t="s">
         <v>1830</v>
       </c>
@@ -63838,7 +63938,7 @@
       </c>
       <c r="I1826" s="32"/>
     </row>
-    <row r="1827" spans="1:9" ht="30">
+    <row r="1827" spans="1:9" ht="45">
       <c r="A1827" s="30" t="s">
         <v>1833</v>
       </c>
@@ -63863,7 +63963,7 @@
       </c>
       <c r="I1827" s="32"/>
     </row>
-    <row r="1828" spans="1:9" ht="30">
+    <row r="1828" spans="1:9" ht="45">
       <c r="A1828" s="30" t="s">
         <v>1834</v>
       </c>
@@ -63887,10 +63987,10 @@
         <v>17</v>
       </c>
       <c r="I1828" s="20" t="s">
-        <v>4893</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:9" ht="45">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:9" ht="60">
       <c r="A1829" s="30" t="s">
         <v>1835</v>
       </c>
@@ -63915,7 +64015,7 @@
       </c>
       <c r="I1829" s="32"/>
     </row>
-    <row r="1830" spans="1:9" ht="45">
+    <row r="1830" spans="1:9" ht="60">
       <c r="A1830" s="30" t="s">
         <v>1836</v>
       </c>
@@ -64042,7 +64142,7 @@
       </c>
       <c r="I1834" s="32"/>
     </row>
-    <row r="1835" spans="1:9" ht="30">
+    <row r="1835" spans="1:9" ht="45">
       <c r="A1835" s="30" t="s">
         <v>1841</v>
       </c>
@@ -64242,7 +64342,7 @@
       </c>
       <c r="I1842" s="32"/>
     </row>
-    <row r="1843" spans="1:9" ht="30">
+    <row r="1843" spans="1:9" ht="45">
       <c r="A1843" s="30" t="s">
         <v>1849</v>
       </c>
@@ -64317,7 +64417,7 @@
       </c>
       <c r="I1845" s="32"/>
     </row>
-    <row r="1846" spans="1:9" ht="45">
+    <row r="1846" spans="1:9" ht="75">
       <c r="A1846" s="30" t="s">
         <v>1852</v>
       </c>
@@ -64650,7 +64750,7 @@
       </c>
       <c r="I1858" s="32"/>
     </row>
-    <row r="1859" spans="1:9" ht="30">
+    <row r="1859" spans="1:9" ht="45">
       <c r="A1859" s="30" t="s">
         <v>1865</v>
       </c>
@@ -64754,7 +64854,7 @@
       </c>
       <c r="I1862" s="32"/>
     </row>
-    <row r="1863" spans="1:9" ht="30">
+    <row r="1863" spans="1:9" ht="45">
       <c r="A1863" s="30" t="s">
         <v>1869</v>
       </c>
@@ -64781,7 +64881,7 @@
         <v>4564</v>
       </c>
     </row>
-    <row r="1864" spans="1:9" ht="30">
+    <row r="1864" spans="1:9" ht="45">
       <c r="A1864" s="30" t="s">
         <v>1870</v>
       </c>
@@ -65037,7 +65137,7 @@
       </c>
       <c r="I1873" s="32"/>
     </row>
-    <row r="1874" spans="1:9" ht="30">
+    <row r="1874" spans="1:9" ht="45">
       <c r="A1874" s="30" t="s">
         <v>1880</v>
       </c>
@@ -65062,7 +65162,7 @@
       </c>
       <c r="I1874" s="32"/>
     </row>
-    <row r="1875" spans="1:9" ht="60">
+    <row r="1875" spans="1:9" ht="75">
       <c r="A1875" s="30" t="s">
         <v>1881</v>
       </c>
@@ -65087,7 +65187,7 @@
       </c>
       <c r="I1875" s="32"/>
     </row>
-    <row r="1876" spans="1:9" ht="60">
+    <row r="1876" spans="1:9" ht="75">
       <c r="A1876" s="30" t="s">
         <v>1882</v>
       </c>
@@ -65212,7 +65312,7 @@
       </c>
       <c r="I1880" s="32"/>
     </row>
-    <row r="1881" spans="1:9">
+    <row r="1881" spans="1:9" ht="30">
       <c r="A1881" s="30" t="s">
         <v>1887</v>
       </c>
@@ -65312,7 +65412,7 @@
       </c>
       <c r="I1884" s="32"/>
     </row>
-    <row r="1885" spans="1:9" ht="45">
+    <row r="1885" spans="1:9" ht="60">
       <c r="A1885" s="30" t="s">
         <v>1891</v>
       </c>
@@ -65437,7 +65537,7 @@
       </c>
       <c r="I1889" s="32"/>
     </row>
-    <row r="1890" spans="1:9" ht="30">
+    <row r="1890" spans="1:9" ht="45">
       <c r="A1890" s="30" t="s">
         <v>1896</v>
       </c>
@@ -65462,7 +65562,7 @@
       </c>
       <c r="I1890" s="32"/>
     </row>
-    <row r="1891" spans="1:9" ht="45">
+    <row r="1891" spans="1:9" ht="60">
       <c r="A1891" s="30" t="s">
         <v>1897</v>
       </c>
@@ -65541,7 +65641,7 @@
       </c>
       <c r="I1893" s="32"/>
     </row>
-    <row r="1894" spans="1:9" ht="30">
+    <row r="1894" spans="1:9" ht="45">
       <c r="A1894" s="30" t="s">
         <v>1900</v>
       </c>
@@ -65591,7 +65691,7 @@
       </c>
       <c r="I1895" s="32"/>
     </row>
-    <row r="1896" spans="1:9" ht="45">
+    <row r="1896" spans="1:9" ht="60">
       <c r="A1896" s="30" t="s">
         <v>1902</v>
       </c>
@@ -65641,7 +65741,7 @@
       </c>
       <c r="I1897" s="32"/>
     </row>
-    <row r="1898" spans="1:9" ht="30">
+    <row r="1898" spans="1:9" ht="45">
       <c r="A1898" s="30" t="s">
         <v>1904</v>
       </c>
@@ -65666,7 +65766,7 @@
       </c>
       <c r="I1898" s="32"/>
     </row>
-    <row r="1899" spans="1:9" ht="45">
+    <row r="1899" spans="1:9" ht="60">
       <c r="A1899" s="30" t="s">
         <v>1905</v>
       </c>
@@ -65741,7 +65841,7 @@
       </c>
       <c r="I1901" s="32"/>
     </row>
-    <row r="1902" spans="1:9" ht="45">
+    <row r="1902" spans="1:9" ht="60">
       <c r="A1902" s="30" t="s">
         <v>1908</v>
       </c>
@@ -65791,7 +65891,7 @@
       </c>
       <c r="I1903" s="32"/>
     </row>
-    <row r="1904" spans="1:9" ht="30">
+    <row r="1904" spans="1:9" ht="45">
       <c r="A1904" s="30" t="s">
         <v>1910</v>
       </c>
@@ -65816,7 +65916,7 @@
       </c>
       <c r="I1904" s="32"/>
     </row>
-    <row r="1905" spans="1:9" ht="45">
+    <row r="1905" spans="1:9" ht="60">
       <c r="A1905" s="30" t="s">
         <v>1911</v>
       </c>
@@ -65891,7 +65991,7 @@
       </c>
       <c r="I1907" s="32"/>
     </row>
-    <row r="1908" spans="1:9" ht="30">
+    <row r="1908" spans="1:9" ht="45">
       <c r="A1908" s="30" t="s">
         <v>1914</v>
       </c>
@@ -65966,7 +66066,7 @@
       </c>
       <c r="I1910" s="32"/>
     </row>
-    <row r="1911" spans="1:9" ht="45">
+    <row r="1911" spans="1:9" ht="60">
       <c r="A1911" s="30" t="s">
         <v>1917</v>
       </c>
@@ -65991,7 +66091,7 @@
       </c>
       <c r="I1911" s="32"/>
     </row>
-    <row r="1912" spans="1:9" ht="45">
+    <row r="1912" spans="1:9" ht="60">
       <c r="A1912" s="30" t="s">
         <v>1918</v>
       </c>
@@ -66043,7 +66143,7 @@
       </c>
       <c r="I1913" s="32"/>
     </row>
-    <row r="1914" spans="1:9">
+    <row r="1914" spans="1:9" ht="30">
       <c r="A1914" s="30" t="s">
         <v>1920</v>
       </c>
@@ -66068,7 +66168,7 @@
       </c>
       <c r="I1914" s="32"/>
     </row>
-    <row r="1915" spans="1:9" ht="45">
+    <row r="1915" spans="1:9" ht="60">
       <c r="A1915" s="30" t="s">
         <v>1921</v>
       </c>
@@ -66093,7 +66193,7 @@
       </c>
       <c r="I1915" s="32"/>
     </row>
-    <row r="1916" spans="1:9" ht="45">
+    <row r="1916" spans="1:9" ht="60">
       <c r="A1916" s="30" t="s">
         <v>1922</v>
       </c>
@@ -66118,7 +66218,7 @@
       </c>
       <c r="I1916" s="32"/>
     </row>
-    <row r="1917" spans="1:9" ht="45">
+    <row r="1917" spans="1:9" ht="60">
       <c r="A1917" s="30" t="s">
         <v>1923</v>
       </c>
@@ -66168,7 +66268,7 @@
       </c>
       <c r="I1918" s="32"/>
     </row>
-    <row r="1919" spans="1:9" ht="45">
+    <row r="1919" spans="1:9" ht="60">
       <c r="A1919" s="30" t="s">
         <v>1925</v>
       </c>
@@ -66220,7 +66320,7 @@
       </c>
       <c r="I1920" s="32"/>
     </row>
-    <row r="1921" spans="1:9">
+    <row r="1921" spans="1:9" ht="30">
       <c r="A1921" s="30" t="s">
         <v>1927</v>
       </c>
@@ -66270,7 +66370,7 @@
       </c>
       <c r="I1922" s="32"/>
     </row>
-    <row r="1923" spans="1:9" ht="45">
+    <row r="1923" spans="1:9" ht="60">
       <c r="A1923" s="30" t="s">
         <v>1929</v>
       </c>
@@ -66320,7 +66420,7 @@
       </c>
       <c r="I1924" s="32"/>
     </row>
-    <row r="1925" spans="1:9" ht="60">
+    <row r="1925" spans="1:9" ht="75">
       <c r="A1925" s="30" t="s">
         <v>1931</v>
       </c>
@@ -66370,7 +66470,7 @@
       </c>
       <c r="I1926" s="32"/>
     </row>
-    <row r="1927" spans="1:9" ht="60">
+    <row r="1927" spans="1:9" ht="75">
       <c r="A1927" s="30" t="s">
         <v>1933</v>
       </c>
@@ -66420,7 +66520,7 @@
       </c>
       <c r="I1928" s="32"/>
     </row>
-    <row r="1929" spans="1:9" ht="60">
+    <row r="1929" spans="1:9" ht="75">
       <c r="A1929" s="30" t="s">
         <v>1935</v>
       </c>
@@ -66445,7 +66545,7 @@
       </c>
       <c r="I1929" s="32"/>
     </row>
-    <row r="1930" spans="1:9" ht="60">
+    <row r="1930" spans="1:9" ht="75">
       <c r="A1930" s="30" t="s">
         <v>1936</v>
       </c>
@@ -66495,7 +66595,7 @@
       </c>
       <c r="I1931" s="32"/>
     </row>
-    <row r="1932" spans="1:9" ht="60">
+    <row r="1932" spans="1:9" ht="75">
       <c r="A1932" s="30" t="s">
         <v>1938</v>
       </c>
@@ -66520,7 +66620,7 @@
       </c>
       <c r="I1932" s="32"/>
     </row>
-    <row r="1933" spans="1:9" ht="45">
+    <row r="1933" spans="1:9" ht="60">
       <c r="A1933" s="30" t="s">
         <v>1939</v>
       </c>
@@ -66545,7 +66645,7 @@
       </c>
       <c r="I1933" s="32"/>
     </row>
-    <row r="1934" spans="1:9" ht="30">
+    <row r="1934" spans="1:9" ht="45">
       <c r="A1934" s="30" t="s">
         <v>1940</v>
       </c>
@@ -66570,7 +66670,7 @@
       </c>
       <c r="I1934" s="32"/>
     </row>
-    <row r="1935" spans="1:9" ht="60">
+    <row r="1935" spans="1:9" ht="75">
       <c r="A1935" s="30" t="s">
         <v>1941</v>
       </c>
@@ -66747,7 +66847,7 @@
       </c>
       <c r="I1941" s="32"/>
     </row>
-    <row r="1942" spans="1:9" ht="45">
+    <row r="1942" spans="1:9" ht="60">
       <c r="A1942" s="30" t="s">
         <v>1948</v>
       </c>
@@ -66851,7 +66951,7 @@
       </c>
       <c r="I1945" s="32"/>
     </row>
-    <row r="1946" spans="1:9" ht="30">
+    <row r="1946" spans="1:9" ht="45">
       <c r="A1946" s="30" t="s">
         <v>1952</v>
       </c>
@@ -66876,7 +66976,7 @@
       </c>
       <c r="I1946" s="32"/>
     </row>
-    <row r="1947" spans="1:9" ht="45">
+    <row r="1947" spans="1:9" ht="60">
       <c r="A1947" s="30" t="s">
         <v>1953</v>
       </c>
@@ -66903,14 +67003,14 @@
       </c>
       <c r="I1947" s="32"/>
     </row>
-    <row r="1948" spans="1:9" ht="45">
+    <row r="1948" spans="1:9" ht="60">
       <c r="A1948" s="30" t="s">
         <v>1954</v>
       </c>
       <c r="B1948" s="31" t="s">
         <v>2485</v>
       </c>
-      <c r="C1948" s="32" t="s">
+      <c r="C1948" s="20" t="s">
         <v>4180</v>
       </c>
       <c r="D1948" s="30"/>
@@ -67007,7 +67107,7 @@
       </c>
       <c r="I1951" s="32"/>
     </row>
-    <row r="1952" spans="1:9" ht="30">
+    <row r="1952" spans="1:9" ht="45">
       <c r="A1952" s="30" t="s">
         <v>1958</v>
       </c>
@@ -67032,7 +67132,7 @@
       </c>
       <c r="I1952" s="32"/>
     </row>
-    <row r="1953" spans="1:9" ht="30">
+    <row r="1953" spans="1:9" ht="45">
       <c r="A1953" s="30" t="s">
         <v>1959</v>
       </c>
@@ -67109,7 +67209,7 @@
       </c>
       <c r="I1955" s="32"/>
     </row>
-    <row r="1956" spans="1:9" ht="30">
+    <row r="1956" spans="1:9" ht="45">
       <c r="A1956" s="30" t="s">
         <v>1962</v>
       </c>
@@ -67161,7 +67261,7 @@
       </c>
       <c r="I1957" s="32"/>
     </row>
-    <row r="1958" spans="1:9" ht="30">
+    <row r="1958" spans="1:9" ht="45">
       <c r="A1958" s="30" t="s">
         <v>1964</v>
       </c>
@@ -67213,7 +67313,7 @@
       </c>
       <c r="I1959" s="32"/>
     </row>
-    <row r="1960" spans="1:9">
+    <row r="1960" spans="1:9" ht="30">
       <c r="A1960" s="30" t="s">
         <v>4763</v>
       </c>
@@ -67263,7 +67363,7 @@
       </c>
       <c r="I1961" s="32"/>
     </row>
-    <row r="1962" spans="1:9" ht="45">
+    <row r="1962" spans="1:9" ht="60">
       <c r="A1962" s="30" t="s">
         <v>1967</v>
       </c>
@@ -67419,7 +67519,7 @@
       </c>
       <c r="I1967" s="32"/>
     </row>
-    <row r="1968" spans="1:9" ht="45">
+    <row r="1968" spans="1:9" ht="60">
       <c r="A1968" s="30" t="s">
         <v>1973</v>
       </c>
@@ -67471,7 +67571,7 @@
       </c>
       <c r="I1969" s="32"/>
     </row>
-    <row r="1970" spans="1:9" ht="45">
+    <row r="1970" spans="1:9" ht="60">
       <c r="A1970" s="30" t="s">
         <v>1975</v>
       </c>
@@ -67548,7 +67648,7 @@
       </c>
       <c r="I1972" s="32"/>
     </row>
-    <row r="1973" spans="1:9" ht="30">
+    <row r="1973" spans="1:9" ht="45">
       <c r="A1973" s="30" t="s">
         <v>1978</v>
       </c>
@@ -67600,7 +67700,7 @@
       </c>
       <c r="I1974" s="32"/>
     </row>
-    <row r="1975" spans="1:9" ht="30">
+    <row r="1975" spans="1:9" ht="45">
       <c r="A1975" s="30" t="s">
         <v>1980</v>
       </c>
@@ -67877,7 +67977,7 @@
       </c>
       <c r="I1985" s="32"/>
     </row>
-    <row r="1986" spans="1:9" ht="30">
+    <row r="1986" spans="1:9" ht="45">
       <c r="A1986" s="30" t="s">
         <v>1991</v>
       </c>
@@ -67952,7 +68052,7 @@
       </c>
       <c r="I1988" s="32"/>
     </row>
-    <row r="1989" spans="1:9" ht="30">
+    <row r="1989" spans="1:9" ht="45">
       <c r="A1989" s="30" t="s">
         <v>1994</v>
       </c>
@@ -67977,7 +68077,7 @@
       </c>
       <c r="I1989" s="32"/>
     </row>
-    <row r="1990" spans="1:9">
+    <row r="1990" spans="1:9" ht="30">
       <c r="A1990" s="30" t="s">
         <v>1995</v>
       </c>
@@ -68002,7 +68102,7 @@
       </c>
       <c r="I1990" s="32"/>
     </row>
-    <row r="1991" spans="1:9" ht="30">
+    <row r="1991" spans="1:9" ht="45">
       <c r="A1991" s="30" t="s">
         <v>1996</v>
       </c>
@@ -68027,7 +68127,7 @@
       </c>
       <c r="I1991" s="32"/>
     </row>
-    <row r="1992" spans="1:9" ht="30">
+    <row r="1992" spans="1:9" ht="45">
       <c r="A1992" s="30" t="s">
         <v>1997</v>
       </c>
@@ -68077,7 +68177,7 @@
       </c>
       <c r="I1993" s="32"/>
     </row>
-    <row r="1994" spans="1:9" ht="30">
+    <row r="1994" spans="1:9" ht="45">
       <c r="A1994" s="30" t="s">
         <v>1999</v>
       </c>
@@ -68102,7 +68202,7 @@
       </c>
       <c r="I1994" s="32"/>
     </row>
-    <row r="1995" spans="1:9" ht="30">
+    <row r="1995" spans="1:9" ht="45">
       <c r="A1995" s="30" t="s">
         <v>2000</v>
       </c>
@@ -68202,7 +68302,7 @@
       </c>
       <c r="I1998" s="32"/>
     </row>
-    <row r="1999" spans="1:9" ht="30">
+    <row r="1999" spans="1:9" ht="45">
       <c r="A1999" s="30" t="s">
         <v>2004</v>
       </c>
@@ -68302,7 +68402,7 @@
       </c>
       <c r="I2002" s="32"/>
     </row>
-    <row r="2003" spans="1:9" ht="60">
+    <row r="2003" spans="1:9" ht="75">
       <c r="A2003" s="30" t="s">
         <v>2008</v>
       </c>
@@ -68352,7 +68452,7 @@
       </c>
       <c r="I2004" s="32"/>
     </row>
-    <row r="2005" spans="1:9">
+    <row r="2005" spans="1:9" ht="30">
       <c r="A2005" s="30" t="s">
         <v>2010</v>
       </c>
@@ -68402,7 +68502,7 @@
       </c>
       <c r="I2006" s="32"/>
     </row>
-    <row r="2007" spans="1:9">
+    <row r="2007" spans="1:9" ht="30">
       <c r="A2007" s="30" t="s">
         <v>2012</v>
       </c>
@@ -68452,7 +68552,7 @@
       </c>
       <c r="I2008" s="32"/>
     </row>
-    <row r="2009" spans="1:9">
+    <row r="2009" spans="1:9" ht="30">
       <c r="A2009" s="30" t="s">
         <v>2014</v>
       </c>
@@ -68553,7 +68653,7 @@
       <c r="I2012" s="32"/>
     </row>
     <row r="2013" spans="1:9" ht="45">
-      <c r="A2013" s="30" t="s">
+      <c r="A2013" s="22" t="s">
         <v>2018</v>
       </c>
       <c r="B2013" s="31" t="s">
@@ -68706,7 +68806,7 @@
       </c>
       <c r="I2018" s="32"/>
     </row>
-    <row r="2019" spans="1:9" ht="45">
+    <row r="2019" spans="1:9" ht="60">
       <c r="A2019" s="30" t="s">
         <v>2024</v>
       </c>
@@ -68733,7 +68833,7 @@
       </c>
       <c r="I2019" s="32"/>
     </row>
-    <row r="2020" spans="1:9" ht="45">
+    <row r="2020" spans="1:9" ht="60">
       <c r="A2020" s="30" t="s">
         <v>2025</v>
       </c>
@@ -68762,7 +68862,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2021" spans="1:9" ht="30">
+    <row r="2021" spans="1:9" ht="45">
       <c r="A2021" s="30" t="s">
         <v>2026</v>
       </c>
@@ -68789,7 +68889,7 @@
       </c>
       <c r="I2021" s="32"/>
     </row>
-    <row r="2022" spans="1:9" ht="45">
+    <row r="2022" spans="1:9" ht="60">
       <c r="A2022" s="30" t="s">
         <v>2027</v>
       </c>
@@ -68816,7 +68916,7 @@
       </c>
       <c r="I2022" s="32"/>
     </row>
-    <row r="2023" spans="1:9" ht="45">
+    <row r="2023" spans="1:9" ht="60">
       <c r="A2023" s="30" t="s">
         <v>2028</v>
       </c>
@@ -68845,7 +68945,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2024" spans="1:9" ht="30">
+    <row r="2024" spans="1:9" ht="45">
       <c r="A2024" s="30" t="s">
         <v>2029</v>
       </c>
@@ -68872,7 +68972,7 @@
       </c>
       <c r="I2024" s="32"/>
     </row>
-    <row r="2025" spans="1:9" ht="45">
+    <row r="2025" spans="1:9" ht="60">
       <c r="A2025" s="30" t="s">
         <v>2030</v>
       </c>
@@ -68899,7 +68999,7 @@
       </c>
       <c r="I2025" s="32"/>
     </row>
-    <row r="2026" spans="1:9" ht="45">
+    <row r="2026" spans="1:9" ht="60">
       <c r="A2026" s="30" t="s">
         <v>2031</v>
       </c>
@@ -68928,7 +69028,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2027" spans="1:9" ht="30">
+    <row r="2027" spans="1:9" ht="45">
       <c r="A2027" s="30" t="s">
         <v>2032</v>
       </c>
@@ -68955,7 +69055,7 @@
       </c>
       <c r="I2027" s="32"/>
     </row>
-    <row r="2028" spans="1:9" ht="45">
+    <row r="2028" spans="1:9" ht="60">
       <c r="A2028" s="30" t="s">
         <v>2033</v>
       </c>
@@ -68982,7 +69082,7 @@
       </c>
       <c r="I2028" s="32"/>
     </row>
-    <row r="2029" spans="1:9" ht="45">
+    <row r="2029" spans="1:9" ht="60">
       <c r="A2029" s="30" t="s">
         <v>2034</v>
       </c>
@@ -69011,7 +69111,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2030" spans="1:9" ht="30">
+    <row r="2030" spans="1:9" ht="45">
       <c r="A2030" s="30" t="s">
         <v>2035</v>
       </c>
@@ -69038,18 +69138,18 @@
       </c>
       <c r="I2030" s="32"/>
     </row>
-    <row r="2031" spans="1:9" ht="30">
-      <c r="A2031" s="30" t="s">
-        <v>4770</v>
+    <row r="2031" spans="1:9" ht="60">
+      <c r="A2031" s="22" t="s">
+        <v>4768</v>
       </c>
       <c r="B2031" s="31" t="s">
         <v>2493</v>
       </c>
-      <c r="C2031" s="32" t="s">
-        <v>4767</v>
+      <c r="C2031" s="20" t="s">
+        <v>4897</v>
       </c>
       <c r="D2031" s="30" t="s">
-        <v>4772</v>
+        <v>4770</v>
       </c>
       <c r="E2031" s="30" t="s">
         <v>22</v>
@@ -69066,17 +69166,17 @@
       <c r="I2031" s="32"/>
     </row>
     <row r="2032" spans="1:9" ht="30">
-      <c r="A2032" s="30" t="s">
-        <v>4771</v>
+      <c r="A2032" s="22" t="s">
+        <v>4769</v>
       </c>
       <c r="B2032" s="31" t="s">
         <v>2493</v>
       </c>
-      <c r="C2032" s="32" t="s">
-        <v>4768</v>
+      <c r="C2032" s="20" t="s">
+        <v>4896</v>
       </c>
       <c r="D2032" s="30" t="s">
-        <v>4772</v>
+        <v>4770</v>
       </c>
       <c r="E2032" s="30" t="s">
         <v>22</v>
@@ -69100,7 +69200,7 @@
         <v>2493</v>
       </c>
       <c r="C2033" s="32" t="s">
-        <v>4773</v>
+        <v>4771</v>
       </c>
       <c r="D2033" s="30" t="s">
         <v>4388</v>
@@ -69127,7 +69227,7 @@
         <v>2493</v>
       </c>
       <c r="C2034" s="32" t="s">
-        <v>4774</v>
+        <v>4772</v>
       </c>
       <c r="D2034" s="30" t="s">
         <v>4388</v>
@@ -69185,7 +69285,7 @@
         <v>2493</v>
       </c>
       <c r="C2036" s="32" t="s">
-        <v>4775</v>
+        <v>4773</v>
       </c>
       <c r="D2036" s="30" t="s">
         <v>4389</v>
@@ -69212,7 +69312,7 @@
         <v>2493</v>
       </c>
       <c r="C2037" s="32" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="D2037" s="30" t="s">
         <v>4389</v>
@@ -69233,7 +69333,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2038" spans="1:9" ht="30">
+    <row r="2038" spans="1:9" ht="45">
       <c r="A2038" s="30" t="s">
         <v>2041</v>
       </c>
@@ -69260,7 +69360,7 @@
       </c>
       <c r="I2038" s="32"/>
     </row>
-    <row r="2039" spans="1:9" ht="45">
+    <row r="2039" spans="1:9" ht="60">
       <c r="A2039" s="30" t="s">
         <v>2042</v>
       </c>
@@ -69268,7 +69368,7 @@
         <v>2493</v>
       </c>
       <c r="C2039" s="32" t="s">
-        <v>4777</v>
+        <v>4775</v>
       </c>
       <c r="D2039" s="30" t="s">
         <v>4390</v>
@@ -69287,7 +69387,7 @@
       </c>
       <c r="I2039" s="32"/>
     </row>
-    <row r="2040" spans="1:9" ht="45">
+    <row r="2040" spans="1:9" ht="60">
       <c r="A2040" s="30" t="s">
         <v>2043</v>
       </c>
@@ -69295,7 +69395,7 @@
         <v>2493</v>
       </c>
       <c r="C2040" s="32" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="D2040" s="30" t="s">
         <v>4390</v>
@@ -69343,7 +69443,7 @@
       </c>
       <c r="I2041" s="32"/>
     </row>
-    <row r="2042" spans="1:9" ht="45">
+    <row r="2042" spans="1:9" ht="60">
       <c r="A2042" s="30" t="s">
         <v>2045</v>
       </c>
@@ -69351,7 +69451,7 @@
         <v>2493</v>
       </c>
       <c r="C2042" s="32" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D2042" s="30" t="s">
         <v>4391</v>
@@ -69370,7 +69470,7 @@
       </c>
       <c r="I2042" s="32"/>
     </row>
-    <row r="2043" spans="1:9" ht="45">
+    <row r="2043" spans="1:9" ht="60">
       <c r="A2043" s="30" t="s">
         <v>2046</v>
       </c>
@@ -69378,7 +69478,7 @@
         <v>2493</v>
       </c>
       <c r="C2043" s="32" t="s">
-        <v>4780</v>
+        <v>4778</v>
       </c>
       <c r="D2043" s="30" t="s">
         <v>4391</v>
@@ -69399,7 +69499,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2044" spans="1:9" ht="45">
+    <row r="2044" spans="1:9" ht="60">
       <c r="A2044" s="30" t="s">
         <v>2047</v>
       </c>
@@ -69426,7 +69526,7 @@
       </c>
       <c r="I2044" s="32"/>
     </row>
-    <row r="2045" spans="1:9" ht="45">
+    <row r="2045" spans="1:9" ht="60">
       <c r="A2045" s="30" t="s">
         <v>2048</v>
       </c>
@@ -69434,7 +69534,7 @@
         <v>2493</v>
       </c>
       <c r="C2045" s="32" t="s">
-        <v>4781</v>
+        <v>4779</v>
       </c>
       <c r="D2045" s="30" t="s">
         <v>4392</v>
@@ -69453,7 +69553,7 @@
       </c>
       <c r="I2045" s="32"/>
     </row>
-    <row r="2046" spans="1:9" ht="45">
+    <row r="2046" spans="1:9" ht="60">
       <c r="A2046" s="30" t="s">
         <v>2049</v>
       </c>
@@ -69461,7 +69561,7 @@
         <v>2493</v>
       </c>
       <c r="C2046" s="32" t="s">
-        <v>4782</v>
+        <v>4780</v>
       </c>
       <c r="D2046" s="30" t="s">
         <v>4392</v>
@@ -69482,7 +69582,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2047" spans="1:9" ht="45">
+    <row r="2047" spans="1:9" ht="60">
       <c r="A2047" s="30" t="s">
         <v>2050</v>
       </c>
@@ -69509,7 +69609,7 @@
       </c>
       <c r="I2047" s="32"/>
     </row>
-    <row r="2048" spans="1:9" ht="60">
+    <row r="2048" spans="1:9" ht="75">
       <c r="A2048" s="30" t="s">
         <v>2051</v>
       </c>
@@ -69517,7 +69617,7 @@
         <v>2493</v>
       </c>
       <c r="C2048" s="32" t="s">
-        <v>4783</v>
+        <v>4781</v>
       </c>
       <c r="D2048" s="30" t="s">
         <v>4393</v>
@@ -69536,7 +69636,7 @@
       </c>
       <c r="I2048" s="32"/>
     </row>
-    <row r="2049" spans="1:9" ht="60">
+    <row r="2049" spans="1:9" ht="75">
       <c r="A2049" s="30" t="s">
         <v>2052</v>
       </c>
@@ -69544,7 +69644,7 @@
         <v>2493</v>
       </c>
       <c r="C2049" s="32" t="s">
-        <v>4784</v>
+        <v>4782</v>
       </c>
       <c r="D2049" s="30" t="s">
         <v>4393</v>
@@ -69592,7 +69692,7 @@
       </c>
       <c r="I2050" s="32"/>
     </row>
-    <row r="2051" spans="1:9" ht="45">
+    <row r="2051" spans="1:9" ht="60">
       <c r="A2051" s="30" t="s">
         <v>2054</v>
       </c>
@@ -69600,7 +69700,7 @@
         <v>2493</v>
       </c>
       <c r="C2051" s="32" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
       <c r="D2051" s="30" t="s">
         <v>4394</v>
@@ -69619,7 +69719,7 @@
       </c>
       <c r="I2051" s="32"/>
     </row>
-    <row r="2052" spans="1:9" ht="45">
+    <row r="2052" spans="1:9" ht="60">
       <c r="A2052" s="30" t="s">
         <v>2055</v>
       </c>
@@ -69627,7 +69727,7 @@
         <v>2493</v>
       </c>
       <c r="C2052" s="32" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="D2052" s="30" t="s">
         <v>4394</v>
@@ -69683,7 +69783,7 @@
         <v>2493</v>
       </c>
       <c r="C2054" s="32" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D2054" s="30" t="s">
         <v>4395</v>
@@ -69710,7 +69810,7 @@
         <v>2493</v>
       </c>
       <c r="C2055" s="32" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="D2055" s="30" t="s">
         <v>4396</v>
@@ -69758,7 +69858,7 @@
       </c>
       <c r="I2056" s="32"/>
     </row>
-    <row r="2057" spans="1:9" ht="45">
+    <row r="2057" spans="1:9" ht="60">
       <c r="A2057" s="30" t="s">
         <v>2060</v>
       </c>
@@ -69766,7 +69866,7 @@
         <v>2493</v>
       </c>
       <c r="C2057" s="32" t="s">
-        <v>4789</v>
+        <v>4787</v>
       </c>
       <c r="D2057" s="30" t="s">
         <v>4397</v>
@@ -69785,7 +69885,7 @@
       </c>
       <c r="I2057" s="32"/>
     </row>
-    <row r="2058" spans="1:9" ht="45">
+    <row r="2058" spans="1:9" ht="60">
       <c r="A2058" s="30" t="s">
         <v>2061</v>
       </c>
@@ -69793,7 +69893,7 @@
         <v>2493</v>
       </c>
       <c r="C2058" s="32" t="s">
-        <v>4790</v>
+        <v>4788</v>
       </c>
       <c r="D2058" s="30" t="s">
         <v>4397</v>
@@ -69843,7 +69943,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2060" spans="1:9" ht="45">
+    <row r="2060" spans="1:9" ht="60">
       <c r="A2060" s="30" t="s">
         <v>2063</v>
       </c>
@@ -69851,7 +69951,7 @@
         <v>2493</v>
       </c>
       <c r="C2060" s="32" t="s">
-        <v>4791</v>
+        <v>4789</v>
       </c>
       <c r="D2060" s="30" t="s">
         <v>4398</v>
@@ -69870,7 +69970,7 @@
       </c>
       <c r="I2060" s="32"/>
     </row>
-    <row r="2061" spans="1:9" ht="45">
+    <row r="2061" spans="1:9" ht="60">
       <c r="A2061" s="30" t="s">
         <v>2064</v>
       </c>
@@ -69878,7 +69978,7 @@
         <v>2493</v>
       </c>
       <c r="C2061" s="32" t="s">
-        <v>4792</v>
+        <v>4790</v>
       </c>
       <c r="D2061" s="30" t="s">
         <v>4398</v>
@@ -69928,7 +70028,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2063" spans="1:9" ht="45">
+    <row r="2063" spans="1:9" ht="60">
       <c r="A2063" s="30" t="s">
         <v>2066</v>
       </c>
@@ -69936,7 +70036,7 @@
         <v>2493</v>
       </c>
       <c r="C2063" s="32" t="s">
-        <v>4837</v>
+        <v>4835</v>
       </c>
       <c r="D2063" s="30" t="s">
         <v>4399</v>
@@ -69955,7 +70055,7 @@
       </c>
       <c r="I2063" s="32"/>
     </row>
-    <row r="2064" spans="1:9" ht="45">
+    <row r="2064" spans="1:9" ht="60">
       <c r="A2064" s="30" t="s">
         <v>2067</v>
       </c>
@@ -69963,7 +70063,7 @@
         <v>2493</v>
       </c>
       <c r="C2064" s="32" t="s">
-        <v>4836</v>
+        <v>4834</v>
       </c>
       <c r="D2064" s="30" t="s">
         <v>4399</v>
@@ -70019,7 +70119,7 @@
         <v>2493</v>
       </c>
       <c r="C2066" s="32" t="s">
-        <v>4793</v>
+        <v>4791</v>
       </c>
       <c r="D2066" s="30" t="s">
         <v>4400</v>
@@ -70040,7 +70140,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2067" spans="1:9" ht="30">
+    <row r="2067" spans="1:9" ht="45">
       <c r="A2067" s="30" t="s">
         <v>2070</v>
       </c>
@@ -70067,7 +70167,7 @@
       </c>
       <c r="I2067" s="32"/>
     </row>
-    <row r="2068" spans="1:9" ht="45">
+    <row r="2068" spans="1:9" ht="60">
       <c r="A2068" s="30" t="s">
         <v>2071</v>
       </c>
@@ -70075,7 +70175,7 @@
         <v>2493</v>
       </c>
       <c r="C2068" s="32" t="s">
-        <v>4794</v>
+        <v>4792</v>
       </c>
       <c r="D2068" s="30" t="s">
         <v>4401</v>
@@ -70131,7 +70231,7 @@
         <v>2493</v>
       </c>
       <c r="C2070" s="32" t="s">
-        <v>4795</v>
+        <v>4793</v>
       </c>
       <c r="D2070" s="30"/>
       <c r="E2070" s="30" t="s">
@@ -70150,7 +70250,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2071" spans="1:9" ht="45">
+    <row r="2071" spans="1:9" ht="60">
       <c r="A2071" s="30" t="s">
         <v>2074</v>
       </c>
@@ -70158,7 +70258,7 @@
         <v>2493</v>
       </c>
       <c r="C2071" s="32" t="s">
-        <v>4797</v>
+        <v>4795</v>
       </c>
       <c r="D2071" s="30" t="s">
         <v>4402</v>
@@ -70179,7 +70279,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2072" spans="1:9" ht="45">
+    <row r="2072" spans="1:9" ht="60">
       <c r="A2072" s="30" t="s">
         <v>2075</v>
       </c>
@@ -70187,7 +70287,7 @@
         <v>2493</v>
       </c>
       <c r="C2072" s="32" t="s">
-        <v>4798</v>
+        <v>4796</v>
       </c>
       <c r="D2072" s="30" t="s">
         <v>4402</v>
@@ -70243,7 +70343,7 @@
         <v>2493</v>
       </c>
       <c r="C2074" s="20" t="s">
-        <v>4799</v>
+        <v>4797</v>
       </c>
       <c r="D2074" s="30" t="s">
         <v>4403</v>
@@ -70291,7 +70391,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2076" spans="1:9" ht="45">
+    <row r="2076" spans="1:9" ht="60">
       <c r="A2076" s="30" t="s">
         <v>2079</v>
       </c>
@@ -70299,7 +70399,7 @@
         <v>2493</v>
       </c>
       <c r="C2076" s="20" t="s">
-        <v>4800</v>
+        <v>4798</v>
       </c>
       <c r="D2076" s="30" t="s">
         <v>4404</v>
@@ -70320,7 +70420,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2077" spans="1:9" ht="45">
+    <row r="2077" spans="1:9" ht="60">
       <c r="A2077" s="30" t="s">
         <v>2080</v>
       </c>
@@ -70328,7 +70428,7 @@
         <v>2493</v>
       </c>
       <c r="C2077" s="20" t="s">
-        <v>4801</v>
+        <v>4799</v>
       </c>
       <c r="D2077" s="30" t="s">
         <v>4404</v>
@@ -70384,7 +70484,7 @@
         <v>2493</v>
       </c>
       <c r="C2079" s="20" t="s">
-        <v>4802</v>
+        <v>4800</v>
       </c>
       <c r="D2079" s="30" t="s">
         <v>4405</v>
@@ -70432,7 +70532,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2081" spans="1:9" ht="45">
+    <row r="2081" spans="1:9" ht="60">
       <c r="A2081" s="30" t="s">
         <v>2084</v>
       </c>
@@ -70469,7 +70569,7 @@
         <v>2493</v>
       </c>
       <c r="C2082" s="20" t="s">
-        <v>4803</v>
+        <v>4801</v>
       </c>
       <c r="D2082" s="30" t="s">
         <v>4406</v>
@@ -70498,7 +70598,7 @@
         <v>2493</v>
       </c>
       <c r="C2083" s="20" t="s">
-        <v>4804</v>
+        <v>4802</v>
       </c>
       <c r="D2083" s="30" t="s">
         <v>4407</v>
@@ -70546,7 +70646,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2085" spans="1:9" ht="45">
+    <row r="2085" spans="1:9" ht="60">
       <c r="A2085" s="30" t="s">
         <v>2088</v>
       </c>
@@ -70554,7 +70654,7 @@
         <v>2493</v>
       </c>
       <c r="C2085" s="20" t="s">
-        <v>4805</v>
+        <v>4803</v>
       </c>
       <c r="D2085" s="30" t="s">
         <v>4408</v>
@@ -70575,7 +70675,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2086" spans="1:9" ht="45">
+    <row r="2086" spans="1:9" ht="60">
       <c r="A2086" s="30" t="s">
         <v>2089</v>
       </c>
@@ -70583,7 +70683,7 @@
         <v>2493</v>
       </c>
       <c r="C2086" s="20" t="s">
-        <v>4806</v>
+        <v>4804</v>
       </c>
       <c r="D2086" s="30" t="s">
         <v>4408</v>
@@ -70631,7 +70731,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2088" spans="1:9" ht="30">
+    <row r="2088" spans="1:9" ht="45">
       <c r="A2088" s="30" t="s">
         <v>2091</v>
       </c>
@@ -70639,7 +70739,7 @@
         <v>2493</v>
       </c>
       <c r="C2088" s="20" t="s">
-        <v>4808</v>
+        <v>4806</v>
       </c>
       <c r="D2088" s="30" t="s">
         <v>4409</v>
@@ -70724,7 +70824,7 @@
         <v>2493</v>
       </c>
       <c r="C2091" s="20" t="s">
-        <v>4835</v>
+        <v>4833</v>
       </c>
       <c r="D2091" s="30" t="s">
         <v>4410</v>
@@ -70745,7 +70845,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2092" spans="1:9" ht="30">
+    <row r="2092" spans="1:9" ht="45">
       <c r="A2092" s="30" t="s">
         <v>2095</v>
       </c>
@@ -70753,7 +70853,7 @@
         <v>2493</v>
       </c>
       <c r="C2092" s="20" t="s">
-        <v>4807</v>
+        <v>4805</v>
       </c>
       <c r="D2092" s="30" t="s">
         <v>4411</v>
@@ -70838,7 +70938,7 @@
         <v>2493</v>
       </c>
       <c r="C2095" s="20" t="s">
-        <v>4834</v>
+        <v>4832</v>
       </c>
       <c r="D2095" s="30" t="s">
         <v>4412</v>
@@ -70867,7 +70967,7 @@
         <v>2493</v>
       </c>
       <c r="C2096" s="20" t="s">
-        <v>4810</v>
+        <v>4808</v>
       </c>
       <c r="D2096" s="30"/>
       <c r="E2096" s="30" t="s">
@@ -70884,7 +70984,7 @@
       </c>
       <c r="I2096" s="32"/>
     </row>
-    <row r="2097" spans="1:9" ht="30">
+    <row r="2097" spans="1:9" ht="45">
       <c r="A2097" s="30" t="s">
         <v>2100</v>
       </c>
@@ -70892,7 +70992,7 @@
         <v>2493</v>
       </c>
       <c r="C2097" s="32" t="s">
-        <v>4811</v>
+        <v>4809</v>
       </c>
       <c r="D2097" s="30" t="s">
         <v>4413</v>
@@ -70940,7 +71040,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2099" spans="1:9" ht="45">
+    <row r="2099" spans="1:9" ht="60">
       <c r="A2099" s="30" t="s">
         <v>2102</v>
       </c>
@@ -70948,7 +71048,7 @@
         <v>2493</v>
       </c>
       <c r="C2099" s="32" t="s">
-        <v>4813</v>
+        <v>4811</v>
       </c>
       <c r="D2099" s="30" t="s">
         <v>4414</v>
@@ -70969,7 +71069,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2100" spans="1:9" ht="45">
+    <row r="2100" spans="1:9" ht="60">
       <c r="A2100" s="30" t="s">
         <v>2103</v>
       </c>
@@ -70977,7 +71077,7 @@
         <v>2493</v>
       </c>
       <c r="C2100" s="32" t="s">
-        <v>4814</v>
+        <v>4812</v>
       </c>
       <c r="D2100" s="30" t="s">
         <v>4414</v>
@@ -71025,7 +71125,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2102" spans="1:9" ht="45">
+    <row r="2102" spans="1:9" ht="60">
       <c r="A2102" s="30" t="s">
         <v>2105</v>
       </c>
@@ -71033,7 +71133,7 @@
         <v>2493</v>
       </c>
       <c r="C2102" s="32" t="s">
-        <v>4815</v>
+        <v>4813</v>
       </c>
       <c r="D2102" s="30" t="s">
         <v>4415</v>
@@ -71054,7 +71154,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2103" spans="1:9" ht="45">
+    <row r="2103" spans="1:9" ht="60">
       <c r="A2103" s="30" t="s">
         <v>2106</v>
       </c>
@@ -71062,7 +71162,7 @@
         <v>2493</v>
       </c>
       <c r="C2103" s="32" t="s">
-        <v>4816</v>
+        <v>4814</v>
       </c>
       <c r="D2103" s="30" t="s">
         <v>4415</v>
@@ -71110,7 +71210,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2105" spans="1:9" ht="30">
+    <row r="2105" spans="1:9" ht="45">
       <c r="A2105" s="30" t="s">
         <v>2108</v>
       </c>
@@ -71118,7 +71218,7 @@
         <v>2493</v>
       </c>
       <c r="C2105" s="32" t="s">
-        <v>4817</v>
+        <v>4815</v>
       </c>
       <c r="D2105" s="30" t="s">
         <v>4416</v>
@@ -71166,7 +71266,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2107" spans="1:9" ht="45">
+    <row r="2107" spans="1:9" ht="60">
       <c r="A2107" s="30" t="s">
         <v>2110</v>
       </c>
@@ -71174,7 +71274,7 @@
         <v>2493</v>
       </c>
       <c r="C2107" s="32" t="s">
-        <v>4818</v>
+        <v>4816</v>
       </c>
       <c r="D2107" s="30" t="s">
         <v>4417</v>
@@ -71195,7 +71295,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2108" spans="1:9" ht="45">
+    <row r="2108" spans="1:9" ht="60">
       <c r="A2108" s="30" t="s">
         <v>2111</v>
       </c>
@@ -71203,7 +71303,7 @@
         <v>2493</v>
       </c>
       <c r="C2108" s="32" t="s">
-        <v>4819</v>
+        <v>4817</v>
       </c>
       <c r="D2108" s="30" t="s">
         <v>4417</v>
@@ -71259,7 +71359,7 @@
         <v>2493</v>
       </c>
       <c r="C2110" s="32" t="s">
-        <v>4820</v>
+        <v>4818</v>
       </c>
       <c r="D2110" s="30" t="s">
         <v>4418</v>
@@ -71307,7 +71407,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2112" spans="1:9" ht="45">
+    <row r="2112" spans="1:9" ht="60">
       <c r="A2112" s="30" t="s">
         <v>2115</v>
       </c>
@@ -71315,7 +71415,7 @@
         <v>2493</v>
       </c>
       <c r="C2112" s="32" t="s">
-        <v>4824</v>
+        <v>4822</v>
       </c>
       <c r="D2112" s="30" t="s">
         <v>4419</v>
@@ -71336,7 +71436,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2113" spans="1:9" ht="45">
+    <row r="2113" spans="1:9" ht="60">
       <c r="A2113" s="30" t="s">
         <v>2116</v>
       </c>
@@ -71344,7 +71444,7 @@
         <v>2493</v>
       </c>
       <c r="C2113" s="32" t="s">
-        <v>4823</v>
+        <v>4821</v>
       </c>
       <c r="D2113" s="30" t="s">
         <v>4419</v>
@@ -71392,7 +71492,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2115" spans="1:9" ht="45">
+    <row r="2115" spans="1:9" ht="60">
       <c r="A2115" s="30" t="s">
         <v>2118</v>
       </c>
@@ -71400,7 +71500,7 @@
         <v>2493</v>
       </c>
       <c r="C2115" s="32" t="s">
-        <v>4825</v>
+        <v>4823</v>
       </c>
       <c r="D2115" s="30" t="s">
         <v>4420</v>
@@ -71421,7 +71521,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2116" spans="1:9" ht="45">
+    <row r="2116" spans="1:9" ht="60">
       <c r="A2116" s="30" t="s">
         <v>2119</v>
       </c>
@@ -71429,7 +71529,7 @@
         <v>2493</v>
       </c>
       <c r="C2116" s="32" t="s">
-        <v>4826</v>
+        <v>4824</v>
       </c>
       <c r="D2116" s="30" t="s">
         <v>4420</v>
@@ -71477,7 +71577,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2118" spans="1:9" ht="45">
+    <row r="2118" spans="1:9" ht="60">
       <c r="A2118" s="30" t="s">
         <v>2121</v>
       </c>
@@ -71485,7 +71585,7 @@
         <v>2493</v>
       </c>
       <c r="C2118" s="32" t="s">
-        <v>4827</v>
+        <v>4825</v>
       </c>
       <c r="D2118" s="30" t="s">
         <v>4421</v>
@@ -71506,7 +71606,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2119" spans="1:9" ht="45">
+    <row r="2119" spans="1:9" ht="60">
       <c r="A2119" s="30" t="s">
         <v>2122</v>
       </c>
@@ -71514,7 +71614,7 @@
         <v>2493</v>
       </c>
       <c r="C2119" s="32" t="s">
-        <v>4828</v>
+        <v>4826</v>
       </c>
       <c r="D2119" s="30" t="s">
         <v>4421</v>
@@ -71570,7 +71670,7 @@
         <v>2493</v>
       </c>
       <c r="C2121" s="32" t="s">
-        <v>4829</v>
+        <v>4827</v>
       </c>
       <c r="D2121" s="30" t="s">
         <v>4422</v>
@@ -71620,7 +71720,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2123" spans="1:9" ht="45">
+    <row r="2123" spans="1:9" ht="60">
       <c r="A2123" s="30" t="s">
         <v>2126</v>
       </c>
@@ -71628,7 +71728,7 @@
         <v>2493</v>
       </c>
       <c r="C2123" s="32" t="s">
-        <v>4830</v>
+        <v>4828</v>
       </c>
       <c r="D2123" s="30" t="s">
         <v>4423</v>
@@ -71649,7 +71749,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2124" spans="1:9" ht="45">
+    <row r="2124" spans="1:9" ht="60">
       <c r="A2124" s="30" t="s">
         <v>2127</v>
       </c>
@@ -71657,7 +71757,7 @@
         <v>2493</v>
       </c>
       <c r="C2124" s="32" t="s">
-        <v>4831</v>
+        <v>4829</v>
       </c>
       <c r="D2124" s="30" t="s">
         <v>4423</v>
@@ -71705,7 +71805,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2126" spans="1:9" ht="45">
+    <row r="2126" spans="1:9" ht="60">
       <c r="A2126" s="30" t="s">
         <v>2129</v>
       </c>
@@ -71713,7 +71813,7 @@
         <v>2493</v>
       </c>
       <c r="C2126" s="32" t="s">
-        <v>4832</v>
+        <v>4830</v>
       </c>
       <c r="D2126" s="30" t="s">
         <v>4424</v>
@@ -71734,7 +71834,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2127" spans="1:9" ht="45">
+    <row r="2127" spans="1:9" ht="60">
       <c r="A2127" s="30" t="s">
         <v>2130</v>
       </c>
@@ -71742,7 +71842,7 @@
         <v>2493</v>
       </c>
       <c r="C2127" s="32" t="s">
-        <v>4833</v>
+        <v>4831</v>
       </c>
       <c r="D2127" s="30" t="s">
         <v>4424</v>
@@ -71790,7 +71890,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2129" spans="1:9" ht="30">
+    <row r="2129" spans="1:9" ht="45">
       <c r="A2129" s="30" t="s">
         <v>2132</v>
       </c>
@@ -71798,7 +71898,7 @@
         <v>2493</v>
       </c>
       <c r="C2129" s="32" t="s">
-        <v>4839</v>
+        <v>4837</v>
       </c>
       <c r="D2129" s="30" t="s">
         <v>4425</v>
@@ -71846,7 +71946,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2131" spans="1:9" ht="45">
+    <row r="2131" spans="1:9" ht="60">
       <c r="A2131" s="30" t="s">
         <v>2134</v>
       </c>
@@ -71854,7 +71954,7 @@
         <v>2493</v>
       </c>
       <c r="C2131" s="32" t="s">
-        <v>4840</v>
+        <v>4838</v>
       </c>
       <c r="D2131" s="30" t="s">
         <v>4426</v>
@@ -71875,7 +71975,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2132" spans="1:9" ht="45">
+    <row r="2132" spans="1:9" ht="60">
       <c r="A2132" s="30" t="s">
         <v>2135</v>
       </c>
@@ -71883,7 +71983,7 @@
         <v>2493</v>
       </c>
       <c r="C2132" s="32" t="s">
-        <v>4841</v>
+        <v>4839</v>
       </c>
       <c r="D2132" s="30" t="s">
         <v>4426</v>
@@ -71939,7 +72039,7 @@
         <v>2493</v>
       </c>
       <c r="C2134" s="32" t="s">
-        <v>4842</v>
+        <v>4840</v>
       </c>
       <c r="D2134" s="30" t="s">
         <v>4427</v>
@@ -71987,7 +72087,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2136" spans="1:9" ht="45">
+    <row r="2136" spans="1:9" ht="60">
       <c r="A2136" s="30" t="s">
         <v>2139</v>
       </c>
@@ -71995,7 +72095,7 @@
         <v>2493</v>
       </c>
       <c r="C2136" s="32" t="s">
-        <v>4843</v>
+        <v>4841</v>
       </c>
       <c r="D2136" s="30" t="s">
         <v>4428</v>
@@ -72016,7 +72116,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2137" spans="1:9" ht="45">
+    <row r="2137" spans="1:9" ht="60">
       <c r="A2137" s="30" t="s">
         <v>2140</v>
       </c>
@@ -72024,7 +72124,7 @@
         <v>2493</v>
       </c>
       <c r="C2137" s="32" t="s">
-        <v>4844</v>
+        <v>4842</v>
       </c>
       <c r="D2137" s="30" t="s">
         <v>4428</v>
@@ -72109,7 +72209,7 @@
         <v>2493</v>
       </c>
       <c r="C2140" s="32" t="s">
-        <v>4845</v>
+        <v>4843</v>
       </c>
       <c r="D2140" s="30" t="s">
         <v>4429</v>
@@ -72138,7 +72238,7 @@
         <v>2493</v>
       </c>
       <c r="C2141" s="32" t="s">
-        <v>4846</v>
+        <v>4844</v>
       </c>
       <c r="D2141" s="30" t="s">
         <v>4430</v>
@@ -72165,7 +72265,7 @@
         <v>2493</v>
       </c>
       <c r="C2142" s="32" t="s">
-        <v>4847</v>
+        <v>4845</v>
       </c>
       <c r="D2142" s="30" t="s">
         <v>4430</v>
@@ -72213,7 +72313,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2144" spans="1:9" ht="45">
+    <row r="2144" spans="1:9" ht="60">
       <c r="A2144" s="30" t="s">
         <v>2147</v>
       </c>
@@ -72221,7 +72321,7 @@
         <v>2493</v>
       </c>
       <c r="C2144" s="32" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="D2144" s="30" t="s">
         <v>4431</v>
@@ -72240,7 +72340,7 @@
       </c>
       <c r="I2144" s="32"/>
     </row>
-    <row r="2145" spans="1:9" ht="45">
+    <row r="2145" spans="1:9" ht="60">
       <c r="A2145" s="30" t="s">
         <v>2148</v>
       </c>
@@ -72248,7 +72348,7 @@
         <v>2493</v>
       </c>
       <c r="C2145" s="32" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D2145" s="30" t="s">
         <v>4431</v>
@@ -72298,7 +72398,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2147" spans="1:9" ht="45">
+    <row r="2147" spans="1:9" ht="60">
       <c r="A2147" s="30" t="s">
         <v>2150</v>
       </c>
@@ -72306,7 +72406,7 @@
         <v>2493</v>
       </c>
       <c r="C2147" s="32" t="s">
-        <v>4850</v>
+        <v>4848</v>
       </c>
       <c r="D2147" s="30" t="s">
         <v>4432</v>
@@ -72327,7 +72427,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2148" spans="1:9" ht="45">
+    <row r="2148" spans="1:9" ht="60">
       <c r="A2148" s="30" t="s">
         <v>2151</v>
       </c>
@@ -72335,7 +72435,7 @@
         <v>2493</v>
       </c>
       <c r="C2148" s="32" t="s">
-        <v>4851</v>
+        <v>4849</v>
       </c>
       <c r="D2148" s="30" t="s">
         <v>4432</v>
@@ -72391,7 +72491,7 @@
         <v>2493</v>
       </c>
       <c r="C2150" s="32" t="s">
-        <v>4852</v>
+        <v>4850</v>
       </c>
       <c r="D2150" s="30" t="s">
         <v>4433</v>
@@ -72439,7 +72539,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2152" spans="1:9" ht="45">
+    <row r="2152" spans="1:9" ht="60">
       <c r="A2152" s="30" t="s">
         <v>2155</v>
       </c>
@@ -72447,7 +72547,7 @@
         <v>2493</v>
       </c>
       <c r="C2152" s="32" t="s">
-        <v>4853</v>
+        <v>4851</v>
       </c>
       <c r="D2152" s="30" t="s">
         <v>4434</v>
@@ -72497,7 +72597,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2154" spans="1:9" ht="75">
+    <row r="2154" spans="1:9" ht="90">
       <c r="A2154" s="30" t="s">
         <v>2157</v>
       </c>
@@ -72505,7 +72605,7 @@
         <v>2493</v>
       </c>
       <c r="C2154" s="32" t="s">
-        <v>4854</v>
+        <v>4852</v>
       </c>
       <c r="D2154" s="30" t="s">
         <v>4435</v>
@@ -72582,7 +72682,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2157" spans="1:9" ht="45">
+    <row r="2157" spans="1:9" ht="60">
       <c r="A2157" s="30" t="s">
         <v>2160</v>
       </c>
@@ -72590,7 +72690,7 @@
         <v>2493</v>
       </c>
       <c r="C2157" s="32" t="s">
-        <v>4855</v>
+        <v>4853</v>
       </c>
       <c r="D2157" s="30" t="s">
         <v>4437</v>
@@ -72640,7 +72740,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2159" spans="1:9" ht="60">
+    <row r="2159" spans="1:9" ht="75">
       <c r="A2159" s="30" t="s">
         <v>2162</v>
       </c>
@@ -72648,7 +72748,7 @@
         <v>2493</v>
       </c>
       <c r="C2159" s="32" t="s">
-        <v>4856</v>
+        <v>4854</v>
       </c>
       <c r="D2159" s="30" t="s">
         <v>4438</v>
@@ -72669,7 +72769,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2160" spans="1:9" ht="60">
+    <row r="2160" spans="1:9" ht="75">
       <c r="A2160" s="30" t="s">
         <v>2163</v>
       </c>
@@ -72677,7 +72777,7 @@
         <v>2493</v>
       </c>
       <c r="C2160" s="32" t="s">
-        <v>4857</v>
+        <v>4855</v>
       </c>
       <c r="D2160" s="30" t="s">
         <v>4438</v>
@@ -72698,7 +72798,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2161" spans="1:9" ht="60">
+    <row r="2161" spans="1:9" ht="75">
       <c r="A2161" s="30" t="s">
         <v>2164</v>
       </c>
@@ -72735,7 +72835,7 @@
         <v>2493</v>
       </c>
       <c r="C2162" s="32" t="s">
-        <v>4859</v>
+        <v>4857</v>
       </c>
       <c r="D2162" s="30" t="s">
         <v>4439</v>
@@ -72762,7 +72862,7 @@
         <v>2493</v>
       </c>
       <c r="C2163" s="32" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="D2163" s="30" t="s">
         <v>4439</v>
@@ -72810,7 +72910,7 @@
       </c>
       <c r="I2164" s="32"/>
     </row>
-    <row r="2165" spans="1:9" ht="75">
+    <row r="2165" spans="1:9" ht="90">
       <c r="A2165" s="30" t="s">
         <v>2168</v>
       </c>
@@ -72847,7 +72947,7 @@
         <v>2493</v>
       </c>
       <c r="C2166" s="32" t="s">
-        <v>4858</v>
+        <v>4856</v>
       </c>
       <c r="D2166" s="30" t="s">
         <v>4441</v>
@@ -72868,7 +72968,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2167" spans="1:9" ht="60">
+    <row r="2167" spans="1:9" ht="75">
       <c r="A2167" s="30" t="s">
         <v>2170</v>
       </c>
@@ -72897,7 +72997,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2168" spans="1:9" ht="45">
+    <row r="2168" spans="1:9" ht="60">
       <c r="A2168" s="30" t="s">
         <v>2171</v>
       </c>
@@ -72959,7 +73059,7 @@
         <v>2493</v>
       </c>
       <c r="C2170" s="32" t="s">
-        <v>4861</v>
+        <v>4859</v>
       </c>
       <c r="D2170" s="30" t="s">
         <v>4443</v>
@@ -73007,7 +73107,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2172" spans="1:9" ht="60">
+    <row r="2172" spans="1:9" ht="75">
       <c r="A2172" s="30" t="s">
         <v>2175</v>
       </c>
@@ -73090,7 +73190,7 @@
       </c>
       <c r="I2174" s="32"/>
     </row>
-    <row r="2175" spans="1:9" ht="30">
+    <row r="2175" spans="1:9" ht="45">
       <c r="A2175" s="30" t="s">
         <v>2178</v>
       </c>
@@ -73098,7 +73198,7 @@
         <v>2493</v>
       </c>
       <c r="C2175" s="32" t="s">
-        <v>4863</v>
+        <v>4861</v>
       </c>
       <c r="D2175" s="30" t="s">
         <v>4446</v>
@@ -73125,7 +73225,7 @@
         <v>2493</v>
       </c>
       <c r="C2176" s="32" t="s">
-        <v>4864</v>
+        <v>4862</v>
       </c>
       <c r="D2176" s="30" t="s">
         <v>4446</v>
@@ -73173,7 +73273,7 @@
       </c>
       <c r="I2177" s="32"/>
     </row>
-    <row r="2178" spans="1:9" ht="45">
+    <row r="2178" spans="1:9" ht="60">
       <c r="A2178" s="30" t="s">
         <v>2181</v>
       </c>
@@ -73181,7 +73281,7 @@
         <v>2493</v>
       </c>
       <c r="C2178" s="32" t="s">
-        <v>4865</v>
+        <v>4863</v>
       </c>
       <c r="D2178" s="30" t="s">
         <v>4447</v>
@@ -73202,7 +73302,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2179" spans="1:9" ht="45">
+    <row r="2179" spans="1:9" ht="60">
       <c r="A2179" s="30" t="s">
         <v>2182</v>
       </c>
@@ -73210,7 +73310,7 @@
         <v>2493</v>
       </c>
       <c r="C2179" s="32" t="s">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="D2179" s="30" t="s">
         <v>4447</v>
@@ -73258,7 +73358,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2181" spans="1:9" ht="45">
+    <row r="2181" spans="1:9" ht="60">
       <c r="A2181" s="30" t="s">
         <v>2184</v>
       </c>
@@ -73266,7 +73366,7 @@
         <v>2493</v>
       </c>
       <c r="C2181" s="32" t="s">
-        <v>4867</v>
+        <v>4865</v>
       </c>
       <c r="D2181" s="30" t="s">
         <v>4448</v>
@@ -73285,7 +73385,7 @@
       </c>
       <c r="I2181" s="32"/>
     </row>
-    <row r="2182" spans="1:9" ht="45">
+    <row r="2182" spans="1:9" ht="60">
       <c r="A2182" s="30" t="s">
         <v>2185</v>
       </c>
@@ -73293,7 +73393,7 @@
         <v>2493</v>
       </c>
       <c r="C2182" s="32" t="s">
-        <v>4868</v>
+        <v>4866</v>
       </c>
       <c r="D2182" s="30" t="s">
         <v>4448</v>
@@ -73351,7 +73451,7 @@
         <v>2493</v>
       </c>
       <c r="C2184" s="32" t="s">
-        <v>4869</v>
+        <v>4867</v>
       </c>
       <c r="D2184" s="30" t="s">
         <v>4449</v>
@@ -73399,7 +73499,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2186" spans="1:9" ht="45">
+    <row r="2186" spans="1:9" ht="60">
       <c r="A2186" s="30" t="s">
         <v>2189</v>
       </c>
@@ -73407,7 +73507,7 @@
         <v>2493</v>
       </c>
       <c r="C2186" s="32" t="s">
-        <v>4870</v>
+        <v>4868</v>
       </c>
       <c r="D2186" s="30" t="s">
         <v>4450</v>
@@ -73428,7 +73528,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2187" spans="1:9" ht="45">
+    <row r="2187" spans="1:9" ht="60">
       <c r="A2187" s="30" t="s">
         <v>2190</v>
       </c>
@@ -73436,7 +73536,7 @@
         <v>2493</v>
       </c>
       <c r="C2187" s="32" t="s">
-        <v>4871</v>
+        <v>4869</v>
       </c>
       <c r="D2187" s="30" t="s">
         <v>4450</v>
@@ -73484,7 +73584,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2189" spans="1:9" ht="60">
+    <row r="2189" spans="1:9" ht="75">
       <c r="A2189" s="30" t="s">
         <v>2192</v>
       </c>
@@ -73594,7 +73694,7 @@
       </c>
       <c r="I2192" s="32"/>
     </row>
-    <row r="2193" spans="1:9" ht="90">
+    <row r="2193" spans="1:9" ht="105">
       <c r="A2193" s="30" t="s">
         <v>2196</v>
       </c>
@@ -73602,7 +73702,7 @@
         <v>2493</v>
       </c>
       <c r="C2193" s="32" t="s">
-        <v>4872</v>
+        <v>4870</v>
       </c>
       <c r="D2193" s="30" t="s">
         <v>4451</v>
@@ -73704,7 +73804,7 @@
       </c>
       <c r="I2196" s="32"/>
     </row>
-    <row r="2197" spans="1:9" ht="30">
+    <row r="2197" spans="1:9" ht="45">
       <c r="A2197" s="30" t="s">
         <v>2200</v>
       </c>
@@ -73712,7 +73812,7 @@
         <v>2493</v>
       </c>
       <c r="C2197" s="32" t="s">
-        <v>4873</v>
+        <v>4871</v>
       </c>
       <c r="D2197" s="30" t="s">
         <v>4454</v>
@@ -73768,7 +73868,7 @@
         <v>2493</v>
       </c>
       <c r="C2199" s="32" t="s">
-        <v>4874</v>
+        <v>4872</v>
       </c>
       <c r="D2199" s="30" t="s">
         <v>4455</v>
@@ -73818,7 +73918,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2201" spans="1:9" ht="30">
+    <row r="2201" spans="1:9" ht="45">
       <c r="A2201" s="30" t="s">
         <v>2204</v>
       </c>
@@ -73826,7 +73926,7 @@
         <v>2493</v>
       </c>
       <c r="C2201" s="32" t="s">
-        <v>4875</v>
+        <v>4873</v>
       </c>
       <c r="D2201" s="30" t="s">
         <v>4456</v>
@@ -73874,7 +73974,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2203" spans="1:9" ht="45">
+    <row r="2203" spans="1:9" ht="60">
       <c r="A2203" s="30" t="s">
         <v>2206</v>
       </c>
@@ -73882,7 +73982,7 @@
         <v>2493</v>
       </c>
       <c r="C2203" s="32" t="s">
-        <v>4876</v>
+        <v>4874</v>
       </c>
       <c r="D2203" s="30" t="s">
         <v>4457</v>
@@ -73903,7 +74003,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2204" spans="1:9" ht="45">
+    <row r="2204" spans="1:9" ht="60">
       <c r="A2204" s="30" t="s">
         <v>2207</v>
       </c>
@@ -73911,7 +74011,7 @@
         <v>2493</v>
       </c>
       <c r="C2204" s="32" t="s">
-        <v>4877</v>
+        <v>4875</v>
       </c>
       <c r="D2204" s="30" t="s">
         <v>4457</v>
@@ -73967,7 +74067,7 @@
         <v>2493</v>
       </c>
       <c r="C2206" s="32" t="s">
-        <v>4878</v>
+        <v>4876</v>
       </c>
       <c r="D2206" s="30" t="s">
         <v>4458</v>
@@ -74015,7 +74115,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2208" spans="1:9" ht="45">
+    <row r="2208" spans="1:9" ht="60">
       <c r="A2208" s="30" t="s">
         <v>2211</v>
       </c>
@@ -74023,7 +74123,7 @@
         <v>2493</v>
       </c>
       <c r="C2208" s="32" t="s">
-        <v>4879</v>
+        <v>4877</v>
       </c>
       <c r="D2208" s="30" t="s">
         <v>4459</v>
@@ -74044,7 +74144,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2209" spans="1:9" ht="45">
+    <row r="2209" spans="1:9" ht="60">
       <c r="A2209" s="30" t="s">
         <v>2212</v>
       </c>
@@ -74052,7 +74152,7 @@
         <v>2493</v>
       </c>
       <c r="C2209" s="32" t="s">
-        <v>4880</v>
+        <v>4878</v>
       </c>
       <c r="D2209" s="30" t="s">
         <v>4459</v>
@@ -74108,7 +74208,7 @@
         <v>2493</v>
       </c>
       <c r="C2211" s="32" t="s">
-        <v>4881</v>
+        <v>4879</v>
       </c>
       <c r="D2211" s="30" t="s">
         <v>4460</v>
@@ -74156,7 +74256,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2213" spans="1:9" ht="45">
+    <row r="2213" spans="1:9" ht="60">
       <c r="A2213" s="30" t="s">
         <v>2216</v>
       </c>
@@ -74164,7 +74264,7 @@
         <v>2493</v>
       </c>
       <c r="C2213" s="32" t="s">
-        <v>4882</v>
+        <v>4880</v>
       </c>
       <c r="D2213" s="30" t="s">
         <v>4461</v>
@@ -74185,7 +74285,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2214" spans="1:9" ht="45">
+    <row r="2214" spans="1:9" ht="60">
       <c r="A2214" s="30" t="s">
         <v>2217</v>
       </c>
@@ -74193,7 +74293,7 @@
         <v>2493</v>
       </c>
       <c r="C2214" s="32" t="s">
-        <v>4883</v>
+        <v>4881</v>
       </c>
       <c r="D2214" s="30" t="s">
         <v>4461</v>
@@ -74241,7 +74341,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2216" spans="1:9" ht="45">
+    <row r="2216" spans="1:9" ht="60">
       <c r="A2216" s="30" t="s">
         <v>2219</v>
       </c>
@@ -74249,7 +74349,7 @@
         <v>2493</v>
       </c>
       <c r="C2216" s="32" t="s">
-        <v>4884</v>
+        <v>4882</v>
       </c>
       <c r="D2216" s="30" t="s">
         <v>4462</v>
@@ -74270,7 +74370,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2217" spans="1:9" ht="45">
+    <row r="2217" spans="1:9" ht="60">
       <c r="A2217" s="30" t="s">
         <v>2220</v>
       </c>
@@ -74278,7 +74378,7 @@
         <v>2493</v>
       </c>
       <c r="C2217" s="32" t="s">
-        <v>4885</v>
+        <v>4883</v>
       </c>
       <c r="D2217" s="30" t="s">
         <v>4462</v>
@@ -74297,7 +74397,7 @@
       </c>
       <c r="I2217" s="32"/>
     </row>
-    <row r="2218" spans="1:9" ht="45">
+    <row r="2218" spans="1:9" ht="60">
       <c r="A2218" s="30" t="s">
         <v>2221</v>
       </c>
@@ -74326,7 +74426,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2219" spans="1:9" ht="45">
+    <row r="2219" spans="1:9" ht="60">
       <c r="A2219" s="30" t="s">
         <v>2222</v>
       </c>
@@ -74334,7 +74434,7 @@
         <v>2493</v>
       </c>
       <c r="C2219" s="32" t="s">
-        <v>4886</v>
+        <v>4884</v>
       </c>
       <c r="D2219" s="30" t="s">
         <v>4463</v>
@@ -74353,7 +74453,7 @@
       </c>
       <c r="I2219" s="32"/>
     </row>
-    <row r="2220" spans="1:9" ht="45">
+    <row r="2220" spans="1:9" ht="60">
       <c r="A2220" s="30" t="s">
         <v>2223</v>
       </c>
@@ -74361,7 +74461,7 @@
         <v>2493</v>
       </c>
       <c r="C2220" s="32" t="s">
-        <v>4887</v>
+        <v>4885</v>
       </c>
       <c r="D2220" s="30" t="s">
         <v>4463</v>
@@ -74409,8 +74509,8 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2222" spans="1:9" ht="45">
-      <c r="A2222" s="30" t="s">
+    <row r="2222" spans="1:9" ht="60">
+      <c r="A2222" s="22" t="s">
         <v>2225</v>
       </c>
       <c r="B2222" s="31" t="s">
@@ -74465,7 +74565,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2224" spans="1:9" ht="60">
+    <row r="2224" spans="1:9" ht="75">
       <c r="A2224" s="30" t="s">
         <v>2227</v>
       </c>
@@ -74494,7 +74594,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2225" spans="1:9" ht="45">
+    <row r="2225" spans="1:9" ht="60">
       <c r="A2225" s="30" t="s">
         <v>2228</v>
       </c>
@@ -74523,7 +74623,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2226" spans="1:9" ht="45">
+    <row r="2226" spans="1:9" ht="60">
       <c r="A2226" s="30" t="s">
         <v>2229</v>
       </c>
@@ -74552,7 +74652,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2227" spans="1:9" ht="45">
+    <row r="2227" spans="1:9" ht="60">
       <c r="A2227" s="30" t="s">
         <v>2230</v>
       </c>
@@ -74560,7 +74660,7 @@
         <v>2493</v>
       </c>
       <c r="C2227" s="32" t="s">
-        <v>4888</v>
+        <v>4886</v>
       </c>
       <c r="D2227" s="30" t="s">
         <v>4468</v>
@@ -74618,7 +74718,7 @@
         <v>2493</v>
       </c>
       <c r="C2229" s="32" t="s">
-        <v>4889</v>
+        <v>4887</v>
       </c>
       <c r="D2229" s="30" t="s">
         <v>4469</v>
@@ -74645,7 +74745,7 @@
         <v>2493</v>
       </c>
       <c r="C2230" s="32" t="s">
-        <v>4890</v>
+        <v>4888</v>
       </c>
       <c r="D2230" s="30" t="s">
         <v>4469</v>
@@ -74730,7 +74830,7 @@
         <v>2493</v>
       </c>
       <c r="C2233" s="32" t="s">
-        <v>4891</v>
+        <v>4889</v>
       </c>
       <c r="D2233" s="30" t="s">
         <v>4470</v>
@@ -74757,7 +74857,7 @@
         <v>2493</v>
       </c>
       <c r="C2234" s="32" t="s">
-        <v>4892</v>
+        <v>4890</v>
       </c>
       <c r="D2234" s="30" t="s">
         <v>4470</v>
@@ -74806,7 +74906,7 @@
       </c>
     </row>
     <row r="2236" spans="1:9" ht="45">
-      <c r="A2236" s="30" t="s">
+      <c r="A2236" s="22" t="s">
         <v>2239</v>
       </c>
       <c r="B2236" s="31" t="s">
@@ -74815,7 +74915,7 @@
       <c r="C2236" s="20" t="s">
         <v>4347</v>
       </c>
-      <c r="D2236" s="30" t="s">
+      <c r="D2236" s="22" t="s">
         <v>4471</v>
       </c>
       <c r="E2236" s="30" t="s">
@@ -74834,41 +74934,73 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2237" spans="1:9" ht="105">
-      <c r="A2237" s="30" t="s">
+    <row r="2237" spans="1:9" ht="30">
+      <c r="A2237" s="22" t="s">
+        <v>4894</v>
+      </c>
+      <c r="B2237" s="47" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C2237" s="48" t="s">
+        <v>4895</v>
+      </c>
+      <c r="D2237" s="46" t="s">
+        <v>4893</v>
+      </c>
+      <c r="E2237" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2237" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2237" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2237" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2237" s="48"/>
+    </row>
+    <row r="2238" spans="1:9" ht="105">
+      <c r="A2238" s="30" t="s">
         <v>2240</v>
       </c>
-      <c r="B2237" s="31" t="s">
+      <c r="B2238" s="31" t="s">
         <v>2494</v>
       </c>
-      <c r="C2237" s="32" t="s">
+      <c r="C2238" s="32" t="s">
         <v>4348</v>
       </c>
-      <c r="D2237" s="30"/>
-      <c r="E2237" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2237" s="30" t="s">
+      <c r="D2238" s="30"/>
+      <c r="E2238" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2238" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G2237" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2237" s="30" t="s">
+      <c r="G2238" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2238" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I2237" s="32"/>
-    </row>
-    <row r="2238" spans="1:9">
-      <c r="A2238" s="3"/>
-      <c r="B2238" s="10"/>
+      <c r="I2238" s="32"/>
     </row>
     <row r="2239" spans="1:9">
       <c r="A2239" s="3"/>
       <c r="B2239" s="10"/>
     </row>
+    <row r="2240" spans="1:9">
+      <c r="A2240" s="3"/>
+      <c r="B2240" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -74876,58 +75008,53 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2237">
-    <cfRule type="expression" dxfId="26" priority="53">
+  <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
+    <cfRule type="expression" dxfId="27" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="54">
+    <cfRule type="expression" dxfId="26" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="61">
+    <cfRule type="expression" dxfId="25" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2237">
-    <cfRule type="expression" dxfId="23" priority="7">
+  <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="23" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F2237">
-    <cfRule type="expression" dxfId="20" priority="13">
+  <conditionalFormatting sqref="F20:F2238">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F2237">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F2238">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E2237">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E2238">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G2237">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G2238">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H2237">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H2238">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -74937,7 +75064,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B1615 B2071:B2171 B1616:B1624 B1756:B2032 B2033:B2070 B2172:B2218 B2219:B2239 B1625:B1755 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B2238:B2240 C3 B19:B1488 B1489:B2236" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -74947,21 +75074,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -75010,16 +75122,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75033,16 +75161,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -16924,19 +16924,19 @@
     <t>Verified by derived requirements: MS-LISTSWS_R742001001.</t>
   </si>
   <si>
-    <t>MS-LISTSWS_R976:I, MS-LISTSWS_R976001001</t>
-  </si>
-  <si>
-    <t>MS-LISTSWS_R976001001</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not return the filed when the filed  referenced in a FieldRef element of viewFields has no value filled.</t>
-  </si>
-  <si>
     <t>Implementation does not return to the client, when the client attempts to open files asynchronously from the server. (SharePoint Foundation 2010 follows this behavior.)</t>
   </si>
   <si>
     <t>Implementation does return to the client, when the client attempts to open files asynchronously from the server.&lt;8&gt;Section 2.2.4.11:  This attribute is returned by SharePoint Foundation 2013. (SharePoint Foundation 2013 and SharePoint Server 2016 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-LISTSWS_R976:I,LISTSWS_R742001:i</t>
+  </si>
+  <si>
+    <t>MS-LISTSWS_R742001001</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not return the filed when the filed  referenced in a FieldRef element of viewFields has no value filled. (SharePoint Foundation 2010 and above follow this behavior.)</t>
   </si>
 </sst>
 </file>
@@ -17214,6 +17214,30 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17238,183 +17262,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <b val="0"/>
@@ -17753,6 +17605,50 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -17882,34 +17778,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I2238" tableType="xml" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I2238" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I2238"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="44">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="43">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="42">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="41">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="40">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="39">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="38">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="37">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="36">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -17918,12 +17814,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="30"/>
-    <tableColumn id="2" name="Test" dataDxfId="29"/>
-    <tableColumn id="3" name="Description" dataDxfId="28"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18219,8 +18115,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2027" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2031" sqref="C2031"/>
+    <sheetView tabSelected="1" topLeftCell="A2231" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2233" sqref="C2233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18275,127 +18171,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18408,12 +18304,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18426,12 +18322,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18444,12 +18340,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18462,60 +18358,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -69146,7 +69042,7 @@
         <v>2493</v>
       </c>
       <c r="C2031" s="20" t="s">
-        <v>4897</v>
+        <v>4894</v>
       </c>
       <c r="D2031" s="30" t="s">
         <v>4770</v>
@@ -69173,7 +69069,7 @@
         <v>2493</v>
       </c>
       <c r="C2032" s="20" t="s">
-        <v>4896</v>
+        <v>4893</v>
       </c>
       <c r="D2032" s="30" t="s">
         <v>4770</v>
@@ -74934,18 +74830,18 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="2237" spans="1:9" ht="30">
+    <row r="2237" spans="1:9" ht="45">
       <c r="A2237" s="22" t="s">
-        <v>4894</v>
-      </c>
-      <c r="B2237" s="47" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B2237" s="34" t="s">
         <v>2493</v>
       </c>
-      <c r="C2237" s="48" t="s">
+      <c r="C2237" s="35" t="s">
+        <v>4897</v>
+      </c>
+      <c r="D2237" s="33" t="s">
         <v>4895</v>
-      </c>
-      <c r="D2237" s="46" t="s">
-        <v>4893</v>
       </c>
       <c r="E2237" s="30" t="s">
         <v>22</v>
@@ -74953,13 +74849,13 @@
       <c r="F2237" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2237" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2237" s="46" t="s">
+      <c r="G2237" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2237" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I2237" s="48"/>
+      <c r="I2237" s="35"/>
     </row>
     <row r="2238" spans="1:9" ht="105">
       <c r="A2238" s="30" t="s">
@@ -74996,11 +74892,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -75008,35 +74899,40 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
-    <cfRule type="expression" dxfId="27" priority="53">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="54">
+    <cfRule type="expression" dxfId="25" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="61">
+    <cfRule type="expression" dxfId="24" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F2238">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -75074,6 +74970,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -75122,32 +75033,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75161,15 +75056,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16061" uniqueCount="4898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16062" uniqueCount="4898">
   <si>
     <t>Req ID</t>
   </si>
@@ -16936,7 +16936,7 @@
     <t>MS-LISTSWS_R742001001</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not return the filed when the filed  referenced in a FieldRef element of viewFields has no value filled. (SharePoint Foundation 2010 and above follow this behavior.)</t>
+    <t>[In Appendix B: Product Behavior] Implementation does not return the filed when the filed  referenced in a FieldRef element of viewFields has no value filled. (Windows SharePoint Services 3.0 and above follow this behavior.)</t>
   </si>
 </sst>
 </file>
@@ -17223,21 +17223,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17262,11 +17247,56 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -17778,34 +17808,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I2238" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I2238" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
   <autoFilter ref="A19:I2238"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -17814,12 +17844,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="8"/>
+    <tableColumn id="2" name="Test" dataDxfId="7"/>
+    <tableColumn id="3" name="Description" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18115,8 +18145,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2231" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2233" sqref="C2233"/>
+    <sheetView tabSelected="1" topLeftCell="D2232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2237" sqref="I2237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18171,127 +18201,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18304,12 +18334,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18322,12 +18352,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18340,12 +18370,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18358,60 +18388,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -24935,7 +24965,7 @@
       <c r="B279" s="31" t="s">
         <v>2254</v>
       </c>
-      <c r="C279" s="32" t="s">
+      <c r="C279" s="20" t="s">
         <v>4581</v>
       </c>
       <c r="D279" s="30"/>
@@ -74855,7 +74885,9 @@
       <c r="H2237" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I2237" s="35"/>
+      <c r="I2237" s="32" t="s">
+        <v>4530</v>
+      </c>
     </row>
     <row r="2238" spans="1:9" ht="105">
       <c r="A2238" s="30" t="s">
@@ -74892,6 +74924,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -74899,40 +74936,35 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
-    <cfRule type="expression" dxfId="26" priority="53">
+    <cfRule type="expression" dxfId="32" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="54">
+    <cfRule type="expression" dxfId="31" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="61">
+    <cfRule type="expression" dxfId="30" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F2238">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="26" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="25" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -74970,21 +75002,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -75033,16 +75050,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75056,16 +75089,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -17223,6 +17223,21 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17247,56 +17262,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <b val="0"/>
@@ -17808,34 +17778,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I2238" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I2238" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I2238"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="20">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -17844,12 +17814,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="8"/>
-    <tableColumn id="2" name="Test" dataDxfId="7"/>
-    <tableColumn id="3" name="Description" dataDxfId="6"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18145,9 +18115,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2237" sqref="I2237"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -18201,127 +18169,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18334,12 +18302,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18352,12 +18320,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18370,12 +18338,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18388,60 +18356,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -23554,7 +23522,7 @@
         <v>15</v>
       </c>
       <c r="H222" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I222" s="32"/>
     </row>
@@ -26791,8 +26759,8 @@
       <c r="G350" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H350" s="30" t="s">
-        <v>21</v>
+      <c r="H350" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I350" s="32"/>
     </row>
@@ -53779,7 +53747,7 @@
       <c r="B1425" s="31" t="s">
         <v>2429</v>
       </c>
-      <c r="C1425" s="32" t="s">
+      <c r="C1425" s="20" t="s">
         <v>3732</v>
       </c>
       <c r="D1425" s="30"/>
@@ -70145,7 +70113,7 @@
         <v>15</v>
       </c>
       <c r="H2069" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2069" s="32"/>
     </row>
@@ -74924,11 +74892,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -74936,35 +74899,40 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
-    <cfRule type="expression" dxfId="32" priority="53">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="54">
+    <cfRule type="expression" dxfId="25" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="61">
+    <cfRule type="expression" dxfId="24" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F2238">
-    <cfRule type="expression" dxfId="26" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -75002,6 +74970,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -75050,32 +75033,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75089,15 +75056,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -17223,21 +17223,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17261,6 +17246,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18115,7 +18115,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C372" sqref="C372"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -18169,127 +18171,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18302,12 +18304,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18320,12 +18322,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18338,12 +18340,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18356,60 +18358,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -24908,7 +24910,7 @@
       <c r="B278" s="31" t="s">
         <v>2254</v>
       </c>
-      <c r="C278" s="32" t="s">
+      <c r="C278" s="20" t="s">
         <v>2747</v>
       </c>
       <c r="D278" s="30"/>
@@ -24921,8 +24923,8 @@
       <c r="G278" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H278" s="30" t="s">
-        <v>21</v>
+      <c r="H278" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I278" s="32"/>
     </row>
@@ -53585,8 +53587,8 @@
       <c r="G1418" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H1418" s="30" t="s">
-        <v>20</v>
+      <c r="H1418" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I1418" s="32"/>
     </row>
@@ -58298,7 +58300,7 @@
       <c r="B1606" s="31" t="s">
         <v>2451</v>
       </c>
-      <c r="C1606" s="32" t="s">
+      <c r="C1606" s="20" t="s">
         <v>4729</v>
       </c>
       <c r="D1606" s="30"/>
@@ -58317,13 +58319,13 @@
       <c r="I1606" s="32"/>
     </row>
     <row r="1607" spans="1:9" ht="60">
-      <c r="A1607" s="30" t="s">
+      <c r="A1607" s="22" t="s">
         <v>4730</v>
       </c>
       <c r="B1607" s="31" t="s">
         <v>2451</v>
       </c>
-      <c r="C1607" s="32" t="s">
+      <c r="C1607" s="20" t="s">
         <v>4731</v>
       </c>
       <c r="D1607" s="30"/>
@@ -74892,6 +74894,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -74899,11 +74906,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
@@ -74970,21 +74972,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -75033,16 +75020,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75056,16 +75059,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -17223,6 +17223,21 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17246,21 +17261,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18115,8 +18115,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C372" sqref="C372"/>
+    <sheetView tabSelected="1" topLeftCell="D364" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H374" sqref="H374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18171,127 +18171,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18304,12 +18304,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18322,12 +18322,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18340,12 +18340,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18358,60 +18358,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -27340,8 +27340,8 @@
       <c r="G373" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H373" s="30" t="s">
-        <v>21</v>
+      <c r="H373" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I373" s="32"/>
     </row>
@@ -27365,8 +27365,8 @@
       <c r="G374" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H374" s="30" t="s">
-        <v>21</v>
+      <c r="H374" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I374" s="32"/>
     </row>
@@ -27390,8 +27390,8 @@
       <c r="G375" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H375" s="30" t="s">
-        <v>21</v>
+      <c r="H375" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I375" s="32"/>
     </row>
@@ -38091,8 +38091,8 @@
       <c r="G802" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H802" s="30" t="s">
-        <v>20</v>
+      <c r="H802" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I802" s="32"/>
     </row>
@@ -53337,8 +53337,8 @@
       <c r="G1408" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H1408" s="30" t="s">
-        <v>20</v>
+      <c r="H1408" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I1408" s="32"/>
     </row>
@@ -62077,8 +62077,8 @@
       <c r="G1756" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H1756" s="30" t="s">
-        <v>21</v>
+      <c r="H1756" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I1756" s="32"/>
     </row>
@@ -74894,11 +74894,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -74906,6 +74901,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
@@ -74972,6 +74972,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -75020,32 +75035,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75059,15 +75058,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -18115,8 +18115,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D364" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H374" sqref="H374"/>
+    <sheetView tabSelected="1" topLeftCell="A1401" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1409" sqref="C1409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -58335,11 +58335,11 @@
       <c r="F1607" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G1607" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1607" s="30" t="s">
-        <v>20</v>
+      <c r="G1607" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1607" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I1607" s="32"/>
     </row>
@@ -75039,12 +75039,12 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -17223,21 +17223,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17261,6 +17246,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18115,13 +18115,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1401" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1409" sqref="C1409"/>
+    <sheetView tabSelected="1" topLeftCell="D1601" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1609" sqref="H1609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -18171,127 +18171,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18304,12 +18304,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18322,12 +18322,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18340,12 +18340,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18358,60 +18358,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -58275,7 +58275,7 @@
       <c r="B1605" s="31" t="s">
         <v>2451</v>
       </c>
-      <c r="C1605" s="32" t="s">
+      <c r="C1605" s="20" t="s">
         <v>4728</v>
       </c>
       <c r="D1605" s="30"/>
@@ -58336,10 +58336,10 @@
         <v>6</v>
       </c>
       <c r="G1607" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1607" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1607" s="32"/>
     </row>
@@ -74894,6 +74894,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -74901,11 +74906,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I1338 A34:I2238">
@@ -74972,21 +74972,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -75035,16 +75020,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -75058,16 +75059,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9233F8-9132-4F90-B37E-D8D1E19EF12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04863DC-0B03-4175-8E41-7390212E0043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16205" uniqueCount="4957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16205" uniqueCount="4958">
   <si>
     <t>Req ID</t>
   </si>
@@ -17403,6 +17403,10 @@
 	  &lt;s:attribute name="RootFolderId" type="s:string" use="optional"/&gt;
 	  &lt;s:attribute name="IrmSyncable" type="core:TRUEFALSE" use="optional"/&gt;/&gt;
 	&lt;/s:complexType&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-LISTSWS_R542000102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17691,6 +17695,21 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17714,21 +17733,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18671,127 +18675,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -18804,12 +18808,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18822,12 +18826,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -18840,12 +18844,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -18858,60 +18862,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -70543,7 +70547,7 @@
     </row>
     <row r="2068" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2068" s="22" t="s">
-        <v>4747</v>
+        <v>4957</v>
       </c>
       <c r="B2068" s="24" t="s">
         <v>4745</v>
@@ -75876,11 +75880,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -75888,6 +75887,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I310 A34:I2256">
@@ -75954,6 +75958,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -76002,32 +76021,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -76041,15 +76044,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1B6DB4-D3D2-4B69-B401-03022F57FA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96987DB-E893-4235-9009-5B64CA78C96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2340" windowWidth="21195" windowHeight="12480" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="1305" windowWidth="25890" windowHeight="12480" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -17687,6 +17687,21 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17710,21 +17725,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18613,8 +18613,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H323" sqref="H323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18669,127 +18669,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18802,12 +18802,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18820,12 +18820,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18838,12 +18838,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18856,60 +18856,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -26481,7 +26481,7 @@
         <v>15</v>
       </c>
       <c r="H319" s="36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I319" s="37"/>
     </row>
@@ -26581,7 +26581,7 @@
         <v>15</v>
       </c>
       <c r="H323" s="36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I323" s="37"/>
     </row>
@@ -76026,11 +76026,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -76038,6 +76033,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I310 A34:I2262">
@@ -76104,9 +76104,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76159,24 +76162,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -76197,9 +76191,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96987DB-E893-4235-9009-5B64CA78C96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6568204C-7B15-4D02-84A8-AA418DCDA042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1305" windowWidth="25890" windowHeight="12480" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25890" windowHeight="12480" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -17687,21 +17687,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17725,6 +17710,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18613,8 +18613,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H323" sqref="H323"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18669,127 +18669,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18802,12 +18802,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18820,12 +18820,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18838,12 +18838,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18856,60 +18856,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -26481,7 +26481,7 @@
         <v>15</v>
       </c>
       <c r="H319" s="36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I319" s="37"/>
     </row>
@@ -26581,7 +26581,7 @@
         <v>15</v>
       </c>
       <c r="H323" s="36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I323" s="37"/>
     </row>
@@ -76026,6 +76026,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -76033,11 +76038,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I310 A34:I2262">
@@ -76104,12 +76104,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76162,15 +76159,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -76191,15 +76197,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-LISTSWS/MS-LISTSWS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD625739-D700-44DD-B562-66BBC22BAB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D241E03-4BF9-4201-9742-9129A68A2CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -14174,9 +14174,6 @@
     <t>[In GetListItemChangesSinceToken operation]Implementation does return the inner XML of the Changes element which contains the full List element from the GetList operation, if there have been schema changes made to the list after the change token.(Microsoft SharePoint Foundation 2010 and above follow this behavior.)</t>
   </si>
   <si>
-    <t>Implementation does support this method [GetListItemChangesWithKnowledge]. (Microsoft SharePoint Foundation 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In GetListItemChangesWithKnowledge] Implementation does retrieve all rows when get list item changes with knowledge excluding this parameter[rowLimit], passing an empty element, or specifying a value of 0, unless the knowledge parameter is specified. (The 2007 Microsoft® Office system/Windows® SharePoint® Services 3.0 and above follow this behavior.)</t>
   </si>
   <si>
@@ -14274,9 +14271,6 @@
   </si>
   <si>
     <t>Implementation does support this behavior[UpdateListItemsWithKnowledge.Move]. (Microsoft SharePoint Foundation 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>Implementation does support this method[UpdateListItemsWithKnowledge]. (Microsoft SharePoint Foundation 2010 and above follow this behavior.)</t>
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does support this method[UpdateList] and assume the default view will be used, if the Method.AddToView attribute present and its value is not a GUID.(SharePoint Foundation 2010 and above follow this behavior.)</t>
@@ -16170,10 +16164,6 @@
   </si>
   <si>
     <t>MS-LISTSWS_R424:i,MS-LISTSWS_R976:i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-LISTSWS_R267001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -17062,9 +17052,6 @@
     <t>[In GetListItemChangesWithKnowledge operation] The GetListItemChangesWithKnowledge operation is used to return changes made to a specified list after the event expressed by the knowledge parameter, if specified, or to return all the list items in the list.&lt;72&gt;</t>
   </si>
   <si>
-    <t>Implementation does not support this method[GetListItemChangesWithKnowledge]. [In Appendix B: Product Behavior]&lt;72&gt; Section 3.1.4.23:  Windows SharePoint Services 2.0 and Windows SharePoint Services 3.0 do not support this operation.</t>
-  </si>
-  <si>
     <t>[In GetListItemChangesWithKnowledgeResponse][MaxRecommendedEmbeddedFileSize Attribute]The default is 500 megabytes.&lt;73&gt;</t>
   </si>
   <si>
@@ -17233,9 +17220,6 @@
     <t>Implementation does not support this method[UpdateListItemsWithKnowledge]. [In Appendix B: Product Behavior]&lt;93&gt; Section 3.1.4.32:  Windows SharePoint Services 2.0 do not support this method[UpdateListItemsWithKnowledge].</t>
   </si>
   <si>
-    <t>Implementation does not support this method[UpdateListItemsWithKnowledge]. [In Appendix B: Product Behavior]&lt;93&gt; Section 3.1.4.32:  Windows SharePoint Services 3.0 do not support this method[UpdateListItemsWithKnowledge].</t>
-  </si>
-  <si>
     <t>Implementation does not return this attribute[ListDefinitionCT.RootFolderId]. [In Appendix B: Product Behavior] &lt;24&gt; Section 2.2.4.11:  This attribute is not returned in Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, SharePoint Foundation 2010 and SharePoint Foundation 2013.</t>
   </si>
   <si>
@@ -17246,6 +17230,21 @@
   </si>
   <si>
     <t>[In UpdateContentTypesXmlDocument operation] If the list specified by the listName is not found, the protocol server SHOULD&lt;84&gt; return a SOAP fault with error code 0x82000006.</t>
+  </si>
+  <si>
+    <t>Implementation does not support this method[GetListItemChangesWithKnowledge]. [In Appendix B: Product Behavior]&lt;72&gt; Section 3.1.4.23:  Windows SharePoint Services 2.0, Windows SharePoint Services 3.0 and SharePoint Server Subscription Edition do not support this operation.</t>
+  </si>
+  <si>
+    <t>Implementation does support this method [GetListItemChangesWithKnowledge]. (Microsoft SharePoint Foundation 2010 and above follow this behavior, except for SharePoint Server Subscription Edition.)</t>
+  </si>
+  <si>
+    <t>Implementation does support this method[UpdateListItemsWithKnowledge]. (Microsoft SharePoint Foundation 2010 and above follow this behavior, except for SharePoint Server Subscription Edition.)</t>
+  </si>
+  <si>
+    <t>MS-LISTSWS_R267001</t>
+  </si>
+  <si>
+    <t>Implementation does not support this method[UpdateListItemsWithKnowledge]. [In Appendix B: Product Behavior]&lt;93&gt; Section 3.1.4.32:  Windows SharePoint Services 3.0 and SharePoint Server Subscription Edition do not support this method[UpdateListItemsWithKnowledge].</t>
   </si>
 </sst>
 </file>
@@ -17544,6 +17543,21 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -17567,21 +17581,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18470,8 +18469,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L2264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1696" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1701" sqref="C1701"/>
+    <sheetView tabSelected="1" topLeftCell="A2191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2194" sqref="C2194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18491,7 +18490,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>4514</v>
+        <v>4512</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -18501,7 +18500,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>4515</v>
+        <v>4513</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -18515,138 +18514,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>4754</v>
+        <v>4751</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>4516</v>
+        <v>4514</v>
       </c>
       <c r="F3" s="12">
-        <v>44474</v>
+        <v>44607</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -18659,12 +18658,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -18677,12 +18676,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -18695,12 +18694,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -18713,60 +18712,60 @@
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -18849,7 +18848,7 @@
         <v>17</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>4419</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="23" customFormat="1" ht="30">
@@ -18860,7 +18859,7 @@
         <v>2217</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>4685</v>
+        <v>4682</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -18885,7 +18884,7 @@
         <v>2217</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>4683</v>
+        <v>4680</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
@@ -18935,7 +18934,7 @@
         <v>2218</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>4684</v>
+        <v>4681</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -20560,7 +20559,7 @@
         <v>2223</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>4520</v>
+        <v>4518</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="29" t="s">
@@ -22101,7 +22100,7 @@
         <v>17</v>
       </c>
       <c r="I151" s="31" t="s">
-        <v>4420</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="30">
@@ -22115,7 +22114,7 @@
         <v>2599</v>
       </c>
       <c r="D152" s="29" t="s">
-        <v>4300</v>
+        <v>4298</v>
       </c>
       <c r="E152" s="29" t="s">
         <v>19</v>
@@ -22439,7 +22438,7 @@
         <v>2226</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>4521</v>
+        <v>4519</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29" t="s">
@@ -22592,7 +22591,7 @@
         <v>2617</v>
       </c>
       <c r="D171" s="29" t="s">
-        <v>4301</v>
+        <v>4299</v>
       </c>
       <c r="E171" s="29" t="s">
         <v>19</v>
@@ -23410,13 +23409,13 @@
     </row>
     <row r="204" spans="1:9" ht="409.5">
       <c r="A204" s="22" t="s">
-        <v>4741</v>
+        <v>4738</v>
       </c>
       <c r="B204" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>4743</v>
+        <v>4740</v>
       </c>
       <c r="D204" s="29"/>
       <c r="E204" s="29" t="s">
@@ -23491,7 +23490,7 @@
         <v>2230</v>
       </c>
       <c r="C207" s="31" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="D207" s="29"/>
       <c r="E207" s="29" t="s">
@@ -23516,7 +23515,7 @@
         <v>2230</v>
       </c>
       <c r="C208" s="31" t="s">
-        <v>4523</v>
+        <v>4521</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
@@ -23685,13 +23684,13 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="29" t="s">
-        <v>4525</v>
+        <v>4523</v>
       </c>
       <c r="B215" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C215" s="31" t="s">
-        <v>4524</v>
+        <v>4522</v>
       </c>
       <c r="D215" s="29"/>
       <c r="E215" s="29" t="s">
@@ -23991,7 +23990,7 @@
         <v>2230</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>4708</v>
+        <v>4705</v>
       </c>
       <c r="D227" s="29"/>
       <c r="E227" s="29" t="s">
@@ -24010,7 +24009,7 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="22" t="s">
-        <v>4704</v>
+        <v>4701</v>
       </c>
       <c r="B228" s="30" t="s">
         <v>2230</v>
@@ -25285,13 +25284,13 @@
     </row>
     <row r="279" spans="1:9" ht="30">
       <c r="A279" s="29" t="s">
-        <v>4528</v>
+        <v>4526</v>
       </c>
       <c r="B279" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>4526</v>
+        <v>4524</v>
       </c>
       <c r="D279" s="29"/>
       <c r="E279" s="29" t="s">
@@ -25310,13 +25309,13 @@
     </row>
     <row r="280" spans="1:9" ht="30">
       <c r="A280" s="22" t="s">
-        <v>4529</v>
+        <v>4527</v>
       </c>
       <c r="B280" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>4527</v>
+        <v>4525</v>
       </c>
       <c r="D280" s="29"/>
       <c r="E280" s="29" t="s">
@@ -25482,7 +25481,7 @@
         <v>17</v>
       </c>
       <c r="I286" s="31" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -25609,7 +25608,7 @@
         <v>17</v>
       </c>
       <c r="I291" s="31" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="45">
@@ -25636,7 +25635,7 @@
         <v>17</v>
       </c>
       <c r="I292" s="31" t="s">
-        <v>4423</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="30">
@@ -25738,18 +25737,18 @@
         <v>17</v>
       </c>
       <c r="I296" s="31" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="30">
       <c r="A297" s="29" t="s">
-        <v>4532</v>
+        <v>4530</v>
       </c>
       <c r="B297" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C297" s="31" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="D297" s="29"/>
       <c r="E297" s="29" t="s">
@@ -25768,13 +25767,13 @@
     </row>
     <row r="298" spans="1:9" ht="60">
       <c r="A298" s="29" t="s">
-        <v>4533</v>
+        <v>4531</v>
       </c>
       <c r="B298" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>4531</v>
+        <v>4529</v>
       </c>
       <c r="D298" s="29"/>
       <c r="E298" s="29" t="s">
@@ -25790,7 +25789,7 @@
         <v>17</v>
       </c>
       <c r="I298" s="20" t="s">
-        <v>4705</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="60">
@@ -25801,7 +25800,7 @@
         <v>2230</v>
       </c>
       <c r="C299" s="31" t="s">
-        <v>4534</v>
+        <v>4532</v>
       </c>
       <c r="D299" s="29"/>
       <c r="E299" s="29" t="s">
@@ -25817,18 +25816,18 @@
         <v>17</v>
       </c>
       <c r="I299" s="31" t="s">
-        <v>4425</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="45">
       <c r="A300" s="22" t="s">
-        <v>4710</v>
+        <v>4707</v>
       </c>
       <c r="B300" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C300" s="31" t="s">
-        <v>4535</v>
+        <v>4533</v>
       </c>
       <c r="D300" s="29"/>
       <c r="E300" s="29" t="s">
@@ -25844,7 +25843,7 @@
         <v>17</v>
       </c>
       <c r="I300" s="31" t="s">
-        <v>4426</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="45">
@@ -25855,7 +25854,7 @@
         <v>2230</v>
       </c>
       <c r="C301" s="31" t="s">
-        <v>4536</v>
+        <v>4534</v>
       </c>
       <c r="D301" s="29"/>
       <c r="E301" s="29" t="s">
@@ -25871,7 +25870,7 @@
         <v>17</v>
       </c>
       <c r="I301" s="31" t="s">
-        <v>4427</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="45">
@@ -25882,7 +25881,7 @@
         <v>2230</v>
       </c>
       <c r="C302" s="31" t="s">
-        <v>4537</v>
+        <v>4535</v>
       </c>
       <c r="D302" s="29"/>
       <c r="E302" s="29" t="s">
@@ -25898,7 +25897,7 @@
         <v>17</v>
       </c>
       <c r="I302" s="31" t="s">
-        <v>4428</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="45">
@@ -25909,7 +25908,7 @@
         <v>2230</v>
       </c>
       <c r="C303" s="31" t="s">
-        <v>4538</v>
+        <v>4536</v>
       </c>
       <c r="D303" s="29"/>
       <c r="E303" s="29" t="s">
@@ -25925,7 +25924,7 @@
         <v>17</v>
       </c>
       <c r="I303" s="31" t="s">
-        <v>4429</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="45">
@@ -25936,7 +25935,7 @@
         <v>2230</v>
       </c>
       <c r="C304" s="31" t="s">
-        <v>4539</v>
+        <v>4537</v>
       </c>
       <c r="D304" s="29"/>
       <c r="E304" s="29" t="s">
@@ -25952,7 +25951,7 @@
         <v>17</v>
       </c>
       <c r="I304" s="31" t="s">
-        <v>4430</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="45">
@@ -26016,7 +26015,7 @@
         <v>2738</v>
       </c>
       <c r="D307" s="29" t="s">
-        <v>4302</v>
+        <v>4300</v>
       </c>
       <c r="E307" s="29" t="s">
         <v>19</v>
@@ -26043,7 +26042,7 @@
         <v>2739</v>
       </c>
       <c r="D308" s="29" t="s">
-        <v>4302</v>
+        <v>4300</v>
       </c>
       <c r="E308" s="29" t="s">
         <v>19</v>
@@ -26067,7 +26066,7 @@
         <v>2230</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>4688</v>
+        <v>4685</v>
       </c>
       <c r="D309" s="29"/>
       <c r="E309" s="29" t="s">
@@ -26083,18 +26082,18 @@
         <v>17</v>
       </c>
       <c r="I309" s="31" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="45">
       <c r="A310" s="22" t="s">
-        <v>4686</v>
+        <v>4683</v>
       </c>
       <c r="B310" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C310" s="31" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="D310" s="29"/>
       <c r="E310" s="29" t="s">
@@ -26110,18 +26109,18 @@
         <v>17</v>
       </c>
       <c r="I310" s="31" t="s">
-        <v>4432</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="45">
       <c r="A311" s="22" t="s">
-        <v>4696</v>
+        <v>4693</v>
       </c>
       <c r="B311" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>4689</v>
+        <v>4686</v>
       </c>
       <c r="D311" s="22"/>
       <c r="E311" s="29" t="s">
@@ -26137,18 +26136,18 @@
         <v>17</v>
       </c>
       <c r="I311" s="20" t="s">
-        <v>4714</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="45">
       <c r="A312" s="22" t="s">
-        <v>4697</v>
+        <v>4694</v>
       </c>
       <c r="B312" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>4746</v>
+        <v>4743</v>
       </c>
       <c r="D312" s="22"/>
       <c r="E312" s="29" t="s">
@@ -26161,21 +26160,21 @@
         <v>15</v>
       </c>
       <c r="H312" s="22" t="s">
-        <v>4703</v>
+        <v>4700</v>
       </c>
       <c r="I312" s="20" t="s">
-        <v>4713</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="30">
       <c r="A313" s="22" t="s">
-        <v>4709</v>
+        <v>4706</v>
       </c>
       <c r="B313" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>4690</v>
+        <v>4687</v>
       </c>
       <c r="D313" s="22"/>
       <c r="E313" s="29" t="s">
@@ -26185,7 +26184,7 @@
         <v>6</v>
       </c>
       <c r="G313" s="22" t="s">
-        <v>4651</v>
+        <v>4649</v>
       </c>
       <c r="H313" s="22" t="s">
         <v>21</v>
@@ -26194,13 +26193,13 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="22" t="s">
-        <v>4698</v>
+        <v>4695</v>
       </c>
       <c r="B314" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>4691</v>
+        <v>4688</v>
       </c>
       <c r="D314" s="22"/>
       <c r="E314" s="29" t="s">
@@ -26213,19 +26212,19 @@
         <v>15</v>
       </c>
       <c r="H314" s="22" t="s">
-        <v>4711</v>
+        <v>4708</v>
       </c>
       <c r="I314" s="20"/>
     </row>
     <row r="315" spans="1:9" ht="30">
       <c r="A315" s="22" t="s">
-        <v>4699</v>
+        <v>4696</v>
       </c>
       <c r="B315" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>4692</v>
+        <v>4689</v>
       </c>
       <c r="D315" s="22"/>
       <c r="E315" s="29" t="s">
@@ -26238,19 +26237,19 @@
         <v>15</v>
       </c>
       <c r="H315" s="22" t="s">
-        <v>4711</v>
+        <v>4708</v>
       </c>
       <c r="I315" s="20"/>
     </row>
     <row r="316" spans="1:9" ht="30">
       <c r="A316" s="22" t="s">
-        <v>4700</v>
+        <v>4697</v>
       </c>
       <c r="B316" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>4693</v>
+        <v>4690</v>
       </c>
       <c r="D316" s="22"/>
       <c r="E316" s="29" t="s">
@@ -26263,19 +26262,19 @@
         <v>15</v>
       </c>
       <c r="H316" s="22" t="s">
-        <v>4711</v>
+        <v>4708</v>
       </c>
       <c r="I316" s="20"/>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="22" t="s">
-        <v>4701</v>
+        <v>4698</v>
       </c>
       <c r="B317" s="24" t="s">
         <v>2230</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>4694</v>
+        <v>4691</v>
       </c>
       <c r="D317" s="22"/>
       <c r="E317" s="29" t="s">
@@ -26288,19 +26287,19 @@
         <v>15</v>
       </c>
       <c r="H317" s="22" t="s">
-        <v>4711</v>
+        <v>4708</v>
       </c>
       <c r="I317" s="20"/>
     </row>
     <row r="318" spans="1:9" ht="30">
       <c r="A318" s="22" t="s">
-        <v>4702</v>
+        <v>4699</v>
       </c>
       <c r="B318" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>4695</v>
+        <v>4692</v>
       </c>
       <c r="D318" s="22"/>
       <c r="E318" s="22" t="s">
@@ -26313,19 +26312,19 @@
         <v>15</v>
       </c>
       <c r="H318" s="22" t="s">
-        <v>4711</v>
+        <v>4708</v>
       </c>
       <c r="I318" s="20"/>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="22" t="s">
-        <v>4749</v>
+        <v>4746</v>
       </c>
       <c r="B319" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>4768</v>
+        <v>4765</v>
       </c>
       <c r="D319" s="22"/>
       <c r="E319" s="29" t="s">
@@ -26344,13 +26343,13 @@
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="22" t="s">
-        <v>4750</v>
+        <v>4747</v>
       </c>
       <c r="B320" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>4769</v>
+        <v>4766</v>
       </c>
       <c r="D320" s="22"/>
       <c r="E320" s="29" t="s">
@@ -26369,13 +26368,13 @@
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="22" t="s">
-        <v>4751</v>
+        <v>4748</v>
       </c>
       <c r="B321" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C321" s="20" t="s">
-        <v>4770</v>
+        <v>4767</v>
       </c>
       <c r="D321" s="22"/>
       <c r="E321" s="29" t="s">
@@ -26394,13 +26393,13 @@
     </row>
     <row r="322" spans="1:9">
       <c r="A322" s="22" t="s">
-        <v>4752</v>
+        <v>4749</v>
       </c>
       <c r="B322" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>4771</v>
+        <v>4768</v>
       </c>
       <c r="D322" s="22"/>
       <c r="E322" s="29" t="s">
@@ -26419,13 +26418,13 @@
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="22" t="s">
-        <v>4753</v>
+        <v>4750</v>
       </c>
       <c r="B323" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>4772</v>
+        <v>4769</v>
       </c>
       <c r="D323" s="22"/>
       <c r="E323" s="29" t="s">
@@ -26444,13 +26443,13 @@
     </row>
     <row r="324" spans="1:9" ht="45">
       <c r="A324" s="22" t="s">
-        <v>4744</v>
+        <v>4741</v>
       </c>
       <c r="B324" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C324" s="20" t="s">
-        <v>4773</v>
+        <v>4770</v>
       </c>
       <c r="D324" s="22"/>
       <c r="E324" s="29" t="s">
@@ -26466,18 +26465,18 @@
         <v>17</v>
       </c>
       <c r="I324" s="20" t="s">
-        <v>4745</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="45">
       <c r="A325" s="22" t="s">
-        <v>4767</v>
+        <v>4764</v>
       </c>
       <c r="B325" s="30" t="s">
         <v>2230</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>4774</v>
+        <v>4771</v>
       </c>
       <c r="D325" s="22"/>
       <c r="E325" s="29" t="s">
@@ -26490,15 +26489,15 @@
         <v>15</v>
       </c>
       <c r="H325" s="22" t="s">
-        <v>4703</v>
+        <v>4700</v>
       </c>
       <c r="I325" s="20" t="s">
-        <v>4727</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="45">
       <c r="A326" s="22" t="s">
-        <v>4687</v>
+        <v>4684</v>
       </c>
       <c r="B326" s="30" t="s">
         <v>2231</v>
@@ -26604,7 +26603,7 @@
         <v>2231</v>
       </c>
       <c r="C330" s="31" t="s">
-        <v>4517</v>
+        <v>4515</v>
       </c>
       <c r="D330" s="29"/>
       <c r="E330" s="29" t="s">
@@ -26629,7 +26628,7 @@
         <v>2231</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>4782</v>
+        <v>4779</v>
       </c>
       <c r="D331" s="29"/>
       <c r="E331" s="29" t="s">
@@ -26645,7 +26644,7 @@
         <v>17</v>
       </c>
       <c r="I331" s="31" t="s">
-        <v>4433</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="30">
@@ -26681,7 +26680,7 @@
         <v>2231</v>
       </c>
       <c r="C333" s="20" t="s">
-        <v>4783</v>
+        <v>4780</v>
       </c>
       <c r="D333" s="29"/>
       <c r="E333" s="29" t="s">
@@ -26697,7 +26696,7 @@
         <v>17</v>
       </c>
       <c r="I333" s="31" t="s">
-        <v>4434</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="30">
@@ -26733,7 +26732,7 @@
         <v>2231</v>
       </c>
       <c r="C335" s="31" t="s">
-        <v>4519</v>
+        <v>4517</v>
       </c>
       <c r="D335" s="29"/>
       <c r="E335" s="29" t="s">
@@ -26783,7 +26782,7 @@
         <v>2231</v>
       </c>
       <c r="C337" s="20" t="s">
-        <v>4784</v>
+        <v>4781</v>
       </c>
       <c r="D337" s="29"/>
       <c r="E337" s="29" t="s">
@@ -26799,7 +26798,7 @@
         <v>17</v>
       </c>
       <c r="I337" s="31" t="s">
-        <v>4435</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="45">
@@ -27285,7 +27284,7 @@
         <v>2232</v>
       </c>
       <c r="C357" s="31" t="s">
-        <v>4541</v>
+        <v>4539</v>
       </c>
       <c r="D357" s="29"/>
       <c r="E357" s="29" t="s">
@@ -27460,7 +27459,7 @@
         <v>2232</v>
       </c>
       <c r="C364" s="20" t="s">
-        <v>4786</v>
+        <v>4783</v>
       </c>
       <c r="D364" s="29"/>
       <c r="E364" s="29" t="s">
@@ -27476,7 +27475,7 @@
         <v>17</v>
       </c>
       <c r="I364" s="31" t="s">
-        <v>4436</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -27512,7 +27511,7 @@
         <v>2232</v>
       </c>
       <c r="C366" s="20" t="s">
-        <v>4789</v>
+        <v>4786</v>
       </c>
       <c r="D366" s="29"/>
       <c r="E366" s="29" t="s">
@@ -27528,7 +27527,7 @@
         <v>17</v>
       </c>
       <c r="I366" s="31" t="s">
-        <v>4437</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="30">
@@ -27539,7 +27538,7 @@
         <v>2232</v>
       </c>
       <c r="C367" s="20" t="s">
-        <v>4791</v>
+        <v>4788</v>
       </c>
       <c r="D367" s="29"/>
       <c r="E367" s="29" t="s">
@@ -27958,13 +27957,13 @@
     </row>
     <row r="384" spans="1:9" ht="45">
       <c r="A384" s="22" t="s">
-        <v>4675</v>
+        <v>4672</v>
       </c>
       <c r="B384" s="30" t="s">
         <v>2234</v>
       </c>
       <c r="C384" s="20" t="s">
-        <v>4792</v>
+        <v>4789</v>
       </c>
       <c r="D384" s="29"/>
       <c r="E384" s="29" t="s">
@@ -27980,7 +27979,7 @@
         <v>17</v>
       </c>
       <c r="I384" s="20" t="s">
-        <v>4676</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="385" spans="1:9" ht="45">
@@ -30841,7 +30840,7 @@
         <v>32</v>
       </c>
       <c r="C499" s="20" t="s">
-        <v>4793</v>
+        <v>4790</v>
       </c>
       <c r="D499" s="29"/>
       <c r="E499" s="29" t="s">
@@ -30857,7 +30856,7 @@
         <v>17</v>
       </c>
       <c r="I499" s="31" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="500" spans="1:9" ht="60">
@@ -30868,7 +30867,7 @@
         <v>32</v>
       </c>
       <c r="C500" s="20" t="s">
-        <v>4794</v>
+        <v>4791</v>
       </c>
       <c r="D500" s="29"/>
       <c r="E500" s="29" t="s">
@@ -31493,7 +31492,7 @@
         <v>2251</v>
       </c>
       <c r="C525" s="31" t="s">
-        <v>4542</v>
+        <v>4540</v>
       </c>
       <c r="D525" s="29"/>
       <c r="E525" s="29" t="s">
@@ -31718,7 +31717,7 @@
         <v>33</v>
       </c>
       <c r="C534" s="20" t="s">
-        <v>4797</v>
+        <v>4794</v>
       </c>
       <c r="D534" s="29"/>
       <c r="E534" s="29" t="s">
@@ -31734,7 +31733,7 @@
         <v>17</v>
       </c>
       <c r="I534" s="31" t="s">
-        <v>4439</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="535" spans="1:9" ht="75">
@@ -31870,7 +31869,7 @@
         <v>33</v>
       </c>
       <c r="C540" s="20" t="s">
-        <v>4801</v>
+        <v>4798</v>
       </c>
       <c r="D540" s="29"/>
       <c r="E540" s="29" t="s">
@@ -31886,7 +31885,7 @@
         <v>17</v>
       </c>
       <c r="I540" s="31" t="s">
-        <v>4440</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="541" spans="1:9" ht="60">
@@ -31897,7 +31896,7 @@
         <v>33</v>
       </c>
       <c r="C541" s="20" t="s">
-        <v>4802</v>
+        <v>4799</v>
       </c>
       <c r="D541" s="29"/>
       <c r="E541" s="29" t="s">
@@ -32322,7 +32321,7 @@
         <v>2257</v>
       </c>
       <c r="C558" s="31" t="s">
-        <v>4543</v>
+        <v>4541</v>
       </c>
       <c r="D558" s="29"/>
       <c r="E558" s="29" t="s">
@@ -32947,7 +32946,7 @@
         <v>2259</v>
       </c>
       <c r="C583" s="31" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="D583" s="29"/>
       <c r="E583" s="29" t="s">
@@ -33522,7 +33521,7 @@
         <v>2265</v>
       </c>
       <c r="C606" s="31" t="s">
-        <v>4545</v>
+        <v>4543</v>
       </c>
       <c r="D606" s="29"/>
       <c r="E606" s="29" t="s">
@@ -33572,7 +33571,7 @@
         <v>2266</v>
       </c>
       <c r="C608" s="20" t="s">
-        <v>4803</v>
+        <v>4800</v>
       </c>
       <c r="D608" s="29"/>
       <c r="E608" s="29" t="s">
@@ -33588,7 +33587,7 @@
         <v>17</v>
       </c>
       <c r="I608" s="31" t="s">
-        <v>4441</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="609" spans="1:9" ht="75">
@@ -33674,7 +33673,7 @@
         <v>2266</v>
       </c>
       <c r="C612" s="20" t="s">
-        <v>4806</v>
+        <v>4803</v>
       </c>
       <c r="D612" s="29"/>
       <c r="E612" s="29" t="s">
@@ -33690,7 +33689,7 @@
         <v>17</v>
       </c>
       <c r="I612" s="31" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="613" spans="1:9" ht="45">
@@ -33701,7 +33700,7 @@
         <v>2266</v>
       </c>
       <c r="C613" s="20" t="s">
-        <v>4807</v>
+        <v>4804</v>
       </c>
       <c r="D613" s="29"/>
       <c r="E613" s="29" t="s">
@@ -33726,7 +33725,7 @@
         <v>2266</v>
       </c>
       <c r="C614" s="20" t="s">
-        <v>4805</v>
+        <v>4802</v>
       </c>
       <c r="D614" s="29"/>
       <c r="E614" s="29" t="s">
@@ -34001,7 +34000,7 @@
         <v>2266</v>
       </c>
       <c r="C625" s="31" t="s">
-        <v>4546</v>
+        <v>4544</v>
       </c>
       <c r="D625" s="29"/>
       <c r="E625" s="29" t="s">
@@ -34026,7 +34025,7 @@
         <v>2266</v>
       </c>
       <c r="C626" s="31" t="s">
-        <v>4547</v>
+        <v>4545</v>
       </c>
       <c r="D626" s="29"/>
       <c r="E626" s="29" t="s">
@@ -34626,7 +34625,7 @@
         <v>2272</v>
       </c>
       <c r="C650" s="31" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="D650" s="29"/>
       <c r="E650" s="29" t="s">
@@ -35101,7 +35100,7 @@
         <v>2280</v>
       </c>
       <c r="C669" s="20" t="s">
-        <v>4810</v>
+        <v>4807</v>
       </c>
       <c r="D669" s="29"/>
       <c r="E669" s="29" t="s">
@@ -35117,7 +35116,7 @@
         <v>17</v>
       </c>
       <c r="I669" s="31" t="s">
-        <v>4443</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="670" spans="1:9" ht="75">
@@ -35303,7 +35302,7 @@
         <v>2280</v>
       </c>
       <c r="C677" s="20" t="s">
-        <v>4813</v>
+        <v>4810</v>
       </c>
       <c r="D677" s="29"/>
       <c r="E677" s="29" t="s">
@@ -35319,7 +35318,7 @@
         <v>17</v>
       </c>
       <c r="I677" s="20" t="s">
-        <v>4444</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="678" spans="1:9" ht="60">
@@ -35330,7 +35329,7 @@
         <v>2280</v>
       </c>
       <c r="C678" s="20" t="s">
-        <v>4814</v>
+        <v>4811</v>
       </c>
       <c r="D678" s="29"/>
       <c r="E678" s="29" t="s">
@@ -35855,7 +35854,7 @@
         <v>2286</v>
       </c>
       <c r="C699" s="31" t="s">
-        <v>4549</v>
+        <v>4547</v>
       </c>
       <c r="D699" s="29"/>
       <c r="E699" s="29" t="s">
@@ -35980,7 +35979,7 @@
         <v>2287</v>
       </c>
       <c r="C704" s="20" t="s">
-        <v>4816</v>
+        <v>4813</v>
       </c>
       <c r="D704" s="29"/>
       <c r="E704" s="29" t="s">
@@ -35996,7 +35995,7 @@
         <v>17</v>
       </c>
       <c r="I704" s="31" t="s">
-        <v>4445</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="705" spans="1:9" ht="60">
@@ -36132,7 +36131,7 @@
         <v>2287</v>
       </c>
       <c r="C710" s="20" t="s">
-        <v>4817</v>
+        <v>4814</v>
       </c>
       <c r="D710" s="29"/>
       <c r="E710" s="29" t="s">
@@ -36148,7 +36147,7 @@
         <v>17</v>
       </c>
       <c r="I710" s="31" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="711" spans="1:9" ht="45">
@@ -36159,7 +36158,7 @@
         <v>2287</v>
       </c>
       <c r="C711" s="20" t="s">
-        <v>4818</v>
+        <v>4815</v>
       </c>
       <c r="D711" s="29"/>
       <c r="E711" s="29" t="s">
@@ -36684,7 +36683,7 @@
         <v>2292</v>
       </c>
       <c r="C732" s="31" t="s">
-        <v>4550</v>
+        <v>4548</v>
       </c>
       <c r="D732" s="29"/>
       <c r="E732" s="29" t="s">
@@ -37009,7 +37008,7 @@
         <v>2294</v>
       </c>
       <c r="C745" s="20" t="s">
-        <v>4820</v>
+        <v>4817</v>
       </c>
       <c r="D745" s="29"/>
       <c r="E745" s="29" t="s">
@@ -37025,7 +37024,7 @@
         <v>17</v>
       </c>
       <c r="I745" s="31" t="s">
-        <v>4447</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="746" spans="1:9" ht="60">
@@ -37161,7 +37160,7 @@
         <v>2294</v>
       </c>
       <c r="C751" s="20" t="s">
-        <v>4822</v>
+        <v>4819</v>
       </c>
       <c r="D751" s="29"/>
       <c r="E751" s="29" t="s">
@@ -37177,7 +37176,7 @@
         <v>17</v>
       </c>
       <c r="I751" s="31" t="s">
-        <v>4448</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="752" spans="1:9" ht="45">
@@ -37188,7 +37187,7 @@
         <v>2294</v>
       </c>
       <c r="C752" s="20" t="s">
-        <v>4823</v>
+        <v>4820</v>
       </c>
       <c r="D752" s="29"/>
       <c r="E752" s="29" t="s">
@@ -37663,7 +37662,7 @@
         <v>2299</v>
       </c>
       <c r="C771" s="31" t="s">
-        <v>4551</v>
+        <v>4549</v>
       </c>
       <c r="D771" s="29"/>
       <c r="E771" s="29" t="s">
@@ -37738,7 +37737,7 @@
         <v>2299</v>
       </c>
       <c r="C774" s="20" t="s">
-        <v>4825</v>
+        <v>4822</v>
       </c>
       <c r="D774" s="29"/>
       <c r="E774" s="29" t="s">
@@ -37788,7 +37787,7 @@
         <v>2299</v>
       </c>
       <c r="C776" s="31" t="s">
-        <v>4552</v>
+        <v>4550</v>
       </c>
       <c r="D776" s="29"/>
       <c r="E776" s="29" t="s">
@@ -37938,7 +37937,7 @@
         <v>2301</v>
       </c>
       <c r="C782" s="20" t="s">
-        <v>4827</v>
+        <v>4824</v>
       </c>
       <c r="D782" s="29"/>
       <c r="E782" s="29" t="s">
@@ -37954,7 +37953,7 @@
         <v>17</v>
       </c>
       <c r="I782" s="31" t="s">
-        <v>4449</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="783" spans="1:9" ht="75">
@@ -38065,7 +38064,7 @@
         <v>2301</v>
       </c>
       <c r="C787" s="20" t="s">
-        <v>4829</v>
+        <v>4826</v>
       </c>
       <c r="D787" s="29"/>
       <c r="E787" s="29" t="s">
@@ -38081,7 +38080,7 @@
         <v>17</v>
       </c>
       <c r="I787" s="31" t="s">
-        <v>4450</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="788" spans="1:9" ht="60">
@@ -38092,7 +38091,7 @@
         <v>2301</v>
       </c>
       <c r="C788" s="20" t="s">
-        <v>4830</v>
+        <v>4827</v>
       </c>
       <c r="D788" s="29"/>
       <c r="E788" s="29" t="s">
@@ -38286,7 +38285,7 @@
     </row>
     <row r="796" spans="1:9" ht="75">
       <c r="A796" s="22" t="s">
-        <v>4672</v>
+        <v>4669</v>
       </c>
       <c r="B796" s="30" t="s">
         <v>2301</v>
@@ -38742,7 +38741,7 @@
         <v>2306</v>
       </c>
       <c r="C814" s="31" t="s">
-        <v>4553</v>
+        <v>4551</v>
       </c>
       <c r="D814" s="29"/>
       <c r="E814" s="29" t="s">
@@ -38811,13 +38810,13 @@
     </row>
     <row r="817" spans="1:9" ht="45">
       <c r="A817" s="29" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="B817" s="30" t="s">
         <v>2306</v>
       </c>
       <c r="C817" s="31" t="s">
-        <v>4554</v>
+        <v>4552</v>
       </c>
       <c r="D817" s="29"/>
       <c r="E817" s="29" t="s">
@@ -38870,7 +38869,7 @@
         <v>3170</v>
       </c>
       <c r="D819" s="29" t="s">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="E819" s="29" t="s">
         <v>19</v>
@@ -38897,7 +38896,7 @@
         <v>3171</v>
       </c>
       <c r="D820" s="29" t="s">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="E820" s="29" t="s">
         <v>19</v>
@@ -38924,7 +38923,7 @@
         <v>3172</v>
       </c>
       <c r="D821" s="29" t="s">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="E821" s="29" t="s">
         <v>19</v>
@@ -38951,7 +38950,7 @@
         <v>3173</v>
       </c>
       <c r="D822" s="29" t="s">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="E822" s="29" t="s">
         <v>19</v>
@@ -39125,7 +39124,7 @@
         <v>2307</v>
       </c>
       <c r="C829" s="31" t="s">
-        <v>4556</v>
+        <v>4554</v>
       </c>
       <c r="D829" s="29"/>
       <c r="E829" s="29" t="s">
@@ -39244,13 +39243,13 @@
     </row>
     <row r="834" spans="1:9" ht="30">
       <c r="A834" s="29" t="s">
-        <v>4557</v>
+        <v>4555</v>
       </c>
       <c r="B834" s="30" t="s">
         <v>2308</v>
       </c>
       <c r="C834" s="31" t="s">
-        <v>4560</v>
+        <v>4558</v>
       </c>
       <c r="D834" s="29"/>
       <c r="E834" s="29" t="s">
@@ -39269,13 +39268,13 @@
     </row>
     <row r="835" spans="1:9">
       <c r="A835" s="29" t="s">
-        <v>4558</v>
+        <v>4556</v>
       </c>
       <c r="B835" s="30" t="s">
         <v>2308</v>
       </c>
       <c r="C835" s="31" t="s">
-        <v>4559</v>
+        <v>4557</v>
       </c>
       <c r="D835" s="29"/>
       <c r="E835" s="29" t="s">
@@ -39375,7 +39374,7 @@
         <v>2308</v>
       </c>
       <c r="C839" s="20" t="s">
-        <v>4835</v>
+        <v>4832</v>
       </c>
       <c r="D839" s="29"/>
       <c r="E839" s="29" t="s">
@@ -39391,7 +39390,7 @@
         <v>17</v>
       </c>
       <c r="I839" s="31" t="s">
-        <v>4451</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="840" spans="1:9" ht="60">
@@ -39402,7 +39401,7 @@
         <v>2308</v>
       </c>
       <c r="C840" s="20" t="s">
-        <v>4836</v>
+        <v>4833</v>
       </c>
       <c r="D840" s="29"/>
       <c r="E840" s="29" t="s">
@@ -39902,7 +39901,7 @@
         <v>2313</v>
       </c>
       <c r="C860" s="31" t="s">
-        <v>4561</v>
+        <v>4559</v>
       </c>
       <c r="D860" s="29"/>
       <c r="E860" s="29" t="s">
@@ -40102,7 +40101,7 @@
         <v>2315</v>
       </c>
       <c r="C868" s="20" t="s">
-        <v>4838</v>
+        <v>4835</v>
       </c>
       <c r="D868" s="29"/>
       <c r="E868" s="29" t="s">
@@ -40118,7 +40117,7 @@
         <v>17</v>
       </c>
       <c r="I868" s="31" t="s">
-        <v>4452</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="869" spans="1:9" ht="75">
@@ -40254,7 +40253,7 @@
         <v>2315</v>
       </c>
       <c r="C874" s="20" t="s">
-        <v>4841</v>
+        <v>4838</v>
       </c>
       <c r="D874" s="29"/>
       <c r="E874" s="29" t="s">
@@ -40270,7 +40269,7 @@
         <v>17</v>
       </c>
       <c r="I874" s="31" t="s">
-        <v>4453</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="875" spans="1:9" ht="60">
@@ -40281,7 +40280,7 @@
         <v>2315</v>
       </c>
       <c r="C875" s="20" t="s">
-        <v>4842</v>
+        <v>4839</v>
       </c>
       <c r="D875" s="29"/>
       <c r="E875" s="29" t="s">
@@ -40706,7 +40705,7 @@
         <v>2320</v>
       </c>
       <c r="C892" s="31" t="s">
-        <v>4562</v>
+        <v>4560</v>
       </c>
       <c r="D892" s="29"/>
       <c r="E892" s="29" t="s">
@@ -40906,7 +40905,7 @@
         <v>2322</v>
       </c>
       <c r="C900" s="20" t="s">
-        <v>4843</v>
+        <v>4840</v>
       </c>
       <c r="D900" s="29"/>
       <c r="E900" s="29" t="s">
@@ -40922,7 +40921,7 @@
         <v>17</v>
       </c>
       <c r="I900" s="31" t="s">
-        <v>4454</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="901" spans="1:9" ht="75">
@@ -41058,7 +41057,7 @@
         <v>2322</v>
       </c>
       <c r="C906" s="20" t="s">
-        <v>4847</v>
+        <v>4844</v>
       </c>
       <c r="D906" s="29"/>
       <c r="E906" s="29" t="s">
@@ -41074,7 +41073,7 @@
         <v>17</v>
       </c>
       <c r="I906" s="31" t="s">
-        <v>4455</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="907" spans="1:9" ht="60">
@@ -41085,7 +41084,7 @@
         <v>2322</v>
       </c>
       <c r="C907" s="20" t="s">
-        <v>4848</v>
+        <v>4845</v>
       </c>
       <c r="D907" s="29"/>
       <c r="E907" s="29" t="s">
@@ -41535,7 +41534,7 @@
         <v>2327</v>
       </c>
       <c r="C925" s="31" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="D925" s="29"/>
       <c r="E925" s="29" t="s">
@@ -41885,7 +41884,7 @@
         <v>2329</v>
       </c>
       <c r="C939" s="20" t="s">
-        <v>4849</v>
+        <v>4846</v>
       </c>
       <c r="D939" s="29"/>
       <c r="E939" s="29" t="s">
@@ -41901,7 +41900,7 @@
         <v>17</v>
       </c>
       <c r="I939" s="31" t="s">
-        <v>4456</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="940" spans="1:9" ht="60">
@@ -41912,7 +41911,7 @@
         <v>2329</v>
       </c>
       <c r="C940" s="20" t="s">
-        <v>4850</v>
+        <v>4847</v>
       </c>
       <c r="D940" s="29"/>
       <c r="E940" s="29" t="s">
@@ -42287,7 +42286,7 @@
         <v>2334</v>
       </c>
       <c r="C955" s="31" t="s">
-        <v>4564</v>
+        <v>4562</v>
       </c>
       <c r="D955" s="29"/>
       <c r="E955" s="29" t="s">
@@ -42537,7 +42536,7 @@
         <v>2336</v>
       </c>
       <c r="C965" s="20" t="s">
-        <v>4854</v>
+        <v>4851</v>
       </c>
       <c r="D965" s="29"/>
       <c r="E965" s="29" t="s">
@@ -42553,7 +42552,7 @@
         <v>17</v>
       </c>
       <c r="I965" s="31" t="s">
-        <v>4457</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="966" spans="1:9" ht="60">
@@ -42564,7 +42563,7 @@
         <v>2336</v>
       </c>
       <c r="C966" s="20" t="s">
-        <v>4855</v>
+        <v>4852</v>
       </c>
       <c r="D966" s="29"/>
       <c r="E966" s="29" t="s">
@@ -42589,7 +42588,7 @@
         <v>2336</v>
       </c>
       <c r="C967" s="20" t="s">
-        <v>4857</v>
+        <v>4854</v>
       </c>
       <c r="D967" s="29"/>
       <c r="E967" s="29" t="s">
@@ -42605,7 +42604,7 @@
         <v>17</v>
       </c>
       <c r="I967" s="31" t="s">
-        <v>4458</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="968" spans="1:9" ht="30">
@@ -43091,7 +43090,7 @@
         <v>2341</v>
       </c>
       <c r="C987" s="31" t="s">
-        <v>4565</v>
+        <v>4563</v>
       </c>
       <c r="D987" s="29"/>
       <c r="E987" s="29" t="s">
@@ -43541,7 +43540,7 @@
         <v>2343</v>
       </c>
       <c r="C1005" s="20" t="s">
-        <v>4859</v>
+        <v>4856</v>
       </c>
       <c r="D1005" s="29"/>
       <c r="E1005" s="29" t="s">
@@ -43557,7 +43556,7 @@
         <v>17</v>
       </c>
       <c r="I1005" s="31" t="s">
-        <v>4459</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1006" spans="1:9" ht="60">
@@ -43568,7 +43567,7 @@
         <v>2343</v>
       </c>
       <c r="C1006" s="20" t="s">
-        <v>4860</v>
+        <v>4857</v>
       </c>
       <c r="D1006" s="29"/>
       <c r="E1006" s="29" t="s">
@@ -43918,7 +43917,7 @@
         <v>2348</v>
       </c>
       <c r="C1020" s="31" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="D1020" s="29"/>
       <c r="E1020" s="29" t="s">
@@ -44243,7 +44242,7 @@
         <v>2350</v>
       </c>
       <c r="C1033" s="20" t="s">
-        <v>4863</v>
+        <v>4860</v>
       </c>
       <c r="D1033" s="29"/>
       <c r="E1033" s="29" t="s">
@@ -44259,7 +44258,7 @@
         <v>17</v>
       </c>
       <c r="I1033" s="31" t="s">
-        <v>4460</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1034" spans="1:9" ht="60">
@@ -44270,7 +44269,7 @@
         <v>2350</v>
       </c>
       <c r="C1034" s="20" t="s">
-        <v>4864</v>
+        <v>4861</v>
       </c>
       <c r="D1034" s="29"/>
       <c r="E1034" s="29" t="s">
@@ -44770,7 +44769,7 @@
         <v>2355</v>
       </c>
       <c r="C1054" s="31" t="s">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="D1054" s="29"/>
       <c r="E1054" s="29" t="s">
@@ -45545,7 +45544,7 @@
         <v>2364</v>
       </c>
       <c r="C1085" s="20" t="s">
-        <v>4867</v>
+        <v>4864</v>
       </c>
       <c r="D1085" s="29"/>
       <c r="E1085" s="29" t="s">
@@ -45561,7 +45560,7 @@
         <v>17</v>
       </c>
       <c r="I1085" s="31" t="s">
-        <v>4461</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1086" spans="1:9" ht="75">
@@ -45697,7 +45696,7 @@
         <v>2364</v>
       </c>
       <c r="C1091" s="20" t="s">
-        <v>4869</v>
+        <v>4866</v>
       </c>
       <c r="D1091" s="29"/>
       <c r="E1091" s="29" t="s">
@@ -45713,7 +45712,7 @@
         <v>17</v>
       </c>
       <c r="I1091" s="31" t="s">
-        <v>4462</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1092" spans="1:9" ht="60">
@@ -45724,7 +45723,7 @@
         <v>2364</v>
       </c>
       <c r="C1092" s="20" t="s">
-        <v>4870</v>
+        <v>4867</v>
       </c>
       <c r="D1092" s="29"/>
       <c r="E1092" s="29" t="s">
@@ -46149,7 +46148,7 @@
         <v>2369</v>
       </c>
       <c r="C1109" s="31" t="s">
-        <v>4568</v>
+        <v>4566</v>
       </c>
       <c r="D1109" s="29"/>
       <c r="E1109" s="29" t="s">
@@ -46249,7 +46248,7 @@
         <v>2370</v>
       </c>
       <c r="C1113" s="31" t="s">
-        <v>4569</v>
+        <v>4567</v>
       </c>
       <c r="D1113" s="29"/>
       <c r="E1113" s="29" t="s">
@@ -46349,7 +46348,7 @@
         <v>2371</v>
       </c>
       <c r="C1117" s="20" t="s">
-        <v>4874</v>
+        <v>4871</v>
       </c>
       <c r="D1117" s="29"/>
       <c r="E1117" s="29" t="s">
@@ -46365,7 +46364,7 @@
         <v>17</v>
       </c>
       <c r="I1117" s="31" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1118" spans="1:9" ht="75">
@@ -46751,7 +46750,7 @@
         <v>2376</v>
       </c>
       <c r="C1133" s="31" t="s">
-        <v>4570</v>
+        <v>4568</v>
       </c>
       <c r="D1133" s="29"/>
       <c r="E1133" s="29" t="s">
@@ -46901,7 +46900,7 @@
         <v>2376</v>
       </c>
       <c r="C1139" s="20" t="s">
-        <v>4875</v>
+        <v>4872</v>
       </c>
       <c r="D1139" s="29"/>
       <c r="E1139" s="29" t="s">
@@ -46917,7 +46916,7 @@
         <v>17</v>
       </c>
       <c r="I1139" s="31" t="s">
-        <v>4464</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1140" spans="1:9" ht="60">
@@ -46928,7 +46927,7 @@
         <v>2376</v>
       </c>
       <c r="C1140" s="20" t="s">
-        <v>4876</v>
+        <v>4873</v>
       </c>
       <c r="D1140" s="29"/>
       <c r="E1140" s="29" t="s">
@@ -47178,7 +47177,7 @@
         <v>2377</v>
       </c>
       <c r="C1150" s="20" t="s">
-        <v>4879</v>
+        <v>4876</v>
       </c>
       <c r="D1150" s="29"/>
       <c r="E1150" s="29" t="s">
@@ -47194,7 +47193,7 @@
         <v>17</v>
       </c>
       <c r="I1150" s="31" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1151" spans="1:9" ht="45">
@@ -47580,7 +47579,7 @@
         <v>2378</v>
       </c>
       <c r="C1166" s="20" t="s">
-        <v>4883</v>
+        <v>4880</v>
       </c>
       <c r="D1166" s="29"/>
       <c r="E1166" s="29" t="s">
@@ -47596,7 +47595,7 @@
         <v>17</v>
       </c>
       <c r="I1166" s="31" t="s">
-        <v>4466</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1167" spans="1:9" ht="75">
@@ -48057,7 +48056,7 @@
         <v>2383</v>
       </c>
       <c r="C1185" s="31" t="s">
-        <v>4571</v>
+        <v>4569</v>
       </c>
       <c r="D1185" s="29"/>
       <c r="E1185" s="29" t="s">
@@ -49057,7 +49056,7 @@
         <v>2384</v>
       </c>
       <c r="C1225" s="31" t="s">
-        <v>4572</v>
+        <v>4570</v>
       </c>
       <c r="D1225" s="29"/>
       <c r="E1225" s="29" t="s">
@@ -49257,7 +49256,7 @@
         <v>2385</v>
       </c>
       <c r="C1233" s="20" t="s">
-        <v>4966</v>
+        <v>4961</v>
       </c>
       <c r="D1233" s="29"/>
       <c r="E1233" s="29" t="s">
@@ -49407,7 +49406,7 @@
         <v>2385</v>
       </c>
       <c r="C1239" s="20" t="s">
-        <v>4884</v>
+        <v>4881</v>
       </c>
       <c r="D1239" s="29"/>
       <c r="E1239" s="29" t="s">
@@ -49423,7 +49422,7 @@
         <v>17</v>
       </c>
       <c r="I1239" s="31" t="s">
-        <v>4467</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1240" spans="1:9" ht="30">
@@ -49509,7 +49508,7 @@
         <v>2385</v>
       </c>
       <c r="C1243" s="20" t="s">
-        <v>4887</v>
+        <v>4884</v>
       </c>
       <c r="D1243" s="29"/>
       <c r="E1243" s="29" t="s">
@@ -49525,7 +49524,7 @@
         <v>17</v>
       </c>
       <c r="I1243" s="31" t="s">
-        <v>4468</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1244" spans="1:9" ht="60">
@@ -49536,7 +49535,7 @@
         <v>2385</v>
       </c>
       <c r="C1244" s="20" t="s">
-        <v>4888</v>
+        <v>4885</v>
       </c>
       <c r="D1244" s="29"/>
       <c r="E1244" s="29" t="s">
@@ -49661,7 +49660,7 @@
         <v>2386</v>
       </c>
       <c r="C1249" s="20" t="s">
-        <v>4755</v>
+        <v>4752</v>
       </c>
       <c r="D1249" s="29"/>
       <c r="E1249" s="29" t="s">
@@ -49886,7 +49885,7 @@
         <v>2389</v>
       </c>
       <c r="C1258" s="20" t="s">
-        <v>4756</v>
+        <v>4753</v>
       </c>
       <c r="D1258" s="29"/>
       <c r="E1258" s="29" t="s">
@@ -49936,7 +49935,7 @@
         <v>2390</v>
       </c>
       <c r="C1260" s="31" t="s">
-        <v>4573</v>
+        <v>4571</v>
       </c>
       <c r="D1260" s="29"/>
       <c r="E1260" s="29" t="s">
@@ -50236,7 +50235,7 @@
         <v>2391</v>
       </c>
       <c r="C1272" s="31" t="s">
-        <v>4574</v>
+        <v>4572</v>
       </c>
       <c r="D1272" s="29"/>
       <c r="E1272" s="29" t="s">
@@ -50561,7 +50560,7 @@
         <v>2392</v>
       </c>
       <c r="C1285" s="20" t="s">
-        <v>4891</v>
+        <v>4888</v>
       </c>
       <c r="D1285" s="29"/>
       <c r="E1285" s="29" t="s">
@@ -50577,7 +50576,7 @@
         <v>17</v>
       </c>
       <c r="I1285" s="31" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1286" spans="1:9" ht="75">
@@ -50713,7 +50712,7 @@
         <v>2392</v>
       </c>
       <c r="C1291" s="20" t="s">
-        <v>4894</v>
+        <v>4891</v>
       </c>
       <c r="D1291" s="29"/>
       <c r="E1291" s="29" t="s">
@@ -50729,7 +50728,7 @@
         <v>17</v>
       </c>
       <c r="I1291" s="31" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1292" spans="1:9" ht="60">
@@ -50740,7 +50739,7 @@
         <v>2392</v>
       </c>
       <c r="C1292" s="20" t="s">
-        <v>4895</v>
+        <v>4892</v>
       </c>
       <c r="D1292" s="29"/>
       <c r="E1292" s="29" t="s">
@@ -50790,7 +50789,7 @@
         <v>2392</v>
       </c>
       <c r="C1294" s="20" t="s">
-        <v>4897</v>
+        <v>4894</v>
       </c>
       <c r="D1294" s="29"/>
       <c r="E1294" s="29" t="s">
@@ -50806,7 +50805,7 @@
         <v>17</v>
       </c>
       <c r="I1294" s="31" t="s">
-        <v>4471</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1295" spans="1:9" ht="45">
@@ -50833,7 +50832,7 @@
         <v>17</v>
       </c>
       <c r="I1295" s="31" t="s">
-        <v>4472</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1296" spans="1:9" ht="30">
@@ -50847,7 +50846,7 @@
         <v>3571</v>
       </c>
       <c r="D1296" s="29" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="E1296" s="29" t="s">
         <v>19</v>
@@ -50871,7 +50870,7 @@
         <v>2392</v>
       </c>
       <c r="C1297" s="20" t="s">
-        <v>4898</v>
+        <v>4895</v>
       </c>
       <c r="D1297" s="29"/>
       <c r="E1297" s="29" t="s">
@@ -50887,7 +50886,7 @@
         <v>17</v>
       </c>
       <c r="I1297" s="31" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1298" spans="1:9" ht="45">
@@ -51323,7 +51322,7 @@
         <v>2397</v>
       </c>
       <c r="C1315" s="31" t="s">
-        <v>4575</v>
+        <v>4573</v>
       </c>
       <c r="D1315" s="29"/>
       <c r="E1315" s="29" t="s">
@@ -51439,7 +51438,7 @@
         <v>17</v>
       </c>
       <c r="I1319" s="31" t="s">
-        <v>4474</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1320" spans="1:9" ht="30">
@@ -51453,7 +51452,7 @@
         <v>3591</v>
       </c>
       <c r="D1320" s="29" t="s">
-        <v>4305</v>
+        <v>4303</v>
       </c>
       <c r="E1320" s="29" t="s">
         <v>19</v>
@@ -51643,12 +51642,12 @@
         <v>17</v>
       </c>
       <c r="I1327" s="31" t="s">
-        <v>4475</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1328" spans="1:9" ht="45">
       <c r="A1328" s="22" t="s">
-        <v>4654</v>
+        <v>4652</v>
       </c>
       <c r="B1328" s="30" t="s">
         <v>2397</v>
@@ -51657,7 +51656,7 @@
         <v>3599</v>
       </c>
       <c r="D1328" s="29" t="s">
-        <v>4306</v>
+        <v>4304</v>
       </c>
       <c r="E1328" s="29" t="s">
         <v>22</v>
@@ -51672,7 +51671,7 @@
         <v>20</v>
       </c>
       <c r="I1328" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1329" spans="1:9" ht="45">
@@ -51724,7 +51723,7 @@
         <v>17</v>
       </c>
       <c r="I1330" s="31" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1331" spans="1:9" ht="60">
@@ -51738,7 +51737,7 @@
         <v>3602</v>
       </c>
       <c r="D1331" s="22" t="s">
-        <v>4655</v>
+        <v>4653</v>
       </c>
       <c r="E1331" s="29" t="s">
         <v>22</v>
@@ -51753,7 +51752,7 @@
         <v>20</v>
       </c>
       <c r="I1331" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1332" spans="1:9" ht="45">
@@ -51789,7 +51788,7 @@
         <v>2397</v>
       </c>
       <c r="C1333" s="31" t="s">
-        <v>4576</v>
+        <v>4574</v>
       </c>
       <c r="D1333" s="29"/>
       <c r="E1333" s="29" t="s">
@@ -52039,7 +52038,7 @@
         <v>2397</v>
       </c>
       <c r="C1343" s="20" t="s">
-        <v>4900</v>
+        <v>4897</v>
       </c>
       <c r="D1343" s="29"/>
       <c r="E1343" s="29" t="s">
@@ -52055,7 +52054,7 @@
         <v>17</v>
       </c>
       <c r="I1343" s="31" t="s">
-        <v>4478</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1344" spans="1:9" ht="75">
@@ -52082,7 +52081,7 @@
         <v>17</v>
       </c>
       <c r="I1344" s="31" t="s">
-        <v>4479</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1345" spans="1:9">
@@ -52159,7 +52158,7 @@
         <v>17</v>
       </c>
       <c r="I1347" s="31" t="s">
-        <v>4480</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1348" spans="1:9" ht="30">
@@ -52173,7 +52172,7 @@
         <v>3617</v>
       </c>
       <c r="D1348" s="29" t="s">
-        <v>4307</v>
+        <v>4305</v>
       </c>
       <c r="E1348" s="29" t="s">
         <v>19</v>
@@ -52222,7 +52221,7 @@
         <v>2398</v>
       </c>
       <c r="C1350" s="31" t="s">
-        <v>4577</v>
+        <v>4575</v>
       </c>
       <c r="D1350" s="29"/>
       <c r="E1350" s="29" t="s">
@@ -52297,7 +52296,7 @@
         <v>2398</v>
       </c>
       <c r="C1353" s="31" t="s">
-        <v>4580</v>
+        <v>4578</v>
       </c>
       <c r="D1353" s="29"/>
       <c r="E1353" s="29" t="s">
@@ -52422,7 +52421,7 @@
         <v>2398</v>
       </c>
       <c r="C1358" s="20" t="s">
-        <v>4901</v>
+        <v>4898</v>
       </c>
       <c r="D1358" s="29"/>
       <c r="E1358" s="29" t="s">
@@ -52438,7 +52437,7 @@
         <v>17</v>
       </c>
       <c r="I1358" s="31" t="s">
-        <v>4482</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1359" spans="1:9" ht="30">
@@ -52518,13 +52517,13 @@
     </row>
     <row r="1362" spans="1:9" ht="30">
       <c r="A1362" s="29" t="s">
-        <v>4579</v>
+        <v>4577</v>
       </c>
       <c r="B1362" s="30" t="s">
         <v>2398</v>
       </c>
       <c r="C1362" s="31" t="s">
-        <v>4578</v>
+        <v>4576</v>
       </c>
       <c r="D1362" s="29"/>
       <c r="E1362" s="29" t="s">
@@ -52543,13 +52542,13 @@
     </row>
     <row r="1363" spans="1:9" ht="60">
       <c r="A1363" s="29" t="s">
-        <v>4582</v>
+        <v>4580</v>
       </c>
       <c r="B1363" s="30" t="s">
         <v>2398</v>
       </c>
       <c r="C1363" s="31" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="D1363" s="29"/>
       <c r="E1363" s="29" t="s">
@@ -52574,7 +52573,7 @@
         <v>2398</v>
       </c>
       <c r="C1364" s="31" t="s">
-        <v>4583</v>
+        <v>4581</v>
       </c>
       <c r="D1364" s="29"/>
       <c r="E1364" s="29" t="s">
@@ -52624,7 +52623,7 @@
         <v>2398</v>
       </c>
       <c r="C1366" s="31" t="s">
-        <v>4584</v>
+        <v>4582</v>
       </c>
       <c r="D1366" s="29"/>
       <c r="E1366" s="29" t="s">
@@ -52699,7 +52698,7 @@
         <v>2398</v>
       </c>
       <c r="C1369" s="31" t="s">
-        <v>4585</v>
+        <v>4583</v>
       </c>
       <c r="D1369" s="29"/>
       <c r="E1369" s="29" t="s">
@@ -52799,7 +52798,7 @@
         <v>2398</v>
       </c>
       <c r="C1373" s="31" t="s">
-        <v>4586</v>
+        <v>4584</v>
       </c>
       <c r="D1373" s="29"/>
       <c r="E1373" s="29" t="s">
@@ -52824,7 +52823,7 @@
         <v>2398</v>
       </c>
       <c r="C1374" s="20" t="s">
-        <v>4905</v>
+        <v>4902</v>
       </c>
       <c r="D1374" s="29"/>
       <c r="E1374" s="29" t="s">
@@ -52840,7 +52839,7 @@
         <v>17</v>
       </c>
       <c r="I1374" s="31" t="s">
-        <v>4481</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1375" spans="1:9" ht="45">
@@ -52851,7 +52850,7 @@
         <v>2398</v>
       </c>
       <c r="C1375" s="31" t="s">
-        <v>4587</v>
+        <v>4585</v>
       </c>
       <c r="D1375" s="29"/>
       <c r="E1375" s="29" t="s">
@@ -52876,7 +52875,7 @@
         <v>2399</v>
       </c>
       <c r="C1376" s="20" t="s">
-        <v>4906</v>
+        <v>4903</v>
       </c>
       <c r="D1376" s="29"/>
       <c r="E1376" s="29" t="s">
@@ -52892,7 +52891,7 @@
         <v>17</v>
       </c>
       <c r="I1376" s="31" t="s">
-        <v>4483</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1377" spans="1:9" ht="75">
@@ -53053,7 +53052,7 @@
         <v>2399</v>
       </c>
       <c r="C1383" s="31" t="s">
-        <v>4648</v>
+        <v>4646</v>
       </c>
       <c r="D1383" s="29"/>
       <c r="E1383" s="29" t="s">
@@ -53144,7 +53143,7 @@
         <v>17</v>
       </c>
       <c r="I1386" s="31" t="s">
-        <v>4484</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1387" spans="1:9" ht="45">
@@ -53158,7 +53157,7 @@
         <v>3643</v>
       </c>
       <c r="D1387" s="29" t="s">
-        <v>4308</v>
+        <v>4306</v>
       </c>
       <c r="E1387" s="29" t="s">
         <v>19</v>
@@ -53198,7 +53197,7 @@
         <v>17</v>
       </c>
       <c r="I1388" s="31" t="s">
-        <v>4485</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1389" spans="1:9" ht="30">
@@ -53212,7 +53211,7 @@
         <v>3645</v>
       </c>
       <c r="D1389" s="29" t="s">
-        <v>4309</v>
+        <v>4307</v>
       </c>
       <c r="E1389" s="29" t="s">
         <v>19</v>
@@ -53761,7 +53760,7 @@
         <v>2404</v>
       </c>
       <c r="C1411" s="31" t="s">
-        <v>4588</v>
+        <v>4586</v>
       </c>
       <c r="D1411" s="29"/>
       <c r="E1411" s="29" t="s">
@@ -54027,7 +54026,7 @@
         <v>17</v>
       </c>
       <c r="I1421" s="31" t="s">
-        <v>4486</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1422" spans="1:9" ht="30">
@@ -54063,7 +54062,7 @@
         <v>2404</v>
       </c>
       <c r="C1423" s="31" t="s">
-        <v>4589</v>
+        <v>4587</v>
       </c>
       <c r="D1423" s="29"/>
       <c r="E1423" s="29" t="s">
@@ -54413,7 +54412,7 @@
         <v>2405</v>
       </c>
       <c r="C1437" s="31" t="s">
-        <v>4590</v>
+        <v>4588</v>
       </c>
       <c r="D1437" s="29"/>
       <c r="E1437" s="29" t="s">
@@ -54682,13 +54681,13 @@
     </row>
     <row r="1448" spans="1:9" ht="30">
       <c r="A1448" s="29" t="s">
-        <v>4591</v>
+        <v>4589</v>
       </c>
       <c r="B1448" s="30" t="s">
         <v>2405</v>
       </c>
       <c r="C1448" s="31" t="s">
-        <v>4592</v>
+        <v>4590</v>
       </c>
       <c r="D1448" s="29"/>
       <c r="E1448" s="29" t="s">
@@ -54807,13 +54806,13 @@
     </row>
     <row r="1453" spans="1:9" ht="60">
       <c r="A1453" s="29" t="s">
-        <v>4593</v>
+        <v>4591</v>
       </c>
       <c r="B1453" s="30" t="s">
         <v>2405</v>
       </c>
       <c r="C1453" s="20" t="s">
-        <v>4757</v>
+        <v>4754</v>
       </c>
       <c r="D1453" s="29"/>
       <c r="E1453" s="29" t="s">
@@ -54938,7 +54937,7 @@
         <v>2405</v>
       </c>
       <c r="C1458" s="20" t="s">
-        <v>4908</v>
+        <v>4904</v>
       </c>
       <c r="D1458" s="29"/>
       <c r="E1458" s="29" t="s">
@@ -54954,7 +54953,7 @@
         <v>17</v>
       </c>
       <c r="I1458" s="31" t="s">
-        <v>4487</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1459" spans="1:9" ht="45">
@@ -54965,7 +54964,7 @@
         <v>2405</v>
       </c>
       <c r="C1459" s="31" t="s">
-        <v>4594</v>
+        <v>4592</v>
       </c>
       <c r="D1459" s="29"/>
       <c r="E1459" s="29" t="s">
@@ -54990,7 +54989,7 @@
         <v>2405</v>
       </c>
       <c r="C1460" s="31" t="s">
-        <v>4595</v>
+        <v>4593</v>
       </c>
       <c r="D1460" s="29"/>
       <c r="E1460" s="29" t="s">
@@ -55015,7 +55014,7 @@
         <v>2405</v>
       </c>
       <c r="C1461" s="31" t="s">
-        <v>4596</v>
+        <v>4594</v>
       </c>
       <c r="D1461" s="29"/>
       <c r="E1461" s="29" t="s">
@@ -55040,7 +55039,7 @@
         <v>2406</v>
       </c>
       <c r="C1462" s="20" t="s">
-        <v>4911</v>
+        <v>4907</v>
       </c>
       <c r="D1462" s="29"/>
       <c r="E1462" s="29" t="s">
@@ -55215,7 +55214,7 @@
         <v>2406</v>
       </c>
       <c r="C1469" s="20" t="s">
-        <v>4912</v>
+        <v>4908</v>
       </c>
       <c r="D1469" s="29"/>
       <c r="E1469" s="29" t="s">
@@ -55231,7 +55230,7 @@
         <v>17</v>
       </c>
       <c r="I1469" s="31" t="s">
-        <v>4488</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1470" spans="1:9" ht="60">
@@ -55242,7 +55241,7 @@
         <v>2406</v>
       </c>
       <c r="C1470" s="20" t="s">
-        <v>4913</v>
+        <v>4909</v>
       </c>
       <c r="D1470" s="29"/>
       <c r="E1470" s="29" t="s">
@@ -55267,7 +55266,7 @@
         <v>2406</v>
       </c>
       <c r="C1471" s="20" t="s">
-        <v>4916</v>
+        <v>4912</v>
       </c>
       <c r="D1471" s="29"/>
       <c r="E1471" s="29" t="s">
@@ -55283,7 +55282,7 @@
         <v>17</v>
       </c>
       <c r="I1471" s="20" t="s">
-        <v>4489</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1472" spans="1:9" ht="30">
@@ -55410,7 +55409,7 @@
         <v>17</v>
       </c>
       <c r="I1476" s="31" t="s">
-        <v>4490</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1477" spans="1:9" ht="30">
@@ -55424,7 +55423,7 @@
         <v>3718</v>
       </c>
       <c r="D1477" s="29" t="s">
-        <v>4310</v>
+        <v>4308</v>
       </c>
       <c r="E1477" s="29" t="s">
         <v>19</v>
@@ -55473,7 +55472,7 @@
         <v>2406</v>
       </c>
       <c r="C1479" s="31" t="s">
-        <v>4597</v>
+        <v>4595</v>
       </c>
       <c r="D1479" s="29"/>
       <c r="E1479" s="29" t="s">
@@ -55823,7 +55822,7 @@
         <v>2411</v>
       </c>
       <c r="C1493" s="31" t="s">
-        <v>4598</v>
+        <v>4596</v>
       </c>
       <c r="D1493" s="29"/>
       <c r="E1493" s="29" t="s">
@@ -56042,7 +56041,7 @@
     </row>
     <row r="1502" spans="1:9" ht="45">
       <c r="A1502" s="22" t="s">
-        <v>4666</v>
+        <v>4663</v>
       </c>
       <c r="B1502" s="30" t="s">
         <v>2411</v>
@@ -56067,13 +56066,13 @@
     </row>
     <row r="1503" spans="1:9" ht="45">
       <c r="A1503" s="22" t="s">
-        <v>4669</v>
+        <v>4666</v>
       </c>
       <c r="B1503" s="30" t="s">
         <v>2411</v>
       </c>
       <c r="C1503" s="20" t="s">
-        <v>4599</v>
+        <v>4597</v>
       </c>
       <c r="D1503" s="29"/>
       <c r="E1503" s="29" t="s">
@@ -56089,7 +56088,7 @@
         <v>17</v>
       </c>
       <c r="I1503" s="20" t="s">
-        <v>4653</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="1504" spans="1:9" ht="60">
@@ -56450,7 +56449,7 @@
         <v>2412</v>
       </c>
       <c r="C1518" s="31" t="s">
-        <v>4600</v>
+        <v>4598</v>
       </c>
       <c r="D1518" s="29"/>
       <c r="E1518" s="29" t="s">
@@ -56725,7 +56724,7 @@
         <v>2413</v>
       </c>
       <c r="C1529" s="20" t="s">
-        <v>4919</v>
+        <v>4915</v>
       </c>
       <c r="D1529" s="29"/>
       <c r="E1529" s="29" t="s">
@@ -56741,7 +56740,7 @@
         <v>17</v>
       </c>
       <c r="I1529" s="31" t="s">
-        <v>4491</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1530" spans="1:9" ht="75">
@@ -56927,7 +56926,7 @@
         <v>2413</v>
       </c>
       <c r="C1537" s="20" t="s">
-        <v>4922</v>
+        <v>4918</v>
       </c>
       <c r="D1537" s="29"/>
       <c r="E1537" s="29" t="s">
@@ -56943,7 +56942,7 @@
         <v>17</v>
       </c>
       <c r="I1537" s="31" t="s">
-        <v>4492</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1538" spans="1:9" ht="60">
@@ -56954,7 +56953,7 @@
         <v>2413</v>
       </c>
       <c r="C1538" s="20" t="s">
-        <v>4920</v>
+        <v>4916</v>
       </c>
       <c r="D1538" s="29"/>
       <c r="E1538" s="29" t="s">
@@ -56979,7 +56978,7 @@
         <v>2413</v>
       </c>
       <c r="C1539" s="20" t="s">
-        <v>4925</v>
+        <v>4921</v>
       </c>
       <c r="D1539" s="29"/>
       <c r="E1539" s="29" t="s">
@@ -56995,7 +56994,7 @@
         <v>17</v>
       </c>
       <c r="I1539" s="31" t="s">
-        <v>4493</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1540" spans="1:9" ht="30">
@@ -57225,7 +57224,7 @@
     </row>
     <row r="1549" spans="1:9" ht="45">
       <c r="A1549" s="22" t="s">
-        <v>4673</v>
+        <v>4670</v>
       </c>
       <c r="B1549" s="30" t="s">
         <v>2414</v>
@@ -57400,7 +57399,7 @@
     </row>
     <row r="1556" spans="1:9" ht="30">
       <c r="A1556" s="22" t="s">
-        <v>4674</v>
+        <v>4671</v>
       </c>
       <c r="B1556" s="30" t="s">
         <v>2417</v>
@@ -57506,7 +57505,7 @@
         <v>2418</v>
       </c>
       <c r="C1560" s="31" t="s">
-        <v>4601</v>
+        <v>4599</v>
       </c>
       <c r="D1560" s="29"/>
       <c r="E1560" s="29" t="s">
@@ -57931,7 +57930,7 @@
         <v>2420</v>
       </c>
       <c r="C1577" s="20" t="s">
-        <v>4927</v>
+        <v>4923</v>
       </c>
       <c r="D1577" s="29"/>
       <c r="E1577" s="29" t="s">
@@ -57947,7 +57946,7 @@
         <v>17</v>
       </c>
       <c r="I1577" s="31" t="s">
-        <v>4494</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1578" spans="1:9" ht="60">
@@ -58083,7 +58082,7 @@
         <v>2420</v>
       </c>
       <c r="C1583" s="20" t="s">
-        <v>4929</v>
+        <v>4925</v>
       </c>
       <c r="D1583" s="29"/>
       <c r="E1583" s="29" t="s">
@@ -58099,7 +58098,7 @@
         <v>17</v>
       </c>
       <c r="I1583" s="31" t="s">
-        <v>4495</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1584" spans="1:9" ht="45">
@@ -58285,7 +58284,7 @@
         <v>2422</v>
       </c>
       <c r="C1591" s="20" t="s">
-        <v>4758</v>
+        <v>4755</v>
       </c>
       <c r="D1591" s="29"/>
       <c r="E1591" s="29" t="s">
@@ -58360,7 +58359,7 @@
         <v>2423</v>
       </c>
       <c r="C1594" s="20" t="s">
-        <v>4759</v>
+        <v>4756</v>
       </c>
       <c r="D1594" s="29"/>
       <c r="E1594" s="29" t="s">
@@ -58535,7 +58534,7 @@
         <v>2425</v>
       </c>
       <c r="C1601" s="31" t="s">
-        <v>4602</v>
+        <v>4600</v>
       </c>
       <c r="D1601" s="29"/>
       <c r="E1601" s="29" t="s">
@@ -58710,7 +58709,7 @@
         <v>2427</v>
       </c>
       <c r="C1608" s="20" t="s">
-        <v>4931</v>
+        <v>4927</v>
       </c>
       <c r="D1608" s="29"/>
       <c r="E1608" s="29" t="s">
@@ -58726,7 +58725,7 @@
         <v>17</v>
       </c>
       <c r="I1608" s="31" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1609" spans="1:9" ht="75">
@@ -58862,7 +58861,7 @@
         <v>2427</v>
       </c>
       <c r="C1614" s="20" t="s">
-        <v>4933</v>
+        <v>4929</v>
       </c>
       <c r="D1614" s="29"/>
       <c r="E1614" s="29" t="s">
@@ -58878,7 +58877,7 @@
         <v>17</v>
       </c>
       <c r="I1614" s="31" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1615" spans="1:9" ht="60">
@@ -58889,7 +58888,7 @@
         <v>2427</v>
       </c>
       <c r="C1615" s="20" t="s">
-        <v>4934</v>
+        <v>4930</v>
       </c>
       <c r="D1615" s="29"/>
       <c r="E1615" s="29" t="s">
@@ -58958,7 +58957,7 @@
     </row>
     <row r="1618" spans="1:9" ht="45">
       <c r="A1618" s="22" t="s">
-        <v>4656</v>
+        <v>4654</v>
       </c>
       <c r="B1618" s="30" t="s">
         <v>2427</v>
@@ -59014,7 +59013,7 @@
         <v>2427</v>
       </c>
       <c r="C1620" s="31" t="s">
-        <v>4603</v>
+        <v>4601</v>
       </c>
       <c r="D1620" s="29"/>
       <c r="E1620" s="29" t="s">
@@ -59039,7 +59038,7 @@
         <v>2427</v>
       </c>
       <c r="C1621" s="20" t="s">
-        <v>4604</v>
+        <v>4602</v>
       </c>
       <c r="D1621" s="29"/>
       <c r="E1621" s="29" t="s">
@@ -59058,13 +59057,13 @@
     </row>
     <row r="1622" spans="1:9" ht="60">
       <c r="A1622" s="22" t="s">
-        <v>4650</v>
+        <v>4648</v>
       </c>
       <c r="B1622" s="30" t="s">
         <v>2427</v>
       </c>
       <c r="C1622" s="20" t="s">
-        <v>4605</v>
+        <v>4603</v>
       </c>
       <c r="D1622" s="29"/>
       <c r="E1622" s="29" t="s">
@@ -59074,10 +59073,10 @@
         <v>6</v>
       </c>
       <c r="G1622" s="22" t="s">
-        <v>4651</v>
+        <v>4649</v>
       </c>
       <c r="H1622" s="22" t="s">
-        <v>4652</v>
+        <v>4650</v>
       </c>
       <c r="I1622" s="31"/>
     </row>
@@ -59089,7 +59088,7 @@
         <v>2427</v>
       </c>
       <c r="C1623" s="31" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="D1623" s="29"/>
       <c r="E1623" s="29" t="s">
@@ -59108,13 +59107,13 @@
     </row>
     <row r="1624" spans="1:9" ht="60">
       <c r="A1624" s="29" t="s">
-        <v>4609</v>
+        <v>4607</v>
       </c>
       <c r="B1624" s="30" t="s">
         <v>2427</v>
       </c>
       <c r="C1624" s="31" t="s">
-        <v>4610</v>
+        <v>4608</v>
       </c>
       <c r="D1624" s="29"/>
       <c r="E1624" s="29" t="s">
@@ -59139,7 +59138,7 @@
         <v>2427</v>
       </c>
       <c r="C1625" s="31" t="s">
-        <v>4607</v>
+        <v>4605</v>
       </c>
       <c r="D1625" s="29"/>
       <c r="E1625" s="29" t="s">
@@ -59164,7 +59163,7 @@
         <v>2427</v>
       </c>
       <c r="C1626" s="31" t="s">
-        <v>4608</v>
+        <v>4606</v>
       </c>
       <c r="D1626" s="29"/>
       <c r="E1626" s="29" t="s">
@@ -59214,7 +59213,7 @@
         <v>2427</v>
       </c>
       <c r="C1628" s="31" t="s">
-        <v>4611</v>
+        <v>4609</v>
       </c>
       <c r="D1628" s="29"/>
       <c r="E1628" s="29" t="s">
@@ -59258,13 +59257,13 @@
     </row>
     <row r="1630" spans="1:9" ht="30">
       <c r="A1630" s="29" t="s">
-        <v>4615</v>
+        <v>4613</v>
       </c>
       <c r="B1630" s="30" t="s">
         <v>2427</v>
       </c>
       <c r="C1630" s="31" t="s">
-        <v>4612</v>
+        <v>4610</v>
       </c>
       <c r="D1630" s="29"/>
       <c r="E1630" s="29" t="s">
@@ -59289,7 +59288,7 @@
         <v>2427</v>
       </c>
       <c r="C1631" s="31" t="s">
-        <v>4613</v>
+        <v>4611</v>
       </c>
       <c r="D1631" s="29"/>
       <c r="E1631" s="29" t="s">
@@ -59314,7 +59313,7 @@
         <v>2427</v>
       </c>
       <c r="C1632" s="31" t="s">
-        <v>4614</v>
+        <v>4612</v>
       </c>
       <c r="D1632" s="29"/>
       <c r="E1632" s="29" t="s">
@@ -59864,7 +59863,7 @@
         <v>2432</v>
       </c>
       <c r="C1654" s="31" t="s">
-        <v>4616</v>
+        <v>4614</v>
       </c>
       <c r="D1654" s="29"/>
       <c r="E1654" s="29" t="s">
@@ -60164,7 +60163,7 @@
         <v>2433</v>
       </c>
       <c r="C1666" s="31" t="s">
-        <v>4617</v>
+        <v>4615</v>
       </c>
       <c r="D1666" s="29"/>
       <c r="E1666" s="29" t="s">
@@ -60714,7 +60713,7 @@
         <v>2434</v>
       </c>
       <c r="C1688" s="20" t="s">
-        <v>4937</v>
+        <v>4933</v>
       </c>
       <c r="D1688" s="29"/>
       <c r="E1688" s="29" t="s">
@@ -60730,7 +60729,7 @@
         <v>17</v>
       </c>
       <c r="I1688" s="31" t="s">
-        <v>4498</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1689" spans="1:9" ht="75">
@@ -60807,7 +60806,7 @@
         <v>17</v>
       </c>
       <c r="I1691" s="31" t="s">
-        <v>4499</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1692" spans="1:9" ht="45">
@@ -60846,7 +60845,7 @@
         <v>3895</v>
       </c>
       <c r="D1693" s="29" t="s">
-        <v>4311</v>
+        <v>4309</v>
       </c>
       <c r="E1693" s="29" t="s">
         <v>19</v>
@@ -61045,7 +61044,7 @@
         <v>2434</v>
       </c>
       <c r="C1701" s="20" t="s">
-        <v>4968</v>
+        <v>4963</v>
       </c>
       <c r="D1701" s="29"/>
       <c r="E1701" s="29" t="s">
@@ -61061,7 +61060,7 @@
         <v>17</v>
       </c>
       <c r="I1701" s="31" t="s">
-        <v>4500</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1702" spans="1:9" ht="45">
@@ -61072,7 +61071,7 @@
         <v>2434</v>
       </c>
       <c r="C1702" s="20" t="s">
-        <v>4967</v>
+        <v>4962</v>
       </c>
       <c r="D1702" s="29"/>
       <c r="E1702" s="29" t="s">
@@ -61497,7 +61496,7 @@
         <v>2439</v>
       </c>
       <c r="C1719" s="31" t="s">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="D1719" s="29"/>
       <c r="E1719" s="29" t="s">
@@ -61650,7 +61649,7 @@
         <v>3922</v>
       </c>
       <c r="D1725" s="29" t="s">
-        <v>4312</v>
+        <v>4310</v>
       </c>
       <c r="E1725" s="29" t="s">
         <v>19</v>
@@ -61874,7 +61873,7 @@
         <v>2441</v>
       </c>
       <c r="C1734" s="20" t="s">
-        <v>4942</v>
+        <v>4938</v>
       </c>
       <c r="D1734" s="29"/>
       <c r="E1734" s="29" t="s">
@@ -61890,7 +61889,7 @@
         <v>17</v>
       </c>
       <c r="I1734" s="31" t="s">
-        <v>4501</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1735" spans="1:9" ht="75">
@@ -62026,7 +62025,7 @@
         <v>2441</v>
       </c>
       <c r="C1740" s="20" t="s">
-        <v>4943</v>
+        <v>4939</v>
       </c>
       <c r="D1740" s="29"/>
       <c r="E1740" s="29" t="s">
@@ -62042,7 +62041,7 @@
         <v>17</v>
       </c>
       <c r="I1740" s="31" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1741" spans="1:9" ht="60">
@@ -62053,7 +62052,7 @@
         <v>2441</v>
       </c>
       <c r="C1741" s="20" t="s">
-        <v>4944</v>
+        <v>4940</v>
       </c>
       <c r="D1741" s="29"/>
       <c r="E1741" s="29" t="s">
@@ -62553,7 +62552,7 @@
         <v>2446</v>
       </c>
       <c r="C1761" s="31" t="s">
-        <v>4619</v>
+        <v>4617</v>
       </c>
       <c r="D1761" s="29"/>
       <c r="E1761" s="29" t="s">
@@ -62728,7 +62727,7 @@
         <v>2447</v>
       </c>
       <c r="C1768" s="31" t="s">
-        <v>4620</v>
+        <v>4618</v>
       </c>
       <c r="D1768" s="29"/>
       <c r="E1768" s="29" t="s">
@@ -62797,13 +62796,13 @@
     </row>
     <row r="1771" spans="1:9" ht="60">
       <c r="A1771" s="29" t="s">
-        <v>4622</v>
+        <v>4620</v>
       </c>
       <c r="B1771" s="30" t="s">
         <v>2447</v>
       </c>
       <c r="C1771" s="31" t="s">
-        <v>4621</v>
+        <v>4619</v>
       </c>
       <c r="D1771" s="29"/>
       <c r="E1771" s="29" t="s">
@@ -62953,7 +62952,7 @@
         <v>2448</v>
       </c>
       <c r="C1777" s="20" t="s">
-        <v>4947</v>
+        <v>4943</v>
       </c>
       <c r="D1777" s="29"/>
       <c r="E1777" s="29" t="s">
@@ -62969,7 +62968,7 @@
         <v>17</v>
       </c>
       <c r="I1777" s="31" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1778" spans="1:9" ht="45">
@@ -62980,7 +62979,7 @@
         <v>2448</v>
       </c>
       <c r="C1778" s="20" t="s">
-        <v>4948</v>
+        <v>4944</v>
       </c>
       <c r="D1778" s="29"/>
       <c r="E1778" s="29" t="s">
@@ -63555,7 +63554,7 @@
         <v>2453</v>
       </c>
       <c r="C1801" s="31" t="s">
-        <v>4623</v>
+        <v>4621</v>
       </c>
       <c r="D1801" s="29"/>
       <c r="E1801" s="29" t="s">
@@ -63655,7 +63654,7 @@
         <v>2453</v>
       </c>
       <c r="C1805" s="31" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="D1805" s="29"/>
       <c r="E1805" s="29" t="s">
@@ -63980,7 +63979,7 @@
         <v>2453</v>
       </c>
       <c r="C1818" s="20" t="s">
-        <v>4951</v>
+        <v>4947</v>
       </c>
       <c r="D1818" s="29"/>
       <c r="E1818" s="29" t="s">
@@ -64030,7 +64029,7 @@
         <v>2453</v>
       </c>
       <c r="C1820" s="20" t="s">
-        <v>4952</v>
+        <v>4948</v>
       </c>
       <c r="D1820" s="29"/>
       <c r="E1820" s="29" t="s">
@@ -64080,7 +64079,7 @@
         <v>2453</v>
       </c>
       <c r="C1822" s="20" t="s">
-        <v>4760</v>
+        <v>4757</v>
       </c>
       <c r="D1822" s="29"/>
       <c r="E1822" s="29" t="s">
@@ -64105,7 +64104,7 @@
         <v>2453</v>
       </c>
       <c r="C1823" s="20" t="s">
-        <v>4761</v>
+        <v>4758</v>
       </c>
       <c r="D1823" s="29"/>
       <c r="E1823" s="29" t="s">
@@ -64130,7 +64129,7 @@
         <v>2453</v>
       </c>
       <c r="C1824" s="20" t="s">
-        <v>4762</v>
+        <v>4759</v>
       </c>
       <c r="D1824" s="29"/>
       <c r="E1824" s="29" t="s">
@@ -64599,13 +64598,13 @@
     </row>
     <row r="1843" spans="1:9" ht="60">
       <c r="A1843" s="22" t="s">
-        <v>4681</v>
+        <v>4678</v>
       </c>
       <c r="B1843" s="30" t="s">
         <v>2455</v>
       </c>
       <c r="C1843" s="20" t="s">
-        <v>4953</v>
+        <v>4949</v>
       </c>
       <c r="D1843" s="29"/>
       <c r="E1843" s="29" t="s">
@@ -64621,7 +64620,7 @@
         <v>17</v>
       </c>
       <c r="I1843" s="20" t="s">
-        <v>4682</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="1844" spans="1:9" ht="60">
@@ -64632,7 +64631,7 @@
         <v>2455</v>
       </c>
       <c r="C1844" s="20" t="s">
-        <v>4954</v>
+        <v>4950</v>
       </c>
       <c r="D1844" s="29"/>
       <c r="E1844" s="29" t="s">
@@ -64657,7 +64656,7 @@
         <v>2455</v>
       </c>
       <c r="C1845" s="20" t="s">
-        <v>4958</v>
+        <v>4954</v>
       </c>
       <c r="D1845" s="29"/>
       <c r="E1845" s="29" t="s">
@@ -64673,7 +64672,7 @@
         <v>17</v>
       </c>
       <c r="I1845" s="31" t="s">
-        <v>4504</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1846" spans="1:9" ht="45">
@@ -65034,7 +65033,7 @@
         <v>2460</v>
       </c>
       <c r="C1860" s="31" t="s">
-        <v>4624</v>
+        <v>4622</v>
       </c>
       <c r="D1860" s="29"/>
       <c r="E1860" s="29" t="s">
@@ -65200,7 +65199,7 @@
         <v>17</v>
       </c>
       <c r="I1866" s="31" t="s">
-        <v>4505</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1867" spans="1:9" ht="45">
@@ -65227,7 +65226,7 @@
         <v>17</v>
       </c>
       <c r="I1867" s="31" t="s">
-        <v>4506</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1868" spans="1:9" ht="45">
@@ -65254,7 +65253,7 @@
         <v>17</v>
       </c>
       <c r="I1868" s="31" t="s">
-        <v>4507</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1869" spans="1:9" ht="45">
@@ -65281,7 +65280,7 @@
         <v>17</v>
       </c>
       <c r="I1869" s="31" t="s">
-        <v>4508</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1870" spans="1:9" ht="30">
@@ -65408,7 +65407,7 @@
         <v>17</v>
       </c>
       <c r="I1874" s="31" t="s">
-        <v>4509</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1875" spans="1:9" ht="45">
@@ -65422,7 +65421,7 @@
         <v>4047</v>
       </c>
       <c r="D1875" s="29" t="s">
-        <v>4313</v>
+        <v>4311</v>
       </c>
       <c r="E1875" s="29" t="s">
         <v>19</v>
@@ -65512,7 +65511,7 @@
         <v>17</v>
       </c>
       <c r="I1878" s="31" t="s">
-        <v>4510</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1879" spans="1:9" ht="45">
@@ -65526,7 +65525,7 @@
         <v>4051</v>
       </c>
       <c r="D1879" s="29" t="s">
-        <v>4314</v>
+        <v>4312</v>
       </c>
       <c r="E1879" s="29" t="s">
         <v>19</v>
@@ -65603,7 +65602,7 @@
         <v>4054</v>
       </c>
       <c r="D1882" s="29" t="s">
-        <v>4315</v>
+        <v>4313</v>
       </c>
       <c r="E1882" s="29" t="s">
         <v>19</v>
@@ -65630,7 +65629,7 @@
         <v>4055</v>
       </c>
       <c r="D1883" s="29" t="s">
-        <v>4315</v>
+        <v>4313</v>
       </c>
       <c r="E1883" s="29" t="s">
         <v>19</v>
@@ -66220,7 +66219,7 @@
         <v>17</v>
       </c>
       <c r="I1906" s="31" t="s">
-        <v>4511</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1907" spans="1:9" ht="45">
@@ -66234,7 +66233,7 @@
         <v>4079</v>
       </c>
       <c r="D1907" s="29" t="s">
-        <v>4316</v>
+        <v>4314</v>
       </c>
       <c r="E1907" s="29" t="s">
         <v>19</v>
@@ -66733,7 +66732,7 @@
         <v>2460</v>
       </c>
       <c r="C1927" s="20" t="s">
-        <v>4961</v>
+        <v>4957</v>
       </c>
       <c r="D1927" s="29"/>
       <c r="E1927" s="29" t="s">
@@ -66749,7 +66748,7 @@
         <v>17</v>
       </c>
       <c r="I1927" s="31" t="s">
-        <v>4512</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="1928" spans="1:9" ht="30">
@@ -66913,7 +66912,7 @@
         <v>4105</v>
       </c>
       <c r="D1934" s="29" t="s">
-        <v>4317</v>
+        <v>4315</v>
       </c>
       <c r="E1934" s="29" t="s">
         <v>19</v>
@@ -67412,7 +67411,7 @@
         <v>2461</v>
       </c>
       <c r="C1954" s="31" t="s">
-        <v>4625</v>
+        <v>4623</v>
       </c>
       <c r="D1954" s="29"/>
       <c r="E1954" s="29" t="s">
@@ -67465,7 +67464,7 @@
         <v>4126</v>
       </c>
       <c r="D1956" s="29" t="s">
-        <v>4318</v>
+        <v>4316</v>
       </c>
       <c r="E1956" s="29" t="s">
         <v>19</v>
@@ -67517,7 +67516,7 @@
         <v>4128</v>
       </c>
       <c r="D1958" s="29" t="s">
-        <v>4319</v>
+        <v>4317</v>
       </c>
       <c r="E1958" s="29" t="s">
         <v>19</v>
@@ -67569,7 +67568,7 @@
         <v>4130</v>
       </c>
       <c r="D1960" s="29" t="s">
-        <v>4320</v>
+        <v>4318</v>
       </c>
       <c r="E1960" s="29" t="s">
         <v>19</v>
@@ -67621,7 +67620,7 @@
         <v>4132</v>
       </c>
       <c r="D1962" s="29" t="s">
-        <v>4321</v>
+        <v>4319</v>
       </c>
       <c r="E1962" s="29" t="s">
         <v>19</v>
@@ -67673,7 +67672,7 @@
         <v>4134</v>
       </c>
       <c r="D1964" s="29" t="s">
-        <v>4322</v>
+        <v>4320</v>
       </c>
       <c r="E1964" s="29" t="s">
         <v>19</v>
@@ -67725,7 +67724,7 @@
         <v>4136</v>
       </c>
       <c r="D1966" s="29" t="s">
-        <v>4323</v>
+        <v>4321</v>
       </c>
       <c r="E1966" s="29" t="s">
         <v>19</v>
@@ -67802,7 +67801,7 @@
         <v>4139</v>
       </c>
       <c r="D1969" s="29" t="s">
-        <v>4324</v>
+        <v>4322</v>
       </c>
       <c r="E1969" s="29" t="s">
         <v>19</v>
@@ -67854,7 +67853,7 @@
         <v>4141</v>
       </c>
       <c r="D1971" s="29" t="s">
-        <v>4325</v>
+        <v>4323</v>
       </c>
       <c r="E1971" s="29" t="s">
         <v>19</v>
@@ -67931,7 +67930,7 @@
         <v>4144</v>
       </c>
       <c r="D1974" s="29" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="E1974" s="29" t="s">
         <v>19</v>
@@ -67949,13 +67948,13 @@
     </row>
     <row r="1975" spans="1:9" ht="30">
       <c r="A1975" s="29" t="s">
-        <v>4627</v>
+        <v>4625</v>
       </c>
       <c r="B1975" s="30" t="s">
         <v>2461</v>
       </c>
       <c r="C1975" s="31" t="s">
-        <v>4626</v>
+        <v>4624</v>
       </c>
       <c r="D1975" s="29"/>
       <c r="E1975" s="29" t="s">
@@ -68008,7 +68007,7 @@
         <v>4146</v>
       </c>
       <c r="D1977" s="29" t="s">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="E1977" s="29" t="s">
         <v>19</v>
@@ -68060,7 +68059,7 @@
         <v>4148</v>
       </c>
       <c r="D1979" s="29" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
       <c r="E1979" s="29" t="s">
         <v>19</v>
@@ -68112,7 +68111,7 @@
         <v>4150</v>
       </c>
       <c r="D1981" s="29" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="E1981" s="29" t="s">
         <v>19</v>
@@ -68164,7 +68163,7 @@
         <v>4152</v>
       </c>
       <c r="D1983" s="29" t="s">
-        <v>4330</v>
+        <v>4328</v>
       </c>
       <c r="E1983" s="29" t="s">
         <v>19</v>
@@ -68266,7 +68265,7 @@
         <v>4156</v>
       </c>
       <c r="D1987" s="29" t="s">
-        <v>4331</v>
+        <v>4329</v>
       </c>
       <c r="E1987" s="29" t="s">
         <v>19</v>
@@ -68318,7 +68317,7 @@
         <v>4158</v>
       </c>
       <c r="D1989" s="29" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
       <c r="E1989" s="29" t="s">
         <v>19</v>
@@ -68342,7 +68341,7 @@
         <v>2462</v>
       </c>
       <c r="C1990" s="20" t="s">
-        <v>4962</v>
+        <v>4958</v>
       </c>
       <c r="D1990" s="29"/>
       <c r="E1990" s="29" t="s">
@@ -68358,7 +68357,7 @@
         <v>17</v>
       </c>
       <c r="I1990" s="31" t="s">
-        <v>4513</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1991" spans="1:9" ht="75">
@@ -69019,7 +69018,7 @@
         <v>2467</v>
       </c>
       <c r="C2017" s="31" t="s">
-        <v>4628</v>
+        <v>4626</v>
       </c>
       <c r="D2017" s="29"/>
       <c r="E2017" s="29" t="s">
@@ -69244,7 +69243,7 @@
         <v>2468</v>
       </c>
       <c r="C2026" s="31" t="s">
-        <v>4629</v>
+        <v>4627</v>
       </c>
       <c r="D2026" s="29"/>
       <c r="E2026" s="29" t="s">
@@ -69288,7 +69287,7 @@
     </row>
     <row r="2028" spans="1:9" ht="45">
       <c r="A2028" s="22" t="s">
-        <v>4657</v>
+        <v>4655</v>
       </c>
       <c r="B2028" s="30" t="s">
         <v>2469</v>
@@ -69347,7 +69346,7 @@
         <v>4194</v>
       </c>
       <c r="D2030" s="22" t="s">
-        <v>4658</v>
+        <v>4656</v>
       </c>
       <c r="E2030" s="29" t="s">
         <v>22</v>
@@ -69362,7 +69361,7 @@
         <v>21</v>
       </c>
       <c r="I2030" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2031" spans="1:9" ht="45">
@@ -69451,7 +69450,7 @@
         <v>4198</v>
       </c>
       <c r="D2034" s="29" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
       <c r="E2034" s="29" t="s">
         <v>22</v>
@@ -69478,7 +69477,7 @@
         <v>4199</v>
       </c>
       <c r="D2035" s="29" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
       <c r="E2035" s="29" t="s">
         <v>22</v>
@@ -69493,7 +69492,7 @@
         <v>21</v>
       </c>
       <c r="I2035" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2036" spans="1:9" ht="45">
@@ -69507,7 +69506,7 @@
         <v>4200</v>
       </c>
       <c r="D2036" s="29" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
       <c r="E2036" s="29" t="s">
         <v>22</v>
@@ -69534,7 +69533,7 @@
         <v>4201</v>
       </c>
       <c r="D2037" s="29" t="s">
-        <v>4334</v>
+        <v>4332</v>
       </c>
       <c r="E2037" s="29" t="s">
         <v>22</v>
@@ -69561,7 +69560,7 @@
         <v>4202</v>
       </c>
       <c r="D2038" s="29" t="s">
-        <v>4334</v>
+        <v>4332</v>
       </c>
       <c r="E2038" s="29" t="s">
         <v>22</v>
@@ -69576,7 +69575,7 @@
         <v>21</v>
       </c>
       <c r="I2038" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2039" spans="1:9" ht="45">
@@ -69590,7 +69589,7 @@
         <v>4203</v>
       </c>
       <c r="D2039" s="29" t="s">
-        <v>4334</v>
+        <v>4332</v>
       </c>
       <c r="E2039" s="29" t="s">
         <v>22</v>
@@ -69617,7 +69616,7 @@
         <v>4204</v>
       </c>
       <c r="D2040" s="29" t="s">
-        <v>4335</v>
+        <v>4333</v>
       </c>
       <c r="E2040" s="29" t="s">
         <v>22</v>
@@ -69644,7 +69643,7 @@
         <v>4205</v>
       </c>
       <c r="D2041" s="29" t="s">
-        <v>4335</v>
+        <v>4333</v>
       </c>
       <c r="E2041" s="29" t="s">
         <v>22</v>
@@ -69659,7 +69658,7 @@
         <v>21</v>
       </c>
       <c r="I2041" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2042" spans="1:9" ht="45">
@@ -69673,7 +69672,7 @@
         <v>4206</v>
       </c>
       <c r="D2042" s="29" t="s">
-        <v>4335</v>
+        <v>4333</v>
       </c>
       <c r="E2042" s="29" t="s">
         <v>22</v>
@@ -69700,7 +69699,7 @@
         <v>4207</v>
       </c>
       <c r="D2043" s="29" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
       <c r="E2043" s="29" t="s">
         <v>22</v>
@@ -69727,7 +69726,7 @@
         <v>4208</v>
       </c>
       <c r="D2044" s="29" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
       <c r="E2044" s="29" t="s">
         <v>22</v>
@@ -69742,7 +69741,7 @@
         <v>21</v>
       </c>
       <c r="I2044" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2045" spans="1:9" ht="45">
@@ -69756,7 +69755,7 @@
         <v>4209</v>
       </c>
       <c r="D2045" s="29" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
       <c r="E2045" s="29" t="s">
         <v>22</v>
@@ -69774,16 +69773,16 @@
     </row>
     <row r="2046" spans="1:9" ht="45">
       <c r="A2046" s="22" t="s">
-        <v>4630</v>
+        <v>4628</v>
       </c>
       <c r="B2046" s="30" t="s">
         <v>2469</v>
       </c>
       <c r="C2046" s="20" t="s">
-        <v>4707</v>
+        <v>4704</v>
       </c>
       <c r="D2046" s="29" t="s">
-        <v>4632</v>
+        <v>4630</v>
       </c>
       <c r="E2046" s="29" t="s">
         <v>22</v>
@@ -69801,16 +69800,16 @@
     </row>
     <row r="2047" spans="1:9" ht="60">
       <c r="A2047" s="22" t="s">
-        <v>4631</v>
+        <v>4629</v>
       </c>
       <c r="B2047" s="30" t="s">
         <v>2469</v>
       </c>
       <c r="C2047" s="20" t="s">
-        <v>4706</v>
+        <v>4703</v>
       </c>
       <c r="D2047" s="29" t="s">
-        <v>4632</v>
+        <v>4630</v>
       </c>
       <c r="E2047" s="29" t="s">
         <v>22</v>
@@ -69834,10 +69833,10 @@
         <v>2469</v>
       </c>
       <c r="C2048" s="31" t="s">
-        <v>4633</v>
+        <v>4631</v>
       </c>
       <c r="D2048" s="29" t="s">
-        <v>4337</v>
+        <v>4335</v>
       </c>
       <c r="E2048" s="29" t="s">
         <v>22</v>
@@ -69861,10 +69860,10 @@
         <v>2469</v>
       </c>
       <c r="C2049" s="31" t="s">
-        <v>4634</v>
+        <v>4632</v>
       </c>
       <c r="D2049" s="29" t="s">
-        <v>4337</v>
+        <v>4335</v>
       </c>
       <c r="E2049" s="29" t="s">
         <v>22</v>
@@ -69879,7 +69878,7 @@
         <v>21</v>
       </c>
       <c r="I2049" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2050" spans="1:9" ht="45">
@@ -69893,7 +69892,7 @@
         <v>4210</v>
       </c>
       <c r="D2050" s="29" t="s">
-        <v>4337</v>
+        <v>4335</v>
       </c>
       <c r="E2050" s="29" t="s">
         <v>22</v>
@@ -69908,7 +69907,7 @@
         <v>20</v>
       </c>
       <c r="I2050" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2051" spans="1:9" ht="45">
@@ -69919,10 +69918,10 @@
         <v>2469</v>
       </c>
       <c r="C2051" s="31" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="D2051" s="29" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
       <c r="E2051" s="29" t="s">
         <v>22</v>
@@ -69946,10 +69945,10 @@
         <v>2469</v>
       </c>
       <c r="C2052" s="31" t="s">
-        <v>4636</v>
+        <v>4634</v>
       </c>
       <c r="D2052" s="29" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
       <c r="E2052" s="29" t="s">
         <v>22</v>
@@ -69964,7 +69963,7 @@
         <v>21</v>
       </c>
       <c r="I2052" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2053" spans="1:9" ht="45">
@@ -69978,7 +69977,7 @@
         <v>4211</v>
       </c>
       <c r="D2053" s="29" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
       <c r="E2053" s="29" t="s">
         <v>22</v>
@@ -70002,10 +70001,10 @@
         <v>2469</v>
       </c>
       <c r="C2054" s="31" t="s">
-        <v>4637</v>
+        <v>4635</v>
       </c>
       <c r="D2054" s="29" t="s">
-        <v>4339</v>
+        <v>4337</v>
       </c>
       <c r="E2054" s="29" t="s">
         <v>22</v>
@@ -70029,10 +70028,10 @@
         <v>2469</v>
       </c>
       <c r="C2055" s="31" t="s">
-        <v>4638</v>
+        <v>4636</v>
       </c>
       <c r="D2055" s="29" t="s">
-        <v>4339</v>
+        <v>4337</v>
       </c>
       <c r="E2055" s="29" t="s">
         <v>22</v>
@@ -70047,7 +70046,7 @@
         <v>21</v>
       </c>
       <c r="I2055" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2056" spans="1:9" ht="30">
@@ -70061,7 +70060,7 @@
         <v>4212</v>
       </c>
       <c r="D2056" s="29" t="s">
-        <v>4339</v>
+        <v>4337</v>
       </c>
       <c r="E2056" s="29" t="s">
         <v>22</v>
@@ -70085,10 +70084,10 @@
         <v>2469</v>
       </c>
       <c r="C2057" s="31" t="s">
-        <v>4639</v>
+        <v>4637</v>
       </c>
       <c r="D2057" s="29" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
       <c r="E2057" s="29" t="s">
         <v>22</v>
@@ -70112,10 +70111,10 @@
         <v>2469</v>
       </c>
       <c r="C2058" s="31" t="s">
-        <v>4640</v>
+        <v>4638</v>
       </c>
       <c r="D2058" s="29" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
       <c r="E2058" s="29" t="s">
         <v>22</v>
@@ -70130,7 +70129,7 @@
         <v>21</v>
       </c>
       <c r="I2058" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2059" spans="1:9" ht="60">
@@ -70144,7 +70143,7 @@
         <v>4213</v>
       </c>
       <c r="D2059" s="29" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
       <c r="E2059" s="29" t="s">
         <v>22</v>
@@ -70168,10 +70167,10 @@
         <v>2469</v>
       </c>
       <c r="C2060" s="31" t="s">
-        <v>4641</v>
+        <v>4639</v>
       </c>
       <c r="D2060" s="22" t="s">
-        <v>4659</v>
+        <v>4657</v>
       </c>
       <c r="E2060" s="29" t="s">
         <v>22</v>
@@ -70195,10 +70194,10 @@
         <v>2469</v>
       </c>
       <c r="C2061" s="31" t="s">
-        <v>4642</v>
+        <v>4640</v>
       </c>
       <c r="D2061" s="22" t="s">
-        <v>4660</v>
+        <v>4658</v>
       </c>
       <c r="E2061" s="29" t="s">
         <v>22</v>
@@ -70213,7 +70212,7 @@
         <v>21</v>
       </c>
       <c r="I2061" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2062" spans="1:9" ht="60">
@@ -70224,10 +70223,10 @@
         <v>2469</v>
       </c>
       <c r="C2062" s="20" t="s">
-        <v>4734</v>
+        <v>4731</v>
       </c>
       <c r="D2062" s="29" t="s">
-        <v>4341</v>
+        <v>4339</v>
       </c>
       <c r="E2062" s="29" t="s">
         <v>22</v>
@@ -70251,10 +70250,10 @@
         <v>2469</v>
       </c>
       <c r="C2063" s="31" t="s">
-        <v>4643</v>
+        <v>4641</v>
       </c>
       <c r="D2063" s="29" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
       <c r="E2063" s="29" t="s">
         <v>22</v>
@@ -70278,10 +70277,10 @@
         <v>2469</v>
       </c>
       <c r="C2064" s="31" t="s">
-        <v>4644</v>
+        <v>4642</v>
       </c>
       <c r="D2064" s="29" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
       <c r="E2064" s="29" t="s">
         <v>22</v>
@@ -70296,7 +70295,7 @@
         <v>21</v>
       </c>
       <c r="I2064" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2065" spans="1:9" ht="45">
@@ -70310,7 +70309,7 @@
         <v>4214</v>
       </c>
       <c r="D2065" s="29" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
       <c r="E2065" s="29" t="s">
         <v>22</v>
@@ -70334,10 +70333,10 @@
         <v>2469</v>
       </c>
       <c r="C2066" s="31" t="s">
-        <v>4645</v>
+        <v>4643</v>
       </c>
       <c r="D2066" s="29" t="s">
-        <v>4343</v>
+        <v>4341</v>
       </c>
       <c r="E2066" s="29" t="s">
         <v>22</v>
@@ -70361,10 +70360,10 @@
         <v>2469</v>
       </c>
       <c r="C2067" s="31" t="s">
-        <v>4646</v>
+        <v>4644</v>
       </c>
       <c r="D2067" s="29" t="s">
-        <v>4343</v>
+        <v>4341</v>
       </c>
       <c r="E2067" s="29" t="s">
         <v>22</v>
@@ -70379,12 +70378,12 @@
         <v>21</v>
       </c>
       <c r="I2067" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2068" spans="1:9" ht="45">
       <c r="A2068" s="22" t="s">
-        <v>4712</v>
+        <v>4709</v>
       </c>
       <c r="B2068" s="30" t="s">
         <v>2469</v>
@@ -70393,7 +70392,7 @@
         <v>4215</v>
       </c>
       <c r="D2068" s="29" t="s">
-        <v>4343</v>
+        <v>4341</v>
       </c>
       <c r="E2068" s="29" t="s">
         <v>22</v>
@@ -70417,10 +70416,10 @@
         <v>2469</v>
       </c>
       <c r="C2069" s="20" t="s">
-        <v>4718</v>
+        <v>4715</v>
       </c>
       <c r="D2069" s="29" t="s">
-        <v>4344</v>
+        <v>4342</v>
       </c>
       <c r="E2069" s="29" t="s">
         <v>22</v>
@@ -70444,10 +70443,10 @@
         <v>2469</v>
       </c>
       <c r="C2070" s="31" t="s">
-        <v>4647</v>
+        <v>4645</v>
       </c>
       <c r="D2070" s="29" t="s">
-        <v>4345</v>
+        <v>4343</v>
       </c>
       <c r="E2070" s="29" t="s">
         <v>22</v>
@@ -70462,7 +70461,7 @@
         <v>21</v>
       </c>
       <c r="I2070" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2071" spans="1:9" ht="30">
@@ -70476,7 +70475,7 @@
         <v>4216</v>
       </c>
       <c r="D2071" s="29" t="s">
-        <v>4345</v>
+        <v>4343</v>
       </c>
       <c r="E2071" s="29" t="s">
         <v>22</v>
@@ -70494,16 +70493,16 @@
     </row>
     <row r="2072" spans="1:9" ht="45">
       <c r="A2072" s="22" t="s">
-        <v>4717</v>
+        <v>4714</v>
       </c>
       <c r="B2072" s="24" t="s">
-        <v>4715</v>
+        <v>4712</v>
       </c>
       <c r="C2072" s="20" t="s">
-        <v>4724</v>
+        <v>4721</v>
       </c>
       <c r="D2072" s="22" t="s">
-        <v>4716</v>
+        <v>4713</v>
       </c>
       <c r="E2072" s="29" t="s">
         <v>22</v>
@@ -70515,24 +70514,24 @@
         <v>15</v>
       </c>
       <c r="H2072" s="22" t="s">
-        <v>4719</v>
+        <v>4716</v>
       </c>
       <c r="I2072" s="20" t="s">
-        <v>4721</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="2073" spans="1:9" ht="60">
       <c r="A2073" s="22" t="s">
-        <v>4742</v>
+        <v>4739</v>
       </c>
       <c r="B2073" s="24" t="s">
-        <v>4715</v>
+        <v>4712</v>
       </c>
       <c r="C2073" s="20" t="s">
-        <v>4723</v>
+        <v>4720</v>
       </c>
       <c r="D2073" s="22" t="s">
-        <v>4716</v>
+        <v>4713</v>
       </c>
       <c r="E2073" s="29" t="s">
         <v>22</v>
@@ -70544,22 +70543,22 @@
         <v>15</v>
       </c>
       <c r="H2073" s="22" t="s">
-        <v>4720</v>
+        <v>4717</v>
       </c>
       <c r="I2073" s="20"/>
     </row>
     <row r="2074" spans="1:9" ht="45">
       <c r="A2074" s="22" t="s">
-        <v>4765</v>
+        <v>4762</v>
       </c>
       <c r="B2074" s="24" t="s">
-        <v>4715</v>
+        <v>4712</v>
       </c>
       <c r="C2074" s="20" t="s">
-        <v>4726</v>
+        <v>4723</v>
       </c>
       <c r="D2074" s="22" t="s">
-        <v>4722</v>
+        <v>4719</v>
       </c>
       <c r="E2074" s="29" t="s">
         <v>22</v>
@@ -70571,24 +70570,24 @@
         <v>15</v>
       </c>
       <c r="H2074" s="22" t="s">
-        <v>4719</v>
+        <v>4716</v>
       </c>
       <c r="I2074" s="20" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2075" spans="1:9" ht="60">
       <c r="A2075" s="22" t="s">
-        <v>4766</v>
+        <v>4763</v>
       </c>
       <c r="B2075" s="24" t="s">
-        <v>4715</v>
+        <v>4712</v>
       </c>
       <c r="C2075" s="20" t="s">
-        <v>4725</v>
+        <v>4722</v>
       </c>
       <c r="D2075" s="22" t="s">
-        <v>4722</v>
+        <v>4719</v>
       </c>
       <c r="E2075" s="29" t="s">
         <v>22</v>
@@ -70600,22 +70599,22 @@
         <v>15</v>
       </c>
       <c r="H2075" s="22" t="s">
-        <v>4720</v>
+        <v>4717</v>
       </c>
       <c r="I2075" s="20"/>
     </row>
     <row r="2076" spans="1:9" ht="45">
       <c r="A2076" s="22" t="s">
-        <v>4763</v>
+        <v>4760</v>
       </c>
       <c r="B2076" s="24" t="s">
-        <v>4715</v>
+        <v>4712</v>
       </c>
       <c r="C2076" s="20" t="s">
-        <v>4775</v>
+        <v>4772</v>
       </c>
       <c r="D2076" s="22" t="s">
-        <v>4730</v>
+        <v>4727</v>
       </c>
       <c r="E2076" s="29" t="s">
         <v>22</v>
@@ -70627,24 +70626,24 @@
         <v>15</v>
       </c>
       <c r="H2076" s="22" t="s">
-        <v>4719</v>
+        <v>4716</v>
       </c>
       <c r="I2076" s="20" t="s">
-        <v>4721</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="2077" spans="1:9" ht="60">
       <c r="A2077" s="22" t="s">
-        <v>4764</v>
+        <v>4761</v>
       </c>
       <c r="B2077" s="24" t="s">
-        <v>4715</v>
+        <v>4712</v>
       </c>
       <c r="C2077" s="20" t="s">
-        <v>4965</v>
+        <v>4960</v>
       </c>
       <c r="D2077" s="22" t="s">
-        <v>4730</v>
+        <v>4727</v>
       </c>
       <c r="E2077" s="29" t="s">
         <v>22</v>
@@ -70656,22 +70655,22 @@
         <v>15</v>
       </c>
       <c r="H2077" s="22" t="s">
-        <v>4720</v>
+        <v>4717</v>
       </c>
       <c r="I2077" s="20"/>
     </row>
     <row r="2078" spans="1:9" ht="45">
       <c r="A2078" s="22" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B2078" s="24" t="s">
+        <v>4712</v>
+      </c>
+      <c r="C2078" s="20" t="s">
+        <v>4729</v>
+      </c>
+      <c r="D2078" s="22" t="s">
         <v>4728</v>
-      </c>
-      <c r="B2078" s="24" t="s">
-        <v>4715</v>
-      </c>
-      <c r="C2078" s="20" t="s">
-        <v>4732</v>
-      </c>
-      <c r="D2078" s="22" t="s">
-        <v>4731</v>
       </c>
       <c r="E2078" s="29" t="s">
         <v>22</v>
@@ -70683,24 +70682,24 @@
         <v>15</v>
       </c>
       <c r="H2078" s="22" t="s">
-        <v>4719</v>
+        <v>4716</v>
       </c>
       <c r="I2078" s="20" t="s">
-        <v>4721</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="2079" spans="1:9" ht="60">
       <c r="A2079" s="22" t="s">
-        <v>4729</v>
+        <v>4726</v>
       </c>
       <c r="B2079" s="24" t="s">
-        <v>4715</v>
+        <v>4712</v>
       </c>
       <c r="C2079" s="20" t="s">
-        <v>4785</v>
+        <v>4782</v>
       </c>
       <c r="D2079" s="22" t="s">
-        <v>4731</v>
+        <v>4728</v>
       </c>
       <c r="E2079" s="29" t="s">
         <v>22</v>
@@ -70712,22 +70711,22 @@
         <v>15</v>
       </c>
       <c r="H2079" s="22" t="s">
-        <v>4720</v>
+        <v>4717</v>
       </c>
       <c r="I2079" s="20"/>
     </row>
     <row r="2080" spans="1:9" ht="45">
       <c r="A2080" s="22" t="s">
-        <v>4733</v>
+        <v>4730</v>
       </c>
       <c r="B2080" s="24" t="s">
-        <v>4715</v>
+        <v>4712</v>
       </c>
       <c r="C2080" s="20" t="s">
-        <v>4735</v>
+        <v>4732</v>
       </c>
       <c r="D2080" s="22" t="s">
-        <v>4731</v>
+        <v>4728</v>
       </c>
       <c r="E2080" s="29" t="s">
         <v>22</v>
@@ -70739,7 +70738,7 @@
         <v>15</v>
       </c>
       <c r="H2080" s="22" t="s">
-        <v>4720</v>
+        <v>4717</v>
       </c>
       <c r="I2080" s="20"/>
     </row>
@@ -70751,10 +70750,10 @@
         <v>2469</v>
       </c>
       <c r="C2081" s="20" t="s">
-        <v>4776</v>
+        <v>4773</v>
       </c>
       <c r="D2081" s="29" t="s">
-        <v>4346</v>
+        <v>4344</v>
       </c>
       <c r="E2081" s="29" t="s">
         <v>22</v>
@@ -70778,10 +70777,10 @@
         <v>2469</v>
       </c>
       <c r="C2082" s="20" t="s">
-        <v>4777</v>
+        <v>4774</v>
       </c>
       <c r="D2082" s="29" t="s">
-        <v>4346</v>
+        <v>4344</v>
       </c>
       <c r="E2082" s="29" t="s">
         <v>22</v>
@@ -70796,7 +70795,7 @@
         <v>21</v>
       </c>
       <c r="I2082" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2083" spans="1:9" ht="45">
@@ -70810,7 +70809,7 @@
         <v>4217</v>
       </c>
       <c r="D2083" s="29" t="s">
-        <v>4346</v>
+        <v>4344</v>
       </c>
       <c r="E2083" s="29" t="s">
         <v>22</v>
@@ -70825,7 +70824,7 @@
         <v>21</v>
       </c>
       <c r="I2083" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2084" spans="1:9" ht="60">
@@ -70836,10 +70835,10 @@
         <v>2469</v>
       </c>
       <c r="C2084" s="20" t="s">
-        <v>4778</v>
+        <v>4775</v>
       </c>
       <c r="D2084" s="29" t="s">
-        <v>4347</v>
+        <v>4345</v>
       </c>
       <c r="E2084" s="29" t="s">
         <v>22</v>
@@ -70863,10 +70862,10 @@
         <v>2469</v>
       </c>
       <c r="C2085" s="20" t="s">
-        <v>4779</v>
+        <v>4776</v>
       </c>
       <c r="D2085" s="29" t="s">
-        <v>4347</v>
+        <v>4345</v>
       </c>
       <c r="E2085" s="29" t="s">
         <v>22</v>
@@ -70881,7 +70880,7 @@
         <v>21</v>
       </c>
       <c r="I2085" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2086" spans="1:9" ht="45">
@@ -70895,7 +70894,7 @@
         <v>4218</v>
       </c>
       <c r="D2086" s="29" t="s">
-        <v>4347</v>
+        <v>4345</v>
       </c>
       <c r="E2086" s="29" t="s">
         <v>22</v>
@@ -70910,7 +70909,7 @@
         <v>21</v>
       </c>
       <c r="I2086" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2087" spans="1:9" ht="60">
@@ -70921,10 +70920,10 @@
         <v>2469</v>
       </c>
       <c r="C2087" s="20" t="s">
-        <v>4780</v>
+        <v>4777</v>
       </c>
       <c r="D2087" s="29" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="E2087" s="29" t="s">
         <v>22</v>
@@ -70948,10 +70947,10 @@
         <v>2469</v>
       </c>
       <c r="C2088" s="20" t="s">
-        <v>4781</v>
+        <v>4778</v>
       </c>
       <c r="D2088" s="29" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="E2088" s="29" t="s">
         <v>22</v>
@@ -70966,7 +70965,7 @@
         <v>21</v>
       </c>
       <c r="I2088" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2089" spans="1:9" ht="45">
@@ -70980,7 +70979,7 @@
         <v>4219</v>
       </c>
       <c r="D2089" s="29" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="E2089" s="29" t="s">
         <v>22</v>
@@ -71004,10 +71003,10 @@
         <v>2469</v>
       </c>
       <c r="C2090" s="20" t="s">
-        <v>4787</v>
+        <v>4784</v>
       </c>
       <c r="D2090" s="29" t="s">
-        <v>4349</v>
+        <v>4347</v>
       </c>
       <c r="E2090" s="29" t="s">
         <v>22</v>
@@ -71022,7 +71021,7 @@
         <v>21</v>
       </c>
       <c r="I2090" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2091" spans="1:9" ht="45">
@@ -71036,7 +71035,7 @@
         <v>4220</v>
       </c>
       <c r="D2091" s="29" t="s">
-        <v>4349</v>
+        <v>4347</v>
       </c>
       <c r="E2091" s="29" t="s">
         <v>22</v>
@@ -71060,10 +71059,10 @@
         <v>2469</v>
       </c>
       <c r="C2092" s="20" t="s">
-        <v>4788</v>
+        <v>4785</v>
       </c>
       <c r="D2092" s="29" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="E2092" s="29" t="s">
         <v>22</v>
@@ -71078,7 +71077,7 @@
         <v>21</v>
       </c>
       <c r="I2092" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2093" spans="1:9" ht="45">
@@ -71092,7 +71091,7 @@
         <v>4221</v>
       </c>
       <c r="D2093" s="29" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="E2093" s="29" t="s">
         <v>22</v>
@@ -71116,7 +71115,7 @@
         <v>2469</v>
       </c>
       <c r="C2094" s="20" t="s">
-        <v>4790</v>
+        <v>4787</v>
       </c>
       <c r="D2094" s="29"/>
       <c r="E2094" s="29" t="s">
@@ -71132,7 +71131,7 @@
         <v>21</v>
       </c>
       <c r="I2094" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2095" spans="1:9" ht="60">
@@ -71143,10 +71142,10 @@
         <v>2469</v>
       </c>
       <c r="C2095" s="20" t="s">
-        <v>4795</v>
+        <v>4792</v>
       </c>
       <c r="D2095" s="29" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="E2095" s="29" t="s">
         <v>22</v>
@@ -71161,7 +71160,7 @@
         <v>20</v>
       </c>
       <c r="I2095" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2096" spans="1:9" ht="60">
@@ -71172,10 +71171,10 @@
         <v>2469</v>
       </c>
       <c r="C2096" s="20" t="s">
-        <v>4796</v>
+        <v>4793</v>
       </c>
       <c r="D2096" s="29" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="E2096" s="29" t="s">
         <v>22</v>
@@ -71202,7 +71201,7 @@
         <v>4222</v>
       </c>
       <c r="D2097" s="29" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="E2097" s="29" t="s">
         <v>22</v>
@@ -71217,7 +71216,7 @@
         <v>20</v>
       </c>
       <c r="I2097" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2098" spans="1:9" ht="45">
@@ -71228,10 +71227,10 @@
         <v>2469</v>
       </c>
       <c r="C2098" s="20" t="s">
-        <v>4798</v>
+        <v>4795</v>
       </c>
       <c r="D2098" s="29" t="s">
-        <v>4352</v>
+        <v>4350</v>
       </c>
       <c r="E2098" s="29" t="s">
         <v>22</v>
@@ -71258,7 +71257,7 @@
         <v>4223</v>
       </c>
       <c r="D2099" s="29" t="s">
-        <v>4352</v>
+        <v>4350</v>
       </c>
       <c r="E2099" s="29" t="s">
         <v>22</v>
@@ -71273,7 +71272,7 @@
         <v>20</v>
       </c>
       <c r="I2099" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2100" spans="1:9" ht="60">
@@ -71284,10 +71283,10 @@
         <v>2469</v>
       </c>
       <c r="C2100" s="20" t="s">
-        <v>4799</v>
+        <v>4796</v>
       </c>
       <c r="D2100" s="29" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
       <c r="E2100" s="29" t="s">
         <v>22</v>
@@ -71302,7 +71301,7 @@
         <v>20</v>
       </c>
       <c r="I2100" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2101" spans="1:9" ht="60">
@@ -71313,10 +71312,10 @@
         <v>2469</v>
       </c>
       <c r="C2101" s="20" t="s">
-        <v>4800</v>
+        <v>4797</v>
       </c>
       <c r="D2101" s="29" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
       <c r="E2101" s="29" t="s">
         <v>22</v>
@@ -71343,7 +71342,7 @@
         <v>4224</v>
       </c>
       <c r="D2102" s="29" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
       <c r="E2102" s="29" t="s">
         <v>22</v>
@@ -71358,7 +71357,7 @@
         <v>20</v>
       </c>
       <c r="I2102" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2103" spans="1:9" ht="45">
@@ -71369,10 +71368,10 @@
         <v>2469</v>
       </c>
       <c r="C2103" s="20" t="s">
-        <v>4804</v>
+        <v>4801</v>
       </c>
       <c r="D2103" s="29" t="s">
-        <v>4354</v>
+        <v>4352</v>
       </c>
       <c r="E2103" s="29" t="s">
         <v>22</v>
@@ -71399,7 +71398,7 @@
         <v>4225</v>
       </c>
       <c r="D2104" s="29" t="s">
-        <v>4354</v>
+        <v>4352</v>
       </c>
       <c r="E2104" s="29" t="s">
         <v>22</v>
@@ -71414,7 +71413,7 @@
         <v>20</v>
       </c>
       <c r="I2104" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2105" spans="1:9" ht="60">
@@ -71428,7 +71427,7 @@
         <v>4226</v>
       </c>
       <c r="D2105" s="29" t="s">
-        <v>4355</v>
+        <v>4353</v>
       </c>
       <c r="E2105" s="29" t="s">
         <v>22</v>
@@ -71443,7 +71442,7 @@
         <v>20</v>
       </c>
       <c r="I2105" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2106" spans="1:9" ht="60">
@@ -71454,10 +71453,10 @@
         <v>2469</v>
       </c>
       <c r="C2106" s="20" t="s">
-        <v>4808</v>
+        <v>4805</v>
       </c>
       <c r="D2106" s="29" t="s">
-        <v>4355</v>
+        <v>4353</v>
       </c>
       <c r="E2106" s="29" t="s">
         <v>22</v>
@@ -71472,7 +71471,7 @@
         <v>20</v>
       </c>
       <c r="I2106" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2107" spans="1:9" ht="45">
@@ -71483,10 +71482,10 @@
         <v>2469</v>
       </c>
       <c r="C2107" s="20" t="s">
-        <v>4809</v>
+        <v>4806</v>
       </c>
       <c r="D2107" s="29" t="s">
-        <v>4356</v>
+        <v>4354</v>
       </c>
       <c r="E2107" s="29" t="s">
         <v>22</v>
@@ -71513,7 +71512,7 @@
         <v>4227</v>
       </c>
       <c r="D2108" s="29" t="s">
-        <v>4356</v>
+        <v>4354</v>
       </c>
       <c r="E2108" s="29" t="s">
         <v>22</v>
@@ -71528,7 +71527,7 @@
         <v>20</v>
       </c>
       <c r="I2108" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2109" spans="1:9" ht="60">
@@ -71539,10 +71538,10 @@
         <v>2469</v>
       </c>
       <c r="C2109" s="20" t="s">
-        <v>4811</v>
+        <v>4808</v>
       </c>
       <c r="D2109" s="29" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
       <c r="E2109" s="29" t="s">
         <v>22</v>
@@ -71557,7 +71556,7 @@
         <v>20</v>
       </c>
       <c r="I2109" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2110" spans="1:9" ht="60">
@@ -71568,10 +71567,10 @@
         <v>2469</v>
       </c>
       <c r="C2110" s="20" t="s">
-        <v>4812</v>
+        <v>4809</v>
       </c>
       <c r="D2110" s="29" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
       <c r="E2110" s="29" t="s">
         <v>22</v>
@@ -71598,7 +71597,7 @@
         <v>4228</v>
       </c>
       <c r="D2111" s="29" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
       <c r="E2111" s="29" t="s">
         <v>22</v>
@@ -71613,7 +71612,7 @@
         <v>20</v>
       </c>
       <c r="I2111" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2112" spans="1:9" ht="45">
@@ -71624,10 +71623,10 @@
         <v>2469</v>
       </c>
       <c r="C2112" s="20" t="s">
-        <v>4815</v>
+        <v>4812</v>
       </c>
       <c r="D2112" s="29" t="s">
-        <v>4358</v>
+        <v>4356</v>
       </c>
       <c r="E2112" s="29" t="s">
         <v>22</v>
@@ -71654,7 +71653,7 @@
         <v>4229</v>
       </c>
       <c r="D2113" s="29" t="s">
-        <v>4358</v>
+        <v>4356</v>
       </c>
       <c r="E2113" s="29" t="s">
         <v>22</v>
@@ -71669,7 +71668,7 @@
         <v>20</v>
       </c>
       <c r="I2113" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2114" spans="1:9" ht="45">
@@ -71683,7 +71682,7 @@
         <v>4230</v>
       </c>
       <c r="D2114" s="29" t="s">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="E2114" s="29" t="s">
         <v>22</v>
@@ -71698,7 +71697,7 @@
         <v>20</v>
       </c>
       <c r="I2114" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2115" spans="1:9" ht="45">
@@ -71709,10 +71708,10 @@
         <v>2469</v>
       </c>
       <c r="C2115" s="20" t="s">
-        <v>4819</v>
+        <v>4816</v>
       </c>
       <c r="D2115" s="29" t="s">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="E2115" s="29" t="s">
         <v>22</v>
@@ -71727,7 +71726,7 @@
         <v>20</v>
       </c>
       <c r="I2115" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2116" spans="1:9" ht="45">
@@ -71738,10 +71737,10 @@
         <v>2469</v>
       </c>
       <c r="C2116" s="20" t="s">
-        <v>4821</v>
+        <v>4818</v>
       </c>
       <c r="D2116" s="29" t="s">
-        <v>4360</v>
+        <v>4358</v>
       </c>
       <c r="E2116" s="29" t="s">
         <v>22</v>
@@ -71768,7 +71767,7 @@
         <v>4231</v>
       </c>
       <c r="D2117" s="29" t="s">
-        <v>4360</v>
+        <v>4358</v>
       </c>
       <c r="E2117" s="29" t="s">
         <v>22</v>
@@ -71783,7 +71782,7 @@
         <v>20</v>
       </c>
       <c r="I2117" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2118" spans="1:9" ht="45">
@@ -71797,7 +71796,7 @@
         <v>4232</v>
       </c>
       <c r="D2118" s="29" t="s">
-        <v>4361</v>
+        <v>4359</v>
       </c>
       <c r="E2118" s="29" t="s">
         <v>22</v>
@@ -71812,7 +71811,7 @@
         <v>20</v>
       </c>
       <c r="I2118" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2119" spans="1:9" ht="45">
@@ -71823,10 +71822,10 @@
         <v>2469</v>
       </c>
       <c r="C2119" s="20" t="s">
-        <v>4824</v>
+        <v>4821</v>
       </c>
       <c r="D2119" s="29" t="s">
-        <v>4361</v>
+        <v>4359</v>
       </c>
       <c r="E2119" s="29" t="s">
         <v>22</v>
@@ -71841,7 +71840,7 @@
         <v>20</v>
       </c>
       <c r="I2119" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2120" spans="1:9" ht="30">
@@ -71852,7 +71851,7 @@
         <v>2469</v>
       </c>
       <c r="C2120" s="20" t="s">
-        <v>4826</v>
+        <v>4823</v>
       </c>
       <c r="D2120" s="29"/>
       <c r="E2120" s="29" t="s">
@@ -71877,10 +71876,10 @@
         <v>2469</v>
       </c>
       <c r="C2121" s="20" t="s">
-        <v>4828</v>
+        <v>4825</v>
       </c>
       <c r="D2121" s="29" t="s">
-        <v>4362</v>
+        <v>4360</v>
       </c>
       <c r="E2121" s="29" t="s">
         <v>22</v>
@@ -71907,7 +71906,7 @@
         <v>4233</v>
       </c>
       <c r="D2122" s="29" t="s">
-        <v>4362</v>
+        <v>4360</v>
       </c>
       <c r="E2122" s="29" t="s">
         <v>22</v>
@@ -71922,7 +71921,7 @@
         <v>20</v>
       </c>
       <c r="I2122" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2123" spans="1:9" ht="60">
@@ -71933,10 +71932,10 @@
         <v>2469</v>
       </c>
       <c r="C2123" s="20" t="s">
-        <v>4831</v>
+        <v>4828</v>
       </c>
       <c r="D2123" s="29" t="s">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="E2123" s="29" t="s">
         <v>22</v>
@@ -71951,7 +71950,7 @@
         <v>20</v>
       </c>
       <c r="I2123" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2124" spans="1:9" ht="60">
@@ -71962,10 +71961,10 @@
         <v>2469</v>
       </c>
       <c r="C2124" s="20" t="s">
-        <v>4832</v>
+        <v>4829</v>
       </c>
       <c r="D2124" s="29" t="s">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="E2124" s="29" t="s">
         <v>22</v>
@@ -71992,7 +71991,7 @@
         <v>4234</v>
       </c>
       <c r="D2125" s="22" t="s">
-        <v>4661</v>
+        <v>4659</v>
       </c>
       <c r="E2125" s="29" t="s">
         <v>22</v>
@@ -72007,7 +72006,7 @@
         <v>20</v>
       </c>
       <c r="I2125" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2126" spans="1:9" ht="60">
@@ -72018,10 +72017,10 @@
         <v>2469</v>
       </c>
       <c r="C2126" s="20" t="s">
-        <v>4833</v>
+        <v>4830</v>
       </c>
       <c r="D2126" s="29" t="s">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="E2126" s="29" t="s">
         <v>22</v>
@@ -72036,7 +72035,7 @@
         <v>20</v>
       </c>
       <c r="I2126" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2127" spans="1:9" ht="60">
@@ -72047,10 +72046,10 @@
         <v>2469</v>
       </c>
       <c r="C2127" s="20" t="s">
-        <v>4834</v>
+        <v>4831</v>
       </c>
       <c r="D2127" s="29" t="s">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="E2127" s="29" t="s">
         <v>22</v>
@@ -72077,7 +72076,7 @@
         <v>4235</v>
       </c>
       <c r="D2128" s="29" t="s">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="E2128" s="29" t="s">
         <v>22</v>
@@ -72092,7 +72091,7 @@
         <v>20</v>
       </c>
       <c r="I2128" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2129" spans="1:9" ht="45">
@@ -72103,10 +72102,10 @@
         <v>2469</v>
       </c>
       <c r="C2129" s="20" t="s">
-        <v>4837</v>
+        <v>4834</v>
       </c>
       <c r="D2129" s="29" t="s">
-        <v>4365</v>
+        <v>4363</v>
       </c>
       <c r="E2129" s="29" t="s">
         <v>22</v>
@@ -72133,7 +72132,7 @@
         <v>4236</v>
       </c>
       <c r="D2130" s="29" t="s">
-        <v>4365</v>
+        <v>4363</v>
       </c>
       <c r="E2130" s="29" t="s">
         <v>22</v>
@@ -72148,7 +72147,7 @@
         <v>20</v>
       </c>
       <c r="I2130" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2131" spans="1:9" ht="60">
@@ -72159,10 +72158,10 @@
         <v>2469</v>
       </c>
       <c r="C2131" s="20" t="s">
-        <v>4839</v>
+        <v>4836</v>
       </c>
       <c r="D2131" s="29" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="E2131" s="29" t="s">
         <v>22</v>
@@ -72177,7 +72176,7 @@
         <v>20</v>
       </c>
       <c r="I2131" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2132" spans="1:9" ht="60">
@@ -72188,10 +72187,10 @@
         <v>2469</v>
       </c>
       <c r="C2132" s="20" t="s">
-        <v>4840</v>
+        <v>4837</v>
       </c>
       <c r="D2132" s="29" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="E2132" s="29" t="s">
         <v>22</v>
@@ -72218,7 +72217,7 @@
         <v>4237</v>
       </c>
       <c r="D2133" s="29" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="E2133" s="29" t="s">
         <v>22</v>
@@ -72233,7 +72232,7 @@
         <v>20</v>
       </c>
       <c r="I2133" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2134" spans="1:9" ht="45">
@@ -72244,10 +72243,10 @@
         <v>2469</v>
       </c>
       <c r="C2134" s="20" t="s">
-        <v>4844</v>
+        <v>4841</v>
       </c>
       <c r="D2134" s="29" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="E2134" s="29" t="s">
         <v>22</v>
@@ -72274,7 +72273,7 @@
         <v>4238</v>
       </c>
       <c r="D2135" s="29" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="E2135" s="29" t="s">
         <v>22</v>
@@ -72289,7 +72288,7 @@
         <v>20</v>
       </c>
       <c r="I2135" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2136" spans="1:9" ht="60">
@@ -72300,10 +72299,10 @@
         <v>2469</v>
       </c>
       <c r="C2136" s="20" t="s">
-        <v>4845</v>
+        <v>4842</v>
       </c>
       <c r="D2136" s="29" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="E2136" s="29" t="s">
         <v>22</v>
@@ -72318,7 +72317,7 @@
         <v>20</v>
       </c>
       <c r="I2136" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2137" spans="1:9" ht="60">
@@ -72329,10 +72328,10 @@
         <v>2469</v>
       </c>
       <c r="C2137" s="20" t="s">
-        <v>4846</v>
+        <v>4843</v>
       </c>
       <c r="D2137" s="29" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="E2137" s="29" t="s">
         <v>22</v>
@@ -72359,7 +72358,7 @@
         <v>4239</v>
       </c>
       <c r="D2138" s="29" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="E2138" s="29" t="s">
         <v>22</v>
@@ -72374,7 +72373,7 @@
         <v>20</v>
       </c>
       <c r="I2138" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2139" spans="1:9" ht="60">
@@ -72385,10 +72384,10 @@
         <v>2469</v>
       </c>
       <c r="C2139" s="20" t="s">
-        <v>4851</v>
+        <v>4848</v>
       </c>
       <c r="D2139" s="29" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
       <c r="E2139" s="29" t="s">
         <v>22</v>
@@ -72403,7 +72402,7 @@
         <v>20</v>
       </c>
       <c r="I2139" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2140" spans="1:9" ht="60">
@@ -72414,10 +72413,10 @@
         <v>2469</v>
       </c>
       <c r="C2140" s="20" t="s">
-        <v>4852</v>
+        <v>4849</v>
       </c>
       <c r="D2140" s="29" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
       <c r="E2140" s="29" t="s">
         <v>22</v>
@@ -72444,7 +72443,7 @@
         <v>4240</v>
       </c>
       <c r="D2141" s="29" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
       <c r="E2141" s="29" t="s">
         <v>22</v>
@@ -72459,7 +72458,7 @@
         <v>20</v>
       </c>
       <c r="I2141" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2142" spans="1:9" ht="60">
@@ -72470,10 +72469,10 @@
         <v>2469</v>
       </c>
       <c r="C2142" s="20" t="s">
-        <v>4856</v>
+        <v>4853</v>
       </c>
       <c r="D2142" s="29" t="s">
-        <v>4370</v>
+        <v>4368</v>
       </c>
       <c r="E2142" s="29" t="s">
         <v>22</v>
@@ -72488,7 +72487,7 @@
         <v>20</v>
       </c>
       <c r="I2142" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2143" spans="1:9" ht="60">
@@ -72499,10 +72498,10 @@
         <v>2469</v>
       </c>
       <c r="C2143" s="20" t="s">
-        <v>4853</v>
+        <v>4850</v>
       </c>
       <c r="D2143" s="29" t="s">
-        <v>4370</v>
+        <v>4368</v>
       </c>
       <c r="E2143" s="29" t="s">
         <v>22</v>
@@ -72529,7 +72528,7 @@
         <v>4241</v>
       </c>
       <c r="D2144" s="29" t="s">
-        <v>4370</v>
+        <v>4368</v>
       </c>
       <c r="E2144" s="29" t="s">
         <v>22</v>
@@ -72544,7 +72543,7 @@
         <v>20</v>
       </c>
       <c r="I2144" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2145" spans="1:9" ht="60">
@@ -72555,10 +72554,10 @@
         <v>2469</v>
       </c>
       <c r="C2145" s="20" t="s">
-        <v>4858</v>
+        <v>4855</v>
       </c>
       <c r="D2145" s="29" t="s">
-        <v>4371</v>
+        <v>4369</v>
       </c>
       <c r="E2145" s="29" t="s">
         <v>22</v>
@@ -72573,7 +72572,7 @@
         <v>20</v>
       </c>
       <c r="I2145" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2146" spans="1:9" ht="45">
@@ -72587,7 +72586,7 @@
         <v>4242</v>
       </c>
       <c r="D2146" s="29" t="s">
-        <v>4371</v>
+        <v>4369</v>
       </c>
       <c r="E2146" s="29" t="s">
         <v>22</v>
@@ -72602,7 +72601,7 @@
         <v>20</v>
       </c>
       <c r="I2146" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2147" spans="1:9" ht="60">
@@ -72613,10 +72612,10 @@
         <v>2469</v>
       </c>
       <c r="C2147" s="20" t="s">
-        <v>4861</v>
+        <v>4858</v>
       </c>
       <c r="D2147" s="29" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="E2147" s="29" t="s">
         <v>22</v>
@@ -72631,7 +72630,7 @@
         <v>20</v>
       </c>
       <c r="I2147" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2148" spans="1:9" ht="60">
@@ -72642,10 +72641,10 @@
         <v>2469</v>
       </c>
       <c r="C2148" s="20" t="s">
-        <v>4862</v>
+        <v>4859</v>
       </c>
       <c r="D2148" s="29" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="E2148" s="29" t="s">
         <v>22</v>
@@ -72672,7 +72671,7 @@
         <v>4243</v>
       </c>
       <c r="D2149" s="29" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="E2149" s="29" t="s">
         <v>22</v>
@@ -72687,7 +72686,7 @@
         <v>20</v>
       </c>
       <c r="I2149" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2150" spans="1:9" ht="60">
@@ -72698,10 +72697,10 @@
         <v>2469</v>
       </c>
       <c r="C2150" s="20" t="s">
-        <v>4865</v>
+        <v>4862</v>
       </c>
       <c r="D2150" s="29" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
       <c r="E2150" s="29" t="s">
         <v>22</v>
@@ -72716,7 +72715,7 @@
         <v>20</v>
       </c>
       <c r="I2150" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2151" spans="1:9" ht="60">
@@ -72727,10 +72726,10 @@
         <v>2469</v>
       </c>
       <c r="C2151" s="20" t="s">
-        <v>4866</v>
+        <v>4863</v>
       </c>
       <c r="D2151" s="29" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
       <c r="E2151" s="29" t="s">
         <v>22</v>
@@ -72757,7 +72756,7 @@
         <v>4244</v>
       </c>
       <c r="D2152" s="29" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
       <c r="E2152" s="29" t="s">
         <v>22</v>
@@ -72772,7 +72771,7 @@
         <v>20</v>
       </c>
       <c r="I2152" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2153" spans="1:9" ht="45">
@@ -72783,10 +72782,10 @@
         <v>2469</v>
       </c>
       <c r="C2153" s="20" t="s">
-        <v>4868</v>
+        <v>4865</v>
       </c>
       <c r="D2153" s="29" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="E2153" s="29" t="s">
         <v>22</v>
@@ -72813,7 +72812,7 @@
         <v>4245</v>
       </c>
       <c r="D2154" s="29" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="E2154" s="29" t="s">
         <v>22</v>
@@ -72828,7 +72827,7 @@
         <v>20</v>
       </c>
       <c r="I2154" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2155" spans="1:9" ht="60">
@@ -72839,10 +72838,10 @@
         <v>2469</v>
       </c>
       <c r="C2155" s="20" t="s">
-        <v>4871</v>
+        <v>4868</v>
       </c>
       <c r="D2155" s="29" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
       <c r="E2155" s="29" t="s">
         <v>22</v>
@@ -72857,7 +72856,7 @@
         <v>20</v>
       </c>
       <c r="I2155" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2156" spans="1:9" ht="60">
@@ -72868,10 +72867,10 @@
         <v>2469</v>
       </c>
       <c r="C2156" s="20" t="s">
-        <v>4872</v>
+        <v>4869</v>
       </c>
       <c r="D2156" s="29" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
       <c r="E2156" s="29" t="s">
         <v>22</v>
@@ -72898,7 +72897,7 @@
         <v>4246</v>
       </c>
       <c r="D2157" s="29" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
       <c r="E2157" s="29" t="s">
         <v>22</v>
@@ -72913,7 +72912,7 @@
         <v>20</v>
       </c>
       <c r="I2157" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2158" spans="1:9" ht="45">
@@ -72924,10 +72923,10 @@
         <v>2469</v>
       </c>
       <c r="C2158" s="20" t="s">
-        <v>4873</v>
+        <v>4870</v>
       </c>
       <c r="D2158" s="29" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
       <c r="E2158" s="29" t="s">
         <v>22</v>
@@ -72954,7 +72953,7 @@
         <v>4247</v>
       </c>
       <c r="D2159" s="29" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
       <c r="E2159" s="29" t="s">
         <v>22</v>
@@ -72969,7 +72968,7 @@
         <v>20</v>
       </c>
       <c r="I2159" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2160" spans="1:9" ht="60">
@@ -72980,10 +72979,10 @@
         <v>2469</v>
       </c>
       <c r="C2160" s="20" t="s">
-        <v>4877</v>
+        <v>4874</v>
       </c>
       <c r="D2160" s="29" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="E2160" s="29" t="s">
         <v>22</v>
@@ -72998,7 +72997,7 @@
         <v>20</v>
       </c>
       <c r="I2160" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2161" spans="1:9" ht="60">
@@ -73009,10 +73008,10 @@
         <v>2469</v>
       </c>
       <c r="C2161" s="20" t="s">
-        <v>4878</v>
+        <v>4875</v>
       </c>
       <c r="D2161" s="29" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="E2161" s="29" t="s">
         <v>22</v>
@@ -73039,7 +73038,7 @@
         <v>4248</v>
       </c>
       <c r="D2162" s="29" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="E2162" s="29" t="s">
         <v>22</v>
@@ -73054,7 +73053,7 @@
         <v>20</v>
       </c>
       <c r="I2162" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2163" spans="1:9" ht="45">
@@ -73068,7 +73067,7 @@
         <v>4249</v>
       </c>
       <c r="D2163" s="29" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
       <c r="E2163" s="29" t="s">
         <v>22</v>
@@ -73083,7 +73082,7 @@
         <v>20</v>
       </c>
       <c r="I2163" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2164" spans="1:9" ht="45">
@@ -73094,10 +73093,10 @@
         <v>2469</v>
       </c>
       <c r="C2164" s="20" t="s">
-        <v>4880</v>
+        <v>4877</v>
       </c>
       <c r="D2164" s="29" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
       <c r="E2164" s="29" t="s">
         <v>22</v>
@@ -73112,7 +73111,7 @@
         <v>20</v>
       </c>
       <c r="I2164" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2165" spans="1:9" ht="45">
@@ -73123,10 +73122,10 @@
         <v>2469</v>
       </c>
       <c r="C2165" s="20" t="s">
-        <v>4881</v>
+        <v>4878</v>
       </c>
       <c r="D2165" s="29" t="s">
-        <v>4379</v>
+        <v>4377</v>
       </c>
       <c r="E2165" s="29" t="s">
         <v>22</v>
@@ -73150,10 +73149,10 @@
         <v>2469</v>
       </c>
       <c r="C2166" s="20" t="s">
-        <v>4882</v>
+        <v>4879</v>
       </c>
       <c r="D2166" s="29" t="s">
-        <v>4379</v>
+        <v>4377</v>
       </c>
       <c r="E2166" s="29" t="s">
         <v>22</v>
@@ -73180,7 +73179,7 @@
         <v>4250</v>
       </c>
       <c r="D2167" s="29" t="s">
-        <v>4379</v>
+        <v>4377</v>
       </c>
       <c r="E2167" s="29" t="s">
         <v>22</v>
@@ -73195,7 +73194,7 @@
         <v>20</v>
       </c>
       <c r="I2167" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2168" spans="1:9" ht="60">
@@ -73206,10 +73205,10 @@
         <v>2469</v>
       </c>
       <c r="C2168" s="20" t="s">
-        <v>4885</v>
+        <v>4882</v>
       </c>
       <c r="D2168" s="29" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
       <c r="E2168" s="29" t="s">
         <v>22</v>
@@ -73233,10 +73232,10 @@
         <v>2469</v>
       </c>
       <c r="C2169" s="20" t="s">
-        <v>4886</v>
+        <v>4883</v>
       </c>
       <c r="D2169" s="29" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
       <c r="E2169" s="29" t="s">
         <v>22</v>
@@ -73251,7 +73250,7 @@
         <v>20</v>
       </c>
       <c r="I2169" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2170" spans="1:9" ht="45">
@@ -73265,7 +73264,7 @@
         <v>4251</v>
       </c>
       <c r="D2170" s="29" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
       <c r="E2170" s="29" t="s">
         <v>22</v>
@@ -73280,7 +73279,7 @@
         <v>20</v>
       </c>
       <c r="I2170" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2171" spans="1:9" ht="60">
@@ -73291,10 +73290,10 @@
         <v>2469</v>
       </c>
       <c r="C2171" s="20" t="s">
-        <v>4889</v>
+        <v>4886</v>
       </c>
       <c r="D2171" s="29" t="s">
-        <v>4381</v>
+        <v>4379</v>
       </c>
       <c r="E2171" s="29" t="s">
         <v>22</v>
@@ -73309,7 +73308,7 @@
         <v>20</v>
       </c>
       <c r="I2171" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2172" spans="1:9" ht="60">
@@ -73320,10 +73319,10 @@
         <v>2469</v>
       </c>
       <c r="C2172" s="20" t="s">
-        <v>4890</v>
+        <v>4887</v>
       </c>
       <c r="D2172" s="29" t="s">
-        <v>4381</v>
+        <v>4379</v>
       </c>
       <c r="E2172" s="29" t="s">
         <v>22</v>
@@ -73350,7 +73349,7 @@
         <v>4252</v>
       </c>
       <c r="D2173" s="29" t="s">
-        <v>4381</v>
+        <v>4379</v>
       </c>
       <c r="E2173" s="29" t="s">
         <v>22</v>
@@ -73365,7 +73364,7 @@
         <v>20</v>
       </c>
       <c r="I2173" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2174" spans="1:9" ht="45">
@@ -73376,10 +73375,10 @@
         <v>2469</v>
       </c>
       <c r="C2174" s="20" t="s">
-        <v>4892</v>
+        <v>4889</v>
       </c>
       <c r="D2174" s="29" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="E2174" s="29" t="s">
         <v>22</v>
@@ -73406,7 +73405,7 @@
         <v>4253</v>
       </c>
       <c r="D2175" s="29" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="E2175" s="29" t="s">
         <v>22</v>
@@ -73421,7 +73420,7 @@
         <v>20</v>
       </c>
       <c r="I2175" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2176" spans="1:9" ht="60">
@@ -73432,10 +73431,10 @@
         <v>2469</v>
       </c>
       <c r="C2176" s="20" t="s">
-        <v>4893</v>
+        <v>4890</v>
       </c>
       <c r="D2176" s="29" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
       <c r="E2176" s="29" t="s">
         <v>22</v>
@@ -73450,7 +73449,7 @@
         <v>20</v>
       </c>
       <c r="I2176" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2177" spans="1:9" ht="45">
@@ -73464,7 +73463,7 @@
         <v>4254</v>
       </c>
       <c r="D2177" s="29" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
       <c r="E2177" s="29" t="s">
         <v>22</v>
@@ -73479,7 +73478,7 @@
         <v>20</v>
       </c>
       <c r="I2177" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2178" spans="1:9" ht="90">
@@ -73490,10 +73489,10 @@
         <v>2469</v>
       </c>
       <c r="C2178" s="20" t="s">
-        <v>4896</v>
+        <v>4893</v>
       </c>
       <c r="D2178" s="29" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="E2178" s="29" t="s">
         <v>22</v>
@@ -73508,7 +73507,7 @@
         <v>20</v>
       </c>
       <c r="I2178" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2179" spans="1:9" ht="45">
@@ -73522,7 +73521,7 @@
         <v>4255</v>
       </c>
       <c r="D2179" s="29" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="E2179" s="29" t="s">
         <v>22</v>
@@ -73549,7 +73548,7 @@
         <v>4256</v>
       </c>
       <c r="D2180" s="29" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="E2180" s="29" t="s">
         <v>22</v>
@@ -73564,7 +73563,7 @@
         <v>20</v>
       </c>
       <c r="I2180" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2181" spans="1:9" ht="60">
@@ -73575,10 +73574,10 @@
         <v>2469</v>
       </c>
       <c r="C2181" s="20" t="s">
-        <v>4899</v>
+        <v>4896</v>
       </c>
       <c r="D2181" s="29" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="E2181" s="29" t="s">
         <v>22</v>
@@ -73593,7 +73592,7 @@
         <v>20</v>
       </c>
       <c r="I2181" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2182" spans="1:9" ht="45">
@@ -73607,7 +73606,7 @@
         <v>4257</v>
       </c>
       <c r="D2182" s="29" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="E2182" s="29" t="s">
         <v>22</v>
@@ -73622,21 +73621,21 @@
         <v>20</v>
       </c>
       <c r="I2182" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2183" spans="1:9" ht="75">
       <c r="A2183" s="22" t="s">
-        <v>4738</v>
+        <v>4735</v>
       </c>
       <c r="B2183" s="30" t="s">
         <v>2469</v>
       </c>
       <c r="C2183" s="20" t="s">
-        <v>4739</v>
+        <v>4736</v>
       </c>
       <c r="D2183" s="29" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="E2183" s="29" t="s">
         <v>22</v>
@@ -73651,21 +73650,21 @@
         <v>20</v>
       </c>
       <c r="I2183" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2184" spans="1:9" ht="60">
       <c r="A2184" s="22" t="s">
-        <v>4737</v>
+        <v>4734</v>
       </c>
       <c r="B2184" s="30" t="s">
         <v>2469</v>
       </c>
       <c r="C2184" s="20" t="s">
-        <v>4736</v>
+        <v>4733</v>
       </c>
       <c r="D2184" s="29" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="E2184" s="29" t="s">
         <v>22</v>
@@ -73677,7 +73676,7 @@
         <v>15</v>
       </c>
       <c r="H2184" s="22" t="s">
-        <v>4720</v>
+        <v>4717</v>
       </c>
       <c r="I2184" s="31"/>
     </row>
@@ -73689,10 +73688,10 @@
         <v>2469</v>
       </c>
       <c r="C2185" s="20" t="s">
-        <v>4740</v>
+        <v>4737</v>
       </c>
       <c r="D2185" s="29" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="E2185" s="29" t="s">
         <v>22</v>
@@ -73707,21 +73706,21 @@
         <v>20</v>
       </c>
       <c r="I2185" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2186" spans="1:9" ht="47.25" customHeight="1">
       <c r="A2186" s="22" t="s">
-        <v>4748</v>
+        <v>4745</v>
       </c>
       <c r="B2186" s="30" t="s">
         <v>2469</v>
       </c>
       <c r="C2186" s="20" t="s">
-        <v>4903</v>
+        <v>4900</v>
       </c>
       <c r="D2186" s="22" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="E2186" s="36" t="s">
         <v>22</v>
@@ -73739,16 +73738,16 @@
     </row>
     <row r="2187" spans="1:9" ht="45">
       <c r="A2187" s="22" t="s">
-        <v>4747</v>
+        <v>4744</v>
       </c>
       <c r="B2187" s="30" t="s">
         <v>2469</v>
       </c>
       <c r="C2187" s="20" t="s">
-        <v>4904</v>
+        <v>4901</v>
       </c>
       <c r="D2187" s="22" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="E2187" s="29" t="s">
         <v>22</v>
@@ -73763,7 +73762,7 @@
         <v>20</v>
       </c>
       <c r="I2187" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2188" spans="1:9" ht="60">
@@ -73777,7 +73776,7 @@
         <v>4258</v>
       </c>
       <c r="D2188" s="29" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="E2188" s="29" t="s">
         <v>22</v>
@@ -73804,7 +73803,7 @@
         <v>4259</v>
       </c>
       <c r="D2189" s="29" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="E2189" s="29" t="s">
         <v>22</v>
@@ -73819,7 +73818,7 @@
         <v>20</v>
       </c>
       <c r="I2189" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2190" spans="1:9" ht="45">
@@ -73830,10 +73829,10 @@
         <v>2469</v>
       </c>
       <c r="C2190" s="20" t="s">
-        <v>4902</v>
+        <v>4899</v>
       </c>
       <c r="D2190" s="29" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="E2190" s="29" t="s">
         <v>22</v>
@@ -73848,7 +73847,7 @@
         <v>21</v>
       </c>
       <c r="I2190" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2191" spans="1:9" ht="75">
@@ -73862,7 +73861,7 @@
         <v>4260</v>
       </c>
       <c r="D2191" s="29" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="E2191" s="29" t="s">
         <v>22</v>
@@ -73877,7 +73876,7 @@
         <v>20</v>
       </c>
       <c r="I2191" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2192" spans="1:9" ht="60">
@@ -73891,7 +73890,7 @@
         <v>4261</v>
       </c>
       <c r="D2192" s="29" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="E2192" s="29" t="s">
         <v>22</v>
@@ -73918,7 +73917,7 @@
         <v>4262</v>
       </c>
       <c r="D2193" s="29" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="E2193" s="29" t="s">
         <v>22</v>
@@ -73934,7 +73933,7 @@
       </c>
       <c r="I2193" s="31"/>
     </row>
-    <row r="2194" spans="1:9" ht="45">
+    <row r="2194" spans="1:9" ht="60">
       <c r="A2194" s="22" t="s">
         <v>2154</v>
       </c>
@@ -73942,10 +73941,10 @@
         <v>2469</v>
       </c>
       <c r="C2194" s="20" t="s">
-        <v>4907</v>
+        <v>4964</v>
       </c>
       <c r="D2194" s="29" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
       <c r="E2194" s="29" t="s">
         <v>22</v>
@@ -73968,11 +73967,11 @@
       <c r="B2195" s="30" t="s">
         <v>2469</v>
       </c>
-      <c r="C2195" s="31" t="s">
-        <v>4263</v>
+      <c r="C2195" s="20" t="s">
+        <v>4965</v>
       </c>
       <c r="D2195" s="29" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
       <c r="E2195" s="29" t="s">
         <v>22</v>
@@ -73987,7 +73986,7 @@
         <v>20</v>
       </c>
       <c r="I2195" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2196" spans="1:9" ht="75">
@@ -73997,11 +73996,11 @@
       <c r="B2196" s="30" t="s">
         <v>2469</v>
       </c>
-      <c r="C2196" s="31" t="s">
-        <v>4264</v>
+      <c r="C2196" s="20" t="s">
+        <v>4263</v>
       </c>
       <c r="D2196" s="29" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="E2196" s="29" t="s">
         <v>22</v>
@@ -74016,7 +74015,7 @@
         <v>20</v>
       </c>
       <c r="I2196" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2197" spans="1:9" ht="60">
@@ -74027,10 +74026,10 @@
         <v>2469</v>
       </c>
       <c r="C2197" s="31" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="D2197" s="29" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="E2197" s="29" t="s">
         <v>22</v>
@@ -74054,10 +74053,10 @@
         <v>2469</v>
       </c>
       <c r="C2198" s="31" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="D2198" s="29" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="E2198" s="29" t="s">
         <v>22</v>
@@ -74081,10 +74080,10 @@
         <v>2469</v>
       </c>
       <c r="C2199" s="20" t="s">
-        <v>4909</v>
+        <v>4905</v>
       </c>
       <c r="D2199" s="29" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="E2199" s="29" t="s">
         <v>22</v>
@@ -74108,10 +74107,10 @@
         <v>2469</v>
       </c>
       <c r="C2200" s="20" t="s">
-        <v>4910</v>
+        <v>4906</v>
       </c>
       <c r="D2200" s="29" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="E2200" s="29" t="s">
         <v>22</v>
@@ -74126,7 +74125,7 @@
         <v>20</v>
       </c>
       <c r="I2200" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2201" spans="1:9" ht="45">
@@ -74137,10 +74136,10 @@
         <v>2469</v>
       </c>
       <c r="C2201" s="31" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="D2201" s="29" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="E2201" s="29" t="s">
         <v>22</v>
@@ -74164,10 +74163,10 @@
         <v>2469</v>
       </c>
       <c r="C2202" s="20" t="s">
-        <v>4914</v>
+        <v>4910</v>
       </c>
       <c r="D2202" s="29" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="E2202" s="29" t="s">
         <v>22</v>
@@ -74182,7 +74181,7 @@
         <v>20</v>
       </c>
       <c r="I2202" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2203" spans="1:9" ht="60">
@@ -74193,10 +74192,10 @@
         <v>2469</v>
       </c>
       <c r="C2203" s="20" t="s">
-        <v>4915</v>
+        <v>4911</v>
       </c>
       <c r="D2203" s="29" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="E2203" s="29" t="s">
         <v>22</v>
@@ -74220,10 +74219,10 @@
         <v>2469</v>
       </c>
       <c r="C2204" s="31" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="D2204" s="29" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="E2204" s="29" t="s">
         <v>22</v>
@@ -74238,7 +74237,7 @@
         <v>20</v>
       </c>
       <c r="I2204" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2205" spans="1:9" ht="60">
@@ -74249,10 +74248,10 @@
         <v>2469</v>
       </c>
       <c r="C2205" s="20" t="s">
-        <v>4917</v>
+        <v>4913</v>
       </c>
       <c r="D2205" s="29" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="E2205" s="29" t="s">
         <v>22</v>
@@ -74276,10 +74275,10 @@
         <v>2469</v>
       </c>
       <c r="C2206" s="20" t="s">
-        <v>4918</v>
+        <v>4914</v>
       </c>
       <c r="D2206" s="29" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="E2206" s="29" t="s">
         <v>22</v>
@@ -74294,7 +74293,7 @@
         <v>20</v>
       </c>
       <c r="I2206" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2207" spans="1:9" ht="45">
@@ -74305,10 +74304,10 @@
         <v>2469</v>
       </c>
       <c r="C2207" s="31" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="D2207" s="29" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="E2207" s="29" t="s">
         <v>22</v>
@@ -74323,7 +74322,7 @@
         <v>20</v>
       </c>
       <c r="I2207" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2208" spans="1:9" ht="45">
@@ -74334,10 +74333,10 @@
         <v>2469</v>
       </c>
       <c r="C2208" s="20" t="s">
-        <v>4921</v>
+        <v>4917</v>
       </c>
       <c r="D2208" s="29" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
       <c r="E2208" s="29" t="s">
         <v>22</v>
@@ -74361,10 +74360,10 @@
         <v>2469</v>
       </c>
       <c r="C2209" s="31" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="D2209" s="29" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
       <c r="E2209" s="29" t="s">
         <v>22</v>
@@ -74379,7 +74378,7 @@
         <v>20</v>
       </c>
       <c r="I2209" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2210" spans="1:9" ht="60">
@@ -74390,10 +74389,10 @@
         <v>2469</v>
       </c>
       <c r="C2210" s="20" t="s">
-        <v>4923</v>
+        <v>4919</v>
       </c>
       <c r="D2210" s="29" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="E2210" s="29" t="s">
         <v>22</v>
@@ -74408,7 +74407,7 @@
         <v>20</v>
       </c>
       <c r="I2210" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2211" spans="1:9" ht="60">
@@ -74419,10 +74418,10 @@
         <v>2469</v>
       </c>
       <c r="C2211" s="20" t="s">
-        <v>4924</v>
+        <v>4920</v>
       </c>
       <c r="D2211" s="29" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="E2211" s="29" t="s">
         <v>22</v>
@@ -74446,10 +74445,10 @@
         <v>2469</v>
       </c>
       <c r="C2212" s="31" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="D2212" s="29" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="E2212" s="29" t="s">
         <v>22</v>
@@ -74464,7 +74463,7 @@
         <v>20</v>
       </c>
       <c r="I2212" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2213" spans="1:9" ht="75">
@@ -74475,10 +74474,10 @@
         <v>2469</v>
       </c>
       <c r="C2213" s="31" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="D2213" s="29" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="E2213" s="29" t="s">
         <v>22</v>
@@ -74493,7 +74492,7 @@
         <v>20</v>
       </c>
       <c r="I2213" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2214" spans="1:9" ht="30">
@@ -74504,10 +74503,10 @@
         <v>2469</v>
       </c>
       <c r="C2214" s="31" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="D2214" s="29" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="E2214" s="29" t="s">
         <v>22</v>
@@ -74531,10 +74530,10 @@
         <v>2469</v>
       </c>
       <c r="C2215" s="31" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="D2215" s="29" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="E2215" s="29" t="s">
         <v>22</v>
@@ -74558,10 +74557,10 @@
         <v>2469</v>
       </c>
       <c r="C2216" s="31" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="D2216" s="29" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="E2216" s="29" t="s">
         <v>22</v>
@@ -74585,10 +74584,10 @@
         <v>2469</v>
       </c>
       <c r="C2217" s="20" t="s">
-        <v>4926</v>
+        <v>4922</v>
       </c>
       <c r="D2217" s="29" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="E2217" s="29" t="s">
         <v>22</v>
@@ -74603,7 +74602,7 @@
         <v>20</v>
       </c>
       <c r="I2217" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2218" spans="1:9" ht="45">
@@ -74614,10 +74613,10 @@
         <v>2469</v>
       </c>
       <c r="C2218" s="31" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="D2218" s="29" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
       <c r="E2218" s="29" t="s">
         <v>22</v>
@@ -74641,10 +74640,10 @@
         <v>2469</v>
       </c>
       <c r="C2219" s="31" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="D2219" s="29" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
       <c r="E2219" s="29" t="s">
         <v>22</v>
@@ -74668,10 +74667,10 @@
         <v>2469</v>
       </c>
       <c r="C2220" s="31" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="D2220" s="29" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
       <c r="E2220" s="29" t="s">
         <v>22</v>
@@ -74695,10 +74694,10 @@
         <v>2469</v>
       </c>
       <c r="C2221" s="20" t="s">
-        <v>4928</v>
+        <v>4924</v>
       </c>
       <c r="D2221" s="29" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="E2221" s="29" t="s">
         <v>22</v>
@@ -74722,10 +74721,10 @@
         <v>2469</v>
       </c>
       <c r="C2222" s="31" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="D2222" s="29" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="E2222" s="29" t="s">
         <v>22</v>
@@ -74740,7 +74739,7 @@
         <v>20</v>
       </c>
       <c r="I2222" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2223" spans="1:9" ht="45">
@@ -74751,10 +74750,10 @@
         <v>2469</v>
       </c>
       <c r="C2223" s="20" t="s">
-        <v>4930</v>
+        <v>4926</v>
       </c>
       <c r="D2223" s="29" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="E2223" s="29" t="s">
         <v>22</v>
@@ -74769,7 +74768,7 @@
         <v>20</v>
       </c>
       <c r="I2223" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2224" spans="1:9" ht="45">
@@ -74780,10 +74779,10 @@
         <v>2469</v>
       </c>
       <c r="C2224" s="31" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="D2224" s="29" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="E2224" s="29" t="s">
         <v>22</v>
@@ -74798,7 +74797,7 @@
         <v>20</v>
       </c>
       <c r="I2224" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2225" spans="1:9" ht="45">
@@ -74809,10 +74808,10 @@
         <v>2469</v>
       </c>
       <c r="C2225" s="20" t="s">
-        <v>4932</v>
+        <v>4928</v>
       </c>
       <c r="D2225" s="29" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="E2225" s="29" t="s">
         <v>22</v>
@@ -74836,10 +74835,10 @@
         <v>2469</v>
       </c>
       <c r="C2226" s="31" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="D2226" s="29" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="E2226" s="29" t="s">
         <v>22</v>
@@ -74854,7 +74853,7 @@
         <v>20</v>
       </c>
       <c r="I2226" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2227" spans="1:9" ht="60">
@@ -74865,10 +74864,10 @@
         <v>2469</v>
       </c>
       <c r="C2227" s="20" t="s">
-        <v>4935</v>
+        <v>4931</v>
       </c>
       <c r="D2227" s="29" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="E2227" s="29" t="s">
         <v>22</v>
@@ -74883,7 +74882,7 @@
         <v>20</v>
       </c>
       <c r="I2227" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2228" spans="1:9" ht="60">
@@ -74894,10 +74893,10 @@
         <v>2469</v>
       </c>
       <c r="C2228" s="20" t="s">
-        <v>4936</v>
+        <v>4932</v>
       </c>
       <c r="D2228" s="29" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="E2228" s="29" t="s">
         <v>22</v>
@@ -74921,10 +74920,10 @@
         <v>2469</v>
       </c>
       <c r="C2229" s="31" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="D2229" s="29" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="E2229" s="29" t="s">
         <v>22</v>
@@ -74939,7 +74938,7 @@
         <v>20</v>
       </c>
       <c r="I2229" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2230" spans="1:9" ht="45">
@@ -74950,10 +74949,10 @@
         <v>2469</v>
       </c>
       <c r="C2230" s="20" t="s">
-        <v>4938</v>
+        <v>4934</v>
       </c>
       <c r="D2230" s="29" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="E2230" s="29" t="s">
         <v>22</v>
@@ -74977,10 +74976,10 @@
         <v>2469</v>
       </c>
       <c r="C2231" s="31" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="D2231" s="29" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="E2231" s="29" t="s">
         <v>22</v>
@@ -74995,7 +74994,7 @@
         <v>20</v>
       </c>
       <c r="I2231" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2232" spans="1:9" ht="60">
@@ -75006,10 +75005,10 @@
         <v>2469</v>
       </c>
       <c r="C2232" s="20" t="s">
-        <v>4939</v>
+        <v>4935</v>
       </c>
       <c r="D2232" s="29" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
       <c r="E2232" s="29" t="s">
         <v>22</v>
@@ -75024,7 +75023,7 @@
         <v>20</v>
       </c>
       <c r="I2232" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2233" spans="1:9" ht="60">
@@ -75035,10 +75034,10 @@
         <v>2469</v>
       </c>
       <c r="C2233" s="20" t="s">
-        <v>4940</v>
+        <v>4936</v>
       </c>
       <c r="D2233" s="29" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
       <c r="E2233" s="29" t="s">
         <v>22</v>
@@ -75062,10 +75061,10 @@
         <v>2469</v>
       </c>
       <c r="C2234" s="31" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="D2234" s="29" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
       <c r="E2234" s="29" t="s">
         <v>22</v>
@@ -75080,7 +75079,7 @@
         <v>20</v>
       </c>
       <c r="I2234" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2235" spans="1:9" ht="45">
@@ -75091,10 +75090,10 @@
         <v>2469</v>
       </c>
       <c r="C2235" s="20" t="s">
-        <v>4941</v>
+        <v>4937</v>
       </c>
       <c r="D2235" s="29" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
       <c r="E2235" s="29" t="s">
         <v>22</v>
@@ -75118,10 +75117,10 @@
         <v>2469</v>
       </c>
       <c r="C2236" s="31" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="D2236" s="29" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
       <c r="E2236" s="29" t="s">
         <v>22</v>
@@ -75136,7 +75135,7 @@
         <v>20</v>
       </c>
       <c r="I2236" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2237" spans="1:9" ht="60">
@@ -75147,10 +75146,10 @@
         <v>2469</v>
       </c>
       <c r="C2237" s="20" t="s">
-        <v>4945</v>
+        <v>4941</v>
       </c>
       <c r="D2237" s="29" t="s">
-        <v>4410</v>
+        <v>4408</v>
       </c>
       <c r="E2237" s="29" t="s">
         <v>22</v>
@@ -75165,7 +75164,7 @@
         <v>20</v>
       </c>
       <c r="I2237" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2238" spans="1:9" ht="60">
@@ -75176,10 +75175,10 @@
         <v>2469</v>
       </c>
       <c r="C2238" s="20" t="s">
-        <v>4946</v>
+        <v>4942</v>
       </c>
       <c r="D2238" s="29" t="s">
-        <v>4410</v>
+        <v>4408</v>
       </c>
       <c r="E2238" s="29" t="s">
         <v>22</v>
@@ -75203,10 +75202,10 @@
         <v>2469</v>
       </c>
       <c r="C2239" s="31" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="D2239" s="29" t="s">
-        <v>4410</v>
+        <v>4408</v>
       </c>
       <c r="E2239" s="29" t="s">
         <v>22</v>
@@ -75221,7 +75220,7 @@
         <v>20</v>
       </c>
       <c r="I2239" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2240" spans="1:9" ht="60">
@@ -75232,10 +75231,10 @@
         <v>2469</v>
       </c>
       <c r="C2240" s="20" t="s">
-        <v>4949</v>
+        <v>4945</v>
       </c>
       <c r="D2240" s="29" t="s">
-        <v>4411</v>
+        <v>4409</v>
       </c>
       <c r="E2240" s="29" t="s">
         <v>22</v>
@@ -75250,7 +75249,7 @@
         <v>20</v>
       </c>
       <c r="I2240" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2241" spans="1:9" ht="60">
@@ -75261,10 +75260,10 @@
         <v>2469</v>
       </c>
       <c r="C2241" s="20" t="s">
-        <v>4950</v>
+        <v>4946</v>
       </c>
       <c r="D2241" s="29" t="s">
-        <v>4411</v>
+        <v>4409</v>
       </c>
       <c r="E2241" s="29" t="s">
         <v>22</v>
@@ -75288,10 +75287,10 @@
         <v>2469</v>
       </c>
       <c r="C2242" s="31" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="D2242" s="29" t="s">
-        <v>4411</v>
+        <v>4409</v>
       </c>
       <c r="E2242" s="29" t="s">
         <v>22</v>
@@ -75306,21 +75305,21 @@
         <v>20</v>
       </c>
       <c r="I2242" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2243" spans="1:9" ht="60">
       <c r="A2243" s="22" t="s">
-        <v>4677</v>
+        <v>4674</v>
       </c>
       <c r="B2243" s="30" t="s">
         <v>2469</v>
       </c>
       <c r="C2243" s="20" t="s">
-        <v>4955</v>
+        <v>4951</v>
       </c>
       <c r="D2243" s="29" t="s">
-        <v>4412</v>
+        <v>4410</v>
       </c>
       <c r="E2243" s="29" t="s">
         <v>22</v>
@@ -75344,10 +75343,10 @@
         <v>2469</v>
       </c>
       <c r="C2244" s="20" t="s">
-        <v>4956</v>
+        <v>4952</v>
       </c>
       <c r="D2244" s="29" t="s">
-        <v>4412</v>
+        <v>4410</v>
       </c>
       <c r="E2244" s="29" t="s">
         <v>22</v>
@@ -75365,16 +75364,16 @@
     </row>
     <row r="2245" spans="1:9" ht="45">
       <c r="A2245" s="22" t="s">
-        <v>4678</v>
+        <v>4675</v>
       </c>
       <c r="B2245" s="30" t="s">
         <v>2469</v>
       </c>
       <c r="C2245" s="31" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="D2245" s="29" t="s">
-        <v>4412</v>
+        <v>4410</v>
       </c>
       <c r="E2245" s="29" t="s">
         <v>22</v>
@@ -75389,21 +75388,21 @@
         <v>20</v>
       </c>
       <c r="I2245" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2246" spans="1:9" ht="60">
       <c r="A2246" s="22" t="s">
-        <v>4680</v>
+        <v>4677</v>
       </c>
       <c r="B2246" s="30" t="s">
         <v>2469</v>
       </c>
       <c r="C2246" s="31" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="D2246" s="22" t="s">
-        <v>4679</v>
+        <v>4676</v>
       </c>
       <c r="E2246" s="29" t="s">
         <v>22</v>
@@ -75418,7 +75417,7 @@
         <v>20</v>
       </c>
       <c r="I2246" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2247" spans="1:9" ht="60">
@@ -75429,10 +75428,10 @@
         <v>2469</v>
       </c>
       <c r="C2247" s="31" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="D2247" s="29" t="s">
-        <v>4413</v>
+        <v>4411</v>
       </c>
       <c r="E2247" s="29" t="s">
         <v>22</v>
@@ -75447,7 +75446,7 @@
         <v>20</v>
       </c>
       <c r="I2247" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2248" spans="1:9" ht="75">
@@ -75458,10 +75457,10 @@
         <v>2469</v>
       </c>
       <c r="C2248" s="31" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="D2248" s="29" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="E2248" s="29" t="s">
         <v>22</v>
@@ -75476,7 +75475,7 @@
         <v>20</v>
       </c>
       <c r="I2248" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2249" spans="1:9" ht="60">
@@ -75487,10 +75486,10 @@
         <v>2469</v>
       </c>
       <c r="C2249" s="31" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="D2249" s="29" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
       <c r="E2249" s="29" t="s">
         <v>22</v>
@@ -75505,7 +75504,7 @@
         <v>20</v>
       </c>
       <c r="I2249" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2250" spans="1:9" ht="60">
@@ -75516,10 +75515,10 @@
         <v>2469</v>
       </c>
       <c r="C2250" s="31" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="D2250" s="22" t="s">
-        <v>4665</v>
+        <v>4662</v>
       </c>
       <c r="E2250" s="29" t="s">
         <v>22</v>
@@ -75534,7 +75533,7 @@
         <v>20</v>
       </c>
       <c r="I2250" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2251" spans="1:9" ht="60">
@@ -75545,10 +75544,10 @@
         <v>2469</v>
       </c>
       <c r="C2251" s="20" t="s">
-        <v>4957</v>
+        <v>4953</v>
       </c>
       <c r="D2251" s="29" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
       <c r="E2251" s="29" t="s">
         <v>22</v>
@@ -75563,7 +75562,7 @@
         <v>20</v>
       </c>
       <c r="I2251" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2252" spans="1:9" ht="45">
@@ -75574,10 +75573,10 @@
         <v>2469</v>
       </c>
       <c r="C2252" s="31" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="D2252" s="22" t="s">
-        <v>4664</v>
+        <v>4661</v>
       </c>
       <c r="E2252" s="29" t="s">
         <v>22</v>
@@ -75592,7 +75591,7 @@
         <v>20</v>
       </c>
       <c r="I2252" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2253" spans="1:9" ht="45">
@@ -75603,10 +75602,10 @@
         <v>2469</v>
       </c>
       <c r="C2253" s="20" t="s">
-        <v>4959</v>
+        <v>4955</v>
       </c>
       <c r="D2253" s="29" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="E2253" s="29" t="s">
         <v>22</v>
@@ -75630,10 +75629,10 @@
         <v>2469</v>
       </c>
       <c r="C2254" s="20" t="s">
-        <v>4960</v>
+        <v>4956</v>
       </c>
       <c r="D2254" s="29" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="E2254" s="29" t="s">
         <v>22</v>
@@ -75657,10 +75656,10 @@
         <v>2469</v>
       </c>
       <c r="C2255" s="31" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="D2255" s="29" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="E2255" s="29" t="s">
         <v>22</v>
@@ -75675,7 +75674,7 @@
         <v>20</v>
       </c>
       <c r="I2255" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2256" spans="1:9" ht="45">
@@ -75686,10 +75685,10 @@
         <v>2469</v>
       </c>
       <c r="C2256" s="31" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="D2256" s="29" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="E2256" s="29" t="s">
         <v>22</v>
@@ -75704,7 +75703,7 @@
         <v>20</v>
       </c>
       <c r="I2256" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2257" spans="1:9" ht="45">
@@ -75715,10 +75714,10 @@
         <v>2469</v>
       </c>
       <c r="C2257" s="20" t="s">
-        <v>4963</v>
+        <v>4959</v>
       </c>
       <c r="D2257" s="29" t="s">
-        <v>4418</v>
+        <v>4416</v>
       </c>
       <c r="E2257" s="29" t="s">
         <v>22</v>
@@ -75734,7 +75733,7 @@
       </c>
       <c r="I2257" s="31"/>
     </row>
-    <row r="2258" spans="1:9" ht="45">
+    <row r="2258" spans="1:9" ht="60">
       <c r="A2258" s="29" t="s">
         <v>2215</v>
       </c>
@@ -75742,10 +75741,10 @@
         <v>2469</v>
       </c>
       <c r="C2258" s="20" t="s">
-        <v>4964</v>
+        <v>4968</v>
       </c>
       <c r="D2258" s="29" t="s">
-        <v>4418</v>
+        <v>4416</v>
       </c>
       <c r="E2258" s="29" t="s">
         <v>22</v>
@@ -75768,11 +75767,11 @@
       <c r="B2259" s="30" t="s">
         <v>2469</v>
       </c>
-      <c r="C2259" s="31" t="s">
-        <v>4297</v>
+      <c r="C2259" s="20" t="s">
+        <v>4966</v>
       </c>
       <c r="D2259" s="29" t="s">
-        <v>4418</v>
+        <v>4416</v>
       </c>
       <c r="E2259" s="29" t="s">
         <v>22</v>
@@ -75787,21 +75786,21 @@
         <v>20</v>
       </c>
       <c r="I2259" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2260" spans="1:9" ht="45">
       <c r="A2260" s="22" t="s">
-        <v>4662</v>
+        <v>4967</v>
       </c>
       <c r="B2260" s="30" t="s">
         <v>2469</v>
       </c>
       <c r="C2260" s="20" t="s">
-        <v>4298</v>
+        <v>4296</v>
       </c>
       <c r="D2260" s="22" t="s">
-        <v>4663</v>
+        <v>4660</v>
       </c>
       <c r="E2260" s="29" t="s">
         <v>22</v>
@@ -75816,27 +75815,27 @@
         <v>20</v>
       </c>
       <c r="I2260" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2261" spans="1:9" ht="45">
       <c r="A2261" s="22" t="s">
-        <v>4667</v>
+        <v>4664</v>
       </c>
       <c r="B2261" s="33" t="s">
         <v>2469</v>
       </c>
       <c r="C2261" s="34" t="s">
-        <v>4649</v>
+        <v>4647</v>
       </c>
       <c r="D2261" s="22" t="s">
-        <v>4671</v>
+        <v>4668</v>
       </c>
       <c r="E2261" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F2261" s="22" t="s">
-        <v>4668</v>
+        <v>4665</v>
       </c>
       <c r="G2261" s="32" t="s">
         <v>15</v>
@@ -75845,18 +75844,18 @@
         <v>20</v>
       </c>
       <c r="I2261" s="31" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2262" spans="1:9" ht="105">
       <c r="A2262" s="22" t="s">
-        <v>4670</v>
+        <v>4667</v>
       </c>
       <c r="B2262" s="30" t="s">
         <v>2470</v>
       </c>
       <c r="C2262" s="31" t="s">
-        <v>4299</v>
+        <v>4297</v>
       </c>
       <c r="D2262" s="29"/>
       <c r="E2262" s="29" t="s">
@@ -75883,11 +75882,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -75895,6 +75889,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H141 I20:I310 A34:I2262">
@@ -75967,6 +75966,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -76015,15 +76023,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -76039,6 +76038,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -76051,12 +76058,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>